--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{756F7141-E1D5-1649-8AA4-15D098BBC38C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5547AE3B-10BB-F94E-B119-E37A4B547E49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1492,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J72"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -3123,25 +3123,35 @@
         <v>17967.88</v>
       </c>
     </row>
-    <row r="81" spans="9:9" ht="19">
+    <row r="81" spans="9:14" ht="19">
       <c r="I81" s="6"/>
     </row>
-    <row r="83" spans="9:9" ht="19">
+    <row r="83" spans="9:14" ht="19">
       <c r="I83" s="6"/>
-    </row>
-    <row r="85" spans="9:9" ht="19">
+      <c r="L83" s="9">
+        <v>17967.88</v>
+      </c>
+      <c r="M83" s="5">
+        <v>1607.01</v>
+      </c>
+      <c r="N83" s="5">
+        <f>L83+M83</f>
+        <v>19574.89</v>
+      </c>
+    </row>
+    <row r="85" spans="9:14" ht="19">
       <c r="I85" s="6"/>
     </row>
-    <row r="87" spans="9:9" ht="19">
+    <row r="87" spans="9:14" ht="19">
       <c r="I87" s="6"/>
     </row>
-    <row r="89" spans="9:9" ht="19">
+    <row r="89" spans="9:14" ht="19">
       <c r="I89" s="6"/>
     </row>
-    <row r="91" spans="9:9" ht="19">
+    <row r="91" spans="9:14" ht="19">
       <c r="I91" s="6"/>
     </row>
-    <row r="93" spans="9:9" ht="19">
+    <row r="93" spans="9:14" ht="19">
       <c r="I93" s="6"/>
     </row>
   </sheetData>
@@ -3165,7 +3175,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5547AE3B-10BB-F94E-B119-E37A4B547E49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA72117-7F17-6247-8650-B6D24C5F28A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="130">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,6 +527,10 @@
   </si>
   <si>
     <t>郑志刚</t>
+  </si>
+  <si>
+    <t>陈逸逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1156,8 +1160,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K72" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:K72" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K73" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:K73" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="列1" dataDxfId="23"/>
     <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="列3" dataDxfId="22"/>
@@ -1176,8 +1180,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A75:K77" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A75:K77" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A76:K78" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A76:K78" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="9"/>
@@ -1492,10 +1496,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="R71" sqref="R71"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1725,7 +1731,9 @@
         <v>150</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10">
+        <v>50</v>
+      </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="21">
@@ -1749,7 +1757,9 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="K9" s="10">
+        <v>300</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="21">
       <c r="A10" s="10" t="s">
@@ -2917,242 +2927,259 @@
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:13" ht="21">
+      <c r="A73" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10">
+        <v>100</v>
+      </c>
+      <c r="K73" s="10"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="7">
-        <f t="shared" ref="B73:K73" si="0">SUM(B3:B71)</f>
+      <c r="B74" s="7">
+        <f t="shared" ref="B74:K74" si="0">SUM(B3:B71)</f>
         <v>1980</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C74" s="7">
         <f t="shared" si="0"/>
         <v>1166</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D74" s="7">
         <f t="shared" si="0"/>
         <v>12195</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E74" s="7">
         <f t="shared" si="0"/>
         <v>5530</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="7">
         <f t="shared" si="0"/>
         <v>2517</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G74" s="7">
         <f t="shared" si="0"/>
         <v>6563.88</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H74" s="7">
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I74" s="7">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J74" s="7">
+        <f>SUM(J3:J73)</f>
+        <v>1350</v>
+      </c>
+      <c r="K74" s="7">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="K73" s="7">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>69</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G76" s="5">
-        <v>2100</v>
+        <v>17</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G77" s="5">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B78" s="5">
         <v>570</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C78" s="5">
         <v>1080</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D78" s="5">
         <v>0</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E78" s="5">
         <v>3025</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F78" s="5">
         <v>2154</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G78" s="5">
         <v>3200</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H78" s="5">
         <v>3500</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I78" s="5">
         <v>4000</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J78" s="5">
         <v>3555</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="8" t="s">
+    <row r="80" spans="1:13">
+      <c r="A80" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B79" s="8">
-        <f>SUM(B76:B77)</f>
+      <c r="B80" s="8">
+        <f>SUM(B77:B78)</f>
         <v>570</v>
       </c>
-      <c r="C79" s="8">
-        <f t="shared" ref="C79:G79" si="1">SUM(C76:C77)</f>
+      <c r="C80" s="8">
+        <f t="shared" ref="C80:G80" si="1">SUM(C77:C78)</f>
         <v>1080</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E80" s="8">
         <f t="shared" si="1"/>
         <v>3025</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F80" s="8">
         <f t="shared" si="1"/>
         <v>2154</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G80" s="8">
         <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H80" s="8">
         <v>3500</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I80" s="8">
         <v>4000</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J80" s="8">
         <v>3555</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K80" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="9" t="s">
+    <row r="81" spans="1:14">
+      <c r="A81" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="9">
-        <f>B73-B79</f>
+      <c r="B81" s="9">
+        <f>B74-B80</f>
         <v>1410</v>
       </c>
-      <c r="C80" s="9">
-        <f t="shared" ref="C80:G80" si="2">B80+C73-C79</f>
+      <c r="C81" s="9">
+        <f t="shared" ref="C81:K81" si="2">B81+C74-C80</f>
         <v>1496</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <f t="shared" si="2"/>
         <v>13691</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <f t="shared" si="2"/>
         <v>16196</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="9">
         <f t="shared" si="2"/>
         <v>16559</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G81" s="9">
         <f t="shared" si="2"/>
         <v>17822.88</v>
       </c>
-      <c r="H80" s="9">
-        <f>G80+H73-H79</f>
+      <c r="H81" s="9">
+        <f t="shared" si="2"/>
         <v>18022.88</v>
       </c>
-      <c r="I80" s="9">
-        <f>H80+I73-I79</f>
+      <c r="I81" s="9">
+        <f t="shared" si="2"/>
         <v>19522.88</v>
       </c>
-      <c r="J80" s="9">
-        <f>I80+J73-J79</f>
-        <v>17167.88</v>
-      </c>
-      <c r="K80" s="9">
-        <f>J80+K73-K79</f>
-        <v>17967.88</v>
-      </c>
-    </row>
-    <row r="81" spans="9:14" ht="19">
-      <c r="I81" s="6"/>
-    </row>
-    <row r="83" spans="9:14" ht="19">
-      <c r="I83" s="6"/>
-      <c r="L83" s="9">
-        <v>17967.88</v>
-      </c>
-      <c r="M83" s="5">
+      <c r="J81" s="9">
+        <f t="shared" si="2"/>
+        <v>17317.88</v>
+      </c>
+      <c r="K81" s="9">
+        <f t="shared" si="2"/>
+        <v>18417.88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="19">
+      <c r="I82" s="6"/>
+    </row>
+    <row r="84" spans="1:14" ht="19">
+      <c r="I84" s="6"/>
+      <c r="L84" s="9">
+        <v>18117.88</v>
+      </c>
+      <c r="M84" s="5">
         <v>1607.01</v>
       </c>
-      <c r="N83" s="5">
-        <f>L83+M83</f>
-        <v>19574.89</v>
-      </c>
-    </row>
-    <row r="85" spans="9:14" ht="19">
-      <c r="I85" s="6"/>
-    </row>
-    <row r="87" spans="9:14" ht="19">
-      <c r="I87" s="6"/>
-    </row>
-    <row r="89" spans="9:14" ht="19">
-      <c r="I89" s="6"/>
-    </row>
-    <row r="91" spans="9:14" ht="19">
-      <c r="I91" s="6"/>
-    </row>
-    <row r="93" spans="9:14" ht="19">
-      <c r="I93" s="6"/>
+      <c r="N84" s="5">
+        <f>L84+M84</f>
+        <v>19724.89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="19">
+      <c r="I86" s="6"/>
+    </row>
+    <row r="88" spans="1:14" ht="19">
+      <c r="I88" s="6"/>
+    </row>
+    <row r="90" spans="1:14" ht="19">
+      <c r="I90" s="6"/>
+    </row>
+    <row r="92" spans="1:14" ht="19">
+      <c r="I92" s="6"/>
+    </row>
+    <row r="94" spans="1:14" ht="19">
+      <c r="I94" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA72117-7F17-6247-8650-B6D24C5F28A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B61505-68AC-844C-A1FD-E86E04B74203}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="放生随喜" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="126">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旺秀拉姆全家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列1</t>
   </si>
   <si>
@@ -144,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列8</t>
   </si>
   <si>
@@ -284,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 郝向菊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨娜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,9 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列12</t>
-  </si>
-  <si>
     <t>2019.07.27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,16 +455,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列13</t>
-  </si>
-  <si>
     <t>2019.09.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列14</t>
-  </si>
-  <si>
     <t>2019.08.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,6 +509,14 @@
   </si>
   <si>
     <t>陈逸逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭豪鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐秋晧旺秀拉姆全家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,18 +1149,21 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K73" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:K73" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K73">
+    <sortCondition ref="A1:A73"/>
+  </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="列1" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="列3" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="列5" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="列7" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="列8" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="列9" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="列10" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="列11" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="列12" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="列13" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="列14" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1498,10 +1488,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+      <selection pane="topRight" activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1512,134 +1502,106 @@
   <sheetData>
     <row r="1" spans="1:11" hidden="1">
       <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21">
       <c r="A2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>112</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="21">
       <c r="A3" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="10">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
+        <v>300</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10">
+        <v>300</v>
+      </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="10">
-        <v>100</v>
-      </c>
-      <c r="C4" s="10">
-        <v>50</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2010</v>
-      </c>
-      <c r="E4" s="10">
-        <v>50</v>
-      </c>
-      <c r="F4" s="10">
-        <v>60</v>
-      </c>
-      <c r="G4" s="10">
-        <v>50</v>
-      </c>
+      <c r="A4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="10">
+        <v>500</v>
+      </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="21">
       <c r="A5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10">
-        <v>200</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="10">
-        <v>200</v>
-      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10">
+        <v>200</v>
+      </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1647,32 +1609,16 @@
     </row>
     <row r="6" spans="1:11" ht="21">
       <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="10">
-        <v>400</v>
-      </c>
-      <c r="C6" s="10">
-        <v>200</v>
-      </c>
-      <c r="D6" s="10">
-        <v>350</v>
-      </c>
-      <c r="E6" s="10">
-        <v>200</v>
-      </c>
-      <c r="F6" s="10">
-        <v>100</v>
-      </c>
-      <c r="G6" s="10">
-        <v>125</v>
-      </c>
-      <c r="H6" s="10">
-        <v>100</v>
-      </c>
-      <c r="I6" s="10">
-        <v>200</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="10">
         <v>100</v>
       </c>
@@ -1680,180 +1626,116 @@
     </row>
     <row r="7" spans="1:11" ht="21">
       <c r="A7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="10">
-        <v>130</v>
-      </c>
-      <c r="C7" s="10">
-        <v>100</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10">
-        <v>100</v>
-      </c>
-      <c r="F7" s="10">
-        <v>100</v>
-      </c>
-      <c r="G7" s="10">
-        <v>50</v>
-      </c>
-      <c r="H7" s="10">
-        <v>100</v>
-      </c>
-      <c r="I7" s="10">
-        <v>100</v>
-      </c>
-      <c r="J7" s="10">
-        <v>100</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <v>4160</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="21">
       <c r="A8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="10">
-        <v>150</v>
-      </c>
-      <c r="C8" s="10">
-        <v>50</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="10">
-        <v>150</v>
-      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="10">
-        <v>150</v>
-      </c>
-      <c r="H8" s="10">
-        <v>150</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="10">
-        <v>50</v>
-      </c>
+      <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="21">
-      <c r="A9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="10">
-        <v>500</v>
-      </c>
+      <c r="A9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="10">
-        <v>500</v>
-      </c>
-      <c r="E9" s="10">
-        <v>300</v>
-      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="10">
-        <v>200</v>
-      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="10">
+        <v>200</v>
+      </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="10">
-        <v>300</v>
-      </c>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="21">
-      <c r="A10" s="10" t="s">
-        <v>14</v>
+      <c r="A10" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="10">
-        <v>100</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1000</v>
-      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="10">
-        <v>1500</v>
-      </c>
-      <c r="J10" s="10">
-        <v>1000</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="21">
-      <c r="A11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10">
-        <v>500</v>
-      </c>
-      <c r="C11" s="10">
-        <v>666</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="10">
-        <v>500</v>
-      </c>
-      <c r="F11" s="10">
-        <v>500</v>
-      </c>
+      <c r="A11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="10">
-        <v>500</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="10">
-        <v>500</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="21">
-      <c r="A12" s="10" t="s">
-        <v>6</v>
+      <c r="A12" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="10">
-        <v>100</v>
-      </c>
-      <c r="D12" s="10">
-        <v>200</v>
-      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="10">
-        <v>200</v>
-      </c>
+      <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="21">
       <c r="A13" s="10" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="10">
-        <v>55</v>
-      </c>
-      <c r="E13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
+        <v>200</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1863,16 +1745,18 @@
     </row>
     <row r="14" spans="1:11" ht="21">
       <c r="A14" s="10" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="10">
-        <v>20</v>
-      </c>
-      <c r="E14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
+        <v>200</v>
+      </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10">
+        <v>200</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -1897,33 +1781,33 @@
     </row>
     <row r="16" spans="1:11" ht="21">
       <c r="A16" s="10" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="10">
-        <v>4160</v>
-      </c>
+      <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="21">
-      <c r="A17" s="10" t="s">
-        <v>10</v>
+      <c r="A17" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="10">
-        <v>100</v>
-      </c>
+      <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10">
+        <v>50</v>
+      </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -1931,109 +1815,119 @@
     </row>
     <row r="18" spans="1:13" ht="21">
       <c r="A18" s="10" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+        <v>1200</v>
+      </c>
+      <c r="E18" s="10">
+        <v>100</v>
+      </c>
+      <c r="F18" s="10">
+        <v>100</v>
+      </c>
+      <c r="G18" s="10">
+        <v>100</v>
+      </c>
       <c r="H18" s="10">
-        <v>200</v>
-      </c>
-      <c r="I18" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="I18" s="10">
+        <v>100</v>
+      </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" ht="21">
       <c r="A19" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <v>200</v>
-      </c>
+      <c r="G19" s="10">
+        <v>100</v>
+      </c>
+      <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="21">
       <c r="A20" s="10" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="10">
-        <v>1200</v>
-      </c>
-      <c r="E20" s="10">
-        <v>100</v>
-      </c>
-      <c r="F20" s="10">
-        <v>100</v>
-      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="10">
         <v>100</v>
       </c>
-      <c r="H20" s="10">
-        <v>50</v>
-      </c>
-      <c r="I20" s="10">
-        <v>100</v>
-      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" ht="21">
       <c r="A21" s="10" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="10">
-        <v>200</v>
-      </c>
+      <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="10">
+        <v>200</v>
+      </c>
       <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="K21" s="10">
+        <v>800</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="21">
       <c r="A22" s="10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10">
+        <v>100</v>
+      </c>
       <c r="E22" s="10">
         <v>1000</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="F22" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1000</v>
+      </c>
       <c r="H22" s="10">
-        <v>300</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+        <v>1000</v>
+      </c>
+      <c r="I22" s="10">
+        <v>1500</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1000</v>
+      </c>
       <c r="K22" s="10"/>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" ht="21">
-      <c r="A23" s="10" t="s">
-        <v>64</v>
+      <c r="A23" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2041,7 +1935,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -2050,57 +1944,73 @@
     </row>
     <row r="24" spans="1:13" ht="21">
       <c r="A24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="B24" s="10">
+        <v>500</v>
+      </c>
+      <c r="C24" s="10">
+        <v>666</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1000</v>
+      </c>
       <c r="E24" s="10">
-        <v>300</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+        <v>500</v>
+      </c>
+      <c r="F24" s="10">
+        <v>500</v>
+      </c>
+      <c r="G24" s="10">
+        <v>500</v>
+      </c>
       <c r="H24" s="10">
-        <v>300</v>
-      </c>
-      <c r="I24" s="10"/>
+        <v>1000</v>
+      </c>
+      <c r="I24" s="10">
+        <v>500</v>
+      </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13" ht="21">
       <c r="A25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="B25" s="10">
+        <v>500</v>
+      </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10">
+        <v>500</v>
+      </c>
       <c r="E25" s="10">
         <v>300</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10">
+        <v>200</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10">
         <v>300</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10">
-        <v>300</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:13" ht="21">
-      <c r="A26" s="10" t="s">
-        <v>43</v>
+      <c r="A26" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="10">
-        <v>20</v>
-      </c>
+      <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="10">
+        <v>30</v>
+      </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -2109,15 +2019,15 @@
     </row>
     <row r="27" spans="1:13" ht="21">
       <c r="A27" s="10" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="10">
-        <v>10</v>
-      </c>
-      <c r="F27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
+        <v>200</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -2126,16 +2036,16 @@
     </row>
     <row r="28" spans="1:13" ht="21">
       <c r="A28" s="10" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="10">
+        <v>20</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="10">
-        <v>100</v>
-      </c>
+      <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -2143,34 +2053,34 @@
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" ht="21">
-      <c r="A29" s="10" t="s">
-        <v>42</v>
+      <c r="A29" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="10">
-        <v>50</v>
-      </c>
+      <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="10">
+        <v>88.88</v>
+      </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:13" ht="21">
-      <c r="A30" s="10" t="s">
-        <v>35</v>
+      <c r="A30" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="10">
-        <v>100</v>
-      </c>
+      <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="10">
+        <v>200</v>
+      </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -2178,101 +2088,107 @@
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13" ht="21">
-      <c r="A31" s="10" t="s">
-        <v>34</v>
+      <c r="A31" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="10">
-        <v>200</v>
-      </c>
-      <c r="F31" s="10">
-        <v>200</v>
-      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="10">
-        <v>200</v>
-      </c>
-      <c r="H31" s="10">
-        <v>200</v>
-      </c>
-      <c r="I31" s="10">
-        <v>200</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:13" ht="21">
       <c r="A32" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="10">
+        <v>300</v>
+      </c>
       <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="I32" s="10">
+        <v>300</v>
+      </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" ht="21">
       <c r="A33" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F33" s="10"/>
-      <c r="G33" s="10">
-        <v>200</v>
-      </c>
+      <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="10">
-        <v>200</v>
-      </c>
+      <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="21">
       <c r="A34" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B34" s="10">
+        <v>130</v>
+      </c>
+      <c r="C34" s="10">
+        <v>100</v>
+      </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="E34" s="10">
+        <v>100</v>
+      </c>
       <c r="F34" s="10">
-        <v>200</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="G34" s="10">
+        <v>50</v>
+      </c>
+      <c r="H34" s="10">
+        <v>100</v>
+      </c>
+      <c r="I34" s="10">
+        <v>100</v>
+      </c>
+      <c r="J34" s="10">
+        <v>100</v>
+      </c>
+      <c r="K34" s="10">
+        <v>100</v>
+      </c>
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" ht="21">
       <c r="A35" s="10" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10">
-        <v>200</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10">
-        <v>200</v>
-      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10">
+        <v>107</v>
+      </c>
+      <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
@@ -2280,16 +2196,26 @@
     </row>
     <row r="36" spans="1:13" ht="21">
       <c r="A36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="B36" s="10">
+        <v>100</v>
+      </c>
+      <c r="C36" s="10">
+        <v>50</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2010</v>
+      </c>
       <c r="E36" s="10">
-        <v>200</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="F36" s="10">
+        <v>60</v>
+      </c>
+      <c r="G36" s="10">
+        <v>50</v>
+      </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -2297,17 +2223,17 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="21">
-      <c r="A37" s="10" t="s">
-        <v>41</v>
+      <c r="A37" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="10">
-        <v>100</v>
-      </c>
+      <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="10">
+        <v>300</v>
+      </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -2315,16 +2241,16 @@
     </row>
     <row r="38" spans="1:13" ht="21">
       <c r="A38" s="10" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="10">
+        <v>100</v>
+      </c>
       <c r="F38" s="10"/>
-      <c r="G38" s="10">
-        <v>200</v>
-      </c>
+      <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -2332,8 +2258,8 @@
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" ht="21">
-      <c r="A39" s="10" t="s">
-        <v>68</v>
+      <c r="A39" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2341,7 +2267,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -2350,53 +2276,59 @@
     </row>
     <row r="40" spans="1:13" ht="21">
       <c r="A40" s="10" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10">
-        <v>107</v>
-      </c>
-      <c r="G40" s="10"/>
+      <c r="E40" s="10">
+        <v>400</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10">
+        <v>200</v>
+      </c>
       <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="I40" s="10">
+        <v>200</v>
+      </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:13" ht="21">
       <c r="A41" s="10" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10">
-        <v>200</v>
-      </c>
+      <c r="D41" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="10">
-        <v>200</v>
-      </c>
-      <c r="H41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10">
+        <v>200</v>
+      </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+      <c r="K41" s="10">
+        <v>200</v>
+      </c>
       <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="21">
-      <c r="A42" s="11" t="s">
-        <v>79</v>
+      <c r="A42" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="D42" s="10">
+        <v>200</v>
+      </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="10">
-        <v>300</v>
-      </c>
+      <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -2404,7 +2336,7 @@
     </row>
     <row r="43" spans="1:13" ht="21">
       <c r="A43" s="11" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2421,52 +2353,52 @@
       <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="21">
-      <c r="A44" s="11" t="s">
-        <v>81</v>
+      <c r="A44" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="D44" s="10">
+        <v>1000</v>
+      </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="10">
-        <v>200</v>
-      </c>
+      <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="21">
-      <c r="A45" s="11" t="s">
-        <v>82</v>
+      <c r="A45" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="10">
-        <v>200</v>
-      </c>
-      <c r="H45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10">
+        <v>200</v>
+      </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="21">
-      <c r="A46" s="11" t="s">
-        <v>83</v>
+      <c r="A46" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="E46" s="10">
+        <v>100</v>
+      </c>
       <c r="F46" s="10"/>
-      <c r="G46" s="10">
-        <v>200</v>
-      </c>
+      <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -2474,7 +2406,7 @@
     </row>
     <row r="47" spans="1:13" ht="21">
       <c r="A47" s="11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2482,7 +2414,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
@@ -2492,24 +2424,24 @@
     </row>
     <row r="48" spans="1:13" ht="21">
       <c r="A48" s="11" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="10">
-        <v>200</v>
-      </c>
+      <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="I48" s="10">
+        <v>800</v>
+      </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:13" ht="21">
       <c r="A49" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2517,7 +2449,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
@@ -2526,60 +2458,78 @@
     </row>
     <row r="50" spans="1:13" ht="21">
       <c r="A50" s="11" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="10">
-        <v>30</v>
-      </c>
-      <c r="H50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10">
+        <v>100</v>
+      </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" ht="21">
-      <c r="A51" s="11" t="s">
-        <v>88</v>
+      <c r="A51" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="D51" s="10">
+        <v>100</v>
+      </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="10">
-        <v>20</v>
-      </c>
+      <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:13" ht="21">
-      <c r="A52" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="A52" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="10">
+        <v>400</v>
+      </c>
+      <c r="C52" s="10">
+        <v>200</v>
+      </c>
+      <c r="D52" s="10">
+        <v>350</v>
+      </c>
+      <c r="E52" s="10">
+        <v>200</v>
+      </c>
+      <c r="F52" s="10">
+        <v>100</v>
+      </c>
       <c r="G52" s="10">
-        <v>88.88</v>
-      </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
+        <v>125</v>
+      </c>
+      <c r="H52" s="10">
+        <v>100</v>
+      </c>
+      <c r="I52" s="10">
+        <v>200</v>
+      </c>
+      <c r="J52" s="10">
+        <v>100</v>
+      </c>
+      <c r="K52" s="10">
+        <v>100</v>
+      </c>
       <c r="M52" s="6"/>
     </row>
     <row r="53" spans="1:13" ht="21">
       <c r="A53" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2587,7 +2537,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -2596,42 +2546,50 @@
     </row>
     <row r="54" spans="1:13" ht="21">
       <c r="A54" s="11" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="10">
-        <v>50</v>
-      </c>
+      <c r="G54" s="10"/>
       <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
+      <c r="I54" s="10">
+        <v>300</v>
+      </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13" ht="21">
-      <c r="A55" s="11" t="s">
-        <v>92</v>
+      <c r="A55" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="C55" s="10">
+        <v>100</v>
+      </c>
+      <c r="D55" s="10">
+        <v>200</v>
+      </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
+      <c r="I55" s="10">
+        <v>200</v>
+      </c>
       <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
+      <c r="K55" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="56" spans="1:13" ht="21">
       <c r="A56" s="11" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -2639,7 +2597,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -2649,7 +2607,7 @@
     </row>
     <row r="57" spans="1:13" ht="21">
       <c r="A57" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2657,7 +2615,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
@@ -2665,17 +2623,17 @@
       <c r="K57" s="10"/>
     </row>
     <row r="58" spans="1:13" ht="21">
-      <c r="A58" s="11" t="s">
-        <v>95</v>
+      <c r="A58" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
+      <c r="D58" s="10">
+        <v>55</v>
+      </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="10">
-        <v>50</v>
-      </c>
+      <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -2683,8 +2641,8 @@
       <c r="M58" s="6"/>
     </row>
     <row r="59" spans="1:13" ht="21">
-      <c r="A59" s="11" t="s">
-        <v>96</v>
+      <c r="A59" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2692,7 +2650,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
@@ -2700,35 +2658,49 @@
       <c r="K59" s="10"/>
     </row>
     <row r="60" spans="1:13" ht="21">
-      <c r="A60" s="11" t="s">
-        <v>97</v>
+      <c r="A60" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="E60" s="10">
+        <v>200</v>
+      </c>
+      <c r="F60" s="10">
+        <v>200</v>
+      </c>
       <c r="G60" s="10">
-        <v>50</v>
-      </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+        <v>200</v>
+      </c>
+      <c r="H60" s="10">
+        <v>200</v>
+      </c>
+      <c r="I60" s="10">
+        <v>200</v>
+      </c>
       <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
+      <c r="K60" s="10">
+        <v>200</v>
+      </c>
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" ht="21">
-      <c r="A61" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="10"/>
+      <c r="A61" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="10">
+        <v>200</v>
+      </c>
       <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="D61" s="10">
+        <v>200</v>
+      </c>
+      <c r="E61" s="10">
+        <v>100</v>
+      </c>
       <c r="F61" s="10"/>
-      <c r="G61" s="10">
-        <v>50</v>
-      </c>
+      <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -2736,7 +2708,7 @@
     </row>
     <row r="62" spans="1:13" ht="21">
       <c r="A62" s="11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -2744,7 +2716,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
@@ -2754,7 +2726,7 @@
     </row>
     <row r="63" spans="1:13" ht="21">
       <c r="A63" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -2762,7 +2734,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
@@ -2771,7 +2743,7 @@
     </row>
     <row r="64" spans="1:13" ht="21">
       <c r="A64" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2789,76 +2761,76 @@
     </row>
     <row r="65" spans="1:13" ht="21">
       <c r="A65" s="11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="G65" s="10">
+        <v>50</v>
+      </c>
       <c r="H65" s="10"/>
-      <c r="I65" s="10">
-        <v>200</v>
-      </c>
+      <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:13" ht="21">
-      <c r="A66" s="11" t="s">
-        <v>106</v>
+      <c r="A66" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
+      <c r="E66" s="10">
+        <v>10</v>
+      </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
-      <c r="I66" s="10">
-        <v>500</v>
-      </c>
+      <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="6"/>
     </row>
     <row r="67" spans="1:13" ht="21">
       <c r="A67" s="11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="G67" s="10">
+        <v>50</v>
+      </c>
       <c r="H67" s="10"/>
-      <c r="I67" s="10">
-        <v>800</v>
-      </c>
+      <c r="I67" s="10"/>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:13" ht="21">
       <c r="A68" s="11" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="G68" s="10">
+        <v>50</v>
+      </c>
       <c r="H68" s="10"/>
-      <c r="I68" s="10">
-        <v>200</v>
-      </c>
+      <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
     </row>
     <row r="69" spans="1:13" ht="21">
-      <c r="A69" s="11" t="s">
-        <v>108</v>
+      <c r="A69" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -2868,23 +2840,25 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:13" ht="21">
-      <c r="A70" s="11" t="s">
-        <v>78</v>
+      <c r="A70" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
+      <c r="E70" s="10">
+        <v>1000</v>
+      </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
@@ -2892,8 +2866,8 @@
       <c r="M70" s="6"/>
     </row>
     <row r="71" spans="1:13" ht="21">
-      <c r="A71" s="10" t="s">
-        <v>102</v>
+      <c r="A71" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2906,54 +2880,62 @@
         <v>200</v>
       </c>
       <c r="J71" s="10"/>
-      <c r="K71" s="10">
-        <v>800</v>
-      </c>
+      <c r="K71" s="10"/>
     </row>
     <row r="72" spans="1:13" ht="21">
       <c r="A72" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="B72" s="10">
+        <v>150</v>
+      </c>
+      <c r="C72" s="10">
+        <v>50</v>
+      </c>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10">
+      <c r="F72" s="10">
+        <v>150</v>
+      </c>
+      <c r="G72" s="10">
+        <v>150</v>
+      </c>
+      <c r="H72" s="10">
+        <v>150</v>
+      </c>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10">
         <v>50</v>
       </c>
-      <c r="J72" s="10"/>
       <c r="K72" s="10"/>
     </row>
     <row r="73" spans="1:13" ht="21">
       <c r="A73" s="10" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
+      <c r="E73" s="10">
+        <v>50</v>
+      </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
-      <c r="J73" s="10">
-        <v>100</v>
-      </c>
+      <c r="J73" s="10"/>
       <c r="K73" s="10"/>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74" s="7">
-        <f t="shared" ref="B74:K74" si="0">SUM(B3:B71)</f>
+        <f>SUM(B2:B73)</f>
         <v>1980</v>
       </c>
       <c r="C74" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C74:K74" si="0">SUM(C2:C73)</f>
         <v>1166</v>
       </c>
       <c r="D74" s="7">
@@ -2978,55 +2960,55 @@
       </c>
       <c r="I74" s="7">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>5550</v>
       </c>
       <c r="J74" s="7">
-        <f>SUM(J3:J73)</f>
+        <f t="shared" si="0"/>
         <v>1350</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="F76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="H76" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G77" s="5">
         <v>2100</v>
@@ -3034,7 +3016,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B78" s="5">
         <v>570</v>
@@ -3066,7 +3048,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80" s="8">
         <f>SUM(B77:B78)</f>
@@ -3107,7 +3089,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B81" s="9">
         <f>B74-B80</f>
@@ -3139,15 +3121,15 @@
       </c>
       <c r="I81" s="9">
         <f t="shared" si="2"/>
-        <v>19522.88</v>
+        <v>19572.88</v>
       </c>
       <c r="J81" s="9">
         <f t="shared" si="2"/>
-        <v>17317.88</v>
+        <v>17367.88</v>
       </c>
       <c r="K81" s="9">
         <f t="shared" si="2"/>
-        <v>18417.88</v>
+        <v>19467.88</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="19">
@@ -3156,14 +3138,14 @@
     <row r="84" spans="1:14" ht="19">
       <c r="I84" s="6"/>
       <c r="L84" s="9">
-        <v>18117.88</v>
+        <v>19367.88</v>
       </c>
       <c r="M84" s="5">
-        <v>1607.01</v>
+        <v>1807.01</v>
       </c>
       <c r="N84" s="5">
-        <f>L84+M84</f>
-        <v>19724.89</v>
+        <f>K81+M84</f>
+        <v>21274.89</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="19">
@@ -3202,7 +3184,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3212,36 +3194,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1"/>
     <row r="3" spans="1:5">
       <c r="A3" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B4" s="13">
         <v>50</v>
@@ -3250,7 +3232,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B5" s="13">
         <v>40</v>
@@ -3264,7 +3246,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B6" s="13">
         <v>50</v>
@@ -3273,7 +3255,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B7" s="13">
         <v>50</v>
@@ -3282,7 +3264,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13">
@@ -3294,7 +3276,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -3304,7 +3286,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13">
@@ -3313,7 +3295,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -3323,7 +3305,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -3333,7 +3315,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -3343,11 +3325,14 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13">
         <v>300</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3357,7 +3342,7 @@
     </row>
     <row r="16" spans="1:5" s="12" customFormat="1">
       <c r="A16" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B16" s="12">
         <f>SUM(B4:B14)</f>
@@ -3373,12 +3358,12 @@
       </c>
       <c r="E16" s="12">
         <f>SUM(E2:E14)</f>
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="18">
       <c r="A17" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="8">
         <v>74</v>
@@ -3395,7 +3380,7 @@
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18">
       <c r="A18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="9">
         <f>B16-B17</f>
@@ -3411,7 +3396,7 @@
       </c>
       <c r="E18" s="9">
         <f>D18+E16-E17</f>
-        <v>1607.01</v>
+        <v>1807.01</v>
       </c>
     </row>
   </sheetData>
@@ -3435,58 +3420,58 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17">
       <c r="A8" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B61505-68AC-844C-A1FD-E86E04B74203}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5B63D2-1179-754B-BFCD-4D339AD21E36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="放生随喜" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,6 +517,14 @@
   </si>
   <si>
     <t>徐秋晧旺秀拉姆全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明坤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1147,10 +1155,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K73" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:K73" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K73">
-    <sortCondition ref="A1:A73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K75" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:K75" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K75">
+    <sortCondition ref="A1:A75"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="23"/>
@@ -1170,8 +1178,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A76:K78" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A76:K78" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A78:K80" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A78:K80" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="9"/>
@@ -1486,12 +1494,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="L72" sqref="L72"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -2071,25 +2079,24 @@
     </row>
     <row r="30" spans="1:13" ht="21">
       <c r="A30" s="11" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="10">
-        <v>200</v>
-      </c>
+      <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="M30" s="6"/>
+      <c r="K30" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="21">
       <c r="A31" s="11" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2097,517 +2104,517 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
+      <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="21">
-      <c r="A32" s="10" t="s">
-        <v>31</v>
+      <c r="A32" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="10">
-        <v>300</v>
-      </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H32" s="10"/>
-      <c r="I32" s="10">
-        <v>300</v>
-      </c>
+      <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" ht="21">
       <c r="A33" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="G33" s="10">
+        <v>300</v>
+      </c>
       <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="I33" s="10">
+        <v>300</v>
+      </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
+      <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" ht="21">
       <c r="A34" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="10">
-        <v>130</v>
-      </c>
-      <c r="C34" s="10">
-        <v>100</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10">
         <v>100</v>
       </c>
-      <c r="F34" s="10">
-        <v>100</v>
-      </c>
-      <c r="G34" s="10">
-        <v>50</v>
-      </c>
-      <c r="H34" s="10">
-        <v>100</v>
-      </c>
-      <c r="I34" s="10">
-        <v>100</v>
-      </c>
-      <c r="J34" s="10">
-        <v>100</v>
-      </c>
-      <c r="K34" s="10">
-        <v>100</v>
-      </c>
-      <c r="M34" s="6"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:13" ht="21">
       <c r="A35" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B35" s="10">
+        <v>130</v>
+      </c>
+      <c r="C35" s="10">
+        <v>100</v>
+      </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10">
+        <v>100</v>
+      </c>
       <c r="F35" s="10">
-        <v>107</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="G35" s="10">
+        <v>50</v>
+      </c>
+      <c r="H35" s="10">
+        <v>100</v>
+      </c>
+      <c r="I35" s="10">
+        <v>100</v>
+      </c>
+      <c r="J35" s="10">
+        <v>100</v>
+      </c>
+      <c r="K35" s="10">
+        <v>100</v>
+      </c>
+      <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="21">
       <c r="A36" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="10">
-        <v>100</v>
-      </c>
-      <c r="C36" s="10">
-        <v>50</v>
-      </c>
-      <c r="D36" s="10">
-        <v>2010</v>
-      </c>
-      <c r="E36" s="10">
-        <v>50</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="10">
-        <v>60</v>
-      </c>
-      <c r="G36" s="10">
-        <v>50</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
-      <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="21">
-      <c r="A37" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="10">
+        <v>100</v>
+      </c>
+      <c r="C37" s="10">
+        <v>50</v>
+      </c>
+      <c r="D37" s="10">
+        <v>2010</v>
+      </c>
+      <c r="E37" s="10">
+        <v>50</v>
+      </c>
+      <c r="F37" s="10">
+        <v>60</v>
+      </c>
       <c r="G37" s="10">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
+      <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="21">
-      <c r="A38" s="10" t="s">
-        <v>39</v>
+      <c r="A38" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="10">
-        <v>100</v>
-      </c>
+      <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="10">
+        <v>300</v>
+      </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-      <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" ht="21">
-      <c r="A39" s="11" t="s">
-        <v>80</v>
+      <c r="A39" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="E39" s="10">
+        <v>100</v>
+      </c>
       <c r="F39" s="10"/>
-      <c r="G39" s="10">
-        <v>200</v>
-      </c>
+      <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
+      <c r="M39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="21">
-      <c r="A40" s="10" t="s">
-        <v>36</v>
+      <c r="A40" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="10">
-        <v>400</v>
-      </c>
+      <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10">
         <v>200</v>
       </c>
       <c r="H40" s="10"/>
-      <c r="I40" s="10">
-        <v>200</v>
-      </c>
+      <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:13" ht="21">
       <c r="A41" s="10" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="10">
-        <v>1000</v>
-      </c>
-      <c r="E41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10">
+        <v>400</v>
+      </c>
       <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10">
-        <v>200</v>
-      </c>
-      <c r="I41" s="10"/>
+      <c r="G41" s="10">
+        <v>200</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10">
+        <v>200</v>
+      </c>
       <c r="J41" s="10"/>
-      <c r="K41" s="10">
-        <v>200</v>
-      </c>
-      <c r="M41" s="6"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:13" ht="21">
       <c r="A42" s="10" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="H42" s="10">
+        <v>200</v>
+      </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
+      <c r="K42" s="10">
+        <v>200</v>
+      </c>
+      <c r="M42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="21">
-      <c r="A43" s="11" t="s">
-        <v>97</v>
+      <c r="A43" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="D43" s="10">
+        <v>200</v>
+      </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="10">
-        <v>200</v>
-      </c>
+      <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
-      <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="21">
-      <c r="A44" s="10" t="s">
-        <v>13</v>
+      <c r="A44" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="10">
-        <v>1000</v>
-      </c>
+      <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="G44" s="10">
+        <v>200</v>
+      </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
+      <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="21">
       <c r="A45" s="10" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="D45" s="10">
+        <v>1000</v>
+      </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="10">
-        <v>200</v>
-      </c>
+      <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
-      <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="21">
       <c r="A46" s="10" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
-      <c r="E46" s="10">
-        <v>100</v>
-      </c>
+      <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="H46" s="10">
+        <v>200</v>
+      </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
+      <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="21">
-      <c r="A47" s="11" t="s">
-        <v>91</v>
+      <c r="A47" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="E47" s="10">
+        <v>100</v>
+      </c>
       <c r="F47" s="10"/>
-      <c r="G47" s="10">
-        <v>50</v>
-      </c>
+      <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
-      <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:13" ht="21">
       <c r="A48" s="11" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="G48" s="10">
+        <v>50</v>
+      </c>
       <c r="H48" s="10"/>
-      <c r="I48" s="10">
-        <v>800</v>
-      </c>
+      <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
+      <c r="M48" s="6"/>
     </row>
     <row r="49" spans="1:13" ht="21">
       <c r="A49" s="11" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="10">
-        <v>50</v>
-      </c>
+      <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
+      <c r="I49" s="10">
+        <v>800</v>
+      </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:13" ht="21">
       <c r="A50" s="11" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10">
-        <v>100</v>
-      </c>
+      <c r="G50" s="10">
+        <v>50</v>
+      </c>
+      <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
-      <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" ht="21">
-      <c r="A51" s="10" t="s">
-        <v>10</v>
+      <c r="A51" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="10">
-        <v>100</v>
-      </c>
+      <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="H51" s="10">
+        <v>100</v>
+      </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
+      <c r="M51" s="6"/>
     </row>
     <row r="52" spans="1:13" ht="21">
       <c r="A52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10">
+        <v>100</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:13" ht="21">
+      <c r="A53" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B53" s="10">
         <v>400</v>
       </c>
-      <c r="C52" s="10">
-        <v>200</v>
-      </c>
-      <c r="D52" s="10">
+      <c r="C53" s="10">
+        <v>200</v>
+      </c>
+      <c r="D53" s="10">
         <v>350</v>
       </c>
-      <c r="E52" s="10">
-        <v>200</v>
-      </c>
-      <c r="F52" s="10">
+      <c r="E53" s="10">
+        <v>200</v>
+      </c>
+      <c r="F53" s="10">
         <v>100</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G53" s="10">
         <v>125</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H53" s="10">
         <v>100</v>
       </c>
-      <c r="I52" s="10">
-        <v>200</v>
-      </c>
-      <c r="J52" s="10">
+      <c r="I53" s="10">
+        <v>200</v>
+      </c>
+      <c r="J53" s="10">
         <v>100</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K53" s="10">
         <v>100</v>
       </c>
-      <c r="M52" s="6"/>
-    </row>
-    <row r="53" spans="1:13" ht="21">
-      <c r="A53" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10">
-        <v>200</v>
-      </c>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
+      <c r="M53" s="6"/>
     </row>
     <row r="54" spans="1:13" ht="21">
       <c r="A54" s="11" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="G54" s="10">
+        <v>200</v>
+      </c>
       <c r="H54" s="10"/>
-      <c r="I54" s="10">
-        <v>300</v>
-      </c>
+      <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
-      <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13" ht="21">
-      <c r="A55" s="10" t="s">
-        <v>6</v>
+      <c r="A55" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="10">
-        <v>100</v>
-      </c>
-      <c r="D55" s="10">
-        <v>200</v>
-      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="10">
-        <v>100</v>
-      </c>
+      <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J55" s="10"/>
-      <c r="K55" s="10">
-        <v>200</v>
-      </c>
+      <c r="K55" s="10"/>
+      <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" ht="21">
-      <c r="A56" s="11" t="s">
-        <v>79</v>
+      <c r="A56" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="C56" s="10">
+        <v>100</v>
+      </c>
+      <c r="D56" s="10">
+        <v>200</v>
+      </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
+      <c r="I56" s="10">
+        <v>200</v>
+      </c>
       <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="M56" s="6"/>
+      <c r="K56" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="57" spans="1:13" ht="21">
       <c r="A57" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2621,121 +2628,122 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
+      <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" ht="21">
-      <c r="A58" s="10" t="s">
-        <v>8</v>
+      <c r="A58" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
-      <c r="D58" s="10">
-        <v>55</v>
-      </c>
+      <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="G58" s="10">
+        <v>200</v>
+      </c>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
-      <c r="M58" s="6"/>
     </row>
     <row r="59" spans="1:13" ht="21">
       <c r="A59" s="10" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="D59" s="10">
+        <v>55</v>
+      </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="10">
-        <v>200</v>
-      </c>
+      <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
+      <c r="M59" s="6"/>
     </row>
     <row r="60" spans="1:13" ht="21">
       <c r="A60" s="10" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="10">
-        <v>200</v>
-      </c>
-      <c r="F60" s="10">
-        <v>200</v>
-      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
       <c r="G60" s="10">
         <v>200</v>
       </c>
-      <c r="H60" s="10">
-        <v>200</v>
-      </c>
-      <c r="I60" s="10">
-        <v>200</v>
-      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
       <c r="J60" s="10"/>
-      <c r="K60" s="10">
-        <v>200</v>
-      </c>
-      <c r="M60" s="6"/>
+      <c r="K60" s="10"/>
     </row>
     <row r="61" spans="1:13" ht="21">
       <c r="A61" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="10">
-        <v>200</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B61" s="10"/>
       <c r="C61" s="10"/>
-      <c r="D61" s="10">
-        <v>200</v>
-      </c>
+      <c r="D61" s="10"/>
       <c r="E61" s="10">
-        <v>100</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
+        <v>200</v>
+      </c>
+      <c r="F61" s="10">
+        <v>200</v>
+      </c>
+      <c r="G61" s="10">
+        <v>200</v>
+      </c>
+      <c r="H61" s="10">
+        <v>200</v>
+      </c>
+      <c r="I61" s="10">
+        <v>200</v>
+      </c>
       <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
+      <c r="K61" s="10">
+        <v>200</v>
+      </c>
+      <c r="M61" s="6"/>
     </row>
     <row r="62" spans="1:13" ht="21">
-      <c r="A62" s="11" t="s">
-        <v>90</v>
+      <c r="A62" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="10">
-        <v>50</v>
-      </c>
+      <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
+      <c r="K62" s="10">
+        <v>100</v>
+      </c>
       <c r="M62" s="6"/>
     </row>
     <row r="63" spans="1:13" ht="21">
-      <c r="A63" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="10"/>
+      <c r="A63" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="10">
+        <v>200</v>
+      </c>
       <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
+      <c r="D63" s="10">
+        <v>200</v>
+      </c>
+      <c r="E63" s="10">
+        <v>100</v>
+      </c>
       <c r="F63" s="10"/>
-      <c r="G63" s="10">
-        <v>50</v>
-      </c>
+      <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -2743,7 +2751,7 @@
     </row>
     <row r="64" spans="1:13" ht="21">
       <c r="A64" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2761,7 +2769,7 @@
     </row>
     <row r="65" spans="1:13" ht="21">
       <c r="A65" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -2777,26 +2785,26 @@
       <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:13" ht="21">
-      <c r="A66" s="10" t="s">
-        <v>42</v>
+      <c r="A66" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="10">
-        <v>10</v>
-      </c>
+      <c r="E66" s="10"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="G66" s="10">
+        <v>50</v>
+      </c>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
-      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
     </row>
     <row r="67" spans="1:13" ht="21">
       <c r="A67" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -2812,62 +2820,60 @@
       <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:13" ht="21">
-      <c r="A68" s="11" t="s">
-        <v>92</v>
+      <c r="A68" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
+      <c r="E68" s="10">
+        <v>10</v>
+      </c>
       <c r="F68" s="10"/>
-      <c r="G68" s="10">
-        <v>50</v>
-      </c>
+      <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
+      <c r="L68" s="6"/>
     </row>
     <row r="69" spans="1:13" ht="21">
-      <c r="A69" s="10" t="s">
-        <v>121</v>
+      <c r="A69" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="G69" s="10">
+        <v>50</v>
+      </c>
       <c r="H69" s="10"/>
-      <c r="I69" s="10">
-        <v>50</v>
-      </c>
+      <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:13" ht="21">
-      <c r="A70" s="10" t="s">
-        <v>34</v>
+      <c r="A70" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
-      <c r="E70" s="10">
-        <v>1000</v>
-      </c>
+      <c r="E70" s="10"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10">
-        <v>300</v>
-      </c>
+      <c r="G70" s="10">
+        <v>50</v>
+      </c>
+      <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
-      <c r="M70" s="6"/>
     </row>
     <row r="71" spans="1:13" ht="21">
-      <c r="A71" s="11" t="s">
-        <v>101</v>
+      <c r="A71" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2877,279 +2883,313 @@
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
     </row>
     <row r="72" spans="1:13" ht="21">
       <c r="A72" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B72" s="10">
-        <v>150</v>
-      </c>
-      <c r="C72" s="10">
-        <v>50</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
       <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10">
-        <v>150</v>
-      </c>
-      <c r="G72" s="10">
-        <v>150</v>
-      </c>
+      <c r="E72" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
       <c r="H72" s="10">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I72" s="10"/>
-      <c r="J72" s="10">
-        <v>50</v>
-      </c>
+      <c r="J72" s="10"/>
       <c r="K72" s="10"/>
+      <c r="M72" s="6"/>
     </row>
     <row r="73" spans="1:13" ht="21">
-      <c r="A73" s="10" t="s">
-        <v>40</v>
+      <c r="A73" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="10">
-        <v>50</v>
-      </c>
+      <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
+      <c r="I73" s="10">
+        <v>200</v>
+      </c>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="7" t="s">
+    <row r="74" spans="1:13" ht="21">
+      <c r="A74" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="10">
+        <v>150</v>
+      </c>
+      <c r="C74" s="10">
+        <v>50</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10">
+        <v>150</v>
+      </c>
+      <c r="G74" s="10">
+        <v>150</v>
+      </c>
+      <c r="H74" s="10">
+        <v>150</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10">
+        <v>50</v>
+      </c>
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="1:13" ht="21">
+      <c r="A75" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10">
+        <v>50</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="7">
-        <f>SUM(B2:B73)</f>
+      <c r="B76" s="7">
+        <f>SUM(B2:B75)</f>
         <v>1980</v>
       </c>
-      <c r="C74" s="7">
-        <f t="shared" ref="C74:K74" si="0">SUM(C2:C73)</f>
+      <c r="C76" s="7">
+        <f t="shared" ref="C76:K76" si="0">SUM(C2:C75)</f>
         <v>1166</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D76" s="7">
         <f t="shared" si="0"/>
         <v>12195</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E76" s="7">
         <f t="shared" si="0"/>
         <v>5530</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F76" s="7">
         <f t="shared" si="0"/>
         <v>2517</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G76" s="7">
         <f t="shared" si="0"/>
         <v>6563.88</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H76" s="7">
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I76" s="7">
         <f t="shared" si="0"/>
         <v>5550</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J76" s="7">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K76" s="7">
         <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G77" s="5">
-        <v>2100</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G79" s="5">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B80" s="5">
         <v>570</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C80" s="5">
         <v>1080</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D80" s="5">
         <v>0</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E80" s="5">
         <v>3025</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F80" s="5">
         <v>2154</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G80" s="5">
         <v>3200</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H80" s="5">
         <v>3500</v>
       </c>
-      <c r="I78" s="5">
+      <c r="I80" s="5">
         <v>4000</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J80" s="5">
         <v>3555</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="8" t="s">
+    <row r="82" spans="1:14">
+      <c r="A82" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="8">
-        <f>SUM(B77:B78)</f>
+      <c r="B82" s="8">
+        <f>SUM(B79:B80)</f>
         <v>570</v>
       </c>
-      <c r="C80" s="8">
-        <f t="shared" ref="C80:G80" si="1">SUM(C77:C78)</f>
+      <c r="C82" s="8">
+        <f t="shared" ref="C82:G82" si="1">SUM(C79:C80)</f>
         <v>1080</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D82" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E82" s="8">
         <f t="shared" si="1"/>
         <v>3025</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F82" s="8">
         <f t="shared" si="1"/>
         <v>2154</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G82" s="8">
         <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H82" s="8">
         <v>3500</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I82" s="8">
         <v>4000</v>
       </c>
-      <c r="J80" s="8">
+      <c r="J82" s="8">
         <v>3555</v>
       </c>
-      <c r="K80" s="8">
+      <c r="K82" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="9" t="s">
+    <row r="83" spans="1:14">
+      <c r="A83" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="9">
-        <f>B74-B80</f>
+      <c r="B83" s="9">
+        <f>B76-B82</f>
         <v>1410</v>
       </c>
-      <c r="C81" s="9">
-        <f t="shared" ref="C81:K81" si="2">B81+C74-C80</f>
+      <c r="C83" s="9">
+        <f t="shared" ref="C83:K83" si="2">B83+C76-C82</f>
         <v>1496</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D83" s="9">
         <f t="shared" si="2"/>
         <v>13691</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E83" s="9">
         <f t="shared" si="2"/>
         <v>16196</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F83" s="9">
         <f t="shared" si="2"/>
         <v>16559</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G83" s="9">
         <f t="shared" si="2"/>
         <v>17822.88</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H83" s="9">
         <f t="shared" si="2"/>
         <v>18022.88</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I83" s="9">
         <f t="shared" si="2"/>
         <v>19572.88</v>
       </c>
-      <c r="J81" s="9">
+      <c r="J83" s="9">
         <f t="shared" si="2"/>
         <v>17367.88</v>
       </c>
-      <c r="K81" s="9">
+      <c r="K83" s="9">
         <f t="shared" si="2"/>
-        <v>19467.88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="19">
-      <c r="I82" s="6"/>
+        <v>19767.88</v>
+      </c>
     </row>
     <row r="84" spans="1:14" ht="19">
       <c r="I84" s="6"/>
-      <c r="L84" s="9">
-        <v>19367.88</v>
-      </c>
-      <c r="M84" s="5">
-        <v>1807.01</v>
-      </c>
-      <c r="N84" s="5">
-        <f>K81+M84</f>
-        <v>21274.89</v>
-      </c>
     </row>
     <row r="86" spans="1:14" ht="19">
       <c r="I86" s="6"/>
+      <c r="L86" s="9">
+        <v>19367.88</v>
+      </c>
+      <c r="M86" s="5">
+        <v>1907.01</v>
+      </c>
+      <c r="N86" s="5">
+        <f>K83+M86</f>
+        <v>21674.89</v>
+      </c>
     </row>
     <row r="88" spans="1:14" ht="19">
       <c r="I88" s="6"/>
@@ -3162,6 +3202,9 @@
     </row>
     <row r="94" spans="1:14" ht="19">
       <c r="I94" s="6"/>
+    </row>
+    <row r="96" spans="1:14" ht="19">
+      <c r="I96" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3181,10 +3224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3192,7 +3235,7 @@
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -3209,8 +3252,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1"/>
-    <row r="3" spans="1:5">
+    <row r="2" spans="1:13" hidden="1"/>
+    <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
         <v>110</v>
       </c>
@@ -3221,7 +3264,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:13">
       <c r="A4" s="13" t="s">
         <v>113</v>
       </c>
@@ -3230,7 +3273,7 @@
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:13">
       <c r="A5" s="13" t="s">
         <v>114</v>
       </c>
@@ -3244,7 +3287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:13">
       <c r="A6" s="13" t="s">
         <v>115</v>
       </c>
@@ -3253,7 +3296,7 @@
       </c>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:13">
       <c r="A7" s="13" t="s">
         <v>116</v>
       </c>
@@ -3262,7 +3305,7 @@
       </c>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:13">
       <c r="A8" s="13" t="s">
         <v>117</v>
       </c>
@@ -3274,7 +3317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:13">
       <c r="A9" s="13" t="s">
         <v>120</v>
       </c>
@@ -3284,7 +3327,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:13">
       <c r="A10" s="13" t="s">
         <v>118</v>
       </c>
@@ -3293,7 +3336,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:13">
       <c r="A11" s="13" t="s">
         <v>121</v>
       </c>
@@ -3303,7 +3346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:13">
       <c r="A12" s="13" t="s">
         <v>103</v>
       </c>
@@ -3313,7 +3356,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:13">
       <c r="A13" s="13" t="s">
         <v>122</v>
       </c>
@@ -3323,80 +3366,97 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:13" s="5" customFormat="1" ht="21">
       <c r="A14" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13">
         <v>300</v>
       </c>
-      <c r="E14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" s="12" customFormat="1">
-      <c r="A16" s="12" t="s">
+      <c r="E15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" s="12" customFormat="1">
+      <c r="A17" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="12">
-        <f>SUM(B4:B14)</f>
+      <c r="B17" s="12">
+        <f>SUM(B4:B15)</f>
         <v>190</v>
       </c>
-      <c r="C16" s="12">
-        <f>SUM(C4:C14)</f>
+      <c r="C17" s="12">
+        <f>SUM(C4:C15)</f>
         <v>900</v>
       </c>
-      <c r="D16" s="12">
-        <f>SUM(D2:D14)</f>
+      <c r="D17" s="12">
+        <f>SUM(D2:D15)</f>
         <v>500</v>
       </c>
-      <c r="E16" s="12">
-        <f>SUM(E2:E14)</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="18">
-      <c r="A17" s="8" t="s">
+      <c r="E17" s="12">
+        <f>SUM(E2:E15)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="A18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B18" s="8">
         <v>74</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="8">
         <v>0</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>108.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="18">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9">
-        <f>B16-B17</f>
+      <c r="B19" s="9">
+        <f>B17-B18</f>
         <v>116</v>
       </c>
-      <c r="C18" s="9">
-        <f>B18+C16-C17</f>
+      <c r="C19" s="9">
+        <f>B19+C17-C18</f>
         <v>1016</v>
       </c>
-      <c r="D18" s="9">
-        <f>C18+D16-D17</f>
+      <c r="D19" s="9">
+        <f>C19+D17-D18</f>
         <v>1516</v>
       </c>
-      <c r="E18" s="9">
-        <f>D18+E16-E17</f>
-        <v>1807.01</v>
+      <c r="E19" s="9">
+        <f>D19+E17-E18</f>
+        <v>1907.01</v>
       </c>
     </row>
   </sheetData>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5B63D2-1179-754B-BFCD-4D339AD21E36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B61505-68AC-844C-A1FD-E86E04B74203}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="放生随喜" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="126">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,14 +517,6 @@
   </si>
   <si>
     <t>徐秋晧旺秀拉姆全家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李明坤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,10 +1147,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K75" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:K75" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K75">
-    <sortCondition ref="A1:A75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K73" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:K73" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K73">
+    <sortCondition ref="A1:A73"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="23"/>
@@ -1178,8 +1170,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A78:K80" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A78:K80" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A76:K78" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A76:K78" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="9"/>
@@ -1494,12 +1486,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+      <selection pane="topRight" activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -2079,24 +2071,25 @@
     </row>
     <row r="30" spans="1:13" ht="21">
       <c r="A30" s="11" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="10">
+        <v>200</v>
+      </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="10">
-        <v>200</v>
-      </c>
+      <c r="K30" s="10"/>
+      <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13" ht="21">
       <c r="A31" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2104,517 +2097,517 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
-      <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="21">
-      <c r="A32" s="11" t="s">
-        <v>95</v>
+      <c r="A32" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="E32" s="10">
+        <v>300</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="I32" s="10">
+        <v>300</v>
+      </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
+      <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" ht="21">
       <c r="A33" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F33" s="10"/>
-      <c r="G33" s="10">
-        <v>300</v>
-      </c>
+      <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="10">
-        <v>300</v>
-      </c>
+      <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" ht="21">
       <c r="A34" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B34" s="10">
+        <v>130</v>
+      </c>
+      <c r="C34" s="10">
+        <v>100</v>
+      </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10">
         <v>100</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+      <c r="F34" s="10">
+        <v>100</v>
+      </c>
+      <c r="G34" s="10">
+        <v>50</v>
+      </c>
+      <c r="H34" s="10">
+        <v>100</v>
+      </c>
+      <c r="I34" s="10">
+        <v>100</v>
+      </c>
+      <c r="J34" s="10">
+        <v>100</v>
+      </c>
+      <c r="K34" s="10">
+        <v>100</v>
+      </c>
+      <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" ht="21">
       <c r="A35" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="10">
-        <v>130</v>
-      </c>
-      <c r="C35" s="10">
-        <v>100</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10">
-        <v>100</v>
-      </c>
+      <c r="E35" s="10"/>
       <c r="F35" s="10">
-        <v>100</v>
-      </c>
-      <c r="G35" s="10">
-        <v>50</v>
-      </c>
-      <c r="H35" s="10">
-        <v>100</v>
-      </c>
-      <c r="I35" s="10">
-        <v>100</v>
-      </c>
-      <c r="J35" s="10">
-        <v>100</v>
-      </c>
-      <c r="K35" s="10">
-        <v>100</v>
-      </c>
-      <c r="M35" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:13" ht="21">
       <c r="A36" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="B36" s="10">
+        <v>100</v>
+      </c>
+      <c r="C36" s="10">
+        <v>50</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2010</v>
+      </c>
+      <c r="E36" s="10">
+        <v>50</v>
+      </c>
       <c r="F36" s="10">
-        <v>107</v>
-      </c>
-      <c r="G36" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="G36" s="10">
+        <v>50</v>
+      </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
+      <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="21">
-      <c r="A37" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="10">
-        <v>100</v>
-      </c>
-      <c r="C37" s="10">
-        <v>50</v>
-      </c>
-      <c r="D37" s="10">
-        <v>2010</v>
-      </c>
-      <c r="E37" s="10">
-        <v>50</v>
-      </c>
-      <c r="F37" s="10">
-        <v>60</v>
-      </c>
+      <c r="A37" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="10">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-      <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="21">
-      <c r="A38" s="11" t="s">
-        <v>76</v>
+      <c r="A38" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="10">
+        <v>100</v>
+      </c>
       <c r="F38" s="10"/>
-      <c r="G38" s="10">
-        <v>300</v>
-      </c>
+      <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
+      <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" ht="21">
-      <c r="A39" s="10" t="s">
-        <v>39</v>
+      <c r="A39" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="10">
-        <v>100</v>
-      </c>
+      <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="10">
+        <v>200</v>
+      </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="M39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="21">
-      <c r="A40" s="11" t="s">
-        <v>80</v>
+      <c r="A40" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="E40" s="10">
+        <v>400</v>
+      </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10">
         <v>200</v>
       </c>
       <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="I40" s="10">
+        <v>200</v>
+      </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:13" ht="21">
       <c r="A41" s="10" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10">
-        <v>400</v>
-      </c>
+      <c r="D41" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="10">
-        <v>200</v>
-      </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10">
-        <v>200</v>
-      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10">
+        <v>200</v>
+      </c>
+      <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+      <c r="K41" s="10">
+        <v>200</v>
+      </c>
+      <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="21">
       <c r="A42" s="10" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="10">
-        <v>200</v>
-      </c>
+      <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
-      <c r="K42" s="10">
-        <v>200</v>
-      </c>
-      <c r="M42" s="6"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:13" ht="21">
-      <c r="A43" s="10" t="s">
-        <v>11</v>
+      <c r="A43" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="10">
-        <v>200</v>
-      </c>
+      <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="G43" s="10">
+        <v>200</v>
+      </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
+      <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="21">
-      <c r="A44" s="11" t="s">
-        <v>97</v>
+      <c r="A44" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="D44" s="10">
+        <v>1000</v>
+      </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="10">
-        <v>200</v>
-      </c>
+      <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
-      <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="21">
       <c r="A45" s="10" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="10">
-        <v>1000</v>
-      </c>
+      <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="H45" s="10">
+        <v>200</v>
+      </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
+      <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="21">
       <c r="A46" s="10" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="E46" s="10">
+        <v>100</v>
+      </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="10">
-        <v>200</v>
-      </c>
+      <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="21">
-      <c r="A47" s="10" t="s">
-        <v>33</v>
+      <c r="A47" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="10">
-        <v>100</v>
-      </c>
+      <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="G47" s="10">
+        <v>50</v>
+      </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
+      <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:13" ht="21">
       <c r="A48" s="11" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="10">
-        <v>50</v>
-      </c>
+      <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="I48" s="10">
+        <v>800</v>
+      </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
-      <c r="M48" s="6"/>
     </row>
     <row r="49" spans="1:13" ht="21">
       <c r="A49" s="11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="G49" s="10">
+        <v>50</v>
+      </c>
       <c r="H49" s="10"/>
-      <c r="I49" s="10">
-        <v>800</v>
-      </c>
+      <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:13" ht="21">
       <c r="A50" s="11" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="10">
-        <v>50</v>
-      </c>
-      <c r="H50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10">
+        <v>100</v>
+      </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
+      <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" ht="21">
-      <c r="A51" s="11" t="s">
-        <v>75</v>
+      <c r="A51" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="D51" s="10">
+        <v>100</v>
+      </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="10">
-        <v>100</v>
-      </c>
+      <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
-      <c r="M51" s="6"/>
     </row>
     <row r="52" spans="1:13" ht="21">
       <c r="A52" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
+        <v>125</v>
+      </c>
+      <c r="B52" s="10">
+        <v>400</v>
+      </c>
+      <c r="C52" s="10">
+        <v>200</v>
+      </c>
       <c r="D52" s="10">
+        <v>350</v>
+      </c>
+      <c r="E52" s="10">
+        <v>200</v>
+      </c>
+      <c r="F52" s="10">
         <v>100</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
+      <c r="G52" s="10">
+        <v>125</v>
+      </c>
+      <c r="H52" s="10">
+        <v>100</v>
+      </c>
+      <c r="I52" s="10">
+        <v>200</v>
+      </c>
+      <c r="J52" s="10">
+        <v>100</v>
+      </c>
+      <c r="K52" s="10">
+        <v>100</v>
+      </c>
+      <c r="M52" s="6"/>
     </row>
     <row r="53" spans="1:13" ht="21">
-      <c r="A53" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="10">
-        <v>400</v>
-      </c>
-      <c r="C53" s="10">
-        <v>200</v>
-      </c>
-      <c r="D53" s="10">
-        <v>350</v>
-      </c>
-      <c r="E53" s="10">
-        <v>200</v>
-      </c>
-      <c r="F53" s="10">
-        <v>100</v>
-      </c>
+      <c r="A53" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="10">
-        <v>125</v>
-      </c>
-      <c r="H53" s="10">
-        <v>100</v>
-      </c>
-      <c r="I53" s="10">
-        <v>200</v>
-      </c>
-      <c r="J53" s="10">
-        <v>100</v>
-      </c>
-      <c r="K53" s="10">
-        <v>100</v>
-      </c>
-      <c r="M53" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:13" ht="21">
       <c r="A54" s="11" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="10">
-        <v>200</v>
-      </c>
+      <c r="G54" s="10"/>
       <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
+      <c r="I54" s="10">
+        <v>300</v>
+      </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
+      <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13" ht="21">
-      <c r="A55" s="11" t="s">
-        <v>104</v>
+      <c r="A55" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="C55" s="10">
+        <v>100</v>
+      </c>
+      <c r="D55" s="10">
+        <v>200</v>
+      </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="10">
+        <v>100</v>
+      </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="M55" s="6"/>
+      <c r="K55" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="56" spans="1:13" ht="21">
-      <c r="A56" s="10" t="s">
-        <v>6</v>
+      <c r="A56" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="B56" s="10"/>
-      <c r="C56" s="10">
-        <v>100</v>
-      </c>
-      <c r="D56" s="10">
-        <v>200</v>
-      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H56" s="10"/>
-      <c r="I56" s="10">
-        <v>200</v>
-      </c>
+      <c r="I56" s="10"/>
       <c r="J56" s="10"/>
-      <c r="K56" s="10">
-        <v>200</v>
-      </c>
+      <c r="K56" s="10"/>
+      <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" ht="21">
       <c r="A57" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2628,122 +2621,121 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
-      <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" ht="21">
-      <c r="A58" s="11" t="s">
-        <v>78</v>
+      <c r="A58" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
+      <c r="D58" s="10">
+        <v>55</v>
+      </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="10">
-        <v>200</v>
-      </c>
+      <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
+      <c r="M58" s="6"/>
     </row>
     <row r="59" spans="1:13" ht="21">
       <c r="A59" s="10" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
-      <c r="D59" s="10">
-        <v>55</v>
-      </c>
+      <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="G59" s="10">
+        <v>200</v>
+      </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
-      <c r="M59" s="6"/>
     </row>
     <row r="60" spans="1:13" ht="21">
       <c r="A60" s="10" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="E60" s="10">
+        <v>200</v>
+      </c>
+      <c r="F60" s="10">
+        <v>200</v>
+      </c>
       <c r="G60" s="10">
         <v>200</v>
       </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="H60" s="10">
+        <v>200</v>
+      </c>
+      <c r="I60" s="10">
+        <v>200</v>
+      </c>
       <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
+      <c r="K60" s="10">
+        <v>200</v>
+      </c>
+      <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" ht="21">
       <c r="A61" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="B61" s="10">
+        <v>200</v>
+      </c>
       <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="D61" s="10">
+        <v>200</v>
+      </c>
       <c r="E61" s="10">
-        <v>200</v>
-      </c>
-      <c r="F61" s="10">
-        <v>200</v>
-      </c>
-      <c r="G61" s="10">
-        <v>200</v>
-      </c>
-      <c r="H61" s="10">
-        <v>200</v>
-      </c>
-      <c r="I61" s="10">
-        <v>200</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
       <c r="J61" s="10"/>
-      <c r="K61" s="10">
-        <v>200</v>
-      </c>
-      <c r="M61" s="6"/>
+      <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:13" ht="21">
-      <c r="A62" s="10" t="s">
-        <v>126</v>
+      <c r="A62" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="G62" s="10">
+        <v>50</v>
+      </c>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
-      <c r="K62" s="10">
-        <v>100</v>
-      </c>
+      <c r="K62" s="10"/>
       <c r="M62" s="6"/>
     </row>
     <row r="63" spans="1:13" ht="21">
-      <c r="A63" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="10">
-        <v>200</v>
-      </c>
+      <c r="A63" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="10"/>
       <c r="C63" s="10"/>
-      <c r="D63" s="10">
-        <v>200</v>
-      </c>
-      <c r="E63" s="10">
-        <v>100</v>
-      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="G63" s="10">
+        <v>50</v>
+      </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -2751,7 +2743,7 @@
     </row>
     <row r="64" spans="1:13" ht="21">
       <c r="A64" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2769,7 +2761,7 @@
     </row>
     <row r="65" spans="1:13" ht="21">
       <c r="A65" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -2785,26 +2777,26 @@
       <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:13" ht="21">
-      <c r="A66" s="11" t="s">
-        <v>94</v>
+      <c r="A66" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
+      <c r="E66" s="10">
+        <v>10</v>
+      </c>
       <c r="F66" s="10"/>
-      <c r="G66" s="10">
-        <v>50</v>
-      </c>
+      <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
-      <c r="M66" s="6"/>
+      <c r="L66" s="6"/>
     </row>
     <row r="67" spans="1:13" ht="21">
       <c r="A67" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -2820,60 +2812,62 @@
       <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:13" ht="21">
-      <c r="A68" s="10" t="s">
-        <v>42</v>
+      <c r="A68" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="10">
-        <v>10</v>
-      </c>
+      <c r="E68" s="10"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="G68" s="10">
+        <v>50</v>
+      </c>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
-      <c r="L68" s="6"/>
     </row>
     <row r="69" spans="1:13" ht="21">
-      <c r="A69" s="11" t="s">
-        <v>93</v>
+      <c r="A69" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="10">
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10">
         <v>50</v>
       </c>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:13" ht="21">
-      <c r="A70" s="11" t="s">
-        <v>92</v>
+      <c r="A70" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
+      <c r="E70" s="10">
+        <v>1000</v>
+      </c>
       <c r="F70" s="10"/>
-      <c r="G70" s="10">
-        <v>50</v>
-      </c>
-      <c r="H70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10">
+        <v>300</v>
+      </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
+      <c r="M70" s="6"/>
     </row>
     <row r="71" spans="1:13" ht="21">
-      <c r="A71" s="10" t="s">
-        <v>121</v>
+      <c r="A71" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2883,313 +2877,279 @@
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
     </row>
     <row r="72" spans="1:13" ht="21">
       <c r="A72" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="B72" s="10">
+        <v>150</v>
+      </c>
+      <c r="C72" s="10">
+        <v>50</v>
+      </c>
       <c r="D72" s="10"/>
-      <c r="E72" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10">
+        <v>150</v>
+      </c>
+      <c r="G72" s="10">
+        <v>150</v>
+      </c>
       <c r="H72" s="10">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
+      <c r="J72" s="10">
+        <v>50</v>
+      </c>
       <c r="K72" s="10"/>
-      <c r="M72" s="6"/>
     </row>
     <row r="73" spans="1:13" ht="21">
-      <c r="A73" s="11" t="s">
-        <v>101</v>
+      <c r="A73" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
+      <c r="E73" s="10">
+        <v>50</v>
+      </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
-      <c r="I73" s="10">
-        <v>200</v>
-      </c>
+      <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:13" ht="21">
-      <c r="A74" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="10">
-        <v>150</v>
-      </c>
-      <c r="C74" s="10">
-        <v>50</v>
-      </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10">
-        <v>150</v>
-      </c>
-      <c r="G74" s="10">
-        <v>150</v>
-      </c>
-      <c r="H74" s="10">
-        <v>150</v>
-      </c>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10">
-        <v>50</v>
-      </c>
-      <c r="K74" s="10"/>
-    </row>
-    <row r="75" spans="1:13" ht="21">
-      <c r="A75" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10">
-        <v>50</v>
-      </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="7" t="s">
+    <row r="74" spans="1:13">
+      <c r="A74" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="7">
-        <f>SUM(B2:B75)</f>
+      <c r="B74" s="7">
+        <f>SUM(B2:B73)</f>
         <v>1980</v>
       </c>
-      <c r="C76" s="7">
-        <f t="shared" ref="C76:K76" si="0">SUM(C2:C75)</f>
+      <c r="C74" s="7">
+        <f t="shared" ref="C74:K74" si="0">SUM(C2:C73)</f>
         <v>1166</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D74" s="7">
         <f t="shared" si="0"/>
         <v>12195</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E74" s="7">
         <f t="shared" si="0"/>
         <v>5530</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F74" s="7">
         <f t="shared" si="0"/>
         <v>2517</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G74" s="7">
         <f t="shared" si="0"/>
         <v>6563.88</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H74" s="7">
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I74" s="7">
         <f t="shared" si="0"/>
         <v>5550</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J74" s="7">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K74" s="7">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G77" s="5">
+        <v>2100</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G79" s="5">
-        <v>2100</v>
+        <v>23</v>
+      </c>
+      <c r="B78" s="5">
+        <v>570</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1080</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0</v>
+      </c>
+      <c r="E78" s="5">
+        <v>3025</v>
+      </c>
+      <c r="F78" s="5">
+        <v>2154</v>
+      </c>
+      <c r="G78" s="5">
+        <v>3200</v>
+      </c>
+      <c r="H78" s="5">
+        <v>3500</v>
+      </c>
+      <c r="I78" s="5">
+        <v>4000</v>
+      </c>
+      <c r="J78" s="5">
+        <v>3555</v>
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="5">
+      <c r="A80" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="8">
+        <f>SUM(B77:B78)</f>
         <v>570</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="8">
+        <f t="shared" ref="C80:G80" si="1">SUM(C77:C78)</f>
         <v>1080</v>
       </c>
-      <c r="D80" s="5">
-        <v>0</v>
-      </c>
-      <c r="E80" s="5">
-        <v>3025</v>
-      </c>
-      <c r="F80" s="5">
-        <v>2154</v>
-      </c>
-      <c r="G80" s="5">
-        <v>3200</v>
-      </c>
-      <c r="H80" s="5">
-        <v>3500</v>
-      </c>
-      <c r="I80" s="5">
-        <v>4000</v>
-      </c>
-      <c r="J80" s="5">
-        <v>3555</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="8">
-        <f>SUM(B79:B80)</f>
-        <v>570</v>
-      </c>
-      <c r="C82" s="8">
-        <f t="shared" ref="C82:G82" si="1">SUM(C79:C80)</f>
-        <v>1080</v>
-      </c>
-      <c r="D82" s="8">
+      <c r="D80" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E80" s="8">
         <f t="shared" si="1"/>
         <v>3025</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F80" s="8">
         <f t="shared" si="1"/>
         <v>2154</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G80" s="8">
         <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H80" s="8">
         <v>3500</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I80" s="8">
         <v>4000</v>
       </c>
-      <c r="J82" s="8">
+      <c r="J80" s="8">
         <v>3555</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K80" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="9" t="s">
+    <row r="81" spans="1:14">
+      <c r="A81" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="9">
-        <f>B76-B82</f>
+      <c r="B81" s="9">
+        <f>B74-B80</f>
         <v>1410</v>
       </c>
-      <c r="C83" s="9">
-        <f t="shared" ref="C83:K83" si="2">B83+C76-C82</f>
+      <c r="C81" s="9">
+        <f t="shared" ref="C81:K81" si="2">B81+C74-C80</f>
         <v>1496</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D81" s="9">
         <f t="shared" si="2"/>
         <v>13691</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E81" s="9">
         <f t="shared" si="2"/>
         <v>16196</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F81" s="9">
         <f t="shared" si="2"/>
         <v>16559</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G81" s="9">
         <f t="shared" si="2"/>
         <v>17822.88</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H81" s="9">
         <f t="shared" si="2"/>
         <v>18022.88</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I81" s="9">
         <f t="shared" si="2"/>
         <v>19572.88</v>
       </c>
-      <c r="J83" s="9">
+      <c r="J81" s="9">
         <f t="shared" si="2"/>
         <v>17367.88</v>
       </c>
-      <c r="K83" s="9">
+      <c r="K81" s="9">
         <f t="shared" si="2"/>
-        <v>19767.88</v>
-      </c>
+        <v>19467.88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="19">
+      <c r="I82" s="6"/>
     </row>
     <row r="84" spans="1:14" ht="19">
       <c r="I84" s="6"/>
+      <c r="L84" s="9">
+        <v>19367.88</v>
+      </c>
+      <c r="M84" s="5">
+        <v>1807.01</v>
+      </c>
+      <c r="N84" s="5">
+        <f>K81+M84</f>
+        <v>21274.89</v>
+      </c>
     </row>
     <row r="86" spans="1:14" ht="19">
       <c r="I86" s="6"/>
-      <c r="L86" s="9">
-        <v>19367.88</v>
-      </c>
-      <c r="M86" s="5">
-        <v>1907.01</v>
-      </c>
-      <c r="N86" s="5">
-        <f>K83+M86</f>
-        <v>21674.89</v>
-      </c>
     </row>
     <row r="88" spans="1:14" ht="19">
       <c r="I88" s="6"/>
@@ -3202,9 +3162,6 @@
     </row>
     <row r="94" spans="1:14" ht="19">
       <c r="I94" s="6"/>
-    </row>
-    <row r="96" spans="1:14" ht="19">
-      <c r="I96" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3224,10 +3181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3235,7 +3192,7 @@
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -3252,8 +3209,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1"/>
-    <row r="3" spans="1:13">
+    <row r="2" spans="1:5" hidden="1"/>
+    <row r="3" spans="1:5">
       <c r="A3" s="13" t="s">
         <v>110</v>
       </c>
@@ -3264,7 +3221,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
         <v>113</v>
       </c>
@@ -3273,7 +3230,7 @@
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>114</v>
       </c>
@@ -3287,7 +3244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
         <v>115</v>
       </c>
@@ -3296,7 +3253,7 @@
       </c>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
         <v>116</v>
       </c>
@@ -3305,7 +3262,7 @@
       </c>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>117</v>
       </c>
@@ -3317,7 +3274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>120</v>
       </c>
@@ -3327,7 +3284,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>118</v>
       </c>
@@ -3336,7 +3293,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
         <v>121</v>
       </c>
@@ -3346,7 +3303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
         <v>103</v>
       </c>
@@ -3356,7 +3313,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>122</v>
       </c>
@@ -3366,97 +3323,80 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="5" customFormat="1" ht="21">
+    <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13">
+        <v>300</v>
+      </c>
       <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="13" t="s">
-        <v>119</v>
-      </c>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="13">
-        <v>300</v>
-      </c>
-      <c r="E15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" s="12" customFormat="1">
-      <c r="A17" s="12" t="s">
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" s="12" customFormat="1">
+      <c r="A16" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="12">
-        <f>SUM(B4:B15)</f>
+      <c r="B16" s="12">
+        <f>SUM(B4:B14)</f>
         <v>190</v>
       </c>
-      <c r="C17" s="12">
-        <f>SUM(C4:C15)</f>
+      <c r="C16" s="12">
+        <f>SUM(C4:C14)</f>
         <v>900</v>
       </c>
-      <c r="D17" s="12">
-        <f>SUM(D2:D15)</f>
+      <c r="D16" s="12">
+        <f>SUM(D2:D14)</f>
         <v>500</v>
       </c>
-      <c r="E17" s="12">
-        <f>SUM(E2:E15)</f>
-        <v>500</v>
+      <c r="E16" s="12">
+        <f>SUM(E2:E14)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="A17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="8">
+        <v>74</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>108.99</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18">
-      <c r="A18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="8">
-        <v>74</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>108.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="18">
-      <c r="A19" s="9" t="s">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="9">
-        <f>B17-B18</f>
+      <c r="B18" s="9">
+        <f>B16-B17</f>
         <v>116</v>
       </c>
-      <c r="C19" s="9">
-        <f>B19+C17-C18</f>
+      <c r="C18" s="9">
+        <f>B18+C16-C17</f>
         <v>1016</v>
       </c>
-      <c r="D19" s="9">
-        <f>C19+D17-D18</f>
+      <c r="D18" s="9">
+        <f>C18+D16-D17</f>
         <v>1516</v>
       </c>
-      <c r="E19" s="9">
-        <f>D19+E17-E18</f>
-        <v>1907.01</v>
+      <c r="E18" s="9">
+        <f>D18+E16-E17</f>
+        <v>1807.01</v>
       </c>
     </row>
   </sheetData>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD9FE75-8446-054F-84B6-4E4F2D46EB39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0127FC-03FF-8B48-8D9C-8F8A29DFA509}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,6 +516,10 @@
   </si>
   <si>
     <t>李明坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈凤清</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,48 +828,6 @@
   <dxfs count="35">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -948,17 +910,59 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1298,10 +1302,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K75" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:K75" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K75">
-    <sortCondition ref="A1:A75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K76" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:K76" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K76">
+    <sortCondition ref="A1:A76"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="32"/>
@@ -1321,8 +1325,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A78:K80" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A78:K80" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A79:K81" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A79:K81" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="18"/>
@@ -1341,17 +1345,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
-  <autoFilter ref="A1:E13" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
-    <sortCondition ref="A1:A13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <autoFilter ref="A1:E14" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
+    <sortCondition ref="A1:A14"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1654,12 +1658,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+      <selection pane="topRight" activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1794,75 +1798,75 @@
     </row>
     <row r="7" spans="1:11" ht="21">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7">
-        <v>4160</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="21">
       <c r="A8" s="7" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>4160</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>50</v>
-      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="21">
-      <c r="A9" s="8" t="s">
-        <v>106</v>
+      <c r="A9" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>50</v>
+      </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7">
-        <v>200</v>
-      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="21">
       <c r="A10" s="8" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>200</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>200</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="21">
       <c r="A11" s="8" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1879,7 +1883,7 @@
     </row>
     <row r="12" spans="1:11" ht="21">
       <c r="A12" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1887,7 +1891,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1895,17 +1899,17 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="21">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
+      <c r="A13" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7">
-        <v>200</v>
-      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>20</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1913,7 +1917,7 @@
     </row>
     <row r="14" spans="1:11" ht="21">
       <c r="A14" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1922,9 +1926,7 @@
         <v>200</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="7">
-        <v>200</v>
-      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1932,16 +1934,18 @@
     </row>
     <row r="15" spans="1:11" ht="21">
       <c r="A15" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>100</v>
-      </c>
-      <c r="E15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
+        <v>200</v>
+      </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>200</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1949,86 +1953,86 @@
     </row>
     <row r="16" spans="1:11" ht="21">
       <c r="A16" s="7" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>100</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7">
-        <v>200</v>
-      </c>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:13" ht="21">
-      <c r="A17" s="8" t="s">
-        <v>98</v>
+      <c r="A17" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7">
-        <v>50</v>
-      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="7">
+        <v>200</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="21">
-      <c r="A18" s="7" t="s">
-        <v>59</v>
+      <c r="A18" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7">
-        <v>1200</v>
-      </c>
-      <c r="E18" s="7">
-        <v>100</v>
-      </c>
-      <c r="F18" s="7">
-        <v>100</v>
-      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="7">
-        <v>100</v>
-      </c>
-      <c r="H18" s="7">
         <v>50</v>
       </c>
-      <c r="I18" s="7">
-        <v>100</v>
-      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" ht="21">
       <c r="A19" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="7">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="7">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7">
+        <v>100</v>
+      </c>
       <c r="G19" s="7">
         <v>100</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="H19" s="7">
+        <v>50</v>
+      </c>
+      <c r="I19" s="7">
+        <v>100</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" ht="21">
       <c r="A20" s="7" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2042,7 +2046,6 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" ht="21">
       <c r="A21" s="7" t="s">
@@ -2053,228 +2056,228 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>100</v>
+      </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="7">
-        <v>200</v>
-      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="7">
-        <v>800</v>
-      </c>
+      <c r="K21" s="7"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" ht="21">
       <c r="A22" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7">
-        <v>100</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1000</v>
-      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="7">
-        <v>1500</v>
-      </c>
-      <c r="J22" s="7">
-        <v>1000</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="M22" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7">
+        <v>800</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="21">
-      <c r="A23" s="8" t="s">
-        <v>77</v>
+      <c r="A23" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="7">
+        <v>100</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1000</v>
+      </c>
       <c r="G23" s="7">
-        <v>200</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+        <v>1000</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1000</v>
+      </c>
       <c r="K23" s="7"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" ht="21">
-      <c r="A24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="7">
-        <v>500</v>
-      </c>
-      <c r="C24" s="7">
-        <v>666</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="7">
-        <v>500</v>
-      </c>
-      <c r="F24" s="7">
-        <v>500</v>
-      </c>
+      <c r="A24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="7">
-        <v>500</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I24" s="7">
-        <v>500</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" ht="21">
       <c r="A25" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="7">
         <v>500</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7">
+        <v>666</v>
+      </c>
       <c r="D25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="7">
         <v>500</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25" s="7">
+        <v>500</v>
+      </c>
+      <c r="G25" s="7">
+        <v>500</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="7">
+        <v>500</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" ht="21">
+      <c r="A26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7">
+        <v>500</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7">
+        <v>500</v>
+      </c>
+      <c r="E26" s="7">
         <v>300</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
-        <v>200</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="21">
-      <c r="A26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="M26" s="3"/>
+      <c r="K26" s="7">
+        <v>300</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="21">
-      <c r="A27" s="7" t="s">
-        <v>58</v>
+      <c r="A27" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7">
-        <v>200</v>
-      </c>
-      <c r="G27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7">
+        <v>30</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" ht="21">
       <c r="A28" s="7" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7">
-        <v>20</v>
-      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>200</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" ht="21">
-      <c r="A29" s="8" t="s">
-        <v>86</v>
+      <c r="A29" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="7">
+        <v>20</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7">
-        <v>88.88</v>
-      </c>
+      <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" ht="21">
       <c r="A30" s="8" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>88.88</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="7">
-        <v>200</v>
-      </c>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:13" ht="21">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="7">
-        <v>200</v>
-      </c>
+      <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="M31" s="3"/>
+      <c r="K31" s="7">
+        <v>200</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="21">
       <c r="A32" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2282,517 +2285,517 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="21">
-      <c r="A33" s="7" t="s">
-        <v>31</v>
+      <c r="A33" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="7">
-        <v>300</v>
-      </c>
+      <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="7">
-        <v>300</v>
-      </c>
+      <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="21">
       <c r="A34" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>300</v>
+      </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="7">
+        <v>300</v>
+      </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="21">
       <c r="A35" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="7">
-        <v>130</v>
-      </c>
-      <c r="C35" s="7">
-        <v>100</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7">
         <v>100</v>
       </c>
-      <c r="F35" s="7">
-        <v>100</v>
-      </c>
-      <c r="G35" s="7">
-        <v>50</v>
-      </c>
-      <c r="H35" s="7">
-        <v>100</v>
-      </c>
-      <c r="I35" s="7">
-        <v>100</v>
-      </c>
-      <c r="J35" s="7">
-        <v>100</v>
-      </c>
-      <c r="K35" s="7">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:13" ht="21">
       <c r="A36" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B36" s="7">
+        <v>130</v>
+      </c>
+      <c r="C36" s="7">
+        <v>100</v>
+      </c>
       <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="7">
+        <v>100</v>
+      </c>
       <c r="F36" s="7">
-        <v>107</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="G36" s="7">
+        <v>50</v>
+      </c>
+      <c r="H36" s="7">
+        <v>100</v>
+      </c>
+      <c r="I36" s="7">
+        <v>100</v>
+      </c>
+      <c r="J36" s="7">
+        <v>100</v>
+      </c>
+      <c r="K36" s="7">
+        <v>100</v>
+      </c>
+      <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="21">
       <c r="A37" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="7">
-        <v>100</v>
-      </c>
-      <c r="C37" s="7">
-        <v>50</v>
-      </c>
-      <c r="D37" s="7">
-        <v>2010</v>
-      </c>
-      <c r="E37" s="7">
-        <v>50</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="7">
-        <v>60</v>
-      </c>
-      <c r="G37" s="7">
-        <v>50</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" ht="21">
-      <c r="A38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="A38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="7">
+        <v>100</v>
+      </c>
+      <c r="C38" s="7">
+        <v>50</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2010</v>
+      </c>
+      <c r="E38" s="7">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7">
+        <v>60</v>
+      </c>
       <c r="G38" s="7">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
+      <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="21">
-      <c r="A39" s="7" t="s">
-        <v>39</v>
+      <c r="A39" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="7">
-        <v>100</v>
-      </c>
+      <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>300</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" ht="21">
-      <c r="A40" s="8" t="s">
-        <v>80</v>
+      <c r="A40" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="E40" s="7">
+        <v>100</v>
+      </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="7">
-        <v>200</v>
-      </c>
+      <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
+      <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13" ht="21">
-      <c r="A41" s="7" t="s">
-        <v>36</v>
+      <c r="A41" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="7">
-        <v>400</v>
-      </c>
+      <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7">
         <v>200</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="7">
-        <v>200</v>
-      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
     <row r="42" spans="1:13" ht="21">
       <c r="A42" s="7" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7">
+        <v>400</v>
+      </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7">
-        <v>200</v>
-      </c>
-      <c r="I42" s="7"/>
+      <c r="G42" s="7">
+        <v>200</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7">
+        <v>200</v>
+      </c>
       <c r="J42" s="7"/>
-      <c r="K42" s="7">
-        <v>200</v>
-      </c>
-      <c r="M42" s="3"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" spans="1:13" ht="21">
       <c r="A43" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="H43" s="7">
+        <v>200</v>
+      </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="K43" s="7">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13" ht="21">
-      <c r="A44" s="8" t="s">
-        <v>97</v>
+      <c r="A44" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7">
+        <v>200</v>
+      </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="7">
-        <v>200</v>
-      </c>
+      <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
-      <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13" ht="21">
-      <c r="A45" s="7" t="s">
-        <v>13</v>
+      <c r="A45" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="7">
-        <v>1000</v>
-      </c>
+      <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>200</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
+      <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13" ht="21">
       <c r="A46" s="7" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="D46" s="7">
+        <v>1000</v>
+      </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="7">
-        <v>200</v>
-      </c>
+      <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-      <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13" ht="21">
       <c r="A47" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="7">
-        <v>100</v>
-      </c>
+      <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="7">
+        <v>200</v>
+      </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
+      <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13" ht="21">
-      <c r="A48" s="8" t="s">
-        <v>91</v>
+      <c r="A48" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="E48" s="7">
+        <v>100</v>
+      </c>
       <c r="F48" s="7"/>
-      <c r="G48" s="7">
-        <v>50</v>
-      </c>
+      <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="M48" s="3"/>
     </row>
     <row r="49" spans="1:13" ht="21">
       <c r="A49" s="8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <v>50</v>
+      </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="7">
-        <v>800</v>
-      </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
+      <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" ht="21">
       <c r="A50" s="8" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="7">
-        <v>50</v>
-      </c>
+      <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="I50" s="7">
+        <v>800</v>
+      </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
     <row r="51" spans="1:13" ht="21">
       <c r="A51" s="8" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7">
-        <v>100</v>
-      </c>
+      <c r="G51" s="7">
+        <v>50</v>
+      </c>
+      <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
-      <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13" ht="21">
-      <c r="A52" s="7" t="s">
-        <v>10</v>
+      <c r="A52" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="7">
-        <v>100</v>
-      </c>
+      <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="7">
+        <v>100</v>
+      </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
+      <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" ht="21">
       <c r="A53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7">
+        <v>100</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" ht="21">
+      <c r="A54" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B54" s="7">
         <v>400</v>
       </c>
-      <c r="C53" s="7">
-        <v>200</v>
-      </c>
-      <c r="D53" s="7">
+      <c r="C54" s="7">
+        <v>200</v>
+      </c>
+      <c r="D54" s="7">
         <v>350</v>
       </c>
-      <c r="E53" s="7">
-        <v>200</v>
-      </c>
-      <c r="F53" s="7">
+      <c r="E54" s="7">
+        <v>200</v>
+      </c>
+      <c r="F54" s="7">
         <v>100</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G54" s="7">
         <v>125</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H54" s="7">
         <v>100</v>
       </c>
-      <c r="I53" s="7">
-        <v>200</v>
-      </c>
-      <c r="J53" s="7">
+      <c r="I54" s="7">
+        <v>200</v>
+      </c>
+      <c r="J54" s="7">
         <v>100</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K54" s="7">
         <v>100</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13" ht="21">
-      <c r="A54" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7">
-        <v>200</v>
-      </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
+      <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" ht="21">
       <c r="A55" s="8" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="7">
+        <v>200</v>
+      </c>
       <c r="H55" s="7"/>
-      <c r="I55" s="7">
-        <v>300</v>
-      </c>
+      <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
-      <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13" ht="21">
-      <c r="A56" s="7" t="s">
-        <v>6</v>
+      <c r="A56" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="B56" s="7"/>
-      <c r="C56" s="7">
-        <v>100</v>
-      </c>
-      <c r="D56" s="7">
-        <v>200</v>
-      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="7">
-        <v>100</v>
-      </c>
+      <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J56" s="7"/>
-      <c r="K56" s="7">
-        <v>200</v>
-      </c>
+      <c r="K56" s="7"/>
+      <c r="M56" s="3"/>
     </row>
     <row r="57" spans="1:13" ht="21">
-      <c r="A57" s="8" t="s">
-        <v>79</v>
+      <c r="A57" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="C57" s="7">
+        <v>100</v>
+      </c>
+      <c r="D57" s="7">
+        <v>200</v>
+      </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
+      <c r="I57" s="7">
+        <v>200</v>
+      </c>
       <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="M57" s="3"/>
+      <c r="K57" s="7">
+        <v>200</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="21">
       <c r="A58" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2806,130 +2809,130 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
+      <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13" ht="21">
-      <c r="A59" s="7" t="s">
-        <v>8</v>
+      <c r="A59" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="7">
-        <v>55</v>
-      </c>
+      <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="G59" s="7">
+        <v>200</v>
+      </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
-      <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13" ht="21">
       <c r="A60" s="7" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
+      <c r="D60" s="7">
+        <v>55</v>
+      </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="7">
-        <v>200</v>
-      </c>
+      <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
+      <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:13" ht="21">
       <c r="A61" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="7">
-        <v>200</v>
-      </c>
-      <c r="F61" s="7">
-        <v>200</v>
-      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
       <c r="G61" s="7">
         <v>200</v>
       </c>
-      <c r="H61" s="7">
-        <v>200</v>
-      </c>
-      <c r="I61" s="7">
-        <v>200</v>
-      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
       <c r="J61" s="7"/>
-      <c r="K61" s="7">
-        <v>200</v>
-      </c>
-      <c r="M61" s="3"/>
+      <c r="K61" s="7"/>
     </row>
     <row r="62" spans="1:13" ht="21">
       <c r="A62" s="7" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
+      <c r="E62" s="7">
+        <v>200</v>
+      </c>
+      <c r="F62" s="7">
+        <v>200</v>
+      </c>
+      <c r="G62" s="7">
+        <v>200</v>
+      </c>
+      <c r="H62" s="7">
+        <v>200</v>
+      </c>
+      <c r="I62" s="7">
+        <v>200</v>
+      </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13" ht="21">
       <c r="A63" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="7">
-        <v>200</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B63" s="7"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="7">
-        <v>200</v>
-      </c>
-      <c r="E63" s="7">
-        <v>100</v>
-      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="K63" s="7">
+        <v>100</v>
+      </c>
+      <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13" ht="21">
-      <c r="A64" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" s="7"/>
+      <c r="A64" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="7">
+        <v>200</v>
+      </c>
       <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="D64" s="7">
+        <v>200</v>
+      </c>
+      <c r="E64" s="7">
+        <v>100</v>
+      </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="7">
-        <v>50</v>
-      </c>
+      <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
-      <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13" ht="21">
       <c r="A65" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2943,10 +2946,11 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
+      <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13" ht="21">
       <c r="A66" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2960,11 +2964,10 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-      <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13" ht="21">
       <c r="A67" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2978,45 +2981,46 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
+      <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:13" ht="21">
-      <c r="A68" s="7" t="s">
-        <v>42</v>
+      <c r="A68" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="7">
-        <v>10</v>
-      </c>
+      <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="G68" s="7">
+        <v>50</v>
+      </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
-      <c r="L68" s="3"/>
     </row>
     <row r="69" spans="1:13" ht="21">
-      <c r="A69" s="8" t="s">
-        <v>93</v>
+      <c r="A69" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="E69" s="7">
+        <v>10</v>
+      </c>
       <c r="F69" s="7"/>
-      <c r="G69" s="7">
-        <v>50</v>
-      </c>
+      <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
+      <c r="L69" s="3"/>
     </row>
     <row r="70" spans="1:13" ht="21">
       <c r="A70" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3032,339 +3036,357 @@
       <c r="K70" s="7"/>
     </row>
     <row r="71" spans="1:13" ht="21">
-      <c r="A71" s="7" t="s">
-        <v>118</v>
+      <c r="A71" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
+      <c r="G71" s="7">
+        <v>50</v>
+      </c>
       <c r="H71" s="7"/>
-      <c r="I71" s="7">
-        <v>50</v>
-      </c>
+      <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
     </row>
     <row r="72" spans="1:13" ht="21">
       <c r="A72" s="7" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="7">
-        <v>1000</v>
-      </c>
+      <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="7">
-        <v>300</v>
-      </c>
-      <c r="I72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7">
+        <v>50</v>
+      </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
-      <c r="M72" s="3"/>
     </row>
     <row r="73" spans="1:13" ht="21">
-      <c r="A73" s="8" t="s">
-        <v>101</v>
+      <c r="A73" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
+      <c r="E73" s="7">
+        <v>1000</v>
+      </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7">
-        <v>200</v>
-      </c>
+      <c r="H73" s="7">
+        <v>300</v>
+      </c>
+      <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
+      <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13" ht="21">
-      <c r="A74" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="7">
-        <v>150</v>
-      </c>
-      <c r="C74" s="7">
-        <v>50</v>
-      </c>
+      <c r="A74" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="7">
-        <v>150</v>
-      </c>
-      <c r="G74" s="7">
-        <v>150</v>
-      </c>
-      <c r="H74" s="7">
-        <v>150</v>
-      </c>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7">
-        <v>50</v>
-      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7">
+        <v>200</v>
+      </c>
+      <c r="J74" s="7"/>
       <c r="K74" s="7"/>
     </row>
     <row r="75" spans="1:13" ht="21">
       <c r="A75" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="7">
+        <v>150</v>
+      </c>
+      <c r="C75" s="7">
+        <v>50</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7">
+        <v>150</v>
+      </c>
+      <c r="G75" s="7">
+        <v>150</v>
+      </c>
+      <c r="H75" s="7">
+        <v>150</v>
+      </c>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7">
+        <v>50</v>
+      </c>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:13" ht="21">
+      <c r="A76" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7">
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7">
         <v>50</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="4" t="s">
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="4">
-        <f>SUM(B2:B75)</f>
+      <c r="B77" s="4">
+        <f>SUM(B2:B76)</f>
         <v>1980</v>
       </c>
-      <c r="C76" s="4">
-        <f t="shared" ref="C76:K76" si="0">SUM(C2:C75)</f>
+      <c r="C77" s="4">
+        <f t="shared" ref="C77:K77" si="0">SUM(C2:C76)</f>
         <v>1166</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D77" s="4">
         <f t="shared" si="0"/>
         <v>12195</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E77" s="4">
         <f t="shared" si="0"/>
         <v>5530</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F77" s="4">
         <f t="shared" si="0"/>
         <v>2517</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G77" s="4">
         <f t="shared" si="0"/>
         <v>6563.88</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H77" s="4">
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I77" s="4">
         <f t="shared" si="0"/>
         <v>5550</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J77" s="4">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K77" s="4">
         <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>66</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G79" s="2">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G80" s="2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B81" s="2">
         <v>570</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C81" s="2">
         <v>1080</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D81" s="2">
         <v>0</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E81" s="2">
         <v>3025</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F81" s="2">
         <v>2154</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G81" s="2">
         <v>3200</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H81" s="2">
         <v>3500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I81" s="2">
         <v>4000</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J81" s="2">
         <v>3555</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="1:14">
+      <c r="A83" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="5">
-        <f>SUM(B79:B80)</f>
+      <c r="B83" s="5">
+        <f>SUM(B80:B81)</f>
         <v>570</v>
       </c>
-      <c r="C82" s="5">
-        <f t="shared" ref="C82:G82" si="1">SUM(C79:C80)</f>
+      <c r="C83" s="5">
+        <f t="shared" ref="C83:G83" si="1">SUM(C80:C81)</f>
         <v>1080</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D83" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E83" s="5">
         <f t="shared" si="1"/>
         <v>3025</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F83" s="5">
         <f t="shared" si="1"/>
         <v>2154</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G83" s="5">
         <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H83" s="5">
         <v>3500</v>
       </c>
-      <c r="I82" s="5">
+      <c r="I83" s="5">
         <v>4000</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J83" s="5">
         <v>3555</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K83" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="6" t="s">
+    <row r="84" spans="1:14">
+      <c r="A84" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="6">
-        <f>B76-B82</f>
+      <c r="B84" s="6">
+        <f>B77-B83</f>
         <v>1410</v>
       </c>
-      <c r="C83" s="6">
-        <f t="shared" ref="C83:K83" si="2">B83+C76-C82</f>
+      <c r="C84" s="6">
+        <f t="shared" ref="C84:K84" si="2">B84+C77-C83</f>
         <v>1496</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="6">
         <f t="shared" si="2"/>
         <v>13691</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E84" s="6">
         <f t="shared" si="2"/>
         <v>16196</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F84" s="6">
         <f t="shared" si="2"/>
         <v>16559</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G84" s="6">
         <f t="shared" si="2"/>
         <v>17822.88</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H84" s="6">
         <f t="shared" si="2"/>
         <v>18022.88</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I84" s="6">
         <f t="shared" si="2"/>
         <v>19572.88</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J84" s="6">
         <f t="shared" si="2"/>
         <v>17367.88</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K84" s="6">
         <f t="shared" si="2"/>
-        <v>19767.88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="19">
-      <c r="I84" s="3"/>
-    </row>
-    <row r="86" spans="1:14" ht="19">
-      <c r="I86" s="3"/>
-      <c r="L86" s="6">
+        <v>19867.88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="19">
+      <c r="I85" s="3"/>
+    </row>
+    <row r="87" spans="1:14" ht="19">
+      <c r="I87" s="3"/>
+      <c r="L87" s="6">
         <v>19367.88</v>
       </c>
-      <c r="M86" s="2">
-        <v>1907.01</v>
-      </c>
-      <c r="N86" s="2">
-        <f>K83+M86</f>
-        <v>21674.89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="19">
-      <c r="I88" s="3"/>
-    </row>
-    <row r="90" spans="1:14" ht="19">
-      <c r="I90" s="3"/>
-    </row>
-    <row r="92" spans="1:14" ht="19">
-      <c r="I92" s="3"/>
-    </row>
-    <row r="94" spans="1:14" ht="19">
-      <c r="I94" s="3"/>
-    </row>
-    <row r="96" spans="1:14" ht="19">
-      <c r="I96" s="3"/>
+      <c r="M87" s="2">
+        <f>烟供随喜!$E$21</f>
+        <v>2007.01</v>
+      </c>
+      <c r="N87" s="2">
+        <f>K84+M87</f>
+        <v>21874.89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="19">
+      <c r="I89" s="3"/>
+    </row>
+    <row r="91" spans="1:14" ht="19">
+      <c r="I91" s="3"/>
+    </row>
+    <row r="93" spans="1:14" ht="19">
+      <c r="I93" s="3"/>
+    </row>
+    <row r="95" spans="1:14" ht="19">
+      <c r="I95" s="3"/>
+    </row>
+    <row r="97" spans="9:9" ht="19">
+      <c r="I97" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3384,11 +3406,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3428,194 +3450,205 @@
     </row>
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="7">
-        <v>50</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
         <v>100</v>
       </c>
-      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="21">
       <c r="A4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="7">
+        <v>114</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7">
         <v>50</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>100</v>
+      </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="21">
       <c r="A5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7">
-        <v>500</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B5" s="7">
+        <v>50</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="21">
       <c r="A6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="7">
-        <v>40</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="7">
-        <v>50</v>
-      </c>
-      <c r="D6" s="7">
-        <v>50</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="21">
       <c r="A7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="B7" s="7">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7">
+        <v>50</v>
+      </c>
       <c r="D7" s="7">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="21">
       <c r="A8" s="7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
-        <v>200</v>
-      </c>
+      <c r="D8" s="7">
+        <v>200</v>
+      </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="21">
       <c r="A9" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="7">
-        <v>50</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="21">
       <c r="A10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="B10" s="7">
+        <v>50</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="21">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="21">
       <c r="A11" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7">
-        <v>50</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="21">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="21">
       <c r="A12" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="21">
       <c r="A13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
+        <v>100</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="21">
+      <c r="A14" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="7">
         <v>50</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="18" spans="1:5" s="9" customFormat="1" ht="21">
-      <c r="A18" s="11" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="19" spans="1:5" s="9" customFormat="1" ht="21">
+      <c r="A19" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="11">
-        <f>SUM(B2:B13)</f>
+      <c r="B19" s="11">
+        <f>SUM(B2:B14)</f>
         <v>190</v>
       </c>
-      <c r="C18" s="11">
-        <f>SUM(C2:C13)</f>
+      <c r="C19" s="11">
+        <f>SUM(C2:C14)</f>
         <v>900</v>
       </c>
-      <c r="D18" s="11">
-        <f>SUM(D2:D13)</f>
+      <c r="D19" s="11">
+        <f>SUM(D2:D14)</f>
         <v>500</v>
       </c>
-      <c r="E18" s="11">
-        <f>SUM(E2:E13)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A19" s="12" t="s">
+      <c r="E19" s="11">
+        <f>SUM(E2:E14)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="A20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B20" s="12">
         <v>74</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C20" s="12">
         <v>0</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <v>0</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>108.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A20" s="13" t="s">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="13">
-        <f>B18-B19</f>
+      <c r="B21" s="13">
+        <f>B19-B20</f>
         <v>116</v>
       </c>
-      <c r="C20" s="13">
-        <f>B20+C18-C19</f>
+      <c r="C21" s="13">
+        <f>B21+C19-C20</f>
         <v>1016</v>
       </c>
-      <c r="D20" s="13">
-        <f>C20+D18-D19</f>
+      <c r="D21" s="13">
+        <f>C21+D19-D20</f>
         <v>1516</v>
       </c>
-      <c r="E20" s="13">
-        <f>D20+E18-E19</f>
-        <v>1907.01</v>
+      <c r="E21" s="13">
+        <f>D21+E19-E20</f>
+        <v>2007.01</v>
       </c>
     </row>
   </sheetData>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0127FC-03FF-8B48-8D9C-8F8A29DFA509}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF6702-460E-7348-A045-3E8ACFDFFCD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,6 +520,10 @@
   </si>
   <si>
     <t>陈凤清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鹏翔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1302,10 +1306,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K76" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:K76" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K76">
-    <sortCondition ref="A1:A76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K77" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:K77" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K77">
+    <sortCondition ref="A1:A77"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="32"/>
@@ -1325,8 +1329,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A79:K81" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A79:K81" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A80:K82" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A80:K82" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="18"/>
@@ -1345,10 +1349,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
-  <autoFilter ref="A1:E14" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
-    <sortCondition ref="A1:A14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:E15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <autoFilter ref="A1:E15" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E15">
+    <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="4"/>
@@ -1658,12 +1662,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="N87" sqref="N87"/>
+      <selection pane="topRight" activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -2111,7 +2115,9 @@
       <c r="J23" s="7">
         <v>1000</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" s="7">
+        <v>1000</v>
+      </c>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" ht="21">
@@ -3071,322 +3077,340 @@
     </row>
     <row r="73" spans="1:13" ht="21">
       <c r="A73" s="7" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="7">
-        <v>1000</v>
-      </c>
+      <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="7">
-        <v>300</v>
-      </c>
+      <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="M73" s="3"/>
+      <c r="K73" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="74" spans="1:13" ht="21">
-      <c r="A74" s="8" t="s">
-        <v>101</v>
+      <c r="A74" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+      <c r="E74" s="7">
+        <v>1000</v>
+      </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7">
-        <v>200</v>
-      </c>
+      <c r="H74" s="7">
+        <v>300</v>
+      </c>
+      <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
+      <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" ht="21">
-      <c r="A75" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B75" s="7">
-        <v>150</v>
-      </c>
-      <c r="C75" s="7">
-        <v>50</v>
-      </c>
+      <c r="A75" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="7">
-        <v>150</v>
-      </c>
-      <c r="G75" s="7">
-        <v>150</v>
-      </c>
-      <c r="H75" s="7">
-        <v>150</v>
-      </c>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7">
-        <v>50</v>
-      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7">
+        <v>200</v>
+      </c>
+      <c r="J75" s="7"/>
       <c r="K75" s="7"/>
     </row>
     <row r="76" spans="1:13" ht="21">
       <c r="A76" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="7">
+        <v>150</v>
+      </c>
+      <c r="C76" s="7">
+        <v>50</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7">
+        <v>150</v>
+      </c>
+      <c r="G76" s="7">
+        <v>150</v>
+      </c>
+      <c r="H76" s="7">
+        <v>150</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7">
+        <v>50</v>
+      </c>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:13" ht="21">
+      <c r="A77" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7">
         <v>50</v>
       </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="4" t="s">
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="4">
-        <f>SUM(B2:B76)</f>
+      <c r="B78" s="4">
+        <f>SUM(B2:B77)</f>
         <v>1980</v>
       </c>
-      <c r="C77" s="4">
-        <f t="shared" ref="C77:K77" si="0">SUM(C2:C76)</f>
+      <c r="C78" s="4">
+        <f t="shared" ref="C78:K78" si="0">SUM(C2:C77)</f>
         <v>1166</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D78" s="4">
         <f t="shared" si="0"/>
         <v>12195</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="4">
         <f t="shared" si="0"/>
         <v>5530</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="4">
         <f t="shared" si="0"/>
         <v>2517</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="4">
         <f t="shared" si="0"/>
         <v>6563.88</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="4">
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I78" s="4">
         <f t="shared" si="0"/>
         <v>5550</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J78" s="4">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K78" s="4">
         <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>66</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G80" s="2">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" s="2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B82" s="2">
         <v>570</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C82" s="2">
         <v>1080</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D82" s="2">
         <v>0</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E82" s="2">
         <v>3025</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F82" s="2">
         <v>2154</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G82" s="2">
         <v>3200</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H82" s="2">
         <v>3500</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I82" s="2">
         <v>4000</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J82" s="2">
         <v>3555</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="5" t="s">
+    <row r="84" spans="1:14">
+      <c r="A84" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="5">
-        <f>SUM(B80:B81)</f>
+      <c r="B84" s="5">
+        <f>SUM(B81:B82)</f>
         <v>570</v>
       </c>
-      <c r="C83" s="5">
-        <f t="shared" ref="C83:G83" si="1">SUM(C80:C81)</f>
+      <c r="C84" s="5">
+        <f t="shared" ref="C84:G84" si="1">SUM(C81:C82)</f>
         <v>1080</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D84" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E84" s="5">
         <f t="shared" si="1"/>
         <v>3025</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F84" s="5">
         <f t="shared" si="1"/>
         <v>2154</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G84" s="5">
         <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H84" s="5">
         <v>3500</v>
       </c>
-      <c r="I83" s="5">
+      <c r="I84" s="5">
         <v>4000</v>
       </c>
-      <c r="J83" s="5">
+      <c r="J84" s="5">
         <v>3555</v>
       </c>
-      <c r="K83" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="6" t="s">
+      <c r="K84" s="5">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="6">
-        <f>B77-B83</f>
+      <c r="B85" s="6">
+        <f>B78-B84</f>
         <v>1410</v>
       </c>
-      <c r="C84" s="6">
-        <f t="shared" ref="C84:K84" si="2">B84+C77-C83</f>
+      <c r="C85" s="6">
+        <f t="shared" ref="C85:K85" si="2">B85+C78-C84</f>
         <v>1496</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D85" s="6">
         <f t="shared" si="2"/>
         <v>13691</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E85" s="6">
         <f t="shared" si="2"/>
         <v>16196</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F85" s="6">
         <f t="shared" si="2"/>
         <v>16559</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G85" s="6">
         <f t="shared" si="2"/>
         <v>17822.88</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H85" s="6">
         <f t="shared" si="2"/>
         <v>18022.88</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I85" s="6">
         <f t="shared" si="2"/>
         <v>19572.88</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J85" s="6">
         <f t="shared" si="2"/>
         <v>17367.88</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K85" s="6">
         <f t="shared" si="2"/>
-        <v>19867.88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="19">
-      <c r="I85" s="3"/>
-    </row>
-    <row r="87" spans="1:14" ht="19">
-      <c r="I87" s="3"/>
-      <c r="L87" s="6">
-        <v>19367.88</v>
-      </c>
-      <c r="M87" s="2">
-        <f>烟供随喜!$E$21</f>
-        <v>2007.01</v>
-      </c>
-      <c r="N87" s="2">
-        <f>K84+M87</f>
-        <v>21874.89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="19">
-      <c r="I89" s="3"/>
-    </row>
-    <row r="91" spans="1:14" ht="19">
-      <c r="I91" s="3"/>
-    </row>
-    <row r="93" spans="1:14" ht="19">
-      <c r="I93" s="3"/>
-    </row>
-    <row r="95" spans="1:14" ht="19">
-      <c r="I95" s="3"/>
-    </row>
-    <row r="97" spans="9:9" ht="19">
-      <c r="I97" s="3"/>
+        <v>16921.88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="19">
+      <c r="I86" s="3"/>
+    </row>
+    <row r="88" spans="1:14" ht="19">
+      <c r="I88" s="3"/>
+      <c r="L88" s="6">
+        <f>$K$85</f>
+        <v>16921.88</v>
+      </c>
+      <c r="M88" s="2">
+        <f>烟供随喜!$E$22</f>
+        <v>2607.0100000000002</v>
+      </c>
+      <c r="N88" s="2">
+        <f>K85+M88</f>
+        <v>19528.89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="19">
+      <c r="I90" s="3"/>
+    </row>
+    <row r="92" spans="1:14" ht="19">
+      <c r="I92" s="3"/>
+    </row>
+    <row r="94" spans="1:14" ht="19">
+      <c r="I94" s="3"/>
+    </row>
+    <row r="96" spans="1:14" ht="19">
+      <c r="I96" s="3"/>
+    </row>
+    <row r="98" spans="9:9" ht="19">
+      <c r="I98" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3406,11 +3430,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E21" sqref="E21"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3492,7 +3516,9 @@
         <v>500</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>500</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="21">
       <c r="A7" s="7" t="s">
@@ -3570,85 +3596,102 @@
       <c r="J12" s="7"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="21">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="21">
       <c r="A13" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7">
-        <v>100</v>
-      </c>
-      <c r="E13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="21">
       <c r="A14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
+        <v>100</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="21">
+      <c r="A15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B15" s="7">
         <v>50</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="19" spans="1:5" s="9" customFormat="1" ht="21">
-      <c r="A19" s="11" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="20" spans="1:5" s="9" customFormat="1" ht="21">
+      <c r="A20" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="11">
-        <f>SUM(B2:B14)</f>
+      <c r="B20" s="11">
+        <f>SUM(B2:B15)</f>
         <v>190</v>
       </c>
-      <c r="C19" s="11">
-        <f>SUM(C2:C14)</f>
+      <c r="C20" s="11">
+        <f>SUM(C2:C15)</f>
         <v>900</v>
       </c>
-      <c r="D19" s="11">
-        <f>SUM(D2:D14)</f>
+      <c r="D20" s="11">
+        <f>SUM(D2:D15)</f>
         <v>500</v>
       </c>
-      <c r="E19" s="11">
-        <f>SUM(E2:E14)</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A20" s="12" t="s">
+      <c r="E20" s="11">
+        <f>SUM(E2:E15)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B21" s="12">
         <v>74</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C21" s="12">
         <v>0</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <v>0</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>108.99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A21" s="13" t="s">
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="A22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="13">
-        <f>B19-B20</f>
+      <c r="B22" s="13">
+        <f>B20-B21</f>
         <v>116</v>
       </c>
-      <c r="C21" s="13">
-        <f>B21+C19-C20</f>
+      <c r="C22" s="13">
+        <f>B22+C20-C21</f>
         <v>1016</v>
       </c>
-      <c r="D21" s="13">
-        <f>C21+D19-D20</f>
+      <c r="D22" s="13">
+        <f>C22+D20-D21</f>
         <v>1516</v>
       </c>
-      <c r="E21" s="13">
-        <f>D21+E19-E20</f>
-        <v>2007.01</v>
+      <c r="E22" s="13">
+        <f>D22+E20-E21</f>
+        <v>2607.0100000000002</v>
       </c>
     </row>
   </sheetData>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF6702-460E-7348-A045-3E8ACFDFFCD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F868A-CD62-8A46-A9B5-E3E6402E0183}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1667,7 +1667,7 @@
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="J87" sqref="J87"/>
+      <selection pane="topRight" activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -2934,7 +2934,9 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
+      <c r="K64" s="7">
+        <v>200</v>
+      </c>
     </row>
     <row r="65" spans="1:13" ht="21">
       <c r="A65" s="8" t="s">
@@ -3215,7 +3217,7 @@
       </c>
       <c r="K78" s="4">
         <f t="shared" si="0"/>
-        <v>3600</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3376,7 +3378,7 @@
       </c>
       <c r="K85" s="6">
         <f t="shared" si="2"/>
-        <v>16921.88</v>
+        <v>17121.88</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="19">
@@ -3386,7 +3388,7 @@
       <c r="I88" s="3"/>
       <c r="L88" s="6">
         <f>$K$85</f>
-        <v>16921.88</v>
+        <v>17121.88</v>
       </c>
       <c r="M88" s="2">
         <f>烟供随喜!$E$22</f>
@@ -3394,7 +3396,7 @@
       </c>
       <c r="N88" s="2">
         <f>K85+M88</f>
-        <v>19528.89</v>
+        <v>19728.89</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="19">

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F868A-CD62-8A46-A9B5-E3E6402E0183}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1A4432-9B9B-1640-B6CB-B2F2207957C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1664,16 +1664,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="L67" sqref="L67"/>
+      <selection pane="topRight" activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="21.5" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="11" style="2"/>
+    <col min="2" max="10" width="11" style="2"/>
+    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1">
@@ -2031,7 +2033,9 @@
         <v>100</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="K19" s="7">
+        <v>100</v>
+      </c>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" ht="21">
@@ -3217,7 +3221,7 @@
       </c>
       <c r="K78" s="4">
         <f t="shared" si="0"/>
-        <v>3800</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3378,7 +3382,7 @@
       </c>
       <c r="K85" s="6">
         <f t="shared" si="2"/>
-        <v>17121.88</v>
+        <v>17221.88</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="19">
@@ -3388,7 +3392,7 @@
       <c r="I88" s="3"/>
       <c r="L88" s="6">
         <f>$K$85</f>
-        <v>17121.88</v>
+        <v>17221.88</v>
       </c>
       <c r="M88" s="2">
         <f>烟供随喜!$E$22</f>
@@ -3396,7 +3400,7 @@
       </c>
       <c r="N88" s="2">
         <f>K85+M88</f>
-        <v>19728.89</v>
+        <v>19828.89</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="19">

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1A4432-9B9B-1640-B6CB-B2F2207957C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCE2AB9-18BC-1040-9834-83EA53FA012B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1664,10 +1664,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="N88" sqref="N88"/>
+      <selection pane="topRight" activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCE2AB9-18BC-1040-9834-83EA53FA012B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7227793-8FFA-9543-A096-11E2F8A26A85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="放生随喜" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="128">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,10 @@
   </si>
   <si>
     <t>王鹏翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,7 +833,25 @@
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1306,60 +1328,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K77" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K77" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:K77" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K77">
     <sortCondition ref="A1:A77"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A80:K82" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A80:K82" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A80:K82" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:E15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
-  <autoFilter ref="A1:E15" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F15" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E15">
     <sortCondition ref="A1:A15"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.09.22" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1664,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="N90" sqref="N90"/>
@@ -3438,9 +3461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E17" sqref="E17"/>
+      <selection pane="topRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3464,6 +3487,9 @@
       <c r="E1" s="15" t="s">
         <v>107</v>
       </c>
+      <c r="F1" s="15" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="7" t="s">
@@ -3477,6 +3503,7 @@
       <c r="E2" s="7">
         <v>200</v>
       </c>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="7" t="s">
@@ -3488,6 +3515,7 @@
       <c r="E3" s="7">
         <v>100</v>
       </c>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="21">
       <c r="A4" s="7" t="s">
@@ -3501,6 +3529,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="21">
       <c r="A5" s="7" t="s">
@@ -3512,6 +3541,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="21">
       <c r="A6" s="7" t="s">
@@ -3525,6 +3555,7 @@
       <c r="E6" s="7">
         <v>500</v>
       </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="21">
       <c r="A7" s="7" t="s">
@@ -3540,6 +3571,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="21">
       <c r="A8" s="7" t="s">
@@ -3551,6 +3583,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="21">
       <c r="A9" s="7" t="s">
@@ -3562,6 +3595,7 @@
       <c r="E9" s="7">
         <v>200</v>
       </c>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="21">
       <c r="A10" s="7" t="s">
@@ -3573,6 +3607,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="21">
       <c r="A11" s="7" t="s">
@@ -3584,6 +3619,7 @@
       <c r="E11" s="7">
         <v>100</v>
       </c>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="21">
       <c r="A12" s="7" t="s">
@@ -3629,6 +3665,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="21">
       <c r="A15" s="7" t="s">
@@ -3640,8 +3677,9 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-    </row>
-    <row r="20" spans="1:5" s="9" customFormat="1" ht="21">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="20" spans="1:6" s="9" customFormat="1" ht="21">
       <c r="A20" s="11" t="s">
         <v>109</v>
       </c>
@@ -3661,8 +3699,12 @@
         <f>SUM(E2:E15)</f>
         <v>1200</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="F20" s="11">
+        <f>SUM(F2:F15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
@@ -3678,8 +3720,11 @@
       <c r="E21" s="12">
         <v>108.99</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="F21" s="12">
+        <v>62.59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A22" s="13" t="s">
         <v>22</v>
       </c>
@@ -3698,6 +3743,10 @@
       <c r="E22" s="13">
         <f>D22+E20-E21</f>
         <v>2607.0100000000002</v>
+      </c>
+      <c r="F22" s="13">
+        <f>E22+F20-F21</f>
+        <v>2544.42</v>
       </c>
     </row>
   </sheetData>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7227793-8FFA-9543-A096-11E2F8A26A85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67A4C66-A848-3545-A5B2-7E1999FF66D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="放生随喜" sheetId="1" r:id="rId1"/>
@@ -1687,10 +1687,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="N90" sqref="N90"/>
+      <selection pane="topRight" activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -3418,12 +3418,12 @@
         <v>17221.88</v>
       </c>
       <c r="M88" s="2">
-        <f>烟供随喜!$E$22</f>
-        <v>2607.0100000000002</v>
+        <f>烟供随喜!$F$22</f>
+        <v>2544.42</v>
       </c>
       <c r="N88" s="2">
         <f>K85+M88</f>
-        <v>19828.89</v>
+        <v>19766.300000000003</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="19">
@@ -3461,9 +3461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G21" sqref="G21"/>
+      <selection pane="topRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67A4C66-A848-3545-A5B2-7E1999FF66D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB38A07B-FEB8-8247-9C4D-A2445E34A50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="131">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,7 +527,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.09.22</t>
+    <t>2019.10.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎西拉姆全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列12</t>
+  </si>
+  <si>
+    <t>2019.10.012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,6 +831,9 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="差" xfId="8" builtinId="27"/>
@@ -833,7 +847,7 @@
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="39">
     <dxf>
       <font>
         <b val="0"/>
@@ -851,144 +865,6 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1145,6 +1021,187 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1328,61 +1385,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:K77" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:K77" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:L77" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:L77" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K77">
     <sortCondition ref="A1:A77"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="23"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2019.10.01" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A80:K82" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A80:K82" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A80:L82" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A80:L82" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:F15" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E15">
-    <sortCondition ref="A1:A15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
+  <autoFilter ref="A1:G19" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
+    <sortCondition ref="A1:A19"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.09.22" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.012" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1687,10 +1747,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="O89" sqref="O89"/>
+      <selection pane="topRight" activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1701,7 +1761,7 @@
     <col min="12" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" hidden="1">
+    <row r="1" spans="1:12" hidden="1">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1735,8 +1795,11 @@
       <c r="K1" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="21">
+      <c r="L1" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
@@ -1752,8 +1815,9 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="21">
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="21">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -1771,8 +1835,11 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="21">
+      <c r="L3" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21">
       <c r="A4" s="8" t="s">
         <v>102</v>
       </c>
@@ -1788,8 +1855,9 @@
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="21">
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="21">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -1807,8 +1875,9 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="21">
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="21">
       <c r="A6" s="7" t="s">
         <v>120</v>
       </c>
@@ -1824,8 +1893,9 @@
         <v>100</v>
       </c>
       <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="21">
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="21">
       <c r="A7" s="7" t="s">
         <v>125</v>
       </c>
@@ -1841,8 +1911,9 @@
       <c r="K7" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="21">
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" ht="21">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1858,8 +1929,9 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="21">
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="21">
       <c r="A9" s="7" t="s">
         <v>65</v>
       </c>
@@ -1875,8 +1947,9 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="21">
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="21">
       <c r="A10" s="8" t="s">
         <v>106</v>
       </c>
@@ -1892,8 +1965,9 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="21">
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="21">
       <c r="A11" s="8" t="s">
         <v>96</v>
       </c>
@@ -1909,8 +1983,9 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="21">
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" ht="21">
       <c r="A12" s="8" t="s">
         <v>81</v>
       </c>
@@ -1926,8 +2001,9 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="21">
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="21">
       <c r="A13" s="8" t="s">
         <v>85</v>
       </c>
@@ -1943,8 +2019,9 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="21">
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="21">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -1960,8 +2037,9 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" ht="21">
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="21">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -1979,8 +2057,9 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="21">
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="21">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -1996,8 +2075,9 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" ht="21">
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="21">
       <c r="A17" s="7" t="s">
         <v>121</v>
       </c>
@@ -2013,8 +2093,9 @@
       <c r="K17" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="21">
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="21">
       <c r="A18" s="8" t="s">
         <v>98</v>
       </c>
@@ -2030,8 +2111,9 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" ht="21">
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" ht="21">
       <c r="A19" s="7" t="s">
         <v>59</v>
       </c>
@@ -2059,9 +2141,10 @@
       <c r="K19" s="7">
         <v>100</v>
       </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="21">
+      <c r="L19" s="7"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="21">
       <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
@@ -2077,8 +2160,9 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" ht="21">
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="21">
       <c r="A21" s="7" t="s">
         <v>99</v>
       </c>
@@ -2091,112 +2175,125 @@
         <v>100</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="7">
+        <v>200</v>
+      </c>
       <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="21">
+      <c r="K21" s="7">
+        <v>800</v>
+      </c>
+      <c r="L21" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="21">
       <c r="A22" s="7" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="D22" s="7">
+        <v>100</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1000</v>
+      </c>
       <c r="I22" s="7">
-        <v>200</v>
-      </c>
-      <c r="J22" s="7"/>
+        <v>1500</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1000</v>
+      </c>
       <c r="K22" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="21">
-      <c r="A23" s="7" t="s">
-        <v>14</v>
+        <v>1000</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="21">
+      <c r="A23" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7">
-        <v>100</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
+        <v>200</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="21">
+      <c r="A24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7">
+        <v>500</v>
+      </c>
+      <c r="C24" s="7">
+        <v>666</v>
+      </c>
+      <c r="D24" s="7">
         <v>1000</v>
       </c>
-      <c r="F23" s="7">
+      <c r="E24" s="7">
+        <v>500</v>
+      </c>
+      <c r="F24" s="7">
+        <v>500</v>
+      </c>
+      <c r="G24" s="7">
+        <v>500</v>
+      </c>
+      <c r="H24" s="7">
         <v>1000</v>
       </c>
-      <c r="G23" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1500</v>
-      </c>
-      <c r="J23" s="7">
-        <v>1000</v>
-      </c>
-      <c r="K23" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="21">
-      <c r="A24" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
-        <v>200</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="7">
+        <v>500</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" ht="21">
+      <c r="L24" s="7">
+        <v>800</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="21">
       <c r="A25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="7">
-        <v>500</v>
-      </c>
-      <c r="C25" s="7">
-        <v>666</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="7">
-        <v>500</v>
-      </c>
-      <c r="F25" s="7">
-        <v>500</v>
-      </c>
-      <c r="G25" s="7">
-        <v>500</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I25" s="7">
-        <v>500</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" ht="21">
+      <c r="L25" s="7">
+        <v>100</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="21">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -2220,8 +2317,9 @@
       <c r="K26" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="21">
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="21">
       <c r="A27" s="8" t="s">
         <v>84</v>
       </c>
@@ -2237,9 +2335,10 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="21">
+      <c r="L27" s="7"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="21">
       <c r="A28" s="7" t="s">
         <v>58</v>
       </c>
@@ -2255,8 +2354,9 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" ht="21">
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="21">
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
@@ -2272,9 +2372,10 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="21">
+      <c r="L29" s="7"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="21">
       <c r="A30" s="8" t="s">
         <v>86</v>
       </c>
@@ -2290,8 +2391,9 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" ht="21">
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" ht="21">
       <c r="A31" s="8" t="s">
         <v>124</v>
       </c>
@@ -2307,8 +2409,9 @@
       <c r="K31" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="21">
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" ht="21">
       <c r="A32" s="8" t="s">
         <v>83</v>
       </c>
@@ -2324,9 +2427,10 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" ht="21">
+      <c r="L32" s="7"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" ht="21">
       <c r="A33" s="8" t="s">
         <v>95</v>
       </c>
@@ -2342,8 +2446,9 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" ht="21">
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" ht="21">
       <c r="A34" s="7" t="s">
         <v>31</v>
       </c>
@@ -2363,9 +2468,12 @@
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" ht="21">
+      <c r="L34" s="7">
+        <v>300</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" ht="21">
       <c r="A35" s="7" t="s">
         <v>35</v>
       </c>
@@ -2381,8 +2489,9 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" ht="21">
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" ht="21">
       <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
@@ -2414,9 +2523,12 @@
       <c r="K36" s="7">
         <v>100</v>
       </c>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" ht="21">
+      <c r="L36" s="7">
+        <v>100</v>
+      </c>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="21">
       <c r="A37" s="7" t="s">
         <v>55</v>
       </c>
@@ -2432,8 +2544,9 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:13" ht="21">
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" ht="21">
       <c r="A38" s="7" t="s">
         <v>57</v>
       </c>
@@ -2459,9 +2572,10 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" ht="21">
+      <c r="L38" s="7"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="21">
       <c r="A39" s="8" t="s">
         <v>76</v>
       </c>
@@ -2477,8 +2591,9 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:13" ht="21">
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" ht="21">
       <c r="A40" s="7" t="s">
         <v>39</v>
       </c>
@@ -2494,9 +2609,10 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" ht="21">
+      <c r="L40" s="7"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" ht="21">
       <c r="A41" s="8" t="s">
         <v>80</v>
       </c>
@@ -2512,8 +2628,9 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" ht="21">
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" ht="21">
       <c r="A42" s="7" t="s">
         <v>36</v>
       </c>
@@ -2533,8 +2650,9 @@
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" ht="21">
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" ht="21">
       <c r="A43" s="7" t="s">
         <v>105</v>
       </c>
@@ -2554,9 +2672,10 @@
       <c r="K43" s="7">
         <v>200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13" ht="21">
+      <c r="L43" s="7"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" ht="21">
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
@@ -2572,8 +2691,9 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" ht="21">
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" ht="21">
       <c r="A45" s="8" t="s">
         <v>97</v>
       </c>
@@ -2589,9 +2709,10 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" ht="21">
+      <c r="L45" s="7"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="21">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
@@ -2607,8 +2728,9 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:13" ht="21">
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" ht="21">
       <c r="A47" s="7" t="s">
         <v>68</v>
       </c>
@@ -2624,9 +2746,10 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" ht="21">
+      <c r="L47" s="7"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="21">
       <c r="A48" s="7" t="s">
         <v>33</v>
       </c>
@@ -2642,8 +2765,9 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:13" ht="21">
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" ht="21">
       <c r="A49" s="8" t="s">
         <v>91</v>
       </c>
@@ -2659,9 +2783,10 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" ht="21">
+      <c r="L49" s="7"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" ht="21">
       <c r="A50" s="8" t="s">
         <v>103</v>
       </c>
@@ -2677,8 +2802,9 @@
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
-    </row>
-    <row r="51" spans="1:13" ht="21">
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" ht="21">
       <c r="A51" s="8" t="s">
         <v>88</v>
       </c>
@@ -2694,8 +2820,9 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
-    </row>
-    <row r="52" spans="1:13" ht="21">
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:14" ht="21">
       <c r="A52" s="8" t="s">
         <v>75</v>
       </c>
@@ -2711,9 +2838,10 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="1:13" ht="21">
+      <c r="L52" s="7"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" ht="21">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
@@ -2729,8 +2857,9 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="1:13" ht="21">
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="1:14" ht="21">
       <c r="A54" s="7" t="s">
         <v>122</v>
       </c>
@@ -2764,9 +2893,12 @@
       <c r="K54" s="7">
         <v>100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:13" ht="21">
+      <c r="L54" s="7">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" ht="21">
       <c r="A55" s="8" t="s">
         <v>82</v>
       </c>
@@ -2782,8 +2914,9 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="1:13" ht="21">
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="1:14" ht="21">
       <c r="A56" s="8" t="s">
         <v>104</v>
       </c>
@@ -2799,9 +2932,10 @@
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="1:13" ht="21">
+      <c r="L56" s="7"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" ht="21">
       <c r="A57" s="7" t="s">
         <v>6</v>
       </c>
@@ -2825,8 +2959,11 @@
       <c r="K57" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="21">
+      <c r="L57" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="21">
       <c r="A58" s="8" t="s">
         <v>79</v>
       </c>
@@ -2842,9 +2979,10 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:13" ht="21">
+      <c r="L58" s="7"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" ht="21">
       <c r="A59" s="8" t="s">
         <v>78</v>
       </c>
@@ -2860,8 +2998,9 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
-    </row>
-    <row r="60" spans="1:13" ht="21">
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:14" ht="21">
       <c r="A60" s="7" t="s">
         <v>8</v>
       </c>
@@ -2877,9 +3016,10 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="1:13" ht="21">
+      <c r="L60" s="7"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" ht="21">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -2895,8 +3035,9 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
-    </row>
-    <row r="62" spans="1:13" ht="21">
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:14" ht="21">
       <c r="A62" s="7" t="s">
         <v>32</v>
       </c>
@@ -2922,9 +3063,12 @@
       <c r="K62" s="7">
         <v>200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" ht="21">
+      <c r="L62" s="7">
+        <v>200</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" ht="21">
       <c r="A63" s="7" t="s">
         <v>123</v>
       </c>
@@ -2940,9 +3084,10 @@
       <c r="K63" s="7">
         <v>100</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:13" ht="21">
+      <c r="L63" s="7"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" ht="21">
       <c r="A64" s="7" t="s">
         <v>1</v>
       </c>
@@ -2964,8 +3109,9 @@
       <c r="K64" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="21">
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="1:14" ht="21">
       <c r="A65" s="8" t="s">
         <v>90</v>
       </c>
@@ -2981,9 +3127,10 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:13" ht="21">
+      <c r="L65" s="7"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" ht="21">
       <c r="A66" s="8" t="s">
         <v>87</v>
       </c>
@@ -2999,8 +3146,9 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-    </row>
-    <row r="67" spans="1:13" ht="21">
+      <c r="L66" s="7"/>
+    </row>
+    <row r="67" spans="1:14" ht="21">
       <c r="A67" s="8" t="s">
         <v>94</v>
       </c>
@@ -3016,9 +3164,10 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
-      <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="1:13" ht="21">
+      <c r="L67" s="7"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" ht="21">
       <c r="A68" s="8" t="s">
         <v>89</v>
       </c>
@@ -3034,8 +3183,9 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
-    </row>
-    <row r="69" spans="1:13" ht="21">
+      <c r="L68" s="7"/>
+    </row>
+    <row r="69" spans="1:14" ht="21">
       <c r="A69" s="7" t="s">
         <v>42</v>
       </c>
@@ -3051,9 +3201,10 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:13" ht="21">
+      <c r="L69" s="7"/>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" ht="21">
       <c r="A70" s="8" t="s">
         <v>93</v>
       </c>
@@ -3069,8 +3220,9 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
-    </row>
-    <row r="71" spans="1:13" ht="21">
+      <c r="L70" s="7"/>
+    </row>
+    <row r="71" spans="1:14" ht="21">
       <c r="A71" s="8" t="s">
         <v>92</v>
       </c>
@@ -3086,8 +3238,9 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
-    </row>
-    <row r="72" spans="1:13" ht="21">
+      <c r="L71" s="7"/>
+    </row>
+    <row r="72" spans="1:14" ht="21">
       <c r="A72" s="7" t="s">
         <v>118</v>
       </c>
@@ -3103,8 +3256,9 @@
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
-    </row>
-    <row r="73" spans="1:13" ht="21">
+      <c r="L72" s="7"/>
+    </row>
+    <row r="73" spans="1:14" ht="21">
       <c r="A73" s="7" t="s">
         <v>126</v>
       </c>
@@ -3120,8 +3274,9 @@
       <c r="K73" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="21">
+      <c r="L73" s="7"/>
+    </row>
+    <row r="74" spans="1:14" ht="21">
       <c r="A74" s="7" t="s">
         <v>34</v>
       </c>
@@ -3139,9 +3294,10 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:13" ht="21">
+      <c r="L74" s="7"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" ht="21">
       <c r="A75" s="8" t="s">
         <v>101</v>
       </c>
@@ -3157,8 +3313,9 @@
       </c>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
-    </row>
-    <row r="76" spans="1:13" ht="21">
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="1:14" ht="21">
       <c r="A76" s="7" t="s">
         <v>56</v>
       </c>
@@ -3184,8 +3341,9 @@
         <v>50</v>
       </c>
       <c r="K76" s="7"/>
-    </row>
-    <row r="77" spans="1:13" ht="21">
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="1:14" ht="21">
       <c r="A77" s="7" t="s">
         <v>40</v>
       </c>
@@ -3201,8 +3359,9 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="L77" s="7"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="4" t="s">
         <v>24</v>
       </c>
@@ -3211,43 +3370,47 @@
         <v>1980</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" ref="C78:K78" si="0">SUM(C2:C77)</f>
+        <f>SUM(C2:C77)</f>
         <v>1166</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(D2:D77)</f>
         <v>12195</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E2:E77)</f>
         <v>5530</v>
       </c>
       <c r="F78" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(F2:F77)</f>
         <v>2517</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(G2:G77)</f>
         <v>6563.88</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(H2:H77)</f>
         <v>3700</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(I2:I77)</f>
         <v>5550</v>
       </c>
       <c r="J78" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(J2:J77)</f>
         <v>1350</v>
       </c>
       <c r="K78" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(K2:K77)</f>
         <v>3900</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="L78" s="4">
+        <f>SUM(L2:L77)</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="2" t="s">
         <v>16</v>
       </c>
@@ -3280,6 +3443,9 @@
       </c>
       <c r="K80" s="2" t="s">
         <v>66</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3321,6 +3487,9 @@
       <c r="J82" s="2">
         <v>3555</v>
       </c>
+      <c r="K82" s="2">
+        <v>4046</v>
+      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="5" t="s">
@@ -3331,23 +3500,23 @@
         <v>570</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" ref="C84:G84" si="1">SUM(C81:C82)</f>
+        <f t="shared" ref="C84:G84" si="0">SUM(C81:C82)</f>
         <v>1080</v>
       </c>
       <c r="D84" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E84" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3025</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2154</v>
       </c>
       <c r="G84" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5300</v>
       </c>
       <c r="H84" s="5">
@@ -3362,6 +3531,7 @@
       <c r="K84" s="5">
         <v>4046</v>
       </c>
+      <c r="L84" s="5"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="6" t="s">
@@ -3372,40 +3542,44 @@
         <v>1410</v>
       </c>
       <c r="C85" s="6">
-        <f t="shared" ref="C85:K85" si="2">B85+C78-C84</f>
+        <f t="shared" ref="C85:L85" si="1">B85+C78-C84</f>
         <v>1496</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13691</v>
       </c>
       <c r="E85" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16196</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16559</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17822.88</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18022.88</v>
       </c>
       <c r="I85" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19572.88</v>
       </c>
       <c r="J85" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17367.88</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17221.88</v>
+      </c>
+      <c r="L85" s="6">
+        <f t="shared" si="1"/>
+        <v>20821.88</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="19">
@@ -3414,16 +3588,16 @@
     <row r="88" spans="1:14" ht="19">
       <c r="I88" s="3"/>
       <c r="L88" s="6">
-        <f>$K$85</f>
-        <v>17221.88</v>
+        <f>$L$85</f>
+        <v>20821.88</v>
       </c>
       <c r="M88" s="2">
-        <f>烟供随喜!$F$22</f>
-        <v>2544.42</v>
+        <f>烟供随喜!$F$26</f>
+        <v>3531.8300000000004</v>
       </c>
       <c r="N88" s="2">
-        <f>K85+M88</f>
-        <v>19766.300000000003</v>
+        <f>$L$88+M88</f>
+        <v>24353.710000000003</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="19">
@@ -3459,11 +3633,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F22" sqref="F22"/>
+      <selection pane="topRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3490,6 +3664,9 @@
       <c r="F1" s="15" t="s">
         <v>127</v>
       </c>
+      <c r="G1" s="16" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="7" t="s">
@@ -3503,7 +3680,10 @@
       <c r="E2" s="7">
         <v>200</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7">
+        <v>200</v>
+      </c>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="7" t="s">
@@ -3516,6 +3696,7 @@
         <v>100</v>
       </c>
       <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="21">
       <c r="A4" s="7" t="s">
@@ -3530,6 +3711,7 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="21">
       <c r="A5" s="7" t="s">
@@ -3542,6 +3724,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="21">
       <c r="A6" s="7" t="s">
@@ -3555,7 +3738,10 @@
       <c r="E6" s="7">
         <v>500</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>200</v>
+      </c>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="21">
       <c r="A7" s="7" t="s">
@@ -3571,7 +3757,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="21">
       <c r="A8" s="7" t="s">
@@ -3584,6 +3773,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="21">
       <c r="A9" s="7" t="s">
@@ -3595,7 +3785,10 @@
       <c r="E9" s="7">
         <v>200</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>100</v>
+      </c>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="21">
       <c r="A10" s="7" t="s">
@@ -3607,7 +3800,10 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="21">
       <c r="A11" s="7" t="s">
@@ -3620,6 +3816,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="21">
       <c r="A12" s="7" t="s">
@@ -3640,113 +3837,183 @@
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="21">
       <c r="A13" s="7" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7">
-        <v>100</v>
-      </c>
-      <c r="F13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <v>100</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="21">
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="21">
       <c r="A14" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7">
-        <v>100</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" ht="21">
+      <c r="F14" s="7">
+        <v>50</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="21">
       <c r="A15" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="7">
-        <v>50</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" ht="21">
-      <c r="A20" s="11" t="s">
+      <c r="F15" s="7">
+        <v>200</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="21">
+      <c r="A16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
+        <v>100</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="21">
+      <c r="A17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" ht="21">
+      <c r="A18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
+        <v>100</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="21">
+      <c r="A19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="7">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="24" spans="1:13" s="9" customFormat="1" ht="21">
+      <c r="A24" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="11">
-        <f>SUM(B2:B15)</f>
+      <c r="B24" s="11">
+        <f>SUM(B2:B19)</f>
         <v>190</v>
       </c>
-      <c r="C20" s="11">
-        <f>SUM(C2:C15)</f>
+      <c r="C24" s="11">
+        <f>SUM(C2:C19)</f>
         <v>900</v>
       </c>
-      <c r="D20" s="11">
-        <f>SUM(D2:D15)</f>
+      <c r="D24" s="11">
+        <f>SUM(D2:D19)</f>
         <v>500</v>
       </c>
-      <c r="E20" s="11">
-        <f>SUM(E2:E15)</f>
+      <c r="E24" s="11">
+        <f>SUM(E2:E19)</f>
         <v>1200</v>
       </c>
-      <c r="F20" s="11">
-        <f>SUM(F2:F15)</f>
+      <c r="F24" s="11">
+        <f>SUM(F2:F19)</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="21">
+      <c r="A25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="12">
+        <v>74</v>
+      </c>
+      <c r="C25" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="21">
-      <c r="A21" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="12">
-        <v>74</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="D25" s="12">
         <v>0</v>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="E25" s="12">
         <v>108.99</v>
       </c>
-      <c r="F21" s="12">
-        <v>62.59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="21">
-      <c r="A22" s="13" t="s">
+      <c r="F25" s="12">
+        <v>125.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="2" customFormat="1" ht="21">
+      <c r="A26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="13">
-        <f>B20-B21</f>
+      <c r="B26" s="13">
+        <f>B24-B25</f>
         <v>116</v>
       </c>
-      <c r="C22" s="13">
-        <f>B22+C20-C21</f>
+      <c r="C26" s="13">
+        <f>B26+C24-C25</f>
         <v>1016</v>
       </c>
-      <c r="D22" s="13">
-        <f>C22+D20-D21</f>
+      <c r="D26" s="13">
+        <f>C26+D24-D25</f>
         <v>1516</v>
       </c>
-      <c r="E22" s="13">
-        <f>D22+E20-E21</f>
+      <c r="E26" s="13">
+        <f>D26+E24-E25</f>
         <v>2607.0100000000002</v>
       </c>
-      <c r="F22" s="13">
-        <f>E22+F20-F21</f>
-        <v>2544.42</v>
+      <c r="F26" s="13">
+        <f>E26+F24-F25</f>
+        <v>3531.8300000000004</v>
       </c>
     </row>
   </sheetData>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB38A07B-FEB8-8247-9C4D-A2445E34A50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A6CCE6-A364-8543-A3F3-EAC553CB028E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,6 +868,162 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1046,162 +1202,6 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1402,46 +1402,46 @@
     <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="28"/>
     <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="27"/>
     <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2019.10.01" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2019.10.01" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A80:L82" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A80:L82" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A80:L82" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="A1:G19" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
     <sortCondition ref="A1:A19"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.012" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1747,10 +1747,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="N88" sqref="N88"/>
+      <selection pane="topRight" activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -3341,7 +3341,9 @@
         <v>50</v>
       </c>
       <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
+      <c r="L76" s="7">
+        <v>150</v>
+      </c>
     </row>
     <row r="77" spans="1:14" ht="21">
       <c r="A77" s="7" t="s">
@@ -3366,48 +3368,48 @@
         <v>24</v>
       </c>
       <c r="B78" s="4">
-        <f>SUM(B2:B77)</f>
+        <f t="shared" ref="B78:L78" si="0">SUM(B2:B77)</f>
         <v>1980</v>
       </c>
       <c r="C78" s="4">
-        <f>SUM(C2:C77)</f>
+        <f t="shared" si="0"/>
         <v>1166</v>
       </c>
       <c r="D78" s="4">
-        <f>SUM(D2:D77)</f>
+        <f t="shared" si="0"/>
         <v>12195</v>
       </c>
       <c r="E78" s="4">
-        <f>SUM(E2:E77)</f>
+        <f t="shared" si="0"/>
         <v>5530</v>
       </c>
       <c r="F78" s="4">
-        <f>SUM(F2:F77)</f>
+        <f t="shared" si="0"/>
         <v>2517</v>
       </c>
       <c r="G78" s="4">
-        <f>SUM(G2:G77)</f>
+        <f t="shared" si="0"/>
         <v>6563.88</v>
       </c>
       <c r="H78" s="4">
-        <f>SUM(H2:H77)</f>
+        <f t="shared" si="0"/>
         <v>3700</v>
       </c>
       <c r="I78" s="4">
-        <f>SUM(I2:I77)</f>
+        <f t="shared" si="0"/>
         <v>5550</v>
       </c>
       <c r="J78" s="4">
-        <f>SUM(J2:J77)</f>
+        <f t="shared" si="0"/>
         <v>1350</v>
       </c>
       <c r="K78" s="4">
-        <f>SUM(K2:K77)</f>
+        <f t="shared" si="0"/>
         <v>3900</v>
       </c>
       <c r="L78" s="4">
-        <f>SUM(L2:L77)</f>
-        <v>3600</v>
+        <f t="shared" si="0"/>
+        <v>3750</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3500,23 +3502,23 @@
         <v>570</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" ref="C84:G84" si="0">SUM(C81:C82)</f>
+        <f t="shared" ref="C84:G84" si="1">SUM(C81:C82)</f>
         <v>1080</v>
       </c>
       <c r="D84" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E84" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3025</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2154</v>
       </c>
       <c r="G84" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5300</v>
       </c>
       <c r="H84" s="5">
@@ -3531,7 +3533,9 @@
       <c r="K84" s="5">
         <v>4046</v>
       </c>
-      <c r="L84" s="5"/>
+      <c r="L84" s="5">
+        <v>3490</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="6" t="s">
@@ -3542,44 +3546,44 @@
         <v>1410</v>
       </c>
       <c r="C85" s="6">
-        <f t="shared" ref="C85:L85" si="1">B85+C78-C84</f>
+        <f t="shared" ref="C85:L85" si="2">B85+C78-C84</f>
         <v>1496</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13691</v>
       </c>
       <c r="E85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16196</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16559</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17822.88</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18022.88</v>
       </c>
       <c r="I85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19572.88</v>
       </c>
       <c r="J85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17367.88</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17221.88</v>
       </c>
       <c r="L85" s="6">
-        <f t="shared" si="1"/>
-        <v>20821.88</v>
+        <f t="shared" si="2"/>
+        <v>17481.88</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="19">
@@ -3589,7 +3593,7 @@
       <c r="I88" s="3"/>
       <c r="L88" s="6">
         <f>$L$85</f>
-        <v>20821.88</v>
+        <v>17481.88</v>
       </c>
       <c r="M88" s="2">
         <f>烟供随喜!$F$26</f>
@@ -3597,7 +3601,7 @@
       </c>
       <c r="N88" s="2">
         <f>$L$88+M88</f>
-        <v>24353.710000000003</v>
+        <v>21013.710000000003</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="19">
@@ -3637,7 +3641,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G27" sqref="G27"/>
+      <selection pane="topRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A6CCE6-A364-8543-A3F3-EAC553CB028E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C62F61-06B9-7A45-92C5-70F3B0A40DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
     <t>列12</t>
   </si>
   <si>
-    <t>2019.10.012</t>
+    <t>2019.10.07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,7 +1442,7 @@
     <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.012" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1747,10 +1747,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="N87" sqref="N87"/>
+      <selection pane="topRight" activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -3596,12 +3596,12 @@
         <v>17481.88</v>
       </c>
       <c r="M88" s="2">
-        <f>烟供随喜!$F$26</f>
-        <v>3531.8300000000004</v>
+        <f>烟供随喜!$G$26</f>
+        <v>4267.55</v>
       </c>
       <c r="N88" s="2">
-        <f>$L$88+M88</f>
-        <v>21013.710000000003</v>
+        <f>SUM(L88,M88)</f>
+        <v>21749.43</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="19">
@@ -3641,7 +3641,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F27" sqref="F27"/>
+      <selection pane="topRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3687,7 +3687,9 @@
       <c r="F2" s="7">
         <v>200</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7">
+        <v>1000</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="7" t="s">
@@ -3764,7 +3766,9 @@
       <c r="F7" s="7">
         <v>50</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="21">
       <c r="A8" s="7" t="s">
@@ -3807,7 +3811,9 @@
       <c r="F10" s="7">
         <v>50</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="21">
       <c r="A11" s="7" t="s">
@@ -3974,6 +3980,10 @@
         <f>SUM(F2:F19)</f>
         <v>1050</v>
       </c>
+      <c r="G24" s="11">
+        <f>SUM(G2:G19)</f>
+        <v>1150</v>
+      </c>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" ht="21">
       <c r="A25" s="12" t="s">
@@ -3994,6 +4004,9 @@
       <c r="F25" s="12">
         <v>125.18</v>
       </c>
+      <c r="G25" s="12">
+        <v>414.28</v>
+      </c>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1" ht="21">
       <c r="A26" s="13" t="s">
@@ -4018,6 +4031,10 @@
       <c r="F26" s="13">
         <f>E26+F24-F25</f>
         <v>3531.8300000000004</v>
+      </c>
+      <c r="G26" s="13">
+        <f>F26+G24-G25</f>
+        <v>4267.55</v>
       </c>
     </row>
   </sheetData>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chiming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xubo/Documents/GitHub/chiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F1BFFD-A129-4F5D-B446-F57372D8E80F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FB3B17-748F-4A47-990F-A4272D617575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29000" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="放生随喜" sheetId="1" r:id="rId1"/>
     <sheet name="烟供随喜" sheetId="2" r:id="rId2"/>
     <sheet name="会供随喜" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="135">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,12 +537,28 @@
     <t>2019.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2019.11.02</t>
+  </si>
+  <si>
+    <t>列14</t>
+  </si>
+  <si>
+    <t>列15</t>
+  </si>
+  <si>
+    <t>2019.11.03</t>
+  </si>
+  <si>
+    <t>中山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -834,7 +850,7 @@
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="55">
     <dxf>
       <font>
         <b val="0"/>
@@ -870,80 +886,6 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1083,6 +1025,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <top style="thin">
           <color theme="1"/>
         </top>
@@ -1107,9 +1056,155 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color theme="1"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1551,83 +1646,88 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:N80" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
-  <autoFilter ref="A1:N80" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState ref="A2:K80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:O80" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <autoFilter ref="A1:O80" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K80">
     <sortCondition ref="A1:A80"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2019.12.12" dataDxfId="34"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.11.02" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2019.12.12" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A83:M85" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A83:M85" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A83:O85" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A83:O85" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:H22" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
-  <autoFilter ref="A1:H22" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
-  <sortState ref="A2:E22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:J22" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A1:J22" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
     <sortCondition ref="A1:A22"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="7"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.11.02" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2019.11.03" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:C4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
-  <autoFilter ref="A1:C4" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
-  <sortState ref="A2:B4">
-    <sortCondition ref="A1:A4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:C5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+  <autoFilter ref="A1:C5" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B5">
+    <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1930,23 +2030,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="J96" sqref="J96"/>
+      <selection pane="topRight" activeCell="Q91" sqref="Q91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="21.46875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
     <col min="2" max="10" width="11" style="1"/>
-    <col min="11" max="11" width="13.46875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
     <col min="12" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" hidden="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1987,10 +2087,13 @@
         <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="21">
       <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
@@ -2009,8 +2112,9 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="21">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -2033,8 +2137,9 @@
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="21">
       <c r="A4" s="7" t="s">
         <v>90</v>
       </c>
@@ -2053,8 +2158,9 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="21">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -2075,8 +2181,9 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="21">
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
@@ -2095,8 +2202,9 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="21">
       <c r="A7" s="6" t="s">
         <v>111</v>
       </c>
@@ -2115,8 +2223,9 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="21">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2135,8 +2244,9 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="21">
       <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
@@ -2155,8 +2265,9 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="21">
       <c r="A10" s="7" t="s">
         <v>94</v>
       </c>
@@ -2175,8 +2286,9 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="21">
       <c r="A11" s="7" t="s">
         <v>84</v>
       </c>
@@ -2195,8 +2307,9 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="21">
       <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
@@ -2215,8 +2328,9 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="21">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -2235,8 +2349,9 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="21">
       <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
@@ -2257,8 +2372,9 @@
         <v>50</v>
       </c>
       <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="21">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -2279,8 +2395,9 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="21">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -2299,8 +2416,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="21">
       <c r="A17" s="6" t="s">
         <v>108</v>
       </c>
@@ -2319,8 +2437,9 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="21">
       <c r="A18" s="7" t="s">
         <v>86</v>
       </c>
@@ -2339,8 +2458,9 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="21">
       <c r="A19" s="6" t="s">
         <v>53</v>
       </c>
@@ -2373,9 +2493,10 @@
         <v>50</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="P19" s="2"/>
+      <c r="O19" s="6"/>
+      <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="21">
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
@@ -2394,8 +2515,9 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="21">
       <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
@@ -2421,9 +2543,12 @@
       <c r="M21" s="6">
         <v>400</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="6">
+        <v>100</v>
+      </c>
+      <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="21">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
@@ -2459,10 +2584,13 @@
       <c r="M22" s="6">
         <v>1000</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="P22" s="2"/>
+      <c r="N22" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="21">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -2481,8 +2609,9 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" ht="21">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -2519,9 +2648,10 @@
         <v>800</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="P24" s="2"/>
+      <c r="O24" s="6"/>
+      <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" ht="21">
       <c r="A25" s="6" t="s">
         <v>114</v>
       </c>
@@ -2540,9 +2670,10 @@
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="P25" s="2"/>
+      <c r="O25" s="6"/>
+      <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="21">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
@@ -2571,8 +2702,9 @@
         <v>100</v>
       </c>
       <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="21">
       <c r="A27" s="7" t="s">
         <v>72</v>
       </c>
@@ -2591,9 +2723,10 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="P27" s="2"/>
+      <c r="O27" s="6"/>
+      <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" ht="21">
       <c r="A28" s="6" t="s">
         <v>52</v>
       </c>
@@ -2612,8 +2745,9 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="21">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
@@ -2632,9 +2766,10 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="P29" s="2"/>
+      <c r="O29" s="6"/>
+      <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" ht="21">
       <c r="A30" s="7" t="s">
         <v>74</v>
       </c>
@@ -2653,8 +2788,9 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" ht="21">
       <c r="A31" s="7" t="s">
         <v>110</v>
       </c>
@@ -2673,8 +2809,9 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="21">
       <c r="A32" s="7" t="s">
         <v>71</v>
       </c>
@@ -2693,9 +2830,10 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="P32" s="2"/>
+      <c r="O32" s="6"/>
+      <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="21">
       <c r="A33" s="7" t="s">
         <v>83</v>
       </c>
@@ -2714,8 +2852,9 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="21">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -2740,9 +2879,10 @@
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="P34" s="2"/>
+      <c r="O34" s="6"/>
+      <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" ht="21">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -2761,8 +2901,9 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="21">
       <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
@@ -2800,10 +2941,13 @@
       <c r="M36" s="6">
         <v>100</v>
       </c>
-      <c r="N36" s="6"/>
-      <c r="P36" s="2"/>
+      <c r="N36" s="6">
+        <v>100</v>
+      </c>
+      <c r="O36" s="6"/>
+      <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" ht="21">
       <c r="A37" s="6" t="s">
         <v>49</v>
       </c>
@@ -2822,8 +2966,9 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="21">
       <c r="A38" s="6" t="s">
         <v>51</v>
       </c>
@@ -2852,9 +2997,10 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-      <c r="P38" s="2"/>
+      <c r="O38" s="6"/>
+      <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" ht="21">
       <c r="A39" s="7" t="s">
         <v>64</v>
       </c>
@@ -2873,8 +3019,9 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" ht="21">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -2893,9 +3040,10 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="P40" s="2"/>
+      <c r="O40" s="6"/>
+      <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" ht="21">
       <c r="A41" s="7" t="s">
         <v>68</v>
       </c>
@@ -2914,8 +3062,9 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" ht="21">
       <c r="A42" s="6" t="s">
         <v>36</v>
       </c>
@@ -2938,8 +3087,9 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" ht="21">
       <c r="A43" s="6" t="s">
         <v>93</v>
       </c>
@@ -2962,9 +3112,10 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="P43" s="2"/>
+      <c r="O43" s="6"/>
+      <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" ht="21">
       <c r="A44" s="6" t="s">
         <v>11</v>
       </c>
@@ -2983,8 +3134,9 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" ht="21">
       <c r="A45" s="7" t="s">
         <v>85</v>
       </c>
@@ -3003,9 +3155,10 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="P45" s="2"/>
+      <c r="O45" s="6"/>
+      <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" ht="21">
       <c r="A46" s="6" t="s">
         <v>13</v>
       </c>
@@ -3024,8 +3177,9 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="21">
       <c r="A47" s="6" t="s">
         <v>62</v>
       </c>
@@ -3046,9 +3200,10 @@
         <v>100</v>
       </c>
       <c r="N47" s="6"/>
-      <c r="P47" s="2"/>
+      <c r="O47" s="6"/>
+      <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" ht="21">
       <c r="A48" s="6" t="s">
         <v>33</v>
       </c>
@@ -3067,8 +3222,9 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" ht="21">
       <c r="A49" s="7" t="s">
         <v>79</v>
       </c>
@@ -3087,9 +3243,10 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="P49" s="2"/>
+      <c r="O49" s="6"/>
+      <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" ht="21">
       <c r="A50" s="7" t="s">
         <v>91</v>
       </c>
@@ -3108,8 +3265,9 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" ht="21">
       <c r="A51" s="7" t="s">
         <v>76</v>
       </c>
@@ -3128,8 +3286,9 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" ht="21">
       <c r="A52" s="7" t="s">
         <v>63</v>
       </c>
@@ -3148,9 +3307,10 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-      <c r="P52" s="2"/>
+      <c r="O52" s="6"/>
+      <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" ht="21">
       <c r="A53" s="6" t="s">
         <v>10</v>
       </c>
@@ -3169,8 +3329,9 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" ht="21">
       <c r="A54" s="6" t="s">
         <v>126</v>
       </c>
@@ -3210,10 +3371,13 @@
       <c r="M54" s="6">
         <v>200</v>
       </c>
-      <c r="N54" s="6"/>
-      <c r="P54" s="2"/>
+      <c r="N54" s="6">
+        <v>200</v>
+      </c>
+      <c r="O54" s="6"/>
+      <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:17" ht="21">
       <c r="A55" s="7" t="s">
         <v>70</v>
       </c>
@@ -3232,8 +3396,9 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" ht="21">
       <c r="A56" s="7" t="s">
         <v>92</v>
       </c>
@@ -3252,9 +3417,10 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="P56" s="2"/>
+      <c r="O56" s="6"/>
+      <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" ht="21">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -3283,8 +3449,9 @@
       </c>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" ht="21">
       <c r="A58" s="7" t="s">
         <v>67</v>
       </c>
@@ -3303,9 +3470,10 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="P58" s="2"/>
+      <c r="O58" s="6"/>
+      <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:17" ht="21">
       <c r="A59" s="7" t="s">
         <v>66</v>
       </c>
@@ -3324,8 +3492,9 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" ht="21">
       <c r="A60" s="6" t="s">
         <v>8</v>
       </c>
@@ -3344,9 +3513,10 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="P60" s="2"/>
+      <c r="O60" s="6"/>
+      <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" ht="21">
       <c r="A61" s="6" t="s">
         <v>56</v>
       </c>
@@ -3365,8 +3535,9 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:17" ht="21">
       <c r="A62" s="6" t="s">
         <v>32</v>
       </c>
@@ -3398,10 +3569,13 @@
       <c r="M62" s="6">
         <v>200</v>
       </c>
-      <c r="N62" s="6"/>
-      <c r="P62" s="2"/>
+      <c r="N62" s="6">
+        <v>200</v>
+      </c>
+      <c r="O62" s="6"/>
+      <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:17" ht="21">
       <c r="A63" s="6" t="s">
         <v>109</v>
       </c>
@@ -3420,9 +3594,10 @@
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
-      <c r="P63" s="2"/>
+      <c r="O63" s="6"/>
+      <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:17" ht="21">
       <c r="A64" s="6" t="s">
         <v>1</v>
       </c>
@@ -3447,8 +3622,9 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:17" ht="21">
       <c r="A65" s="7" t="s">
         <v>78</v>
       </c>
@@ -3467,9 +3643,10 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
-      <c r="P65" s="2"/>
+      <c r="O65" s="6"/>
+      <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:17" ht="21">
       <c r="A66" s="7" t="s">
         <v>75</v>
       </c>
@@ -3488,8 +3665,9 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:17" ht="21">
       <c r="A67" s="7" t="s">
         <v>82</v>
       </c>
@@ -3508,9 +3686,10 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="P67" s="2"/>
+      <c r="O67" s="6"/>
+      <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:17" ht="21">
       <c r="A68" s="7" t="s">
         <v>77</v>
       </c>
@@ -3529,8 +3708,9 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:17" ht="21">
       <c r="A69" s="6" t="s">
         <v>42</v>
       </c>
@@ -3549,9 +3729,10 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="2"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:17" ht="21">
       <c r="A70" s="7" t="s">
         <v>81</v>
       </c>
@@ -3570,8 +3751,9 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:17" ht="21">
       <c r="A71" s="7" t="s">
         <v>80</v>
       </c>
@@ -3590,8 +3772,9 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:17" ht="21">
       <c r="A72" s="6" t="s">
         <v>105</v>
       </c>
@@ -3610,8 +3793,9 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:17" ht="21">
       <c r="A73" s="6" t="s">
         <v>112</v>
       </c>
@@ -3630,8 +3814,9 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:17" ht="21">
       <c r="A74" s="6" t="s">
         <v>124</v>
       </c>
@@ -3650,8 +3835,9 @@
         <v>66</v>
       </c>
       <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:17" ht="21">
       <c r="A75" s="6" t="s">
         <v>34</v>
       </c>
@@ -3672,9 +3858,10 @@
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-      <c r="P75" s="2"/>
+      <c r="O75" s="6"/>
+      <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:17" ht="21">
       <c r="A76" s="7" t="s">
         <v>89</v>
       </c>
@@ -3693,8 +3880,9 @@
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:17" ht="21">
       <c r="A77" s="7" t="s">
         <v>125</v>
       </c>
@@ -3713,8 +3901,9 @@
         <v>30</v>
       </c>
       <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:17" ht="21">
       <c r="A78" s="6" t="s">
         <v>50</v>
       </c>
@@ -3744,9 +3933,12 @@
         <v>150</v>
       </c>
       <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
+      <c r="N78" s="6">
+        <v>150</v>
+      </c>
+      <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" ht="21">
       <c r="A79" s="6" t="s">
         <v>127</v>
       </c>
@@ -3765,8 +3957,9 @@
         <v>100</v>
       </c>
       <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:17" ht="21">
       <c r="A80" s="6" t="s">
         <v>40</v>
       </c>
@@ -3785,13 +3978,14 @@
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15">
       <c r="A81" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B81" s="3">
-        <f t="shared" ref="B81:M81" si="0">SUM(B2:B80)</f>
+        <f t="shared" ref="B81:O81" si="0">SUM(B2:B80)</f>
         <v>1980</v>
       </c>
       <c r="C81" s="3">
@@ -3838,8 +4032,16 @@
         <f t="shared" si="0"/>
         <v>3196</v>
       </c>
+      <c r="N81" s="3">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="O81" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
@@ -3879,8 +4081,14 @@
       <c r="M83" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="N83" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
         <v>58</v>
       </c>
@@ -3888,7 +4096,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
         <v>23</v>
       </c>
@@ -3923,7 +4131,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15">
       <c r="A87" s="4" t="s">
         <v>25</v>
       </c>
@@ -3969,8 +4177,12 @@
       <c r="M87" s="4">
         <v>3500</v>
       </c>
+      <c r="N87" s="4">
+        <v>3500</v>
+      </c>
+      <c r="O87" s="4"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15">
       <c r="A88" s="5" t="s">
         <v>22</v>
       </c>
@@ -4022,30 +4234,38 @@
         <f t="shared" si="2"/>
         <v>17177.88</v>
       </c>
+      <c r="N88" s="5">
+        <f t="shared" ref="N88" si="3">M88+N81-N87</f>
+        <v>15427.880000000001</v>
+      </c>
+      <c r="O88" s="5">
+        <f t="shared" ref="O88" si="4">N88+O81-O87</f>
+        <v>15427.880000000001</v>
+      </c>
     </row>
-    <row r="89" spans="1:14" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" ht="19">
       <c r="I89" s="2"/>
     </row>
-    <row r="91" spans="1:14" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" ht="19">
       <c r="I91" s="2"/>
-      <c r="N91" s="1">
-        <f>烟供随喜!$H$29+会供随喜!$B$11+M88</f>
-        <v>22566.440000000002</v>
+      <c r="O91" s="1">
+        <f>烟供随喜!$I$29+会供随喜!$B$12+N88</f>
+        <v>21574.13</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" ht="19">
       <c r="I93" s="2"/>
     </row>
-    <row r="95" spans="1:14" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" ht="19">
       <c r="I95" s="2"/>
     </row>
-    <row r="97" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="97" spans="9:9" ht="19">
       <c r="I97" s="2"/>
     </row>
-    <row r="99" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="99" spans="9:9" ht="19">
       <c r="I99" s="2"/>
     </row>
-    <row r="101" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="101" spans="9:9" ht="19">
       <c r="I101" s="2"/>
     </row>
   </sheetData>
@@ -4066,16 +4286,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:XFC29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="XFA8" sqref="XFA8"/>
+      <selection pane="topRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16384" s="15" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16383" s="15" customFormat="1" ht="21">
       <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
@@ -4100,8 +4320,12 @@
       <c r="H1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I1"/>
-      <c r="J1"/>
+      <c r="I1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -20475,9 +20699,8 @@
       <c r="XFA1"/>
       <c r="XFB1"/>
       <c r="XFC1"/>
-      <c r="XFD1"/>
     </row>
-    <row r="2" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A2" s="6" t="s">
         <v>103</v>
       </c>
@@ -20496,8 +20719,11 @@
       <c r="H2" s="6">
         <v>200</v>
       </c>
+      <c r="I2" s="6">
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A3" s="6" t="s">
         <v>111</v>
       </c>
@@ -20505,7 +20731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A4" s="6" t="s">
         <v>101</v>
       </c>
@@ -20516,7 +20742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A5" s="6" t="s">
         <v>98</v>
       </c>
@@ -20524,7 +20750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A6" s="6" t="s">
         <v>102</v>
       </c>
@@ -20540,8 +20766,11 @@
       <c r="H6" s="6">
         <v>200</v>
       </c>
+      <c r="I6" s="6">
+        <v>200</v>
+      </c>
     </row>
-    <row r="7" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A7" s="6" t="s">
         <v>99</v>
       </c>
@@ -20563,8 +20792,11 @@
       <c r="H7" s="6">
         <v>30</v>
       </c>
+      <c r="I7" s="6">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A8" s="6" t="s">
         <v>91</v>
       </c>
@@ -20572,7 +20804,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A9" s="6" t="s">
         <v>104</v>
       </c>
@@ -20585,8 +20817,11 @@
       <c r="H9" s="6">
         <v>100</v>
       </c>
+      <c r="I9" s="6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A10" s="6" t="s">
         <v>128</v>
       </c>
@@ -20602,8 +20837,11 @@
       <c r="H10" s="6">
         <v>50</v>
       </c>
+      <c r="I10" s="6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A11" s="6" t="s">
         <v>109</v>
       </c>
@@ -20611,7 +20849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A12" s="6" t="s">
         <v>105</v>
       </c>
@@ -20619,7 +20857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -20627,7 +20865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -20635,7 +20873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -20646,7 +20884,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16383" s="6" customFormat="1" ht="21">
       <c r="A16" s="6" t="s">
         <v>114</v>
       </c>
@@ -20654,7 +20892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="21">
       <c r="A17" s="6" t="s">
         <v>112</v>
       </c>
@@ -20662,15 +20900,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" s="6" customFormat="1" ht="21">
       <c r="A18" s="6" t="s">
         <v>106</v>
       </c>
       <c r="D18" s="6">
         <v>100</v>
       </c>
+      <c r="I18"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="21">
       <c r="A19" s="6" t="s">
         <v>120</v>
       </c>
@@ -20678,7 +20917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="21">
       <c r="A20" s="6" t="s">
         <v>122</v>
       </c>
@@ -20686,7 +20925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" s="6" customFormat="1" ht="21">
       <c r="A21" s="6" t="s">
         <v>121</v>
       </c>
@@ -20694,7 +20933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
       <c r="A22" s="6" t="s">
         <v>100</v>
       </c>
@@ -20702,7 +20941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" s="8" customFormat="1" ht="21">
       <c r="A27" s="10" t="s">
         <v>97</v>
       </c>
@@ -20734,8 +20973,16 @@
         <f t="shared" si="0"/>
         <v>1030</v>
       </c>
+      <c r="I27" s="10">
+        <f>SUM(I2:I22)</f>
+        <v>580</v>
+      </c>
+      <c r="J27" s="10">
+        <f>SUM(J2:J22)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="21">
       <c r="A28" s="11" t="s">
         <v>45</v>
       </c>
@@ -20760,8 +21007,12 @@
       <c r="H28" s="11">
         <v>108.99</v>
       </c>
+      <c r="I28" s="11">
+        <v>25</v>
+      </c>
+      <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="21">
       <c r="A29" s="12" t="s">
         <v>22</v>
       </c>
@@ -20770,7 +21021,7 @@
         <v>116</v>
       </c>
       <c r="C29" s="12">
-        <f t="shared" ref="C29:H29" si="1">B29+C27-C28</f>
+        <f t="shared" ref="C29:G29" si="1">B29+C27-C28</f>
         <v>1016</v>
       </c>
       <c r="D29" s="12">
@@ -20790,8 +21041,16 @@
         <v>4267.55</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" si="1"/>
+        <f>G29+H27-H28</f>
         <v>5188.5600000000004</v>
+      </c>
+      <c r="I29" s="12">
+        <f>H29+I27-I28</f>
+        <v>5743.56</v>
+      </c>
+      <c r="J29" s="12">
+        <f>I29+J27-J28</f>
+        <v>5743.56</v>
       </c>
     </row>
   </sheetData>
@@ -20806,16 +21065,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA511E68-F71D-47C7-9726-D5C78DCB2659}">
-  <dimension ref="A1:XEZ11"/>
+  <dimension ref="A1:XEZ12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="XEV2" sqref="XEV2"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16380" s="15" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16380" s="15" customFormat="1" ht="21">
       <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
@@ -37203,7 +37462,7 @@
       <c r="XEY1"/>
       <c r="XEZ1"/>
     </row>
-    <row r="2" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16380" s="6" customFormat="1" ht="21">
       <c r="A2" s="6" t="s">
         <v>99</v>
       </c>
@@ -37211,59 +37470,67 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16380" s="6" customFormat="1" ht="21">
       <c r="A3" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B3" s="6">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16380" s="6" customFormat="1" ht="21">
       <c r="A4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="6">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16380" s="6" customFormat="1" ht="21">
+      <c r="A5" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B5" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16380" s="8" customFormat="1" ht="21">
+      <c r="A10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="10">
+        <f>SUM(B2:B5)</f>
+        <v>1125</v>
+      </c>
+      <c r="C10" s="10">
+        <f>SUM(C2:C5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16380" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="10">
-        <f>SUM(B2:B4)</f>
-        <v>200</v>
-      </c>
-      <c r="C9" s="10">
-        <f>SUM(C2:C4)</f>
+    <row r="11" spans="1:16380" s="1" customFormat="1" ht="21">
+      <c r="A11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="11">
+        <v>722.31</v>
+      </c>
+      <c r="C11" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16380" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16380" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:16380" s="1" customFormat="1" ht="21">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="12">
-        <f>B9-B10</f>
-        <v>200</v>
-      </c>
-      <c r="C11" s="12">
-        <f>C9-C10</f>
+      <c r="B12" s="12">
+        <f>B10-B11</f>
+        <v>402.69000000000005</v>
+      </c>
+      <c r="C12" s="12">
+        <f>C10-C11</f>
         <v>0</v>
       </c>
     </row>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chiming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F1BFFD-A129-4F5D-B446-F57372D8E80F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD689C3B-C140-45AF-8B60-CBAF08FBC493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="150">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,6 +537,82 @@
     <t>2019.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>列14</t>
+  </si>
+  <si>
+    <t>列15</t>
+  </si>
+  <si>
+    <t>2019.11.03</t>
+  </si>
+  <si>
+    <t>中山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列16</t>
+  </si>
+  <si>
+    <t>帆布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵可安阖家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党海峰赵秀琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢宝全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商丽娟全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋佳佳全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋雷全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商秀芹全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商晚军全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋雨田全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商宇光全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高月娟全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.01.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -834,7 +910,7 @@
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="58">
     <dxf>
       <font>
         <b val="0"/>
@@ -944,6 +1020,61 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1324,7 +1455,81 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="14"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1551,78 +1756,86 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:N80" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
-  <autoFilter ref="A1:N80" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState ref="A2:K80">
-    <sortCondition ref="A1:A80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:P92" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="A1:P92" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState ref="A2:K92">
+    <sortCondition ref="A1:A92"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2019.12.12" dataDxfId="34"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.12.08" dataDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2019.12.12" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A83:M85" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A83:M85" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A95:P98" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A95:P98" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:H22" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
-  <autoFilter ref="A1:H22" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:K22" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+  <autoFilter ref="A1:K22" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState ref="A2:E22">
     <sortCondition ref="A1:A22"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="7"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2019.11.03" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:C4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
-  <autoFilter ref="A1:C4" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
-  <sortState ref="A2:B4">
-    <sortCondition ref="A1:A4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:C5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+  <autoFilter ref="A1:C5" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+  <sortState ref="A2:B5">
+    <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="2"/>
@@ -1930,12 +2143,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="J96" sqref="J96"/>
+      <selection activeCell="A22" sqref="A22"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1:O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
@@ -1946,7 +2159,7 @@
     <col min="12" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1987,10 +2200,16 @@
         <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
@@ -2009,8 +2228,10 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -2033,8 +2254,12 @@
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>200</v>
+      </c>
+      <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>90</v>
       </c>
@@ -2053,8 +2278,10 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -2075,8 +2302,10 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
@@ -2095,8 +2324,10 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>111</v>
       </c>
@@ -2115,8 +2346,10 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2135,8 +2368,10 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
@@ -2155,8 +2390,10 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>94</v>
       </c>
@@ -2175,8 +2412,10 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>84</v>
       </c>
@@ -2195,8 +2434,10 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
@@ -2215,8 +2456,10 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -2235,8 +2478,10 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
@@ -2257,8 +2502,10 @@
         <v>50</v>
       </c>
       <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -2279,8 +2526,10 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -2299,8 +2548,10 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>108</v>
       </c>
@@ -2319,8 +2570,10 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>86</v>
       </c>
@@ -2339,8 +2592,10 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>53</v>
       </c>
@@ -2373,9 +2628,11 @@
         <v>50</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="P19" s="2"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
@@ -2394,8 +2651,10 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
@@ -2421,9 +2680,15 @@
       <c r="M21" s="6">
         <v>400</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="6">
+        <v>100</v>
+      </c>
+      <c r="O21" s="6">
+        <v>200</v>
+      </c>
+      <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
@@ -2459,10 +2724,16 @@
       <c r="M22" s="6">
         <v>1000</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="P22" s="2"/>
+      <c r="N22" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1000</v>
+      </c>
+      <c r="P22" s="6"/>
+      <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -2481,8 +2752,10 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -2519,9 +2792,13 @@
         <v>800</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="P24" s="2"/>
+      <c r="O24" s="6">
+        <v>500</v>
+      </c>
+      <c r="P24" s="6"/>
+      <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>114</v>
       </c>
@@ -2540,9 +2817,11 @@
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="P25" s="2"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
@@ -2571,8 +2850,12 @@
         <v>100</v>
       </c>
       <c r="N26" s="6"/>
+      <c r="O26" s="6">
+        <v>200</v>
+      </c>
+      <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>72</v>
       </c>
@@ -2591,9 +2874,11 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="P27" s="2"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>52</v>
       </c>
@@ -2612,8 +2897,10 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
@@ -2632,9 +2919,11 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="P29" s="2"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>74</v>
       </c>
@@ -2653,8 +2942,10 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>110</v>
       </c>
@@ -2673,8 +2964,10 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>71</v>
       </c>
@@ -2693,9 +2986,11 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="P32" s="2"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>83</v>
       </c>
@@ -2714,8 +3009,10 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -2740,18 +3037,20 @@
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="P34" s="2"/>
+      <c r="O34" s="6">
+        <v>200</v>
+      </c>
+      <c r="P34" s="6"/>
+      <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6">
-        <v>100</v>
-      </c>
+      <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -2761,59 +3060,46 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
+      <c r="O35" s="6">
+        <v>30</v>
+      </c>
+      <c r="P35" s="6"/>
+      <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="6">
-        <v>130</v>
-      </c>
-      <c r="C36" s="6">
-        <v>100</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="6">
-        <v>100</v>
-      </c>
-      <c r="F36" s="6">
-        <v>100</v>
-      </c>
-      <c r="G36" s="6">
-        <v>50</v>
-      </c>
-      <c r="H36" s="6">
-        <v>100</v>
-      </c>
-      <c r="I36" s="6">
-        <v>100</v>
-      </c>
-      <c r="J36" s="6">
-        <v>100</v>
-      </c>
-      <c r="K36" s="6">
-        <v>100</v>
-      </c>
-      <c r="L36" s="6">
-        <v>100</v>
-      </c>
-      <c r="M36" s="6">
-        <v>100</v>
-      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="P36" s="2"/>
+      <c r="O36" s="6">
+        <v>200</v>
+      </c>
+      <c r="P36" s="6"/>
+      <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6">
-        <v>107</v>
-      </c>
+      <c r="E37" s="6">
+        <v>100</v>
+      </c>
+      <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -2822,50 +3108,68 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B38" s="6">
+        <v>130</v>
+      </c>
+      <c r="C38" s="6">
         <v>100</v>
       </c>
-      <c r="C38" s="6">
-        <v>50</v>
-      </c>
-      <c r="D38" s="6">
-        <v>2010</v>
-      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F38" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G38" s="6">
         <v>50</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="P38" s="2"/>
+      <c r="H38" s="6">
+        <v>100</v>
+      </c>
+      <c r="I38" s="6">
+        <v>100</v>
+      </c>
+      <c r="J38" s="6">
+        <v>100</v>
+      </c>
+      <c r="K38" s="6">
+        <v>100</v>
+      </c>
+      <c r="L38" s="6">
+        <v>100</v>
+      </c>
+      <c r="M38" s="6">
+        <v>100</v>
+      </c>
+      <c r="N38" s="6">
+        <v>100</v>
+      </c>
+      <c r="O38" s="6">
+        <v>100</v>
+      </c>
+      <c r="P38" s="6"/>
+      <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
-        <v>64</v>
+    <row r="39" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A39" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6">
-        <v>300</v>
-      </c>
+      <c r="F39" s="6">
+        <v>107</v>
+      </c>
+      <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -2873,19 +3177,31 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="B40" s="6">
+        <v>100</v>
+      </c>
+      <c r="C40" s="6">
+        <v>50</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2010</v>
+      </c>
       <c r="E40" s="6">
-        <v>100</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="F40" s="6">
+        <v>60</v>
+      </c>
+      <c r="G40" s="6">
+        <v>50</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -2893,11 +3209,13 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="P40" s="2"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2905,7 +3223,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -2914,105 +3232,117 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="6">
-        <v>200</v>
-      </c>
+      <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="6">
-        <v>200</v>
-      </c>
+      <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="6" t="s">
-        <v>93</v>
+    <row r="43" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A43" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="6">
-        <v>1000</v>
-      </c>
+      <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6">
+      <c r="G43" s="6">
         <v>200</v>
       </c>
+      <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6">
-        <v>200</v>
-      </c>
+      <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="P43" s="2"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="6">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6">
+        <v>400</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6">
         <v>200</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="I44" s="6">
+        <v>200</v>
+      </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="7" t="s">
-        <v>85</v>
+    <row r="45" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A45" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6">
+        <v>1000</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6">
+      <c r="G45" s="6"/>
+      <c r="H45" s="6">
         <v>200</v>
       </c>
-      <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="K45" s="6">
+        <v>200</v>
+      </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="P45" s="2"/>
+      <c r="O45" s="6">
+        <v>200</v>
+      </c>
+      <c r="P45" s="6"/>
+      <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -3024,40 +3354,42 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
-        <v>62</v>
+    <row r="47" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A47" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6">
+      <c r="G47" s="6">
         <v>200</v>
       </c>
+      <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="6">
-        <v>100</v>
-      </c>
+      <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="P47" s="2"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6">
-        <v>100</v>
-      </c>
+      <c r="D48" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -3067,51 +3399,59 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="7" t="s">
-        <v>79</v>
+    <row r="49" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A49" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="6">
-        <v>50</v>
-      </c>
-      <c r="H49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6">
+        <v>200</v>
+      </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
+      <c r="M49" s="6">
+        <v>100</v>
+      </c>
       <c r="N49" s="6"/>
-      <c r="P49" s="2"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="7" t="s">
-        <v>91</v>
+    <row r="50" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A50" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="E50" s="6">
+        <v>100</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="6">
-        <v>800</v>
-      </c>
+      <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
     </row>
-    <row r="51" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -3128,10 +3468,13 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="R51" s="2"/>
     </row>
-    <row r="52" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -3139,29 +3482,30 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="6">
-        <v>100</v>
-      </c>
-      <c r="I52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6">
+        <v>800</v>
+      </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-      <c r="P52" s="2"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
     </row>
-    <row r="53" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="6" t="s">
-        <v>10</v>
+    <row r="53" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="6">
-        <v>100</v>
-      </c>
+      <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="G53" s="6">
+        <v>50</v>
+      </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -3169,62 +3513,44 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
     </row>
-    <row r="54" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" s="6">
-        <v>400</v>
-      </c>
-      <c r="C54" s="6">
-        <v>200</v>
-      </c>
-      <c r="D54" s="6">
-        <v>350</v>
-      </c>
-      <c r="E54" s="6">
-        <v>200</v>
-      </c>
-      <c r="F54" s="6">
-        <v>100</v>
-      </c>
-      <c r="G54" s="6">
-        <v>125</v>
-      </c>
+    <row r="54" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A54" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
       <c r="H54" s="6">
         <v>100</v>
       </c>
-      <c r="I54" s="6">
-        <v>200</v>
-      </c>
-      <c r="J54" s="6">
-        <v>100</v>
-      </c>
-      <c r="K54" s="6">
-        <v>100</v>
-      </c>
-      <c r="L54" s="6">
-        <v>200</v>
-      </c>
-      <c r="M54" s="6">
-        <v>200</v>
-      </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="P54" s="2"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="7" t="s">
-        <v>70</v>
+    <row r="55" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A55" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="6">
+        <v>100</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="6">
-        <v>200</v>
-      </c>
+      <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -3232,70 +3558,91 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+    <row r="56" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="6">
+        <v>400</v>
+      </c>
+      <c r="C56" s="6">
+        <v>200</v>
+      </c>
+      <c r="D56" s="6">
+        <v>350</v>
+      </c>
+      <c r="E56" s="6">
+        <v>200</v>
+      </c>
+      <c r="F56" s="6">
+        <v>100</v>
+      </c>
+      <c r="G56" s="6">
+        <v>125</v>
+      </c>
+      <c r="H56" s="6">
+        <v>100</v>
+      </c>
       <c r="I56" s="6">
-        <v>300</v>
-      </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="P56" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="J56" s="6">
+        <v>100</v>
+      </c>
+      <c r="K56" s="6">
+        <v>100</v>
+      </c>
+      <c r="L56" s="6">
+        <v>200</v>
+      </c>
+      <c r="M56" s="6">
+        <v>200</v>
+      </c>
+      <c r="N56" s="6">
+        <v>200</v>
+      </c>
+      <c r="O56" s="6">
+        <v>200</v>
+      </c>
+      <c r="P56" s="6"/>
+      <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="B57" s="6"/>
-      <c r="C57" s="6">
-        <v>100</v>
-      </c>
-      <c r="D57" s="6">
-        <v>200</v>
-      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="6">
-        <v>100</v>
-      </c>
+      <c r="G57" s="6"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="6">
-        <v>200</v>
-      </c>
+      <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="6">
-        <v>200</v>
-      </c>
-      <c r="L57" s="6">
-        <v>200</v>
-      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
+      <c r="O57" s="6">
+        <v>20</v>
+      </c>
+      <c r="P57" s="6"/>
+      <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="7" t="s">
-        <v>67</v>
+    <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="6">
-        <v>200</v>
-      </c>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -3303,20 +3650,22 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="P58" s="2"/>
+      <c r="O58" s="6">
+        <v>10</v>
+      </c>
+      <c r="P58" s="6"/>
+      <c r="R58" s="2"/>
     </row>
-    <row r="59" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="7" t="s">
-        <v>66</v>
+    <row r="59" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A59" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6">
-        <v>200</v>
-      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -3324,16 +3673,19 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
+      <c r="O59" s="6">
+        <v>10</v>
+      </c>
+      <c r="P59" s="6"/>
+      <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="6">
-        <v>55</v>
-      </c>
+      <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -3344,20 +3696,22 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="P60" s="2"/>
+      <c r="O60" s="6">
+        <v>10</v>
+      </c>
+      <c r="P60" s="6"/>
+      <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6">
-        <v>200</v>
-      </c>
+      <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -3365,45 +3719,38 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
+      <c r="O61" s="6">
+        <v>10</v>
+      </c>
+      <c r="P61" s="6"/>
+      <c r="R61" s="2"/>
     </row>
-    <row r="62" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="6">
-        <v>200</v>
-      </c>
-      <c r="F62" s="6">
-        <v>200</v>
-      </c>
-      <c r="G62" s="6">
-        <v>200</v>
-      </c>
-      <c r="H62" s="6">
-        <v>200</v>
-      </c>
-      <c r="I62" s="6">
-        <v>200</v>
-      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="6">
-        <v>200</v>
-      </c>
-      <c r="L62" s="6">
-        <v>200</v>
-      </c>
-      <c r="M62" s="6">
-        <v>200</v>
-      </c>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="P62" s="2"/>
+      <c r="O62" s="6">
+        <v>10</v>
+      </c>
+      <c r="P62" s="6"/>
+      <c r="R62" s="2"/>
     </row>
-    <row r="63" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -3414,43 +3761,42 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="6">
-        <v>100</v>
-      </c>
+      <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
-      <c r="P63" s="2"/>
+      <c r="O63" s="6">
+        <v>20</v>
+      </c>
+      <c r="P63" s="6"/>
+      <c r="R63" s="2"/>
     </row>
-    <row r="64" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="6">
-        <v>200</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B64" s="6"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="6">
-        <v>200</v>
-      </c>
-      <c r="E64" s="6">
-        <v>100</v>
-      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="6">
-        <v>200</v>
-      </c>
+      <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
+      <c r="O64" s="6">
+        <v>10</v>
+      </c>
+      <c r="P64" s="6"/>
+      <c r="R64" s="2"/>
     </row>
-    <row r="65" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -3458,7 +3804,7 @@
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -3467,40 +3813,42 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
-      <c r="P65" s="2"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
     </row>
-    <row r="66" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6">
-        <v>50</v>
-      </c>
+      <c r="G66" s="6"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="I66" s="6">
+        <v>300</v>
+      </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="R66" s="2"/>
     </row>
-    <row r="67" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6">
-        <v>50</v>
-      </c>
+      <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -3508,20 +3856,22 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="P67" s="2"/>
+      <c r="O67" s="6">
+        <v>100</v>
+      </c>
+      <c r="P67" s="6"/>
+      <c r="R67" s="2"/>
     </row>
-    <row r="68" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6">
-        <v>50</v>
-      </c>
+      <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -3529,31 +3879,49 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
+      <c r="O68" s="6">
+        <v>50</v>
+      </c>
+      <c r="P68" s="6"/>
+      <c r="R68" s="2"/>
     </row>
-    <row r="69" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6">
-        <v>10</v>
-      </c>
+      <c r="C69" s="6">
+        <v>100</v>
+      </c>
+      <c r="D69" s="6">
+        <v>200</v>
+      </c>
+      <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="G69" s="6">
+        <v>100</v>
+      </c>
       <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="I69" s="6">
+        <v>200</v>
+      </c>
       <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
+      <c r="K69" s="6">
+        <v>200</v>
+      </c>
+      <c r="L69" s="6">
+        <v>200</v>
+      </c>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="2"/>
+      <c r="O69" s="6">
+        <v>100</v>
+      </c>
+      <c r="P69" s="6"/>
     </row>
-    <row r="70" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -3561,7 +3929,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -3570,10 +3938,13 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="R70" s="2"/>
     </row>
-    <row r="71" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -3581,7 +3952,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -3590,194 +3961,224 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
     </row>
-    <row r="72" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="D72" s="6">
+        <v>55</v>
+      </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="6">
-        <v>50</v>
-      </c>
+      <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="R72" s="2"/>
     </row>
-    <row r="73" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="G73" s="6">
+        <v>200</v>
+      </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="6">
-        <v>100</v>
-      </c>
+      <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
     </row>
-    <row r="74" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+      <c r="E74" s="6">
+        <v>200</v>
+      </c>
+      <c r="F74" s="6">
+        <v>200</v>
+      </c>
+      <c r="G74" s="6">
+        <v>200</v>
+      </c>
+      <c r="H74" s="6">
+        <v>200</v>
+      </c>
+      <c r="I74" s="6">
+        <v>200</v>
+      </c>
       <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
+      <c r="K74" s="6">
+        <v>200</v>
+      </c>
+      <c r="L74" s="6">
+        <v>200</v>
+      </c>
       <c r="M74" s="6">
-        <v>66</v>
-      </c>
-      <c r="N74" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="N74" s="6">
+        <v>200</v>
+      </c>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="R74" s="2"/>
     </row>
-    <row r="75" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="6">
-        <v>1000</v>
-      </c>
+      <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="6">
-        <v>300</v>
-      </c>
+      <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
+      <c r="K75" s="6">
+        <v>100</v>
+      </c>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-      <c r="P75" s="2"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" s="6"/>
+    <row r="76" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="6">
+        <v>200</v>
+      </c>
       <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="D76" s="6">
+        <v>200</v>
+      </c>
+      <c r="E76" s="6">
+        <v>100</v>
+      </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
-      <c r="I76" s="6">
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6">
         <v>200</v>
       </c>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
     </row>
-    <row r="77" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+      <c r="G77" s="6">
+        <v>50</v>
+      </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="6">
-        <v>30</v>
-      </c>
+      <c r="M77" s="6"/>
       <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="R77" s="2"/>
     </row>
-    <row r="78" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B78" s="6">
-        <v>150</v>
-      </c>
-      <c r="C78" s="6">
-        <v>50</v>
-      </c>
+    <row r="78" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A78" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="6">
-        <v>150</v>
-      </c>
+      <c r="F78" s="6"/>
       <c r="G78" s="6">
-        <v>150</v>
-      </c>
-      <c r="H78" s="6">
-        <v>150</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H78" s="6"/>
       <c r="I78" s="6"/>
-      <c r="J78" s="6">
-        <v>50</v>
-      </c>
+      <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="6">
-        <v>150</v>
-      </c>
+      <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
     </row>
-    <row r="79" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="6" t="s">
-        <v>127</v>
+    <row r="79" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A79" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
+      <c r="G79" s="6">
+        <v>50</v>
+      </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="6">
-        <v>100</v>
-      </c>
+      <c r="M79" s="6"/>
       <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="R79" s="2"/>
     </row>
-    <row r="80" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="6" t="s">
-        <v>40</v>
+    <row r="80" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A80" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="6">
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6">
         <v>50</v>
       </c>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -3785,268 +4186,609 @@
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A81" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6">
+        <v>10</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="2"/>
+    </row>
+    <row r="82" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A82" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6">
+        <v>50</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+    </row>
+    <row r="83" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A83" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6">
+        <v>50</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A84" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6">
+        <v>50</v>
+      </c>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+    </row>
+    <row r="85" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A85" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6">
+        <v>100</v>
+      </c>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+    </row>
+    <row r="86" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A86" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6">
+        <v>66</v>
+      </c>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A87" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6">
+        <v>300</v>
+      </c>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="R87" s="2"/>
+    </row>
+    <row r="88" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A88" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6">
+        <v>200</v>
+      </c>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+    </row>
+    <row r="89" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A89" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6">
+        <v>30</v>
+      </c>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+    </row>
+    <row r="90" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A90" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="6">
+        <v>150</v>
+      </c>
+      <c r="C90" s="6">
+        <v>50</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6">
+        <v>150</v>
+      </c>
+      <c r="G90" s="6">
+        <v>150</v>
+      </c>
+      <c r="H90" s="6">
+        <v>150</v>
+      </c>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6">
+        <v>50</v>
+      </c>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6">
+        <v>150</v>
+      </c>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6">
+        <v>150</v>
+      </c>
+      <c r="O90" s="6">
+        <v>150</v>
+      </c>
+      <c r="P90" s="6"/>
+    </row>
+    <row r="91" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A91" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6">
+        <v>100</v>
+      </c>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+    </row>
+    <row r="92" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A92" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6">
+        <v>50</v>
+      </c>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A93" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="3">
-        <f t="shared" ref="B81:M81" si="0">SUM(B2:B80)</f>
+      <c r="B93" s="3">
+        <f t="shared" ref="B93:N93" si="0">SUM(B2:B92)</f>
         <v>1980</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C93" s="3">
         <f t="shared" si="0"/>
         <v>1166</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D93" s="3">
         <f t="shared" si="0"/>
         <v>12195</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E93" s="3">
         <f t="shared" si="0"/>
         <v>5530</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F93" s="3">
         <f t="shared" si="0"/>
         <v>2517</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G93" s="3">
         <f t="shared" si="0"/>
         <v>6563.88</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H93" s="3">
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I93" s="3">
         <f t="shared" si="0"/>
         <v>5550</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J93" s="3">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K93" s="3">
         <f t="shared" si="0"/>
         <v>3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L93" s="3">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M93" s="3">
         <f t="shared" si="0"/>
         <v>3196</v>
       </c>
+      <c r="N93" s="3">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="O93" s="3">
+        <f>SUM(O2:O92)</f>
+        <v>3530</v>
+      </c>
+      <c r="P93" s="3">
+        <f>SUM(P2:P92)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="N95" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G96" s="1">
         <v>2100</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O97" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B98" s="1">
         <v>570</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C98" s="1">
         <v>1080</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D98" s="1">
         <v>0</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E98" s="1">
         <v>3025</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F98" s="1">
         <v>2154</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G98" s="1">
         <v>3200</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H98" s="1">
         <v>3500</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I98" s="1">
         <v>4000</v>
       </c>
-      <c r="J85" s="1">
+      <c r="J98" s="1">
         <v>3555</v>
       </c>
-      <c r="K85" s="1">
+      <c r="K98" s="1">
         <v>4046</v>
       </c>
+      <c r="O98" s="1">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A87" s="4" t="s">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A100" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="4">
-        <f>SUM(B84:B85)</f>
+      <c r="B100" s="4">
+        <f>SUM(B96:B98)</f>
         <v>570</v>
       </c>
-      <c r="C87" s="4">
-        <f t="shared" ref="C87:G87" si="1">SUM(C84:C85)</f>
+      <c r="C100" s="4">
+        <f t="shared" ref="C100:G100" si="1">SUM(C96:C98)</f>
         <v>1080</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D100" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E100" s="4">
         <f t="shared" si="1"/>
         <v>3025</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F100" s="4">
         <f t="shared" si="1"/>
         <v>2154</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G100" s="4">
         <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H100" s="4">
         <v>3500</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I100" s="4">
         <v>4000</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J100" s="4">
         <v>3555</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K100" s="4">
         <v>4046</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L100" s="4">
         <v>3490</v>
       </c>
-      <c r="M87" s="4">
+      <c r="M100" s="4">
         <v>3500</v>
       </c>
+      <c r="N100" s="4">
+        <v>3500</v>
+      </c>
+      <c r="O100" s="4">
+        <f>SUM(表3[列15])</f>
+        <v>4300</v>
+      </c>
+      <c r="P100" s="4">
+        <f>SUM(表3[列16])</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A88" s="5" t="s">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A101" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B88" s="5">
-        <f>B81-B87</f>
+      <c r="B101" s="5">
+        <f>B93-B100</f>
         <v>1410</v>
       </c>
-      <c r="C88" s="5">
-        <f t="shared" ref="C88:M88" si="2">B88+C81-C87</f>
+      <c r="C101" s="5">
+        <f t="shared" ref="C101:M101" si="2">B101+C93-C100</f>
         <v>1496</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D101" s="5">
         <f t="shared" si="2"/>
         <v>13691</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E101" s="5">
         <f t="shared" si="2"/>
         <v>16196</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F101" s="5">
         <f t="shared" si="2"/>
         <v>16559</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G101" s="5">
         <f t="shared" si="2"/>
         <v>17822.88</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H101" s="5">
         <f t="shared" si="2"/>
         <v>18022.88</v>
       </c>
-      <c r="I88" s="5">
+      <c r="I101" s="5">
         <f t="shared" si="2"/>
         <v>19572.88</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J101" s="5">
         <f t="shared" si="2"/>
         <v>17367.88</v>
       </c>
-      <c r="K88" s="5">
+      <c r="K101" s="5">
         <f t="shared" si="2"/>
         <v>17221.88</v>
       </c>
-      <c r="L88" s="5">
+      <c r="L101" s="5">
         <f t="shared" si="2"/>
         <v>17481.88</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M101" s="5">
         <f t="shared" si="2"/>
         <v>17177.88</v>
       </c>
+      <c r="N101" s="5">
+        <f t="shared" ref="N101" si="3">M101+N93-N100</f>
+        <v>15427.880000000001</v>
+      </c>
+      <c r="O101" s="5">
+        <f t="shared" ref="O101:P101" si="4">N101+O93-O100</f>
+        <v>14657.880000000001</v>
+      </c>
+      <c r="P101" s="5">
+        <f t="shared" si="4"/>
+        <v>14657.880000000001</v>
+      </c>
     </row>
-    <row r="89" spans="1:14" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I89" s="2"/>
+    <row r="102" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I102" s="2"/>
     </row>
-    <row r="91" spans="1:14" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I91" s="2"/>
-      <c r="N91" s="1">
-        <f>烟供随喜!$H$29+会供随喜!$B$11+M88</f>
-        <v>22566.440000000002</v>
+    <row r="104" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I104" s="2"/>
+      <c r="O104" s="1">
+        <f>烟供随喜!$J$29+会供随喜!$B$12+O101</f>
+        <v>21515.33</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I93" s="2"/>
+    <row r="106" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I106" s="2"/>
     </row>
-    <row r="95" spans="1:14" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I95" s="2"/>
+    <row r="108" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I108" s="2"/>
     </row>
-    <row r="97" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I97" s="2"/>
+    <row r="110" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I110" s="2"/>
     </row>
-    <row r="99" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I99" s="2"/>
+    <row r="112" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I112" s="2"/>
     </row>
-    <row r="101" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I101" s="2"/>
+    <row r="114" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I114" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4068,12 +4810,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="XFA8" sqref="XFA8"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="9" max="10" width="17.76171875" customWidth="1"/>
+    <col min="11" max="11" width="14.8203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="15" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
@@ -4100,9 +4846,15 @@
       <c r="H1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
+      <c r="I1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -20496,6 +21248,12 @@
       <c r="H2" s="6">
         <v>200</v>
       </c>
+      <c r="I2" s="6">
+        <v>200</v>
+      </c>
+      <c r="J2" s="6">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
@@ -20540,6 +21298,12 @@
       <c r="H6" s="6">
         <v>200</v>
       </c>
+      <c r="I6" s="6">
+        <v>200</v>
+      </c>
+      <c r="J6" s="6">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
@@ -20563,6 +21327,12 @@
       <c r="H7" s="6">
         <v>30</v>
       </c>
+      <c r="I7" s="6">
+        <v>30</v>
+      </c>
+      <c r="J7" s="6">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
@@ -20585,6 +21355,12 @@
       <c r="H9" s="6">
         <v>100</v>
       </c>
+      <c r="I9" s="6">
+        <v>100</v>
+      </c>
+      <c r="J9" s="6">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
@@ -20602,6 +21378,12 @@
       <c r="H10" s="6">
         <v>50</v>
       </c>
+      <c r="I10" s="6">
+        <v>50</v>
+      </c>
+      <c r="J10" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
@@ -20634,6 +21416,9 @@
       <c r="F14" s="6">
         <v>50</v>
       </c>
+      <c r="J14" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
@@ -20654,7 +21439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>112</v>
       </c>
@@ -20662,15 +21447,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>106</v>
       </c>
       <c r="D18" s="6">
         <v>100</v>
       </c>
+      <c r="I18"/>
+      <c r="J18"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>120</v>
       </c>
@@ -20678,7 +21465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>122</v>
       </c>
@@ -20686,7 +21473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>121</v>
       </c>
@@ -20694,7 +21481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>100</v>
       </c>
@@ -20702,7 +21489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>97</v>
       </c>
@@ -20734,8 +21521,20 @@
         <f t="shared" si="0"/>
         <v>1030</v>
       </c>
+      <c r="I27" s="10">
+        <f>SUM(I2:I22)</f>
+        <v>580</v>
+      </c>
+      <c r="J27" s="10">
+        <f>SUM(J2:J22)</f>
+        <v>830</v>
+      </c>
+      <c r="K27" s="10">
+        <f>SUM(K2:K22)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>45</v>
       </c>
@@ -20760,8 +21559,15 @@
       <c r="H28" s="11">
         <v>108.99</v>
       </c>
+      <c r="I28" s="11">
+        <v>25</v>
+      </c>
+      <c r="J28" s="11">
+        <v>118.8</v>
+      </c>
+      <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
         <v>22</v>
       </c>
@@ -20770,7 +21576,7 @@
         <v>116</v>
       </c>
       <c r="C29" s="12">
-        <f t="shared" ref="C29:H29" si="1">B29+C27-C28</f>
+        <f t="shared" ref="C29:G29" si="1">B29+C27-C28</f>
         <v>1016</v>
       </c>
       <c r="D29" s="12">
@@ -20790,8 +21596,20 @@
         <v>4267.55</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" si="1"/>
+        <f>G29+H27-H28</f>
         <v>5188.5600000000004</v>
+      </c>
+      <c r="I29" s="12">
+        <f>H29+I27-I28</f>
+        <v>5743.56</v>
+      </c>
+      <c r="J29" s="12">
+        <f>I29+J27-J28</f>
+        <v>6454.76</v>
+      </c>
+      <c r="K29" s="12">
+        <f>J29+K27-K28</f>
+        <v>6454.76</v>
       </c>
     </row>
   </sheetData>
@@ -20806,11 +21624,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA511E68-F71D-47C7-9726-D5C78DCB2659}">
-  <dimension ref="A1:XEZ11"/>
+  <dimension ref="A1:XEZ12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="XEV2" sqref="XEV2"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -37216,7 +38034,7 @@
         <v>128</v>
       </c>
       <c r="B3" s="6">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -37224,46 +38042,54 @@
     </row>
     <row r="4" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="6">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
+      <c r="B5" s="6">
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16380" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:16380" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="10">
-        <f>SUM(B2:B4)</f>
-        <v>200</v>
-      </c>
-      <c r="C9" s="10">
-        <f>SUM(C2:C4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16380" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="10">
+        <f>SUM(B2:B5)</f>
+        <v>1125</v>
+      </c>
+      <c r="C10" s="10">
+        <f>SUM(C2:C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16380" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="11">
+        <v>722.31</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16380" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="12">
-        <f>B9-B10</f>
-        <v>200</v>
-      </c>
-      <c r="C11" s="12">
-        <f>C9-C10</f>
+      <c r="B12" s="12">
+        <f>B10-B11</f>
+        <v>402.69000000000005</v>
+      </c>
+      <c r="C12" s="12">
+        <f>C10-C11</f>
         <v>0</v>
       </c>
     </row>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chiming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD689C3B-C140-45AF-8B60-CBAF08FBC493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37098DA-FF3B-410B-9816-C75120AF2660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="2827" windowWidth="11145" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="放生随喜" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="153">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,10 +495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.12.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高重禾全家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,6 +608,21 @@
   <si>
     <t>2020.01.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.2.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列17</t>
   </si>
 </sst>
 </file>
@@ -910,7 +921,295 @@
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1484,264 +1783,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1756,91 +1797,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:P92" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="A1:P92" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState ref="A2:K92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:Q92" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:Q92" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K92">
     <sortCondition ref="A1:A92"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="43"/>
-    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.12.08" dataDxfId="42"/>
-    <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2019.12.12" dataDxfId="40"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.12.08" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2020.2.29" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{8A278776-53B1-4C9B-B0FD-D1404C201AA6}" name="backup" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A95:P98" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A95:P98" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A95:Q98" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="A95:Q98" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="46"/>
+    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="44"/>
+    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="43"/>
+    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="42"/>
+    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:K22" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:K22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="A1:K22" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
-  <sortState ref="A2:E22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2019.11.03" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2019.11.03" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:C5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:C5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
   <autoFilter ref="A1:C5" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
-  <sortState ref="A2:B5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B5">
     <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2145,10 +2188,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="O1" sqref="O1:O92"/>
+      <selection pane="topRight" activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
@@ -2159,7 +2202,7 @@
     <col min="12" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2200,16 +2243,19 @@
         <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
@@ -2230,8 +2276,9 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -2258,8 +2305,9 @@
         <v>200</v>
       </c>
       <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>90</v>
       </c>
@@ -2280,8 +2328,9 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -2304,8 +2353,9 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
@@ -2326,8 +2376,9 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>111</v>
       </c>
@@ -2348,8 +2399,9 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2370,8 +2422,9 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
@@ -2392,8 +2445,9 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>94</v>
       </c>
@@ -2414,8 +2468,9 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>84</v>
       </c>
@@ -2436,8 +2491,9 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
@@ -2458,8 +2514,9 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -2480,8 +2537,9 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
@@ -2504,8 +2562,9 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -2528,8 +2587,9 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -2550,6 +2610,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
@@ -2572,6 +2633,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
@@ -2594,6 +2656,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
@@ -2629,7 +2692,10 @@
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="P19" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="6"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -2653,6 +2719,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
@@ -2687,6 +2754,7 @@
         <v>200</v>
       </c>
       <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
@@ -2730,7 +2798,10 @@
       <c r="O22" s="6">
         <v>1000</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="6">
+        <v>1500</v>
+      </c>
+      <c r="Q22" s="6"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -2754,6 +2825,7 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
@@ -2796,6 +2868,7 @@
         <v>500</v>
       </c>
       <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -2819,6 +2892,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -2854,6 +2928,7 @@
         <v>200</v>
       </c>
       <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
@@ -2876,6 +2951,7 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -2899,6 +2975,7 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
@@ -2921,6 +2998,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -2944,6 +3022,7 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
@@ -2966,6 +3045,7 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
@@ -2988,6 +3068,7 @@
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3011,6 +3092,7 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
     </row>
     <row r="34" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
@@ -3041,11 +3123,12 @@
         <v>200</v>
       </c>
       <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3064,11 +3147,12 @@
         <v>30</v>
       </c>
       <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -3087,6 +3171,7 @@
         <v>200</v>
       </c>
       <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3110,6 +3195,7 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
     </row>
     <row r="38" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
@@ -3155,7 +3241,10 @@
       <c r="O38" s="6">
         <v>100</v>
       </c>
-      <c r="P38" s="6"/>
+      <c r="P38" s="6">
+        <v>300</v>
+      </c>
+      <c r="Q38" s="6"/>
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3179,6 +3268,7 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
     </row>
     <row r="40" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
@@ -3211,6 +3301,7 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3234,6 +3325,7 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
     </row>
     <row r="42" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
@@ -3256,6 +3348,7 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3279,6 +3372,7 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
     </row>
     <row r="44" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
@@ -3305,6 +3399,7 @@
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
     </row>
     <row r="45" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
@@ -3333,6 +3428,7 @@
         <v>200</v>
       </c>
       <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3356,6 +3452,9 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
+      <c r="Q46" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="47" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
@@ -3378,6 +3477,7 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3401,6 +3501,7 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
     </row>
     <row r="49" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
@@ -3425,6 +3526,7 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
       <c r="R49" s="2"/>
     </row>
     <row r="50" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3448,6 +3550,7 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
     </row>
     <row r="51" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
@@ -3470,6 +3573,7 @@
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3493,6 +3597,7 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
     </row>
     <row r="53" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
@@ -3515,6 +3620,7 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
     </row>
     <row r="54" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
@@ -3537,6 +3643,7 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
       <c r="R54" s="2"/>
     </row>
     <row r="55" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3560,10 +3667,11 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
     </row>
     <row r="56" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" s="6">
         <v>400</v>
@@ -3607,12 +3715,15 @@
       <c r="O56" s="6">
         <v>200</v>
       </c>
-      <c r="P56" s="6"/>
+      <c r="P56" s="6">
+        <v>254</v>
+      </c>
+      <c r="Q56" s="6"/>
       <c r="R56" s="2"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -3631,11 +3742,12 @@
         <v>20</v>
       </c>
       <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
       <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -3654,11 +3766,12 @@
         <v>10</v>
       </c>
       <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
       <c r="R58" s="2"/>
     </row>
     <row r="59" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -3677,11 +3790,12 @@
         <v>10</v>
       </c>
       <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
       <c r="R59" s="2"/>
     </row>
     <row r="60" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -3700,11 +3814,12 @@
         <v>10</v>
       </c>
       <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
       <c r="R60" s="2"/>
     </row>
     <row r="61" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -3723,11 +3838,12 @@
         <v>10</v>
       </c>
       <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
       <c r="R61" s="2"/>
     </row>
     <row r="62" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -3746,11 +3862,12 @@
         <v>10</v>
       </c>
       <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
       <c r="R62" s="2"/>
     </row>
     <row r="63" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -3769,11 +3886,12 @@
         <v>20</v>
       </c>
       <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
       <c r="R63" s="2"/>
     </row>
     <row r="64" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -3792,6 +3910,7 @@
         <v>10</v>
       </c>
       <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
       <c r="R64" s="2"/>
     </row>
     <row r="65" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3815,6 +3934,7 @@
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
     </row>
     <row r="66" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
@@ -3837,11 +3957,12 @@
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
       <c r="R66" s="2"/>
     </row>
     <row r="67" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -3860,11 +3981,12 @@
         <v>100</v>
       </c>
       <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
       <c r="R67" s="2"/>
     </row>
     <row r="68" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -3883,6 +4005,7 @@
         <v>50</v>
       </c>
       <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3918,6 +4041,7 @@
         <v>100</v>
       </c>
       <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
     </row>
     <row r="70" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
@@ -3940,6 +4064,7 @@
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
       <c r="R70" s="2"/>
     </row>
     <row r="71" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3963,6 +4088,7 @@
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
     </row>
     <row r="72" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
@@ -3985,6 +4111,7 @@
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
       <c r="R72" s="2"/>
     </row>
     <row r="73" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -4008,6 +4135,7 @@
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
     </row>
     <row r="74" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
@@ -4046,6 +4174,7 @@
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
       <c r="R74" s="2"/>
     </row>
     <row r="75" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -4069,6 +4198,7 @@
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
       <c r="R75" s="2"/>
     </row>
     <row r="76" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -4097,7 +4227,10 @@
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
+      <c r="P76" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q76" s="6"/>
     </row>
     <row r="77" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="7" t="s">
@@ -4120,6 +4253,7 @@
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
       <c r="R77" s="2"/>
     </row>
     <row r="78" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -4143,6 +4277,7 @@
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
     </row>
     <row r="79" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
@@ -4165,6 +4300,7 @@
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
       <c r="R79" s="2"/>
     </row>
     <row r="80" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -4188,6 +4324,7 @@
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
     </row>
     <row r="81" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
@@ -4210,7 +4347,7 @@
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
-      <c r="Q81" s="2"/>
+      <c r="Q81" s="6"/>
     </row>
     <row r="82" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="7" t="s">
@@ -4233,6 +4370,7 @@
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
     </row>
     <row r="83" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="7" t="s">
@@ -4255,6 +4393,7 @@
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
     </row>
     <row r="84" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
@@ -4277,6 +4416,7 @@
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
@@ -4299,10 +4439,11 @@
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
     </row>
     <row r="86" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -4321,6 +4462,7 @@
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
     </row>
     <row r="87" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
@@ -4345,6 +4487,7 @@
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
       <c r="R87" s="2"/>
     </row>
     <row r="88" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -4368,10 +4511,11 @@
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
     </row>
     <row r="89" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -4390,6 +4534,7 @@
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
     </row>
     <row r="90" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
@@ -4427,11 +4572,14 @@
       <c r="O90" s="6">
         <v>150</v>
       </c>
-      <c r="P90" s="6"/>
+      <c r="P90" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q90" s="6"/>
     </row>
     <row r="91" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -4450,6 +4598,7 @@
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
     </row>
     <row r="92" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
@@ -4472,6 +4621,7 @@
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
@@ -4535,6 +4685,10 @@
       </c>
       <c r="P93" s="3">
         <f>SUM(P2:P92)</f>
+        <v>2454</v>
+      </c>
+      <c r="Q93" s="3">
+        <f>SUM(Q2:Q92)</f>
         <v>0</v>
       </c>
     </row>
@@ -4576,16 +4730,19 @@
         <v>115</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O95" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O95" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="P95" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.4">
@@ -4598,7 +4755,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O97" s="1">
         <v>200</v>
@@ -4696,8 +4853,7 @@
         <v>4300</v>
       </c>
       <c r="P100" s="4">
-        <f>SUM(表3[列16])</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.4">
@@ -4762,7 +4918,7 @@
       </c>
       <c r="P101" s="5">
         <f t="shared" si="4"/>
-        <v>14657.880000000001</v>
+        <v>11111.880000000001</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
@@ -4771,8 +4927,8 @@
     <row r="104" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I104" s="2"/>
       <c r="O104" s="1">
-        <f>烟供随喜!$J$29+会供随喜!$B$12+O101</f>
-        <v>21515.33</v>
+        <f>烟供随喜!$J$29+会供随喜!$B$12+P101</f>
+        <v>17969.330000000002</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
@@ -4810,9 +4966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -4847,13 +5003,13 @@
         <v>118</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
@@ -21364,7 +21520,7 @@
     </row>
     <row r="10" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="6">
         <v>50</v>
@@ -21459,7 +21615,7 @@
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H19" s="6">
         <v>50</v>
@@ -21467,7 +21623,7 @@
     </row>
     <row r="20" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H20" s="6">
         <v>100</v>
@@ -21475,7 +21631,7 @@
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H21" s="6">
         <v>100</v>
@@ -21638,7 +21794,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>118</v>
@@ -38031,7 +38187,7 @@
     </row>
     <row r="3" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="6">
         <v>600</v>
@@ -38042,7 +38198,7 @@
     </row>
     <row r="4" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="6">
         <v>375</v>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chiming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37098DA-FF3B-410B-9816-C75120AF2660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5E624B-EE70-4059-9B2B-AFC142004552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="2827" windowWidth="11145" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="放生随喜" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="161">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>2018.11.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -562,10 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵可安阖家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>党海峰赵秀琴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,15 +606,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>backup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020.2.29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>列17</t>
+  </si>
+  <si>
+    <t>backup2</t>
+  </si>
+  <si>
+    <t>2020.04.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有缘众生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵可安阖家，张庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石玉岩全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张建娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王蕾全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -921,51 +952,7 @@
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="62">
     <dxf>
       <font>
         <b val="0"/>
@@ -998,213 +985,6 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <name val="微软雅黑"/>
         <charset val="134"/>
         <scheme val="none"/>
@@ -1783,6 +1563,294 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1797,93 +1865,95 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:Q92" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:Q92" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K92">
-    <sortCondition ref="A1:A92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:R95" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <autoFilter ref="A1:R95" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K95">
+    <sortCondition ref="A1:A95"/>
   </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.12.08" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2020.2.29" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{8A278776-53B1-4C9B-B0FD-D1404C201AA6}" name="backup" dataDxfId="1"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.12.08" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2020.2.29" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{8A278776-53B1-4C9B-B0FD-D1404C201AA6}" name="2020.04.05" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{423FF7CE-5B30-4588-B80E-563F413C6E1E}" name="backup2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A95:Q98" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
-  <autoFilter ref="A95:Q98" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A98:Q101" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="A98:Q101" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="44"/>
-    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="43"/>
-    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="42"/>
-    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:K22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
-  <autoFilter ref="A1:K22" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
-    <sortCondition ref="A1:A22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:L25" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+  <autoFilter ref="A1:L25" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E25">
+    <sortCondition ref="A1:A25"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2019.11.03" dataDxfId="27"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2019.11.03" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:C5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:C5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:C5" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B5">
     <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2186,12 +2256,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="O104" sqref="O104"/>
+      <selection pane="topRight" activeCell="O107" sqref="O107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
@@ -2199,12 +2269,14 @@
     <col min="1" max="1" width="21.46875" style="1" customWidth="1"/>
     <col min="2" max="10" width="11" style="1"/>
     <col min="11" max="11" width="13.46875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="1"/>
+    <col min="12" max="16" width="11" style="1"/>
+    <col min="17" max="17" width="11" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2213,51 +2285,54 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2277,10 +2352,11 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2305,11 +2381,14 @@
         <v>200</v>
       </c>
       <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="6">
+        <v>200</v>
+      </c>
+      <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2329,10 +2408,11 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2354,10 +2434,11 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2377,10 +2458,11 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2400,10 +2482,11 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2423,10 +2506,11 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2446,10 +2530,11 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2469,10 +2554,11 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2492,10 +2578,11 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2515,10 +2602,11 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2538,10 +2626,11 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2563,10 +2652,11 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2588,10 +2678,11 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2611,10 +2702,11 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2634,10 +2726,11 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2657,10 +2750,11 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2695,12 +2789,14 @@
       <c r="P19" s="6">
         <v>100</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="2"/>
+      <c r="Q19" s="6">
+        <v>100</v>
+      </c>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2720,10 +2816,11 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2754,11 +2851,14 @@
         <v>200</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="Q21" s="6">
+        <v>300</v>
+      </c>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2801,12 +2901,14 @@
       <c r="P22" s="6">
         <v>1500</v>
       </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="2"/>
+      <c r="Q22" s="6">
+        <v>1500</v>
+      </c>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2826,6 +2928,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
@@ -2869,11 +2972,11 @@
       </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-      <c r="R24" s="2"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2893,7 +2996,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="2"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
@@ -2928,20 +3031,21 @@
         <v>200</v>
       </c>
       <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="Q26" s="6">
+        <v>300</v>
+      </c>
+      <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
-        <v>72</v>
+      <c r="A27" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <v>30</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -2951,21 +3055,23 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="2"/>
+      <c r="Q27" s="6">
+        <v>1000</v>
+      </c>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
-        <v>52</v>
+      <c r="A28" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6">
-        <v>200</v>
-      </c>
-      <c r="G28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
+        <v>30</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -2976,18 +3082,19 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6">
-        <v>20</v>
-      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6">
+        <v>200</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2999,20 +3106,20 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="2"/>
+      <c r="R29" s="6"/>
     </row>
     <row r="30" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
-        <v>74</v>
+      <c r="A30" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6">
+        <v>20</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6">
-        <v>88.88</v>
-      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -3023,57 +3130,59 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6">
+        <v>88.88</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6">
-        <v>200</v>
-      </c>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
     </row>
     <row r="32" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6">
-        <v>200</v>
-      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="K32" s="6">
+        <v>200</v>
+      </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="2"/>
+      <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3081,7 +3190,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -3093,66 +3202,69 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="6" t="s">
-        <v>31</v>
+      <c r="A34" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6">
-        <v>300</v>
-      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="6">
-        <v>300</v>
-      </c>
+      <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="6">
-        <v>300</v>
-      </c>
+      <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="6">
-        <v>200</v>
-      </c>
+      <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="2"/>
+      <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="6">
+        <v>300</v>
+      </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="6">
+        <v>300</v>
+      </c>
       <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="I35" s="6">
+        <v>300</v>
+      </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="L35" s="6">
+        <v>300</v>
+      </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="2"/>
+      <c r="Q35" s="6">
+        <v>200</v>
+      </c>
+      <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -3168,22 +3280,20 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
-      <c r="R36" s="2"/>
+      <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="6">
-        <v>100</v>
-      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -3193,105 +3303,103 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
+      <c r="O37" s="6">
+        <v>200</v>
+      </c>
       <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
+      <c r="Q37" s="6">
+        <v>200</v>
+      </c>
+      <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="6">
-        <v>130</v>
-      </c>
-      <c r="C38" s="6">
-        <v>100</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6">
         <v>100</v>
       </c>
-      <c r="F38" s="6">
-        <v>100</v>
-      </c>
-      <c r="G38" s="6">
-        <v>50</v>
-      </c>
-      <c r="H38" s="6">
-        <v>100</v>
-      </c>
-      <c r="I38" s="6">
-        <v>100</v>
-      </c>
-      <c r="J38" s="6">
-        <v>100</v>
-      </c>
-      <c r="K38" s="6">
-        <v>100</v>
-      </c>
-      <c r="L38" s="6">
-        <v>100</v>
-      </c>
-      <c r="M38" s="6">
-        <v>100</v>
-      </c>
-      <c r="N38" s="6">
-        <v>100</v>
-      </c>
-      <c r="O38" s="6">
-        <v>100</v>
-      </c>
-      <c r="P38" s="6">
-        <v>300</v>
-      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
-      <c r="R38" s="2"/>
+      <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="B39" s="6">
+        <v>130</v>
+      </c>
+      <c r="C39" s="6">
+        <v>100</v>
+      </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="6">
+        <v>100</v>
+      </c>
       <c r="F39" s="6">
-        <v>107</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="G39" s="6">
+        <v>50</v>
+      </c>
+      <c r="H39" s="6">
+        <v>100</v>
+      </c>
+      <c r="I39" s="6">
+        <v>100</v>
+      </c>
+      <c r="J39" s="6">
+        <v>100</v>
+      </c>
+      <c r="K39" s="6">
+        <v>100</v>
+      </c>
+      <c r="L39" s="6">
+        <v>100</v>
+      </c>
+      <c r="M39" s="6">
+        <v>100</v>
+      </c>
+      <c r="N39" s="6">
+        <v>100</v>
+      </c>
+      <c r="O39" s="6">
+        <v>100</v>
+      </c>
+      <c r="P39" s="6">
+        <v>300</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>100</v>
+      </c>
+      <c r="R39" s="6"/>
     </row>
     <row r="40" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="6">
-        <v>100</v>
-      </c>
-      <c r="C40" s="6">
-        <v>50</v>
-      </c>
-      <c r="D40" s="6">
-        <v>2010</v>
-      </c>
-      <c r="E40" s="6">
-        <v>50</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="6">
-        <v>60</v>
-      </c>
-      <c r="G40" s="6">
-        <v>50</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -3302,19 +3410,29 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
-      <c r="R40" s="2"/>
+      <c r="R40" s="6"/>
     </row>
     <row r="41" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="A41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="6">
+        <v>100</v>
+      </c>
+      <c r="C41" s="6">
+        <v>50</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2010</v>
+      </c>
+      <c r="E41" s="6">
+        <v>50</v>
+      </c>
+      <c r="F41" s="6">
+        <v>60</v>
+      </c>
       <c r="G41" s="6">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -3325,20 +3443,23 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
+      <c r="Q41" s="6">
+        <v>100</v>
+      </c>
+      <c r="R41" s="6"/>
     </row>
     <row r="42" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A42" s="6" t="s">
-        <v>39</v>
+      <c r="A42" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="6">
-        <v>100</v>
-      </c>
+      <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="G42" s="6">
+        <v>300</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -3349,20 +3470,20 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
-      <c r="R42" s="2"/>
+      <c r="R42" s="6"/>
     </row>
     <row r="43" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="7" t="s">
-        <v>68</v>
+      <c r="A43" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="6">
+        <v>100</v>
+      </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="6">
-        <v>200</v>
-      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -3373,25 +3494,22 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
     </row>
     <row r="44" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="6" t="s">
-        <v>36</v>
+      <c r="A44" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6">
-        <v>400</v>
-      </c>
+      <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6">
         <v>200</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="6">
-        <v>200</v>
-      </c>
+      <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -3400,74 +3518,80 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
     </row>
     <row r="45" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6">
+        <v>400</v>
+      </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6">
+      <c r="G45" s="6">
         <v>200</v>
       </c>
-      <c r="I45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6">
+        <v>200</v>
+      </c>
       <c r="J45" s="6"/>
-      <c r="K45" s="6">
-        <v>200</v>
-      </c>
+      <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="6">
-        <v>200</v>
-      </c>
+      <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="2"/>
+      <c r="R45" s="6"/>
     </row>
     <row r="46" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="H46" s="6">
+        <v>200</v>
+      </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="K46" s="6">
+        <v>200</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
+      <c r="O46" s="6">
+        <v>200</v>
+      </c>
       <c r="P46" s="6"/>
-      <c r="Q46" s="6" t="s">
-        <v>149</v>
-      </c>
+      <c r="Q46" s="6">
+        <v>200</v>
+      </c>
+      <c r="R46" s="6"/>
     </row>
     <row r="47" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="7" t="s">
-        <v>85</v>
+      <c r="A47" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6">
+        <v>200</v>
+      </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="6">
-        <v>200</v>
-      </c>
+      <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -3477,21 +3601,25 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="2"/>
+      <c r="Q47" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="48" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="6" t="s">
-        <v>13</v>
+      <c r="A48" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="6">
-        <v>1000</v>
-      </c>
+      <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="G48" s="6">
+        <v>200</v>
+      </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -3502,68 +3630,70 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
     </row>
     <row r="49" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="6">
+        <v>1000</v>
+      </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="6">
-        <v>200</v>
-      </c>
+      <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="6">
-        <v>100</v>
-      </c>
+      <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
-      <c r="R49" s="2"/>
+      <c r="R49" s="6"/>
     </row>
     <row r="50" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="6">
-        <v>100</v>
-      </c>
+      <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="H50" s="6">
+        <v>200</v>
+      </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
+      <c r="M50" s="6">
+        <v>100</v>
+      </c>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
     </row>
     <row r="51" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="7" t="s">
-        <v>79</v>
+      <c r="A51" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="E51" s="6">
+        <v>100</v>
+      </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="6">
-        <v>50</v>
-      </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -3574,22 +3704,22 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
-      <c r="R51" s="2"/>
+      <c r="R51" s="6"/>
     </row>
     <row r="52" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="6">
+        <v>50</v>
+      </c>
       <c r="H52" s="6"/>
-      <c r="I52" s="6">
-        <v>800</v>
-      </c>
+      <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -3598,21 +3728,22 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
     </row>
     <row r="53" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6">
-        <v>50</v>
-      </c>
+      <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="I53" s="6">
+        <v>800</v>
+      </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -3621,20 +3752,21 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
     </row>
     <row r="54" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6">
-        <v>100</v>
-      </c>
+      <c r="G54" s="6">
+        <v>50</v>
+      </c>
+      <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -3644,21 +3776,21 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
-      <c r="R54" s="2"/>
+      <c r="R54" s="6"/>
     </row>
     <row r="55" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="6" t="s">
-        <v>10</v>
+      <c r="A55" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="6">
-        <v>100</v>
-      </c>
+      <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="H55" s="6">
+        <v>100</v>
+      </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -3668,86 +3800,89 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
     </row>
-    <row r="56" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" s="6">
-        <v>400</v>
-      </c>
-      <c r="C56" s="6">
-        <v>200</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="6">
-        <v>350</v>
-      </c>
-      <c r="E56" s="6">
-        <v>200</v>
-      </c>
-      <c r="F56" s="6">
         <v>100</v>
       </c>
-      <c r="G56" s="6">
-        <v>125</v>
-      </c>
-      <c r="H56" s="6">
-        <v>100</v>
-      </c>
-      <c r="I56" s="6">
-        <v>200</v>
-      </c>
-      <c r="J56" s="6">
-        <v>100</v>
-      </c>
-      <c r="K56" s="6">
-        <v>100</v>
-      </c>
-      <c r="L56" s="6">
-        <v>200</v>
-      </c>
-      <c r="M56" s="6">
-        <v>200</v>
-      </c>
-      <c r="N56" s="6">
-        <v>200</v>
-      </c>
-      <c r="O56" s="6">
-        <v>200</v>
-      </c>
-      <c r="P56" s="6">
-        <v>254</v>
-      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
-      <c r="R56" s="2"/>
+      <c r="R56" s="6"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B57" s="6">
+        <v>400</v>
+      </c>
+      <c r="C57" s="6">
+        <v>200</v>
+      </c>
+      <c r="D57" s="6">
+        <v>350</v>
+      </c>
+      <c r="E57" s="6">
+        <v>200</v>
+      </c>
+      <c r="F57" s="6">
+        <v>100</v>
+      </c>
+      <c r="G57" s="6">
+        <v>125</v>
+      </c>
+      <c r="H57" s="6">
+        <v>100</v>
+      </c>
+      <c r="I57" s="6">
+        <v>200</v>
+      </c>
+      <c r="J57" s="6">
+        <v>100</v>
+      </c>
+      <c r="K57" s="6">
+        <v>100</v>
+      </c>
+      <c r="L57" s="6">
+        <v>200</v>
+      </c>
+      <c r="M57" s="6">
+        <v>200</v>
+      </c>
+      <c r="N57" s="6">
+        <v>200</v>
+      </c>
       <c r="O57" s="6">
-        <v>20</v>
-      </c>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="P57" s="6">
+        <v>254</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>500</v>
+      </c>
+      <c r="R57" s="6"/>
     </row>
     <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -3763,13 +3898,13 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
-      <c r="R58" s="2"/>
+      <c r="R58" s="6"/>
     </row>
-    <row r="59" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
         <v>145</v>
       </c>
@@ -3791,11 +3926,11 @@
       </c>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="2"/>
+      <c r="R59" s="6"/>
     </row>
     <row r="60" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -3815,11 +3950,11 @@
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
-      <c r="R60" s="2"/>
+      <c r="R60" s="6"/>
     </row>
     <row r="61" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -3839,11 +3974,11 @@
       </c>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
-      <c r="R61" s="2"/>
+      <c r="R61" s="6"/>
     </row>
     <row r="62" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -3863,11 +3998,11 @@
       </c>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
-      <c r="R62" s="2"/>
+      <c r="R62" s="6"/>
     </row>
     <row r="63" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -3883,15 +4018,15 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
-      <c r="R63" s="2"/>
+      <c r="R63" s="6"/>
     </row>
     <row r="64" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -3907,24 +4042,22 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
-      <c r="R64" s="2"/>
+      <c r="R64" s="6"/>
     </row>
     <row r="65" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="7" t="s">
-        <v>70</v>
+      <c r="A65" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="6">
-        <v>200</v>
-      </c>
+      <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -3932,24 +4065,27 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
+      <c r="O65" s="6">
+        <v>10</v>
+      </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
     </row>
     <row r="66" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="G66" s="6">
+        <v>200</v>
+      </c>
       <c r="H66" s="6"/>
-      <c r="I66" s="6">
-        <v>300</v>
-      </c>
+      <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
@@ -3957,12 +4093,14 @@
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="2"/>
+      <c r="Q66" s="6">
+        <v>300</v>
+      </c>
+      <c r="R66" s="6"/>
     </row>
     <row r="67" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -3971,22 +4109,22 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="I67" s="6">
+        <v>300</v>
+      </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="6">
-        <v>100</v>
-      </c>
+      <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
-      <c r="R67" s="2"/>
+      <c r="R67" s="6"/>
     </row>
     <row r="68" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -4002,70 +4140,73 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
-      <c r="R68" s="2"/>
+      <c r="R68" s="6"/>
     </row>
     <row r="69" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A69" s="6" t="s">
-        <v>6</v>
+      <c r="A69" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="B69" s="6"/>
-      <c r="C69" s="6">
-        <v>100</v>
-      </c>
-      <c r="D69" s="6">
-        <v>200</v>
-      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6">
-        <v>100</v>
-      </c>
+      <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="6">
-        <v>200</v>
-      </c>
+      <c r="I69" s="6"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="6">
-        <v>200</v>
-      </c>
-      <c r="L69" s="6">
-        <v>200</v>
-      </c>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
     </row>
     <row r="70" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="7" t="s">
-        <v>67</v>
+      <c r="A70" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="C70" s="6">
+        <v>100</v>
+      </c>
+      <c r="D70" s="6">
+        <v>200</v>
+      </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6">
+        <v>100</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6">
         <v>200</v>
       </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
+      <c r="K70" s="6">
+        <v>200</v>
+      </c>
+      <c r="L70" s="6">
+        <v>200</v>
+      </c>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
+      <c r="O70" s="6">
+        <v>100</v>
+      </c>
       <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="2"/>
+      <c r="Q70" s="6">
+        <v>500</v>
+      </c>
+      <c r="R70" s="6"/>
     </row>
     <row r="71" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
@@ -4089,19 +4230,20 @@
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
     </row>
     <row r="72" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="6" t="s">
-        <v>8</v>
+      <c r="A72" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="6">
-        <v>55</v>
-      </c>
+      <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="G72" s="6">
+        <v>200</v>
+      </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -4112,20 +4254,20 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
-      <c r="R72" s="2"/>
+      <c r="R72" s="6"/>
     </row>
     <row r="73" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="6">
+        <v>55</v>
+      </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="6">
-        <v>200</v>
-      </c>
+      <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -4136,129 +4278,135 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
     </row>
     <row r="74" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="6">
-        <v>200</v>
-      </c>
-      <c r="F74" s="6">
-        <v>200</v>
-      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="6">
         <v>200</v>
       </c>
-      <c r="H74" s="6">
-        <v>200</v>
-      </c>
-      <c r="I74" s="6">
-        <v>200</v>
-      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="6">
-        <v>200</v>
-      </c>
-      <c r="L74" s="6">
-        <v>200</v>
-      </c>
-      <c r="M74" s="6">
-        <v>200</v>
-      </c>
-      <c r="N74" s="6">
-        <v>200</v>
-      </c>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
-      <c r="R74" s="2"/>
+      <c r="R74" s="6"/>
     </row>
     <row r="75" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
+      <c r="E75" s="6">
+        <v>200</v>
+      </c>
+      <c r="F75" s="6">
+        <v>200</v>
+      </c>
+      <c r="G75" s="6">
+        <v>200</v>
+      </c>
+      <c r="H75" s="6">
+        <v>200</v>
+      </c>
+      <c r="I75" s="6">
+        <v>200</v>
+      </c>
       <c r="J75" s="6"/>
       <c r="K75" s="6">
-        <v>100</v>
-      </c>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="L75" s="6">
+        <v>200</v>
+      </c>
+      <c r="M75" s="6">
+        <v>200</v>
+      </c>
+      <c r="N75" s="6">
+        <v>200</v>
+      </c>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="2"/>
+      <c r="Q75" s="6">
+        <v>200</v>
+      </c>
+      <c r="R75" s="6"/>
     </row>
     <row r="76" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="6">
-        <v>200</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="6">
-        <v>200</v>
-      </c>
-      <c r="E76" s="6">
-        <v>100</v>
-      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
-      <c r="P76" s="6">
-        <v>200</v>
-      </c>
+      <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
     </row>
     <row r="77" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="6"/>
+      <c r="A77" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="6">
+        <v>200</v>
+      </c>
       <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
+      <c r="D77" s="6">
+        <v>200</v>
+      </c>
+      <c r="E77" s="6">
+        <v>100</v>
+      </c>
       <c r="F77" s="6"/>
-      <c r="G77" s="6">
-        <v>50</v>
-      </c>
+      <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
+      <c r="K77" s="6">
+        <v>200</v>
+      </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="2"/>
+      <c r="P77" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q77" s="6">
+        <v>150</v>
+      </c>
+      <c r="R77" s="6"/>
     </row>
     <row r="78" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -4278,10 +4426,11 @@
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
     </row>
     <row r="79" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -4301,11 +4450,11 @@
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
-      <c r="R79" s="2"/>
+      <c r="R79" s="6"/>
     </row>
     <row r="80" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -4325,19 +4474,20 @@
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
     </row>
     <row r="81" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="6" t="s">
-        <v>42</v>
+      <c r="A81" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="6">
-        <v>10</v>
-      </c>
+      <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+      <c r="G81" s="6">
+        <v>50</v>
+      </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -4348,19 +4498,20 @@
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
     </row>
     <row r="82" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="7" t="s">
-        <v>81</v>
+      <c r="A82" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
+      <c r="E82" s="6">
+        <v>10</v>
+      </c>
       <c r="F82" s="6"/>
-      <c r="G82" s="6">
-        <v>50</v>
-      </c>
+      <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -4371,6 +4522,7 @@
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
     </row>
     <row r="83" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="7" t="s">
@@ -4394,21 +4546,22 @@
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
     </row>
     <row r="84" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A84" s="6" t="s">
-        <v>105</v>
+      <c r="A84" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+      <c r="G84" s="6">
+        <v>50</v>
+      </c>
       <c r="H84" s="6"/>
-      <c r="I84" s="6">
-        <v>50</v>
-      </c>
+      <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -4417,10 +4570,11 @@
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
     </row>
     <row r="85" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -4429,21 +4583,22 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
+      <c r="I85" s="6">
+        <v>50</v>
+      </c>
       <c r="J85" s="6"/>
-      <c r="K85" s="6">
-        <v>100</v>
-      </c>
+      <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
     </row>
     <row r="86" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -4454,56 +4609,57 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
+      <c r="K86" s="6">
+        <v>100</v>
+      </c>
       <c r="L86" s="6"/>
-      <c r="M86" s="6">
-        <v>66</v>
-      </c>
+      <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
     </row>
     <row r="87" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="6">
-        <v>1000</v>
-      </c>
+      <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="6">
-        <v>300</v>
-      </c>
+      <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
+      <c r="M87" s="6">
+        <v>66</v>
+      </c>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
-      <c r="R87" s="2"/>
+      <c r="R87" s="6"/>
     </row>
     <row r="88" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A88" s="7" t="s">
-        <v>89</v>
+      <c r="A88" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="E88" s="6">
+        <v>1000</v>
+      </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6">
-        <v>200</v>
-      </c>
+      <c r="H88" s="6">
+        <v>300</v>
+      </c>
+      <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
@@ -4512,10 +4668,11 @@
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
     </row>
     <row r="89" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="7" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -4524,92 +4681,95 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
+      <c r="I89" s="6">
+        <v>200</v>
+      </c>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="6">
-        <v>30</v>
-      </c>
+      <c r="M89" s="6"/>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
     </row>
     <row r="90" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A90" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B90" s="6">
-        <v>150</v>
-      </c>
-      <c r="C90" s="6">
-        <v>50</v>
-      </c>
+      <c r="A90" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
-      <c r="F90" s="6">
-        <v>150</v>
-      </c>
-      <c r="G90" s="6">
-        <v>150</v>
-      </c>
-      <c r="H90" s="6">
-        <v>150</v>
-      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="6">
-        <v>50</v>
-      </c>
+      <c r="J90" s="6"/>
       <c r="K90" s="6"/>
-      <c r="L90" s="6">
-        <v>150</v>
-      </c>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6">
-        <v>150</v>
-      </c>
-      <c r="O90" s="6">
-        <v>150</v>
-      </c>
-      <c r="P90" s="6">
-        <v>100</v>
-      </c>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6">
+        <v>30</v>
+      </c>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
     </row>
     <row r="91" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B91" s="6">
+        <v>150</v>
+      </c>
+      <c r="C91" s="6">
+        <v>50</v>
+      </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
+      <c r="F91" s="6">
+        <v>150</v>
+      </c>
+      <c r="G91" s="6">
+        <v>150</v>
+      </c>
+      <c r="H91" s="6">
+        <v>150</v>
+      </c>
       <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
+      <c r="J91" s="6">
+        <v>50</v>
+      </c>
       <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6">
+      <c r="L91" s="6">
+        <v>150</v>
+      </c>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6">
+        <v>150</v>
+      </c>
+      <c r="O91" s="6">
+        <v>150</v>
+      </c>
+      <c r="P91" s="6">
         <v>100</v>
       </c>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
+      <c r="Q91" s="6">
+        <v>100</v>
+      </c>
+      <c r="R91" s="6"/>
     </row>
     <row r="92" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="6">
-        <v>50</v>
-      </c>
+      <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -4617,334 +4777,423 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
+      <c r="M92" s="6">
+        <v>100</v>
+      </c>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A93" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="3">
-        <f t="shared" ref="B93:N93" si="0">SUM(B2:B92)</f>
+    <row r="93" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A93" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6">
+        <v>100</v>
+      </c>
+      <c r="R93" s="6"/>
+    </row>
+    <row r="94" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A94" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6">
+        <v>100</v>
+      </c>
+      <c r="R94" s="6"/>
+    </row>
+    <row r="95" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A95" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6">
+        <v>50</v>
+      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="3">
+        <f t="shared" ref="B96:N96" si="0">SUM(B2:B95)</f>
         <v>1980</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C96" s="3">
         <f t="shared" si="0"/>
         <v>1166</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D96" s="3">
         <f t="shared" si="0"/>
         <v>12195</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E96" s="3">
         <f t="shared" si="0"/>
         <v>5530</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F96" s="3">
         <f t="shared" si="0"/>
         <v>2517</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G96" s="3">
         <f t="shared" si="0"/>
         <v>6563.88</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H96" s="3">
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I96" s="3">
         <f t="shared" si="0"/>
         <v>5550</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J96" s="3">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K96" s="3">
         <f t="shared" si="0"/>
         <v>3900</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L96" s="3">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="M93" s="3">
+      <c r="M96" s="3">
         <f t="shared" si="0"/>
         <v>3196</v>
       </c>
-      <c r="N93" s="3">
+      <c r="N96" s="3">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="O93" s="3">
-        <f>SUM(O2:O92)</f>
+      <c r="O96" s="3">
+        <f>SUM(O2:O95)</f>
         <v>3530</v>
       </c>
-      <c r="P93" s="3">
-        <f>SUM(P2:P92)</f>
+      <c r="P96" s="3">
+        <f>SUM(P2:P95)</f>
         <v>2454</v>
       </c>
-      <c r="Q93" s="3">
-        <f>SUM(Q2:Q92)</f>
+      <c r="Q96" s="3">
+        <f>SUM(Q2:Q95)</f>
+        <v>6150</v>
+      </c>
+      <c r="R96" s="3">
+        <f>SUM(R2:R95)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A95" s="1" t="s">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N95" s="1" t="s">
+      <c r="H98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O98" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O95" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P95" s="1" t="s">
+      <c r="P98" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G99" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q95" s="1" t="s">
-        <v>152</v>
+      <c r="O100" s="1">
+        <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A96" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G96" s="1">
-        <v>2100</v>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="1">
+        <v>570</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>3025</v>
+      </c>
+      <c r="F101" s="1">
+        <v>2154</v>
+      </c>
+      <c r="G101" s="1">
+        <v>3200</v>
+      </c>
+      <c r="H101" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I101" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J101" s="1">
+        <v>3555</v>
+      </c>
+      <c r="K101" s="1">
+        <v>4046</v>
+      </c>
+      <c r="O101" s="1">
+        <v>4100</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A97" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O97" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98" s="1">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A103" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="4">
+        <f>SUM(B99:B101)</f>
         <v>570</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C103" s="4">
+        <f t="shared" ref="C103:G103" si="1">SUM(C99:C101)</f>
         <v>1080</v>
       </c>
-      <c r="D98" s="1">
-        <v>0</v>
-      </c>
-      <c r="E98" s="1">
-        <v>3025</v>
-      </c>
-      <c r="F98" s="1">
-        <v>2154</v>
-      </c>
-      <c r="G98" s="1">
-        <v>3200</v>
-      </c>
-      <c r="H98" s="1">
-        <v>3500</v>
-      </c>
-      <c r="I98" s="1">
-        <v>4000</v>
-      </c>
-      <c r="J98" s="1">
-        <v>3555</v>
-      </c>
-      <c r="K98" s="1">
-        <v>4046</v>
-      </c>
-      <c r="O98" s="1">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A100" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B100" s="4">
-        <f>SUM(B96:B98)</f>
-        <v>570</v>
-      </c>
-      <c r="C100" s="4">
-        <f t="shared" ref="C100:G100" si="1">SUM(C96:C98)</f>
-        <v>1080</v>
-      </c>
-      <c r="D100" s="4">
+      <c r="D103" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E103" s="4">
         <f t="shared" si="1"/>
         <v>3025</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F103" s="4">
         <f t="shared" si="1"/>
         <v>2154</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G103" s="4">
         <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H103" s="4">
         <v>3500</v>
       </c>
-      <c r="I100" s="4">
+      <c r="I103" s="4">
         <v>4000</v>
       </c>
-      <c r="J100" s="4">
+      <c r="J103" s="4">
         <v>3555</v>
       </c>
-      <c r="K100" s="4">
+      <c r="K103" s="4">
         <v>4046</v>
       </c>
-      <c r="L100" s="4">
+      <c r="L103" s="4">
         <v>3490</v>
       </c>
-      <c r="M100" s="4">
+      <c r="M103" s="4">
         <v>3500</v>
       </c>
-      <c r="N100" s="4">
+      <c r="N103" s="4">
         <v>3500</v>
       </c>
-      <c r="O100" s="4">
+      <c r="O103" s="4">
         <f>SUM(表3[列15])</f>
         <v>4300</v>
       </c>
-      <c r="P100" s="4">
+      <c r="P103" s="4">
         <v>6000</v>
       </c>
+      <c r="Q103" s="4">
+        <v>4030</v>
+      </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A101" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" s="5">
-        <f>B93-B100</f>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A104" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="5">
+        <f>B96-B103</f>
         <v>1410</v>
       </c>
-      <c r="C101" s="5">
-        <f t="shared" ref="C101:M101" si="2">B101+C93-C100</f>
+      <c r="C104" s="5">
+        <f t="shared" ref="C104:M104" si="2">B104+C96-C103</f>
         <v>1496</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D104" s="5">
         <f t="shared" si="2"/>
         <v>13691</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E104" s="5">
         <f t="shared" si="2"/>
         <v>16196</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F104" s="5">
         <f t="shared" si="2"/>
         <v>16559</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G104" s="5">
         <f t="shared" si="2"/>
         <v>17822.88</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H104" s="5">
         <f t="shared" si="2"/>
         <v>18022.88</v>
       </c>
-      <c r="I101" s="5">
+      <c r="I104" s="5">
         <f t="shared" si="2"/>
         <v>19572.88</v>
       </c>
-      <c r="J101" s="5">
+      <c r="J104" s="5">
         <f t="shared" si="2"/>
         <v>17367.88</v>
       </c>
-      <c r="K101" s="5">
+      <c r="K104" s="5">
         <f t="shared" si="2"/>
         <v>17221.88</v>
       </c>
-      <c r="L101" s="5">
+      <c r="L104" s="5">
         <f t="shared" si="2"/>
         <v>17481.88</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M104" s="5">
         <f t="shared" si="2"/>
         <v>17177.88</v>
       </c>
-      <c r="N101" s="5">
-        <f t="shared" ref="N101" si="3">M101+N93-N100</f>
+      <c r="N104" s="5">
+        <f t="shared" ref="N104" si="3">M104+N96-N103</f>
         <v>15427.880000000001</v>
       </c>
-      <c r="O101" s="5">
-        <f t="shared" ref="O101:P101" si="4">N101+O93-O100</f>
+      <c r="O104" s="5">
+        <f t="shared" ref="O104:Q104" si="4">N104+O96-O103</f>
         <v>14657.880000000001</v>
       </c>
-      <c r="P101" s="5">
+      <c r="P104" s="5">
         <f t="shared" si="4"/>
         <v>11111.880000000001</v>
       </c>
+      <c r="Q104" s="5">
+        <f t="shared" si="4"/>
+        <v>13231.880000000001</v>
+      </c>
     </row>
-    <row r="102" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I102" s="2"/>
+    <row r="105" spans="1:18" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I105" s="2"/>
     </row>
-    <row r="104" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I104" s="2"/>
-      <c r="O104" s="1">
-        <f>烟供随喜!$J$29+会供随喜!$B$12+P101</f>
-        <v>17969.330000000002</v>
+    <row r="107" spans="1:18" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I107" s="2"/>
+      <c r="O107" s="1">
+        <f>烟供随喜!$K$32+会供随喜!$B$12+Q104</f>
+        <v>21891.33</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I106" s="2"/>
+    <row r="109" spans="1:18" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I109" s="2"/>
     </row>
-    <row r="108" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I108" s="2"/>
+    <row r="111" spans="1:18" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I111" s="2"/>
     </row>
-    <row r="110" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I110" s="2"/>
+    <row r="113" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I113" s="2"/>
     </row>
-    <row r="112" spans="1:16" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I112" s="2"/>
+    <row r="115" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I115" s="2"/>
     </row>
-    <row r="114" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I114" s="2"/>
+    <row r="117" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I117" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4964,56 +5213,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:XFD32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K29" sqref="K29"/>
+      <selection pane="topRight" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="9" max="10" width="17.76171875" customWidth="1"/>
-    <col min="11" max="11" width="14.8203125" customWidth="1"/>
+    <col min="9" max="11" width="17.76171875" customWidth="1"/>
+    <col min="12" max="14" width="14.8203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="15" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
+        <v>158</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -21387,7 +21642,7 @@
     </row>
     <row r="2" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="6">
         <v>300</v>
@@ -21408,12 +21663,15 @@
         <v>200</v>
       </c>
       <c r="J2" s="6">
+        <v>200</v>
+      </c>
+      <c r="K2" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="6">
         <v>100</v>
@@ -21421,7 +21679,7 @@
     </row>
     <row r="4" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="6">
         <v>50</v>
@@ -21432,7 +21690,7 @@
     </row>
     <row r="5" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="6">
         <v>50</v>
@@ -21440,7 +21698,7 @@
     </row>
     <row r="6" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="6">
         <v>500</v>
@@ -21459,11 +21717,14 @@
       </c>
       <c r="J6" s="6">
         <v>200</v>
+      </c>
+      <c r="K6" s="6">
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="6">
         <v>40</v>
@@ -21487,12 +21748,15 @@
         <v>30</v>
       </c>
       <c r="J7" s="6">
+        <v>30</v>
+      </c>
+      <c r="K7" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6">
         <v>200</v>
@@ -21500,7 +21764,7 @@
     </row>
     <row r="9" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="6">
         <v>200</v>
@@ -21516,11 +21780,14 @@
       </c>
       <c r="J9" s="6">
         <v>200</v>
+      </c>
+      <c r="K9" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="6">
         <v>50</v>
@@ -21539,11 +21806,14 @@
       </c>
       <c r="J10" s="6">
         <v>100</v>
+      </c>
+      <c r="K10" s="6">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="6">
         <v>100</v>
@@ -21551,7 +21821,7 @@
     </row>
     <row r="12" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="6">
         <v>50</v>
@@ -21559,21 +21829,27 @@
     </row>
     <row r="13" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="6">
+        <v>100</v>
+      </c>
+      <c r="K13" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6">
         <v>50</v>
       </c>
       <c r="J14" s="6">
         <v>100</v>
+      </c>
+      <c r="K14" s="6">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -21589,184 +21865,223 @@
     </row>
     <row r="16" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="6">
         <v>100</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
+      <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H20" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="6">
+        <v>160</v>
+      </c>
+      <c r="K21" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="6">
         <v>100</v>
       </c>
-      <c r="B22" s="6">
+      <c r="K23" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="10">
-        <f t="shared" ref="B27:H27" si="0">SUM(B2:B22)</f>
+    <row r="25" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="10">
+        <f t="shared" ref="B30:H30" si="0">SUM(B2:B25)</f>
         <v>190</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C30" s="10">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D30" s="10">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G30" s="10">
         <f t="shared" si="0"/>
         <v>1150</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H30" s="10">
         <f t="shared" si="0"/>
         <v>1030</v>
       </c>
-      <c r="I27" s="10">
-        <f>SUM(I2:I22)</f>
+      <c r="I30" s="10">
+        <f>SUM(I2:I25)</f>
         <v>580</v>
       </c>
-      <c r="J27" s="10">
-        <f>SUM(J2:J22)</f>
+      <c r="J30" s="10">
+        <f>SUM(J2:J25)</f>
         <v>830</v>
       </c>
-      <c r="K27" s="10">
-        <f>SUM(K2:K22)</f>
+      <c r="K30" s="10">
+        <f>SUM(K2:K25)</f>
+        <v>1830</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="1:14" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="11">
+        <v>74</v>
+      </c>
+      <c r="C31" s="11">
         <v>0</v>
       </c>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <v>108.99</v>
+      </c>
+      <c r="F31" s="11">
+        <v>125.18</v>
+      </c>
+      <c r="G31" s="11">
+        <v>414.28</v>
+      </c>
+      <c r="H31" s="11">
+        <v>108.99</v>
+      </c>
+      <c r="I31" s="11">
+        <v>25</v>
+      </c>
+      <c r="J31" s="11">
+        <v>118.8</v>
+      </c>
+      <c r="K31" s="11">
+        <v>28</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="11">
-        <v>74</v>
-      </c>
-      <c r="C28" s="11">
-        <v>0</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
-        <v>108.99</v>
-      </c>
-      <c r="F28" s="11">
-        <v>125.18</v>
-      </c>
-      <c r="G28" s="11">
-        <v>414.28</v>
-      </c>
-      <c r="H28" s="11">
-        <v>108.99</v>
-      </c>
-      <c r="I28" s="11">
-        <v>25</v>
-      </c>
-      <c r="J28" s="11">
-        <v>118.8</v>
-      </c>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="12">
-        <f>B27-B28</f>
+    <row r="32" spans="1:14" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="12">
+        <f>B30-B31</f>
         <v>116</v>
       </c>
-      <c r="C29" s="12">
-        <f t="shared" ref="C29:G29" si="1">B29+C27-C28</f>
+      <c r="C32" s="12">
+        <f t="shared" ref="C32:G32" si="1">B32+C30-C31</f>
         <v>1016</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D32" s="12">
         <f t="shared" si="1"/>
         <v>1516</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E32" s="12">
         <f t="shared" si="1"/>
         <v>2607.0100000000002</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F32" s="12">
         <f t="shared" si="1"/>
         <v>3531.8300000000004</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G32" s="12">
         <f t="shared" si="1"/>
         <v>4267.55</v>
       </c>
-      <c r="H29" s="12">
-        <f>G29+H27-H28</f>
+      <c r="H32" s="12">
+        <f>G32+H30-H31</f>
         <v>5188.5600000000004</v>
       </c>
-      <c r="I29" s="12">
-        <f>H29+I27-I28</f>
+      <c r="I32" s="12">
+        <f>H32+I30-I31</f>
         <v>5743.56</v>
       </c>
-      <c r="J29" s="12">
-        <f>I29+J27-J28</f>
+      <c r="J32" s="12">
+        <f>I32+J30-J31</f>
         <v>6454.76</v>
       </c>
-      <c r="K29" s="12">
-        <f>J29+K27-K28</f>
-        <v>6454.76</v>
-      </c>
+      <c r="K32" s="12">
+        <f>J32+K30-K31</f>
+        <v>8256.76</v>
+      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21791,13 +22106,13 @@
   <sheetData>
     <row r="1" spans="1:16380" s="15" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1"/>
       <c r="E1"/>
@@ -38179,7 +38494,7 @@
     </row>
     <row r="2" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="6">
         <v>100</v>
@@ -38187,7 +38502,7 @@
     </row>
     <row r="3" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="6">
         <v>600</v>
@@ -38198,7 +38513,7 @@
     </row>
     <row r="4" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="6">
         <v>375</v>
@@ -38206,7 +38521,7 @@
     </row>
     <row r="5" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="6">
         <v>50</v>
@@ -38214,7 +38529,7 @@
     </row>
     <row r="10" spans="1:16380" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="10">
         <f>SUM(B2:B5)</f>
@@ -38227,7 +38542,7 @@
     </row>
     <row r="11" spans="1:16380" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="11">
         <v>722.31</v>
@@ -38238,7 +38553,7 @@
     </row>
     <row r="12" spans="1:16380" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="12">
         <f>B10-B11</f>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chiming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5E624B-EE70-4059-9B2B-AFC142004552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5155092C-CD9D-4332-BD88-01D2A8FA65C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="放生随喜" sheetId="1" r:id="rId1"/>
     <sheet name="烟供随喜" sheetId="2" r:id="rId2"/>
     <sheet name="会供随喜" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="184">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>韩该妍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列10</t>
   </si>
   <si>
@@ -422,9 +418,6 @@
   </si>
   <si>
     <t>周晨晓阖家</t>
-  </si>
-  <si>
-    <t>韩该妍</t>
   </si>
   <si>
     <t>江明</t>
@@ -613,9 +606,6 @@
     <t>列17</t>
   </si>
   <si>
-    <t>backup2</t>
-  </si>
-  <si>
     <t>2020.04.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,10 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.11.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020.04.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,6 +640,100 @@
   <si>
     <t>小树</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.032</t>
+  </si>
+  <si>
+    <t>2019.11.033</t>
+  </si>
+  <si>
+    <t>2020.05.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列172</t>
+  </si>
+  <si>
+    <t>列173</t>
+  </si>
+  <si>
+    <t>韩冬雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卜赛斌全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董庚祥全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董立波全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董立彬全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯佳辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一切众生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.05.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列174</t>
+  </si>
+  <si>
+    <t>2020.05.01（上师广州放生）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩冬雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup4</t>
+  </si>
+  <si>
+    <t>backup5</t>
+  </si>
+  <si>
+    <t>backup6</t>
+  </si>
+  <si>
+    <t>backup7</t>
+  </si>
+  <si>
+    <t>列175</t>
+  </si>
+  <si>
+    <t>列176</t>
+  </si>
+  <si>
+    <t>列177</t>
+  </si>
+  <si>
+    <t>列178</t>
+  </si>
+  <si>
+    <t>2019.11.02</t>
   </si>
 </sst>
 </file>
@@ -818,7 +898,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -857,6 +937,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -890,7 +979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,6 +1028,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="差" xfId="8" builtinId="27"/>
@@ -952,7 +1047,155 @@
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="79">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -968,6 +1211,61 @@
         <color theme="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
@@ -1114,6 +1412,25 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
@@ -1595,6 +1912,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1865,95 +2200,112 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:R95" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="A1:R95" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K95">
-    <sortCondition ref="A1:A95"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:X101" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="A1:X101" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K101">
+    <sortCondition ref="A1:A101"/>
   </sortState>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="51"/>
-    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.12.08" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="45"/>
-    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2020.2.29" dataDxfId="44"/>
-    <tableColumn id="17" xr3:uid="{8A278776-53B1-4C9B-B0FD-D1404C201AA6}" name="2020.04.05" dataDxfId="43"/>
-    <tableColumn id="18" xr3:uid="{423FF7CE-5B30-4588-B80E-563F413C6E1E}" name="backup2" dataDxfId="1"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="67"/>
+    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="66"/>
+    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="65"/>
+    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="64"/>
+    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.12.08" dataDxfId="63"/>
+    <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="62"/>
+    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2020.2.29" dataDxfId="61"/>
+    <tableColumn id="17" xr3:uid="{8A278776-53B1-4C9B-B0FD-D1404C201AA6}" name="2020.04.05" dataDxfId="60"/>
+    <tableColumn id="20" xr3:uid="{ED6C027C-9006-4261-AFFD-F06794A1740D}" name="2020.05.01（上师广州放生）" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{423FF7CE-5B30-4588-B80E-563F413C6E1E}" name="2020.05.23" dataDxfId="59"/>
+    <tableColumn id="19" xr3:uid="{0F0896F2-5427-49E2-B6B4-0CDBAED03178}" name="backup3" dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{5E217A0B-08DF-4084-931D-0B63C054969E}" name="backup4" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{EB405173-0F7E-49B4-A868-D6A6AE1704A3}" name="backup5" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{43AF4CEB-DEA3-4A15-8286-3961662C210F}" name="backup6" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{2A0F6EB2-AF60-49D2-BEB5-6B9F2534D18A}" name="backup7" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A98:Q101" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A98:Q101" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A104:X107" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="A104:X107" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="41"/>
+    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{7FDCCA4B-7D79-48EF-9B59-82E552EE633B}" name="列172" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{7ED92CF3-8A37-4CDD-BFF2-53F59BE535DE}" name="列173" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{AD16709C-E6EA-416A-927B-641AFF440CE0}" name="列174" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{9CAE81C2-021C-4481-A730-F07863C18814}" name="列175" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{E0EF79EF-1156-4A8D-8C2B-47AAD03D6260}" name="列176" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{325656D5-28D0-4734-B242-21697FBCA2BF}" name="列177" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{AE00EEF4-07A4-4FBF-B7F0-DC7B1518D893}" name="列178" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:L25" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
-  <autoFilter ref="A1:L25" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E25">
-    <sortCondition ref="A1:A25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:N27" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+  <autoFilter ref="A1:N27" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
+    <sortCondition ref="A1:A27"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2019.11.03" dataDxfId="9"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2020.05.23" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{D450CAFD-4280-4A57-A72C-AC9C82E67796}" name="2019.11.032" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2019.11.033" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:C5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
-  <autoFilter ref="A1:C5" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+  <autoFilter ref="A1:E5" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B5">
     <sortCondition ref="A1:A5"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="2"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{2511DB9F-444E-4C03-8A9E-5A948ADC9CB0}" name="2019.11.02" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{FFAB1BAB-E2B7-413C-B555-13FE1D11ACDB}" name="2019.11.03" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2256,12 +2608,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:X123"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="O107" sqref="O107"/>
+      <selection pane="topRight" activeCell="U113" sqref="U113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
@@ -2274,7 +2626,7 @@
     <col min="18" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2294,276 +2646,546 @@
         <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>150</v>
+        <v>172</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6">
+        <v>100</v>
+      </c>
       <c r="E2" s="6">
-        <v>20</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+        <v>1000</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1500</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1500</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1500</v>
+      </c>
       <c r="R2" s="6"/>
+      <c r="S2" s="6">
+        <v>1800</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="B3" s="6">
+        <v>400</v>
+      </c>
+      <c r="C3" s="6">
+        <v>200</v>
+      </c>
+      <c r="D3" s="6">
+        <v>350</v>
+      </c>
       <c r="E3" s="6">
-        <v>300</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="F3" s="6">
+        <v>100</v>
+      </c>
+      <c r="G3" s="6">
+        <v>125</v>
+      </c>
       <c r="H3" s="6">
-        <v>300</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="I3" s="6">
+        <v>200</v>
+      </c>
+      <c r="J3" s="6">
+        <v>100</v>
+      </c>
+      <c r="K3" s="6">
+        <v>100</v>
+      </c>
       <c r="L3" s="6">
         <v>200</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="M3" s="6">
+        <v>200</v>
+      </c>
+      <c r="N3" s="6">
+        <v>200</v>
+      </c>
       <c r="O3" s="6">
         <v>200</v>
       </c>
-      <c r="P3" s="6"/>
+      <c r="P3" s="6">
+        <v>254</v>
+      </c>
       <c r="Q3" s="6">
+        <v>500</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6">
         <v>200</v>
       </c>
-      <c r="R3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+    <row r="4" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>130</v>
+      </c>
+      <c r="C4" s="6">
+        <v>100</v>
+      </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="E4" s="6">
+        <v>100</v>
+      </c>
+      <c r="F4" s="6">
+        <v>100</v>
+      </c>
+      <c r="G4" s="6">
+        <v>50</v>
+      </c>
+      <c r="H4" s="6">
+        <v>100</v>
+      </c>
       <c r="I4" s="6">
-        <v>500</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="J4" s="6">
+        <v>100</v>
+      </c>
+      <c r="K4" s="6">
+        <v>100</v>
+      </c>
+      <c r="L4" s="6">
+        <v>100</v>
+      </c>
+      <c r="M4" s="6">
+        <v>100</v>
+      </c>
+      <c r="N4" s="6">
+        <v>100</v>
+      </c>
+      <c r="O4" s="6">
+        <v>100</v>
+      </c>
+      <c r="P4" s="6">
+        <v>300</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>100</v>
+      </c>
       <c r="R4" s="6"/>
+      <c r="S4" s="6">
+        <v>100</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
     </row>
-    <row r="5" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B5" s="6">
+        <v>150</v>
+      </c>
+      <c r="C5" s="6">
+        <v>50</v>
+      </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="6">
-        <v>200</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>150</v>
+      </c>
       <c r="G5" s="6">
-        <v>200</v>
-      </c>
-      <c r="H5" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="H5" s="6">
+        <v>150</v>
+      </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="6">
+        <v>50</v>
+      </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6">
+        <v>150</v>
+      </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="N5" s="6">
+        <v>150</v>
+      </c>
+      <c r="O5" s="6">
+        <v>150</v>
+      </c>
+      <c r="P5" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>100</v>
+      </c>
       <c r="R5" s="6"/>
+      <c r="S5" s="6">
+        <v>50</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6">
+        <v>100</v>
+      </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="I6" s="6">
+        <v>200</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6">
+        <v>800</v>
+      </c>
+      <c r="L6" s="6">
+        <v>500</v>
+      </c>
+      <c r="M6" s="6">
+        <v>400</v>
+      </c>
+      <c r="N6" s="6">
         <v>100</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="O6" s="6">
+        <v>200</v>
+      </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="6">
+        <v>300</v>
+      </c>
       <c r="R6" s="6"/>
+      <c r="S6" s="6">
+        <v>100</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="E7" s="6">
+        <v>200</v>
+      </c>
+      <c r="F7" s="6">
+        <v>200</v>
+      </c>
+      <c r="G7" s="6">
+        <v>200</v>
+      </c>
+      <c r="H7" s="6">
+        <v>200</v>
+      </c>
+      <c r="I7" s="6">
+        <v>200</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6">
-        <v>100</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="L7" s="6">
+        <v>200</v>
+      </c>
+      <c r="M7" s="6">
+        <v>200</v>
+      </c>
+      <c r="N7" s="6">
+        <v>200</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="6">
+        <v>200</v>
+      </c>
       <c r="R7" s="6"/>
+      <c r="S7" s="6">
+        <v>200</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
     </row>
-    <row r="8" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
-        <v>4160</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+        <v>1200</v>
+      </c>
+      <c r="E8" s="6">
+        <v>100</v>
+      </c>
+      <c r="F8" s="6">
+        <v>100</v>
+      </c>
+      <c r="G8" s="6">
+        <v>100</v>
+      </c>
+      <c r="H8" s="6">
+        <v>50</v>
+      </c>
+      <c r="I8" s="6">
+        <v>100</v>
+      </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="K8" s="6">
+        <v>100</v>
+      </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6">
+        <v>50</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="P8" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>100</v>
+      </c>
       <c r="R8" s="6"/>
+      <c r="S8" s="6">
+        <v>100</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
     </row>
-    <row r="9" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>500</v>
+      </c>
+      <c r="C9" s="6">
+        <v>666</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="6">
+        <v>500</v>
+      </c>
+      <c r="F9" s="6">
+        <v>500</v>
+      </c>
       <c r="G9" s="6">
-        <v>50</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+        <v>500</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="6">
+        <v>500</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="L9" s="6">
+        <v>800</v>
+      </c>
+      <c r="M9" s="6">
+        <v>800</v>
+      </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="O9" s="6">
+        <v>500</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
+      <c r="S9" s="6">
+        <v>800</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
-        <v>93</v>
+    <row r="10" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6">
+        <v>300</v>
+      </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6">
+        <v>300</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6">
+        <v>300</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="O10" s="6">
+        <v>200</v>
+      </c>
       <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="6">
+        <v>200</v>
+      </c>
       <c r="R10" s="6"/>
+      <c r="S10" s="6">
+        <v>300</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="6"/>
+    <row r="11" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6">
+        <v>500</v>
+      </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6">
+        <v>500</v>
+      </c>
+      <c r="E11" s="6">
+        <v>300</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6">
         <v>200</v>
@@ -2571,103 +3193,165 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="6">
+        <v>300</v>
+      </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6">
+        <v>100</v>
+      </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="O11" s="6">
+        <v>200</v>
+      </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="6">
+        <v>300</v>
+      </c>
       <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
     </row>
-    <row r="12" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
-        <v>68</v>
+    <row r="12" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6">
+        <v>1000</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
         <v>200</v>
       </c>
-      <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="K12" s="6">
+        <v>200</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="O12" s="6">
+        <v>200</v>
+      </c>
       <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="6">
+        <v>200</v>
+      </c>
       <c r="R12" s="6"/>
+      <c r="S12" s="6">
+        <v>700</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
-        <v>72</v>
+    <row r="13" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="6">
+        <v>100</v>
+      </c>
+      <c r="D13" s="6">
+        <v>200</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6">
+        <v>200</v>
+      </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="K13" s="6">
+        <v>200</v>
+      </c>
+      <c r="L13" s="6">
+        <v>200</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="O13" s="6">
+        <v>100</v>
+      </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="6">
+        <v>500</v>
+      </c>
       <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
+        <v>200</v>
+      </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6">
+        <v>200</v>
+      </c>
       <c r="E14" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6">
+        <v>200</v>
+      </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="6">
-        <v>50</v>
-      </c>
+      <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="P14" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>150</v>
+      </c>
       <c r="R14" s="6"/>
+      <c r="S14" s="6">
+        <v>200</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>200</v>
-      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6">
-        <v>200</v>
-      </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -2675,21 +3359,33 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="O15" s="6">
+        <v>200</v>
+      </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="6">
+        <v>200</v>
+      </c>
       <c r="R15" s="6"/>
+      <c r="S15" s="6">
+        <v>100</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6">
-        <v>100</v>
-      </c>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>20</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -2703,45 +3399,65 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6">
+        <v>300</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6">
+        <v>300</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
         <v>200</v>
       </c>
-      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="O17" s="6">
+        <v>200</v>
+      </c>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="6">
+        <v>200</v>
+      </c>
       <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6">
-        <v>50</v>
-      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6">
+        <v>500</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -2751,64 +3467,60 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="6">
-        <v>1200</v>
-      </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="6">
-        <v>100</v>
-      </c>
-      <c r="F19" s="6">
-        <v>100</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="6">
-        <v>100</v>
-      </c>
-      <c r="H19" s="6">
-        <v>50</v>
-      </c>
-      <c r="I19" s="6">
-        <v>100</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6">
-        <v>100</v>
-      </c>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6">
-        <v>50</v>
-      </c>
+      <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>100</v>
-      </c>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6">
-        <v>100</v>
-      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="6">
+        <v>100</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -2817,98 +3529,76 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
     </row>
-    <row r="21" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6">
-        <v>100</v>
-      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="6">
-        <v>200</v>
-      </c>
+      <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6">
-        <v>800</v>
-      </c>
-      <c r="L21" s="6">
-        <v>500</v>
-      </c>
-      <c r="M21" s="6">
-        <v>400</v>
-      </c>
-      <c r="N21" s="6">
         <v>100</v>
       </c>
-      <c r="O21" s="6">
-        <v>200</v>
-      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="6">
-        <v>300</v>
-      </c>
+      <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6">
-        <v>100</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1500</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="N22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="O22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="P22" s="6">
-        <v>1500</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>1500</v>
-      </c>
+        <v>4160</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
-        <v>64</v>
+    <row r="23" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2916,7 +3606,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -2929,89 +3619,81 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="6">
-        <v>500</v>
-      </c>
-      <c r="C24" s="6">
-        <v>666</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="6">
-        <v>500</v>
-      </c>
-      <c r="F24" s="6">
-        <v>500</v>
-      </c>
-      <c r="G24" s="6">
-        <v>500</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1000</v>
-      </c>
+    <row r="24" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="6">
-        <v>800</v>
-      </c>
-      <c r="M24" s="6">
-        <v>800</v>
-      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="6">
-        <v>500</v>
-      </c>
+      <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
     </row>
-    <row r="25" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
-        <v>113</v>
+    <row r="25" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6">
+        <v>200</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="6">
-        <v>100</v>
-      </c>
+      <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
     </row>
-    <row r="26" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="6">
-        <v>500</v>
-      </c>
+    <row r="26" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="6">
-        <v>500</v>
-      </c>
-      <c r="E26" s="6">
-        <v>300</v>
-      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6">
         <v>200</v>
@@ -3019,33 +3701,33 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6">
-        <v>300</v>
-      </c>
+      <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="6">
-        <v>100</v>
-      </c>
+      <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="6">
-        <v>200</v>
-      </c>
+      <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="6">
-        <v>300</v>
-      </c>
+      <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
-        <v>152</v>
+    <row r="27" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="6">
+        <v>20</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -3055,47 +3737,61 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="6">
-        <v>1000</v>
-      </c>
+      <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
     </row>
-    <row r="28" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
-        <v>71</v>
+    <row r="28" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="6">
+        <v>200</v>
+      </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="6">
-        <v>30</v>
-      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="M28" s="6">
+        <v>50</v>
+      </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
     </row>
-    <row r="29" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6">
+      <c r="E29" s="6">
         <v>200</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <v>200</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -3107,15 +3803,21 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
     </row>
-    <row r="30" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -3131,23 +3833,29 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
     </row>
-    <row r="31" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
-        <v>73</v>
+    <row r="31" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A31" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6">
-        <v>88.88</v>
-      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="K31" s="6">
+        <v>200</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -3155,23 +3863,29 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
     </row>
-    <row r="32" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="6">
+        <v>50</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="6">
-        <v>200</v>
-      </c>
+      <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -3179,10 +3893,16 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
     </row>
-    <row r="33" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
-        <v>70</v>
+    <row r="33" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A33" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3190,7 +3910,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -3203,10 +3923,16 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
     </row>
-    <row r="34" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -3214,7 +3940,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -3227,44 +3953,46 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
     </row>
-    <row r="35" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6">
-        <v>300</v>
-      </c>
+      <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6">
-        <v>300</v>
-      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="6">
-        <v>300</v>
-      </c>
+      <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="6">
-        <v>200</v>
-      </c>
+      <c r="O35" s="6"/>
       <c r="P35" s="6"/>
-      <c r="Q35" s="6">
-        <v>200</v>
-      </c>
+      <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
     </row>
-    <row r="36" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -3279,23 +4007,31 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="6">
-        <v>30</v>
-      </c>
+      <c r="O36" s="6"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
+      <c r="Q36" s="6">
+        <v>1000</v>
+      </c>
       <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
     </row>
-    <row r="37" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="6" t="s">
-        <v>153</v>
+    <row r="37" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="G37" s="6">
+        <v>30</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -3303,26 +4039,28 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="6">
-        <v>200</v>
-      </c>
+      <c r="O37" s="6"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="6">
-        <v>200</v>
-      </c>
+      <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
     </row>
-    <row r="38" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6">
-        <v>100</v>
-      </c>
-      <c r="F38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6">
+        <v>200</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -3335,71 +4073,55 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
     </row>
-    <row r="39" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="6">
-        <v>130</v>
-      </c>
-      <c r="C39" s="6">
-        <v>100</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6">
-        <v>100</v>
-      </c>
-      <c r="F39" s="6">
-        <v>100</v>
-      </c>
-      <c r="G39" s="6">
-        <v>50</v>
-      </c>
-      <c r="H39" s="6">
-        <v>100</v>
-      </c>
-      <c r="I39" s="6">
-        <v>100</v>
-      </c>
-      <c r="J39" s="6">
-        <v>100</v>
-      </c>
-      <c r="K39" s="6">
-        <v>100</v>
-      </c>
-      <c r="L39" s="6">
-        <v>100</v>
-      </c>
-      <c r="M39" s="6">
-        <v>100</v>
-      </c>
-      <c r="N39" s="6">
-        <v>100</v>
-      </c>
-      <c r="O39" s="6">
-        <v>100</v>
-      </c>
-      <c r="P39" s="6">
-        <v>300</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>100</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6">
+        <v>20</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
     </row>
-    <row r="40" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="6" t="s">
-        <v>48</v>
+    <row r="40" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A40" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="6">
-        <v>107</v>
-      </c>
-      <c r="G40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6">
+        <v>88.88</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -3411,46 +4133,46 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
     </row>
-    <row r="41" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="6">
-        <v>100</v>
-      </c>
-      <c r="C41" s="6">
-        <v>50</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2010</v>
-      </c>
-      <c r="E41" s="6">
-        <v>50</v>
-      </c>
-      <c r="F41" s="6">
-        <v>60</v>
-      </c>
-      <c r="G41" s="6">
-        <v>50</v>
-      </c>
+    <row r="41" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="K41" s="6">
+        <v>200</v>
+      </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
-      <c r="Q41" s="6">
-        <v>100</v>
-      </c>
+      <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
     </row>
-    <row r="42" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -3458,7 +4180,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -3471,19 +4193,25 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
     </row>
-    <row r="43" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="6" t="s">
-        <v>38</v>
+    <row r="43" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A43" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6">
-        <v>100</v>
-      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="G43" s="6">
+        <v>50</v>
+      </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -3495,19 +4223,23 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
     </row>
-    <row r="44" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="7" t="s">
-        <v>67</v>
+    <row r="44" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A44" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="6">
-        <v>200</v>
-      </c>
+      <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -3515,29 +4247,35 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
+      <c r="O44" s="6">
+        <v>30</v>
+      </c>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
+      <c r="S44" s="6">
+        <v>100</v>
+      </c>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
     </row>
-    <row r="45" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="6">
-        <v>200</v>
-      </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="6">
-        <v>200</v>
-      </c>
+      <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
@@ -3547,51 +4285,67 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
+      <c r="S45" s="6">
+        <v>50</v>
+      </c>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
     </row>
-    <row r="46" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="6">
-        <v>1000</v>
-      </c>
+      <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="F46" s="6">
+        <v>107</v>
+      </c>
       <c r="G46" s="6"/>
-      <c r="H46" s="6">
-        <v>200</v>
-      </c>
+      <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6">
-        <v>200</v>
-      </c>
+      <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="6">
-        <v>200</v>
-      </c>
+      <c r="O46" s="6"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="6">
-        <v>200</v>
-      </c>
+      <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
     </row>
-    <row r="47" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="B47" s="6">
+        <v>100</v>
+      </c>
+      <c r="C47" s="6">
+        <v>50</v>
+      </c>
       <c r="D47" s="6">
-        <v>200</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+        <v>2010</v>
+      </c>
+      <c r="E47" s="6">
+        <v>50</v>
+      </c>
+      <c r="F47" s="6">
+        <v>60</v>
+      </c>
+      <c r="G47" s="6">
+        <v>50</v>
+      </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -3601,16 +4355,20 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>147</v>
-      </c>
+      <c r="Q47" s="6">
+        <v>100</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
     </row>
-    <row r="48" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -3618,7 +4376,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -3631,17 +4389,23 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
     </row>
-    <row r="49" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6">
+        <v>100</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -3655,47 +4419,61 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
     </row>
-    <row r="50" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="6" t="s">
-        <v>61</v>
+    <row r="50" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A50" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6">
+      <c r="G50" s="6">
         <v>200</v>
       </c>
+      <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="6">
-        <v>100</v>
-      </c>
+      <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
     </row>
-    <row r="51" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="G51" s="6">
+        <v>200</v>
+      </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="I51" s="6">
+        <v>200</v>
+      </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -3705,19 +4483,25 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
     </row>
-    <row r="52" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="7" t="s">
-        <v>78</v>
+    <row r="52" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A52" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="6">
+        <v>200</v>
+      </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6">
-        <v>50</v>
-      </c>
+      <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -3727,23 +4511,33 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
+      <c r="Q52" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="R52" s="6"/>
+      <c r="S52" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
     </row>
-    <row r="53" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="G53" s="6">
+        <v>200</v>
+      </c>
       <c r="H53" s="6"/>
-      <c r="I53" s="6">
-        <v>800</v>
-      </c>
+      <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -3753,19 +4547,25 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
     </row>
-    <row r="54" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="7" t="s">
-        <v>75</v>
+    <row r="54" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A54" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="6">
+        <v>1000</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6">
-        <v>50</v>
-      </c>
+      <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -3777,10 +4577,16 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
     </row>
-    <row r="55" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="7" t="s">
-        <v>62</v>
+    <row r="55" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A55" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -3789,29 +4595,37 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
+      <c r="M55" s="6">
+        <v>100</v>
+      </c>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
     </row>
-    <row r="56" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="6">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6">
         <v>100</v>
       </c>
-      <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -3825,64 +4639,46 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
     </row>
-    <row r="57" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="6">
-        <v>400</v>
-      </c>
-      <c r="C57" s="6">
-        <v>200</v>
-      </c>
-      <c r="D57" s="6">
-        <v>350</v>
-      </c>
-      <c r="E57" s="6">
-        <v>200</v>
-      </c>
-      <c r="F57" s="6">
-        <v>100</v>
-      </c>
+    <row r="57" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A57" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="6">
-        <v>125</v>
-      </c>
-      <c r="H57" s="6">
-        <v>100</v>
-      </c>
-      <c r="I57" s="6">
-        <v>200</v>
-      </c>
-      <c r="J57" s="6">
-        <v>100</v>
-      </c>
-      <c r="K57" s="6">
-        <v>100</v>
-      </c>
-      <c r="L57" s="6">
-        <v>200</v>
-      </c>
-      <c r="M57" s="6">
-        <v>200</v>
-      </c>
-      <c r="N57" s="6">
-        <v>200</v>
-      </c>
-      <c r="O57" s="6">
-        <v>200</v>
-      </c>
-      <c r="P57" s="6">
-        <v>254</v>
-      </c>
-      <c r="Q57" s="6">
-        <v>500</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
     </row>
-    <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="6" t="s">
-        <v>144</v>
+    <row r="58" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A58" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -3891,29 +4687,37 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="I58" s="6">
+        <v>800</v>
+      </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="6">
-        <v>20</v>
-      </c>
+      <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
     </row>
-    <row r="59" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="6" t="s">
-        <v>145</v>
+    <row r="59" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A59" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="G59" s="6">
+        <v>50</v>
+      </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -3921,16 +4725,20 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="O59" s="6">
-        <v>10</v>
-      </c>
+      <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
     </row>
-    <row r="60" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="6" t="s">
-        <v>143</v>
+    <row r="60" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A60" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -3938,27 +4746,35 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="H60" s="6">
+        <v>100</v>
+      </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="6">
-        <v>10</v>
-      </c>
+      <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
     </row>
-    <row r="61" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="6">
+        <v>100</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -3969,16 +4785,20 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="6">
-        <v>10</v>
-      </c>
+      <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
     </row>
-    <row r="62" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -3994,15 +4814,21 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
     </row>
-    <row r="63" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -4023,10 +4849,16 @@
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
     </row>
-    <row r="64" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -4042,15 +4874,21 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
     </row>
-    <row r="65" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4071,19 +4909,23 @@
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
     </row>
-    <row r="66" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="7" t="s">
-        <v>69</v>
+    <row r="66" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A66" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6">
-        <v>200</v>
-      </c>
+      <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -4091,16 +4933,22 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
+      <c r="O66" s="6">
+        <v>10</v>
+      </c>
       <c r="P66" s="6"/>
-      <c r="Q66" s="6">
-        <v>300</v>
-      </c>
+      <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
     </row>
-    <row r="67" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="7" t="s">
-        <v>91</v>
+    <row r="67" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A67" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -4109,22 +4957,28 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="6">
-        <v>300</v>
-      </c>
+      <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
+      <c r="O67" s="6">
+        <v>10</v>
+      </c>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
     </row>
-    <row r="68" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A68" s="7" t="s">
-        <v>136</v>
+    <row r="68" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A68" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -4140,15 +4994,21 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
     </row>
-    <row r="69" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A69" s="7" t="s">
-        <v>137</v>
+    <row r="69" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A69" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -4164,64 +5024,64 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
     </row>
-    <row r="70" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="6" t="s">
-        <v>154</v>
+    <row r="70" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A70" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B70" s="6"/>
-      <c r="C70" s="6">
-        <v>100</v>
-      </c>
-      <c r="D70" s="6">
-        <v>200</v>
-      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="6">
-        <v>200</v>
-      </c>
+      <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="6">
-        <v>200</v>
-      </c>
-      <c r="L70" s="6">
-        <v>200</v>
-      </c>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="6">
-        <v>100</v>
-      </c>
+      <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
     </row>
-    <row r="71" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="6">
-        <v>200</v>
-      </c>
+      <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="I71" s="6">
+        <v>300</v>
+      </c>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
@@ -4231,19 +5091,23 @@
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
     </row>
-    <row r="72" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6">
-        <v>200</v>
-      </c>
+      <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -4251,20 +5115,26 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
+      <c r="O72" s="6">
+        <v>100</v>
+      </c>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
     </row>
-    <row r="73" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A73" s="6" t="s">
-        <v>7</v>
+    <row r="73" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A73" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="6">
-        <v>55</v>
-      </c>
+      <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -4275,14 +5145,22 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
+      <c r="O73" s="6">
+        <v>50</v>
+      </c>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
     </row>
-    <row r="74" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="6" t="s">
-        <v>55</v>
+    <row r="74" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A74" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -4303,65 +5181,59 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
     </row>
-    <row r="75" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="6" t="s">
-        <v>31</v>
+    <row r="75" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A75" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="6">
-        <v>200</v>
-      </c>
-      <c r="F75" s="6">
-        <v>200</v>
-      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
       <c r="G75" s="6">
         <v>200</v>
       </c>
-      <c r="H75" s="6">
-        <v>200</v>
-      </c>
-      <c r="I75" s="6">
-        <v>200</v>
-      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="6">
-        <v>200</v>
-      </c>
-      <c r="L75" s="6">
-        <v>200</v>
-      </c>
-      <c r="M75" s="6">
-        <v>200</v>
-      </c>
-      <c r="N75" s="6">
-        <v>200</v>
-      </c>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
-      <c r="Q75" s="6">
-        <v>200</v>
-      </c>
+      <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
     </row>
-    <row r="76" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="6">
+        <v>55</v>
+      </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-      <c r="K76" s="6">
-        <v>100</v>
-      </c>
+      <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -4369,57 +5241,59 @@
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
     </row>
-    <row r="77" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="6">
+        <v>54</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6">
         <v>200</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6">
-        <v>200</v>
-      </c>
-      <c r="E77" s="6">
-        <v>100</v>
-      </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="6">
-        <v>200</v>
-      </c>
+      <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
-      <c r="P77" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q77" s="6">
-        <v>150</v>
-      </c>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
     </row>
-    <row r="78" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="7" t="s">
-        <v>77</v>
+    <row r="78" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A78" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6">
-        <v>50</v>
-      </c>
+      <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
+      <c r="K78" s="6">
+        <v>100</v>
+      </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -4427,10 +5301,16 @@
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
     </row>
-    <row r="79" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -4451,10 +5331,16 @@
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
     </row>
-    <row r="80" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -4475,10 +5361,16 @@
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
     </row>
-    <row r="81" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -4499,19 +5391,25 @@
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
     </row>
-    <row r="82" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="6" t="s">
-        <v>41</v>
+    <row r="82" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A82" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="6">
-        <v>10</v>
-      </c>
+      <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="G82" s="6">
+        <v>50</v>
+      </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -4523,19 +5421,25 @@
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
     </row>
-    <row r="83" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="7" t="s">
-        <v>80</v>
+    <row r="83" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A83" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="E83" s="6">
+        <v>10</v>
+      </c>
       <c r="F83" s="6"/>
-      <c r="G83" s="6">
-        <v>50</v>
-      </c>
+      <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -4547,8 +5451,14 @@
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
     </row>
-    <row r="84" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
         <v>79</v>
       </c>
@@ -4571,21 +5481,27 @@
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
     </row>
-    <row r="85" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A85" s="6" t="s">
-        <v>104</v>
+    <row r="85" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A85" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
+      <c r="G85" s="6">
+        <v>50</v>
+      </c>
       <c r="H85" s="6"/>
-      <c r="I85" s="6">
-        <v>50</v>
-      </c>
+      <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -4595,10 +5511,16 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
     </row>
-    <row r="86" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -4607,11 +5529,11 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
+      <c r="I86" s="6">
+        <v>50</v>
+      </c>
       <c r="J86" s="6"/>
-      <c r="K86" s="6">
-        <v>100</v>
-      </c>
+      <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
@@ -4619,10 +5541,18 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
+      <c r="S86" s="6">
+        <v>100</v>
+      </c>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
     </row>
-    <row r="87" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -4633,57 +5563,69 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
+      <c r="K87" s="6">
+        <v>100</v>
+      </c>
       <c r="L87" s="6"/>
-      <c r="M87" s="6">
-        <v>66</v>
-      </c>
+      <c r="M87" s="6"/>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
     </row>
-    <row r="88" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="6">
-        <v>1000</v>
-      </c>
+      <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="6">
-        <v>300</v>
-      </c>
+      <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
+      <c r="M88" s="6">
+        <v>66</v>
+      </c>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
     </row>
-    <row r="89" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A89" s="7" t="s">
-        <v>88</v>
+    <row r="89" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A89" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="E89" s="6">
+        <v>1000</v>
+      </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6">
-        <v>200</v>
-      </c>
+      <c r="H89" s="6">
+        <v>300</v>
+      </c>
+      <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
@@ -4693,10 +5635,16 @@
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
     </row>
-    <row r="90" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="7" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -4705,66 +5653,58 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
+      <c r="I90" s="6">
+        <v>200</v>
+      </c>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="6">
-        <v>30</v>
-      </c>
+      <c r="M90" s="6"/>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
     </row>
-    <row r="91" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A91" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="6">
-        <v>150</v>
-      </c>
-      <c r="C91" s="6">
-        <v>50</v>
-      </c>
+    <row r="91" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A91" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
-      <c r="F91" s="6">
-        <v>150</v>
-      </c>
-      <c r="G91" s="6">
-        <v>150</v>
-      </c>
-      <c r="H91" s="6">
-        <v>150</v>
-      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="6">
-        <v>50</v>
-      </c>
+      <c r="J91" s="6"/>
       <c r="K91" s="6"/>
-      <c r="L91" s="6">
-        <v>150</v>
-      </c>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6">
-        <v>150</v>
-      </c>
-      <c r="O91" s="6">
-        <v>150</v>
-      </c>
-      <c r="P91" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q91" s="6">
-        <v>100</v>
-      </c>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6">
+        <v>30</v>
+      </c>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
     </row>
-    <row r="92" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -4785,10 +5725,16 @@
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
     </row>
-    <row r="93" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -4809,10 +5755,16 @@
         <v>100</v>
       </c>
       <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
     </row>
-    <row r="94" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -4829,21 +5781,25 @@
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
-      <c r="Q94" s="6">
-        <v>100</v>
-      </c>
+      <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
+      <c r="S94" s="6">
+        <v>50</v>
+      </c>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
     </row>
-    <row r="95" spans="1:18" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="6">
-        <v>50</v>
-      </c>
+      <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -4857,343 +5813,622 @@
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
+      <c r="S95" s="6">
+        <v>300</v>
+      </c>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A96" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6">
+        <v>100</v>
+      </c>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+    </row>
+    <row r="97" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A97" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6">
+        <v>100</v>
+      </c>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+    </row>
+    <row r="98" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A98" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6">
+        <v>50</v>
+      </c>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+    </row>
+    <row r="99" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A99" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6">
+        <v>50</v>
+      </c>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+    </row>
+    <row r="100" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A100" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6">
+        <v>50</v>
+      </c>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+    </row>
+    <row r="101" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A101" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6">
+        <v>50</v>
+      </c>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A102" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="3">
-        <f t="shared" ref="B96:N96" si="0">SUM(B2:B95)</f>
+      <c r="B102" s="16">
+        <f>SUM(B2:B101)</f>
         <v>1980</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C102" s="16">
+        <f>SUM(C2:C101)</f>
+        <v>1166</v>
+      </c>
+      <c r="D102" s="16">
+        <f>SUM(D2:D101)</f>
+        <v>12195</v>
+      </c>
+      <c r="E102" s="16">
+        <f>SUM(E2:E101)</f>
+        <v>5530</v>
+      </c>
+      <c r="F102" s="16">
+        <f>SUM(F2:F101)</f>
+        <v>2517</v>
+      </c>
+      <c r="G102" s="16">
+        <f>SUM(G2:G101)</f>
+        <v>6563.88</v>
+      </c>
+      <c r="H102" s="16">
+        <f>SUM(H2:H101)</f>
+        <v>3700</v>
+      </c>
+      <c r="I102" s="16">
+        <f>SUM(I2:I101)</f>
+        <v>5550</v>
+      </c>
+      <c r="J102" s="16">
+        <f>SUM(J2:J101)</f>
+        <v>1350</v>
+      </c>
+      <c r="K102" s="16">
+        <f>SUM(K2:K101)</f>
+        <v>3900</v>
+      </c>
+      <c r="L102" s="16">
+        <f>SUM(L2:L101)</f>
+        <v>3750</v>
+      </c>
+      <c r="M102" s="16">
+        <f>SUM(M2:M101)</f>
+        <v>3196</v>
+      </c>
+      <c r="N102" s="16">
+        <f>SUM(N2:N101)</f>
+        <v>1750</v>
+      </c>
+      <c r="O102" s="16">
+        <f>SUM(O2:O101)</f>
+        <v>3530</v>
+      </c>
+      <c r="P102" s="16">
+        <f>SUM(P2:P101)</f>
+        <v>2454</v>
+      </c>
+      <c r="Q102" s="16">
+        <f>SUM(Q2:Q101)</f>
+        <v>6150</v>
+      </c>
+      <c r="R102" s="3">
+        <f>SUM(R2:R101)</f>
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <f>SUM(S2:S101)</f>
+        <v>5500</v>
+      </c>
+      <c r="T102" s="16">
+        <f>SUM(T2:T101)</f>
+        <v>0</v>
+      </c>
+      <c r="U102" s="16">
+        <f t="shared" ref="U102:X102" si="0">SUM(U2:U101)</f>
+        <v>0</v>
+      </c>
+      <c r="V102" s="16">
         <f t="shared" si="0"/>
-        <v>1166</v>
-      </c>
-      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="16">
         <f t="shared" si="0"/>
-        <v>12195</v>
-      </c>
-      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="16">
         <f t="shared" si="0"/>
-        <v>5530</v>
-      </c>
-      <c r="F96" s="3">
-        <f t="shared" si="0"/>
-        <v>2517</v>
-      </c>
-      <c r="G96" s="3">
-        <f t="shared" si="0"/>
-        <v>6563.88</v>
-      </c>
-      <c r="H96" s="3">
-        <f t="shared" si="0"/>
-        <v>3700</v>
-      </c>
-      <c r="I96" s="3">
-        <f t="shared" si="0"/>
-        <v>5550</v>
-      </c>
-      <c r="J96" s="3">
-        <f t="shared" si="0"/>
-        <v>1350</v>
-      </c>
-      <c r="K96" s="3">
-        <f t="shared" si="0"/>
-        <v>3900</v>
-      </c>
-      <c r="L96" s="3">
-        <f t="shared" si="0"/>
-        <v>3750</v>
-      </c>
-      <c r="M96" s="3">
-        <f t="shared" si="0"/>
-        <v>3196</v>
-      </c>
-      <c r="N96" s="3">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-      <c r="O96" s="3">
-        <f>SUM(O2:O95)</f>
-        <v>3530</v>
-      </c>
-      <c r="P96" s="3">
-        <f>SUM(P2:P95)</f>
-        <v>2454</v>
-      </c>
-      <c r="Q96" s="3">
-        <f>SUM(Q2:Q95)</f>
-        <v>6150</v>
-      </c>
-      <c r="R96" s="3">
-        <f>SUM(R2:R95)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I104" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J98" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>149</v>
+      <c r="J104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U104" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="V104" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W104" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="X104" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A99" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G99" s="1">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G105" s="1">
         <v>2100</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A100" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O100" s="1">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O106" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A101" s="1" t="s">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B107" s="1">
         <v>570</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C107" s="1">
         <v>1080</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D107" s="1">
         <v>0</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E107" s="1">
         <v>3025</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F107" s="1">
         <v>2154</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G107" s="1">
         <v>3200</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H107" s="1">
         <v>3500</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I107" s="1">
         <v>4000</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J107" s="1">
         <v>3555</v>
       </c>
-      <c r="K101" s="1">
+      <c r="K107" s="1">
         <v>4046</v>
       </c>
-      <c r="O101" s="1">
+      <c r="O107" s="1">
         <v>4100</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A103" s="4" t="s">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A109" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B103" s="4">
-        <f>SUM(B99:B101)</f>
+      <c r="B109" s="4">
+        <f>SUM(B105:B107)</f>
         <v>570</v>
       </c>
-      <c r="C103" s="4">
-        <f t="shared" ref="C103:G103" si="1">SUM(C99:C101)</f>
+      <c r="C109" s="4">
+        <f t="shared" ref="C109:G109" si="1">SUM(C105:C107)</f>
         <v>1080</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D109" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E109" s="4">
         <f t="shared" si="1"/>
         <v>3025</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F109" s="4">
         <f t="shared" si="1"/>
         <v>2154</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G109" s="4">
         <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H109" s="4">
         <v>3500</v>
       </c>
-      <c r="I103" s="4">
+      <c r="I109" s="4">
         <v>4000</v>
       </c>
-      <c r="J103" s="4">
+      <c r="J109" s="4">
         <v>3555</v>
       </c>
-      <c r="K103" s="4">
+      <c r="K109" s="4">
         <v>4046</v>
       </c>
-      <c r="L103" s="4">
+      <c r="L109" s="4">
         <v>3490</v>
       </c>
-      <c r="M103" s="4">
+      <c r="M109" s="4">
         <v>3500</v>
       </c>
-      <c r="N103" s="4">
+      <c r="N109" s="4">
         <v>3500</v>
       </c>
-      <c r="O103" s="4">
+      <c r="O109" s="4">
         <f>SUM(表3[列15])</f>
         <v>4300</v>
       </c>
-      <c r="P103" s="4">
+      <c r="P109" s="4">
         <v>6000</v>
       </c>
-      <c r="Q103" s="4">
+      <c r="Q109" s="4">
         <v>4030</v>
       </c>
+      <c r="R109" s="4">
+        <v>4000</v>
+      </c>
+      <c r="S109" s="4">
+        <v>4125</v>
+      </c>
+      <c r="T109" s="4">
+        <v>0</v>
+      </c>
+      <c r="U109" s="4">
+        <v>0</v>
+      </c>
+      <c r="V109" s="4">
+        <v>0</v>
+      </c>
+      <c r="W109" s="4">
+        <v>0</v>
+      </c>
+      <c r="X109" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A104" s="5" t="s">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A110" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B104" s="5">
-        <f>B96-B103</f>
+      <c r="B110" s="5">
+        <f>B102-B109</f>
         <v>1410</v>
       </c>
-      <c r="C104" s="5">
-        <f t="shared" ref="C104:M104" si="2">B104+C96-C103</f>
+      <c r="C110" s="5">
+        <f t="shared" ref="C110:M110" si="2">B110+C102-C109</f>
         <v>1496</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D110" s="5">
         <f t="shared" si="2"/>
         <v>13691</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E110" s="5">
         <f t="shared" si="2"/>
         <v>16196</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F110" s="5">
         <f t="shared" si="2"/>
         <v>16559</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G110" s="5">
         <f t="shared" si="2"/>
         <v>17822.88</v>
       </c>
-      <c r="H104" s="5">
+      <c r="H110" s="5">
         <f t="shared" si="2"/>
         <v>18022.88</v>
       </c>
-      <c r="I104" s="5">
+      <c r="I110" s="5">
         <f t="shared" si="2"/>
         <v>19572.88</v>
       </c>
-      <c r="J104" s="5">
+      <c r="J110" s="5">
         <f t="shared" si="2"/>
         <v>17367.88</v>
       </c>
-      <c r="K104" s="5">
+      <c r="K110" s="5">
         <f t="shared" si="2"/>
         <v>17221.88</v>
       </c>
-      <c r="L104" s="5">
+      <c r="L110" s="5">
         <f t="shared" si="2"/>
         <v>17481.88</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M110" s="5">
         <f t="shared" si="2"/>
         <v>17177.88</v>
       </c>
-      <c r="N104" s="5">
-        <f t="shared" ref="N104" si="3">M104+N96-N103</f>
+      <c r="N110" s="5">
+        <f t="shared" ref="N110" si="3">M110+N102-N109</f>
         <v>15427.880000000001</v>
       </c>
-      <c r="O104" s="5">
-        <f t="shared" ref="O104:Q104" si="4">N104+O96-O103</f>
+      <c r="O110" s="5">
+        <f t="shared" ref="O110:Q110" si="4">N110+O102-O109</f>
         <v>14657.880000000001</v>
       </c>
-      <c r="P104" s="5">
+      <c r="P110" s="5">
         <f t="shared" si="4"/>
         <v>11111.880000000001</v>
       </c>
-      <c r="Q104" s="5">
+      <c r="Q110" s="5">
         <f t="shared" si="4"/>
         <v>13231.880000000001</v>
       </c>
+      <c r="R110" s="5">
+        <f>Q110+R102-R109</f>
+        <v>9231.880000000001</v>
+      </c>
+      <c r="S110" s="5">
+        <f t="shared" ref="S110" si="5">R110+S102-S109</f>
+        <v>10606.880000000001</v>
+      </c>
+      <c r="T110" s="5">
+        <f t="shared" ref="T110" si="6">S110+T102-T109</f>
+        <v>10606.880000000001</v>
+      </c>
+      <c r="U110" s="5">
+        <f t="shared" ref="U110" si="7">T110+U102-U109</f>
+        <v>10606.880000000001</v>
+      </c>
+      <c r="V110" s="5">
+        <f t="shared" ref="V110" si="8">U110+V102-V109</f>
+        <v>10606.880000000001</v>
+      </c>
+      <c r="W110" s="5">
+        <f t="shared" ref="W110" si="9">V110+W102-W109</f>
+        <v>10606.880000000001</v>
+      </c>
+      <c r="X110" s="5">
+        <f t="shared" ref="X110" si="10">W110+X102-X109</f>
+        <v>10606.880000000001</v>
+      </c>
     </row>
-    <row r="105" spans="1:18" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I105" s="2"/>
-    </row>
-    <row r="107" spans="1:18" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I107" s="2"/>
-      <c r="O107" s="1">
-        <f>烟供随喜!$K$32+会供随喜!$B$12+Q104</f>
-        <v>21891.33</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I109" s="2"/>
-    </row>
-    <row r="111" spans="1:18" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I111" s="2"/>
     </row>
-    <row r="113" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="113" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I113" s="2"/>
+      <c r="O113" s="1">
+        <f>烟供随喜!$L$34+会供随喜!$B$12+S110</f>
+        <v>20476.330000000002</v>
+      </c>
     </row>
-    <row r="115" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="115" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I115" s="2"/>
     </row>
-    <row r="117" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="117" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I117" s="2"/>
+    </row>
+    <row r="119" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I119" s="2"/>
+    </row>
+    <row r="121" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I121" s="2"/>
+    </row>
+    <row r="123" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I123" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5213,17 +6448,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
-  <dimension ref="A1:XFD32"/>
+  <dimension ref="A1:XFD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M31" sqref="M31"/>
+      <selection pane="topRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="9" max="11" width="17.76171875" customWidth="1"/>
-    <col min="12" max="14" width="14.8203125" customWidth="1"/>
+    <col min="12" max="15" width="14.8203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="15" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -5234,42 +6469,44 @@
         <v>43</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="I1" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="O1"/>
+      <c r="O1" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -21642,7 +22879,7 @@
     </row>
     <row r="2" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="6">
         <v>300</v>
@@ -21666,12 +22903,15 @@
         <v>200</v>
       </c>
       <c r="K2" s="6">
+        <v>200</v>
+      </c>
+      <c r="L2" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" s="6">
         <v>100</v>
@@ -21679,18 +22919,21 @@
     </row>
     <row r="4" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="C4" s="6">
         <v>50</v>
       </c>
       <c r="D4" s="6">
+        <v>100</v>
+      </c>
+      <c r="L4" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="6">
         <v>50</v>
@@ -21698,7 +22941,7 @@
     </row>
     <row r="6" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="6">
         <v>500</v>
@@ -21720,11 +22963,14 @@
       </c>
       <c r="K6" s="6">
         <v>500</v>
+      </c>
+      <c r="L6" s="6">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="6">
         <v>40</v>
@@ -21751,12 +22997,15 @@
         <v>30</v>
       </c>
       <c r="K7" s="6">
+        <v>30</v>
+      </c>
+      <c r="L7" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="6">
         <v>200</v>
@@ -21764,7 +23013,7 @@
     </row>
     <row r="9" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E9" s="6">
         <v>200</v>
@@ -21782,12 +23031,15 @@
         <v>200</v>
       </c>
       <c r="K9" s="6">
+        <v>100</v>
+      </c>
+      <c r="L9" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="6">
         <v>50</v>
@@ -21809,11 +23061,14 @@
       </c>
       <c r="K10" s="6">
         <v>200</v>
+      </c>
+      <c r="L10" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E11" s="6">
         <v>100</v>
@@ -21821,7 +23076,7 @@
     </row>
     <row r="12" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" s="6">
         <v>50</v>
@@ -21851,6 +23106,9 @@
       <c r="K14" s="6">
         <v>200</v>
       </c>
+      <c r="L14" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
@@ -21862,26 +23120,29 @@
       <c r="H15" s="6">
         <v>200</v>
       </c>
+      <c r="L15" s="6">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F16" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E17" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="6">
         <v>100</v>
@@ -21890,41 +23151,44 @@
       <c r="J18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H19" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H20" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K21" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K22" s="6">
         <v>100</v>
       </c>
+      <c r="L22" s="6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H23" s="6">
         <v>100</v>
@@ -21933,155 +23197,192 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="K24" s="6">
+        <v>173</v>
+      </c>
+      <c r="L24" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K25" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="6">
+    <row r="26" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A30" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="10">
-        <f t="shared" ref="B30:H30" si="0">SUM(B2:B25)</f>
+    <row r="27" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="10">
+        <f t="shared" ref="B32:H32" si="0">SUM(B2:B27)</f>
         <v>190</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C32" s="10">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D32" s="10">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E32" s="10">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F32" s="10">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G32" s="10">
         <f t="shared" si="0"/>
         <v>1150</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H32" s="10">
         <f t="shared" si="0"/>
         <v>1030</v>
       </c>
-      <c r="I30" s="10">
-        <f>SUM(I2:I25)</f>
+      <c r="I32" s="10">
+        <f>SUM(I2:I27)</f>
         <v>580</v>
       </c>
-      <c r="J30" s="10">
-        <f>SUM(J2:J25)</f>
+      <c r="J32" s="10">
+        <f>SUM(J2:J27)</f>
         <v>830</v>
       </c>
-      <c r="K30" s="10">
-        <f>SUM(K2:K25)</f>
+      <c r="K32" s="10">
+        <f>SUM(K2:K27)</f>
         <v>1830</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="L32" s="10">
+        <f t="shared" ref="L32:N32" si="1">SUM(L2:L27)</f>
+        <v>1210</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="10"/>
     </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="11" t="s">
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B33" s="11">
         <v>74</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C33" s="11">
         <v>0</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D33" s="11">
         <v>0</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E33" s="11">
         <v>108.99</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F33" s="11">
         <v>125.18</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G33" s="11">
         <v>414.28</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H33" s="11">
         <v>108.99</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I33" s="11">
         <v>25</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J33" s="11">
         <v>118.8</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K33" s="11">
         <v>28</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0</v>
+      </c>
+      <c r="O33" s="11"/>
     </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="12" t="s">
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A34" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="12">
-        <f>B30-B31</f>
+      <c r="B34" s="12">
+        <f>B32-B33</f>
         <v>116</v>
       </c>
-      <c r="C32" s="12">
-        <f t="shared" ref="C32:G32" si="1">B32+C30-C31</f>
+      <c r="C34" s="12">
+        <f t="shared" ref="C34:G34" si="2">B34+C32-C33</f>
         <v>1016</v>
       </c>
-      <c r="D32" s="12">
-        <f t="shared" si="1"/>
+      <c r="D34" s="12">
+        <f t="shared" si="2"/>
         <v>1516</v>
       </c>
-      <c r="E32" s="12">
-        <f t="shared" si="1"/>
+      <c r="E34" s="12">
+        <f t="shared" si="2"/>
         <v>2607.0100000000002</v>
       </c>
-      <c r="F32" s="12">
-        <f t="shared" si="1"/>
+      <c r="F34" s="12">
+        <f t="shared" si="2"/>
         <v>3531.8300000000004</v>
       </c>
-      <c r="G32" s="12">
-        <f t="shared" si="1"/>
+      <c r="G34" s="12">
+        <f t="shared" si="2"/>
         <v>4267.55</v>
       </c>
-      <c r="H32" s="12">
-        <f>G32+H30-H31</f>
+      <c r="H34" s="12">
+        <f>G34+H32-H33</f>
         <v>5188.5600000000004</v>
       </c>
-      <c r="I32" s="12">
-        <f>H32+I30-I31</f>
+      <c r="I34" s="12">
+        <f>H34+I32-I33</f>
         <v>5743.56</v>
       </c>
-      <c r="J32" s="12">
-        <f>I32+J30-J31</f>
+      <c r="J34" s="12">
+        <f>I34+J32-J33</f>
         <v>6454.76</v>
       </c>
-      <c r="K32" s="12">
-        <f>J32+K30-K31</f>
+      <c r="K34" s="12">
+        <f>J34+K32-K33</f>
         <v>8256.76</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="L34" s="12">
+        <f>K34+L32-L33</f>
+        <v>9466.76</v>
+      </c>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -22097,9 +23398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA511E68-F71D-47C7-9726-D5C78DCB2659}">
   <dimension ref="A1:XEZ12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -22109,13 +23410,17 @@
         <v>42</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1"/>
-      <c r="E1"/>
+        <v>115</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -38494,15 +39799,17 @@
     </row>
     <row r="2" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="6">
         <v>100</v>
       </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="6">
         <v>600</v>
@@ -38510,26 +39817,32 @@
       <c r="C3" s="6">
         <v>0</v>
       </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" s="6">
         <v>375</v>
       </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:16380" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="6">
         <v>50</v>
       </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="10" spans="1:16380" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="10">
         <f>SUM(B2:B5)</f>
@@ -38537,6 +39850,14 @@
       </c>
       <c r="C10" s="10">
         <f>SUM(C2:C5)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <f>SUM(D2:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <f>SUM(E2:E5)</f>
         <v>0</v>
       </c>
     </row>
@@ -38550,6 +39871,12 @@
       <c r="C11" s="11">
         <v>0</v>
       </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:16380" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
@@ -38560,7 +39887,15 @@
         <v>402.69000000000005</v>
       </c>
       <c r="C12" s="12">
-        <f>C10-C11</f>
+        <f t="shared" ref="C12:E12" si="0">C10-C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chiming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5155092C-CD9D-4332-BD88-01D2A8FA65C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F50EF4-4F2A-4084-BD57-366B4754A0F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="放生随喜" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="189">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,9 +642,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.11.032</t>
-  </si>
-  <si>
     <t>2019.11.033</t>
   </si>
   <si>
@@ -690,10 +687,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>backup3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列174</t>
   </si>
   <si>
@@ -707,9 +700,6 @@
   <si>
     <t>韩冬雪</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backup4</t>
   </si>
   <si>
     <t>backup5</t>
@@ -734,6 +724,38 @@
   </si>
   <si>
     <t>2019.11.02</t>
+  </si>
+  <si>
+    <t>2020.06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆腾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵德明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李振杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.06.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘大治一家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘峰全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1086,210 +1108,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1397,6 +1215,42 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1894,6 +1748,155 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1906,6 +1909,25 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
@@ -2200,10 +2222,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:X101" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
-  <autoFilter ref="A1:X101" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K101">
-    <sortCondition ref="A1:A101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:X103" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="A1:X103" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K103">
+    <sortCondition ref="A1:A103"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="76"/>
@@ -2223,87 +2245,87 @@
     <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="62"/>
     <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2020.2.29" dataDxfId="61"/>
     <tableColumn id="17" xr3:uid="{8A278776-53B1-4C9B-B0FD-D1404C201AA6}" name="2020.04.05" dataDxfId="60"/>
-    <tableColumn id="20" xr3:uid="{ED6C027C-9006-4261-AFFD-F06794A1740D}" name="2020.05.01（上师广州放生）" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{423FF7CE-5B30-4588-B80E-563F413C6E1E}" name="2020.05.23" dataDxfId="59"/>
-    <tableColumn id="19" xr3:uid="{0F0896F2-5427-49E2-B6B4-0CDBAED03178}" name="backup3" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{5E217A0B-08DF-4084-931D-0B63C054969E}" name="backup4" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{EB405173-0F7E-49B4-A868-D6A6AE1704A3}" name="backup5" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{43AF4CEB-DEA3-4A15-8286-3961662C210F}" name="backup6" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{2A0F6EB2-AF60-49D2-BEB5-6B9F2534D18A}" name="backup7" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{ED6C027C-9006-4261-AFFD-F06794A1740D}" name="2020.05.01（上师广州放生）" dataDxfId="59"/>
+    <tableColumn id="18" xr3:uid="{423FF7CE-5B30-4588-B80E-563F413C6E1E}" name="2020.05.23" dataDxfId="58"/>
+    <tableColumn id="19" xr3:uid="{0F0896F2-5427-49E2-B6B4-0CDBAED03178}" name="2020.06.06" dataDxfId="57"/>
+    <tableColumn id="21" xr3:uid="{5E217A0B-08DF-4084-931D-0B63C054969E}" name="2020.06.21" dataDxfId="56"/>
+    <tableColumn id="22" xr3:uid="{EB405173-0F7E-49B4-A868-D6A6AE1704A3}" name="backup5" dataDxfId="55"/>
+    <tableColumn id="23" xr3:uid="{43AF4CEB-DEA3-4A15-8286-3961662C210F}" name="backup6" dataDxfId="54"/>
+    <tableColumn id="24" xr3:uid="{2A0F6EB2-AF60-49D2-BEB5-6B9F2534D18A}" name="backup7" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A104:X107" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
-  <autoFilter ref="A104:X107" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A106:X109" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="A106:X109" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="47"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="45"/>
-    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="44"/>
-    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="43"/>
-    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="42"/>
-    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="41"/>
-    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="40"/>
-    <tableColumn id="18" xr3:uid="{7FDCCA4B-7D79-48EF-9B59-82E552EE633B}" name="列172" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{7ED92CF3-8A37-4CDD-BFF2-53F59BE535DE}" name="列173" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{AD16709C-E6EA-416A-927B-641AFF440CE0}" name="列174" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{9CAE81C2-021C-4481-A730-F07863C18814}" name="列175" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{E0EF79EF-1156-4A8D-8C2B-47AAD03D6260}" name="列176" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{325656D5-28D0-4734-B242-21697FBCA2BF}" name="列177" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{AE00EEF4-07A4-4FBF-B7F0-DC7B1518D893}" name="列178" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="38"/>
+    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="37"/>
+    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="36"/>
+    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="35"/>
+    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{7FDCCA4B-7D79-48EF-9B59-82E552EE633B}" name="列172" dataDxfId="33"/>
+    <tableColumn id="19" xr3:uid="{7ED92CF3-8A37-4CDD-BFF2-53F59BE535DE}" name="列173" dataDxfId="32"/>
+    <tableColumn id="20" xr3:uid="{AD16709C-E6EA-416A-927B-641AFF440CE0}" name="列174" dataDxfId="31"/>
+    <tableColumn id="21" xr3:uid="{9CAE81C2-021C-4481-A730-F07863C18814}" name="列175" dataDxfId="30"/>
+    <tableColumn id="22" xr3:uid="{E0EF79EF-1156-4A8D-8C2B-47AAD03D6260}" name="列176" dataDxfId="29"/>
+    <tableColumn id="23" xr3:uid="{325656D5-28D0-4734-B242-21697FBCA2BF}" name="列177" dataDxfId="28"/>
+    <tableColumn id="24" xr3:uid="{AE00EEF4-07A4-4FBF-B7F0-DC7B1518D893}" name="列178" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:N27" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
-  <autoFilter ref="A1:N27" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
-    <sortCondition ref="A1:A27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:N30" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
+  <autoFilter ref="A1:N30" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+    <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2020.05.23" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{D450CAFD-4280-4A57-A72C-AC9C82E67796}" name="2019.11.032" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2019.11.033" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2020.05.23" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{D450CAFD-4280-4A57-A72C-AC9C82E67796}" name="2020.06.06" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2019.11.033" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:E5" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B5">
     <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{2511DB9F-444E-4C03-8A9E-5A948ADC9CB0}" name="2019.11.02" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{FFAB1BAB-E2B7-413C-B555-13FE1D11ACDB}" name="2019.11.03" dataDxfId="0"/>
   </tableColumns>
@@ -2608,12 +2630,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X123"/>
+  <dimension ref="A1:X125"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="U113" sqref="U113"/>
+      <selection pane="topRight" activeCell="O115" sqref="O115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
@@ -2679,25 +2701,25 @@
         <v>148</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -2752,8 +2774,12 @@
       <c r="S2" s="6">
         <v>1800</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="T2" s="6">
+        <v>1800</v>
+      </c>
+      <c r="U2" s="6">
+        <v>2000</v>
+      </c>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
@@ -2814,8 +2840,12 @@
       <c r="S3" s="6">
         <v>200</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="T3" s="6">
+        <v>200</v>
+      </c>
+      <c r="U3" s="6">
+        <v>200</v>
+      </c>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
@@ -2874,8 +2904,12 @@
       <c r="S4" s="6">
         <v>100</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="T4" s="6">
+        <v>100</v>
+      </c>
+      <c r="U4" s="6">
+        <v>100</v>
+      </c>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -2926,8 +2960,12 @@
       <c r="S5" s="6">
         <v>50</v>
       </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
+      <c r="T5" s="6">
+        <v>100</v>
+      </c>
+      <c r="U5" s="6">
+        <v>100</v>
+      </c>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
@@ -2972,8 +3010,12 @@
       <c r="S6" s="6">
         <v>100</v>
       </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
+      <c r="T6" s="6">
+        <v>100</v>
+      </c>
+      <c r="U6" s="6">
+        <v>200</v>
+      </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
@@ -3022,15 +3064,19 @@
       <c r="S7" s="6">
         <v>200</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="T7" s="6">
+        <v>200</v>
+      </c>
+      <c r="U7" s="6">
+        <v>200</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
     </row>
     <row r="8" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3072,7 +3118,9 @@
       <c r="S8" s="6">
         <v>100</v>
       </c>
-      <c r="T8" s="6"/>
+      <c r="T8" s="6">
+        <v>100</v>
+      </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -3124,8 +3172,12 @@
       <c r="S9" s="6">
         <v>800</v>
       </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="T9" s="6">
+        <v>600</v>
+      </c>
+      <c r="U9" s="6">
+        <v>1000</v>
+      </c>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
@@ -3166,8 +3218,12 @@
       <c r="S10" s="6">
         <v>300</v>
       </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="T10" s="6">
+        <v>300</v>
+      </c>
+      <c r="U10" s="6">
+        <v>300</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
@@ -3210,8 +3266,12 @@
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
+      <c r="T11" s="6">
+        <v>300</v>
+      </c>
+      <c r="U11" s="6">
+        <v>500</v>
+      </c>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
@@ -3251,7 +3311,9 @@
         <v>700</v>
       </c>
       <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
+      <c r="U12" s="6">
+        <v>200</v>
+      </c>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
@@ -3294,8 +3356,12 @@
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="T13" s="6">
+        <v>200</v>
+      </c>
+      <c r="U13" s="6">
+        <v>200</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -3336,8 +3402,12 @@
       <c r="S14" s="6">
         <v>200</v>
       </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="T14" s="6">
+        <v>200</v>
+      </c>
+      <c r="U14" s="6">
+        <v>200</v>
+      </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -3476,19 +3546,19 @@
     </row>
     <row r="19" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="6">
-        <v>200</v>
-      </c>
-      <c r="H19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <v>300</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -3500,7 +3570,9 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
+      <c r="T19" s="6">
+        <v>300</v>
+      </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -3508,29 +3580,43 @@
     </row>
     <row r="20" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="B20" s="6">
+        <v>100</v>
+      </c>
+      <c r="C20" s="6">
+        <v>50</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2010</v>
+      </c>
+      <c r="E20" s="6">
+        <v>50</v>
+      </c>
+      <c r="F20" s="6">
+        <v>60</v>
+      </c>
+      <c r="G20" s="6">
+        <v>50</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6">
-        <v>100</v>
-      </c>
+      <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="Q20" s="6">
+        <v>100</v>
+      </c>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="T20" s="6">
+        <v>50</v>
+      </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
@@ -3538,20 +3624,24 @@
     </row>
     <row r="21" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6">
+        <v>400</v>
+      </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6">
+        <v>200</v>
+      </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="6">
+        <v>200</v>
+      </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="6">
-        <v>100</v>
-      </c>
+      <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -3560,7 +3650,9 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
+      <c r="T21" s="6">
+        <v>400</v>
+      </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -3568,13 +3660,11 @@
     </row>
     <row r="22" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="6">
-        <v>4160</v>
-      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3585,29 +3675,37 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="O22" s="6">
+        <v>30</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
+      <c r="S22" s="6">
+        <v>100</v>
+      </c>
+      <c r="T22" s="6">
+        <v>50</v>
+      </c>
+      <c r="U22" s="6">
+        <v>50</v>
+      </c>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6">
+        <v>100</v>
+      </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="6">
-        <v>50</v>
-      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -3619,27 +3717,33 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
+      <c r="S23" s="6">
+        <v>50</v>
+      </c>
       <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
+      <c r="U23" s="6">
+        <v>100</v>
+      </c>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
-        <v>92</v>
+      <c r="A24" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6">
+        <v>200</v>
+      </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6">
+        <v>200</v>
+      </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="6">
-        <v>200</v>
-      </c>
+      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -3657,20 +3761,20 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
-        <v>82</v>
+      <c r="A25" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <v>200</v>
-      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="6">
+        <v>100</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -3687,21 +3791,21 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A26" s="7" t="s">
-        <v>67</v>
+      <c r="A26" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6">
-        <v>200</v>
-      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="K26" s="6">
+        <v>100</v>
+      </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -3717,17 +3821,17 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
-        <v>71</v>
+      <c r="A27" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6">
+        <v>4160</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <v>20</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -3748,24 +3852,22 @@
     </row>
     <row r="28" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6">
-        <v>200</v>
-      </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="6">
+        <v>50</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="6">
-        <v>50</v>
-      </c>
+      <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -3779,21 +3881,19 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
-        <v>29</v>
+      <c r="A29" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6">
         <v>200</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6">
-        <v>200</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -3811,17 +3911,17 @@
       <c r="X29" s="6"/>
     </row>
     <row r="30" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
-        <v>11</v>
+      <c r="A30" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6">
-        <v>100</v>
-      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="G30" s="6">
+        <v>200</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -3841,21 +3941,21 @@
       <c r="X30" s="6"/>
     </row>
     <row r="31" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="6" t="s">
-        <v>105</v>
+      <c r="A31" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6">
+        <v>200</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6">
-        <v>200</v>
-      </c>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -3872,7 +3972,7 @@
     </row>
     <row r="32" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -3880,7 +3980,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -3902,22 +4002,24 @@
     </row>
     <row r="33" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6">
+        <v>200</v>
+      </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="6">
-        <v>100</v>
-      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="M33" s="6">
+        <v>50</v>
+      </c>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
@@ -3925,19 +4027,23 @@
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
+      <c r="U33" s="6">
+        <v>100</v>
+      </c>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
     </row>
     <row r="34" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
-        <v>63</v>
+      <c r="A34" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="6">
+        <v>200</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6">
         <v>200</v>
@@ -3962,11 +4068,13 @@
     </row>
     <row r="35" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6">
+        <v>100</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3974,9 +4082,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="6">
-        <v>100</v>
-      </c>
+      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
@@ -3992,7 +4098,7 @@
     </row>
     <row r="36" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4003,15 +4109,15 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="K36" s="6">
+        <v>200</v>
+      </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="6">
-        <v>1000</v>
-      </c>
+      <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -4022,7 +4128,7 @@
     </row>
     <row r="37" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4030,7 +4136,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -4052,16 +4158,16 @@
     </row>
     <row r="38" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="6">
-        <v>200</v>
-      </c>
-      <c r="G38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6">
+        <v>100</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -4081,17 +4187,17 @@
       <c r="X38" s="6"/>
     </row>
     <row r="39" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A39" s="6" t="s">
-        <v>14</v>
+      <c r="A39" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="6">
-        <v>20</v>
-      </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="G39" s="6">
+        <v>200</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -4111,22 +4217,22 @@
       <c r="X39" s="6"/>
     </row>
     <row r="40" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="7" t="s">
-        <v>72</v>
+      <c r="A40" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6">
-        <v>88.88</v>
-      </c>
+      <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="L40" s="6">
+        <v>100</v>
+      </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
@@ -4141,8 +4247,8 @@
       <c r="X40" s="6"/>
     </row>
     <row r="41" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
-        <v>107</v>
+      <c r="A41" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -4153,15 +4259,15 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="6">
-        <v>200</v>
-      </c>
+      <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
+      <c r="Q41" s="6">
+        <v>1000</v>
+      </c>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
@@ -4172,7 +4278,7 @@
     </row>
     <row r="42" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -4180,7 +4286,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -4201,17 +4307,17 @@
       <c r="X42" s="6"/>
     </row>
     <row r="43" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="7" t="s">
-        <v>81</v>
+      <c r="A43" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6">
-        <v>50</v>
-      </c>
+      <c r="F43" s="6">
+        <v>200</v>
+      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -4232,11 +4338,13 @@
     </row>
     <row r="44" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="6">
+        <v>20</v>
+      </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -4247,15 +4355,11 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="6">
-        <v>30</v>
-      </c>
+      <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
-      <c r="S44" s="6">
-        <v>100</v>
-      </c>
+      <c r="S44" s="6"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
@@ -4263,17 +4367,17 @@
       <c r="X44" s="6"/>
     </row>
     <row r="45" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="6" t="s">
-        <v>34</v>
+      <c r="A45" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="6">
-        <v>100</v>
-      </c>
+      <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="G45" s="6">
+        <v>88.88</v>
+      </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -4285,9 +4389,7 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
-      <c r="S45" s="6">
-        <v>50</v>
-      </c>
+      <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
@@ -4295,21 +4397,21 @@
       <c r="X45" s="6"/>
     </row>
     <row r="46" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="6" t="s">
-        <v>48</v>
+      <c r="A46" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="6">
-        <v>107</v>
-      </c>
+      <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="K46" s="6">
+        <v>200</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -4325,26 +4427,16 @@
       <c r="X46" s="6"/>
     </row>
     <row r="47" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="6">
-        <v>100</v>
-      </c>
-      <c r="C47" s="6">
-        <v>50</v>
-      </c>
-      <c r="D47" s="6">
-        <v>2010</v>
-      </c>
-      <c r="E47" s="6">
-        <v>50</v>
-      </c>
-      <c r="F47" s="6">
-        <v>60</v>
-      </c>
+      <c r="A47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -4355,9 +4447,7 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="6">
-        <v>100</v>
-      </c>
+      <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
@@ -4368,7 +4458,7 @@
     </row>
     <row r="48" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -4376,7 +4466,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -4398,15 +4488,15 @@
     </row>
     <row r="49" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="6">
-        <v>100</v>
-      </c>
-      <c r="F49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6">
+        <v>107</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -4428,7 +4518,7 @@
     </row>
     <row r="50" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -4436,7 +4526,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -4458,22 +4548,18 @@
     </row>
     <row r="51" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="6">
-        <v>200</v>
-      </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="6">
-        <v>200</v>
-      </c>
+      <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -4491,17 +4577,17 @@
       <c r="X51" s="6"/>
     </row>
     <row r="52" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="6" t="s">
-        <v>10</v>
+      <c r="A52" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="6">
-        <v>200</v>
-      </c>
+      <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="6">
+        <v>200</v>
+      </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -4511,13 +4597,9 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
-      <c r="Q52" s="6" t="s">
-        <v>145</v>
-      </c>
+      <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
-      <c r="S52" s="6" t="s">
-        <v>145</v>
-      </c>
+      <c r="S52" s="6"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
@@ -4525,17 +4607,17 @@
       <c r="X52" s="6"/>
     </row>
     <row r="53" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="7" t="s">
-        <v>83</v>
+      <c r="A53" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="6">
+        <v>200</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6">
-        <v>200</v>
-      </c>
+      <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -4545,9 +4627,13 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
+      <c r="Q53" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
+      <c r="S53" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
@@ -4555,17 +4641,17 @@
       <c r="X53" s="6"/>
     </row>
     <row r="54" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="6" t="s">
-        <v>12</v>
+      <c r="A54" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="6">
-        <v>1000</v>
-      </c>
+      <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="G54" s="6">
+        <v>200</v>
+      </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -4586,24 +4672,22 @@
     </row>
     <row r="55" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="6">
+        <v>1000</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="6">
-        <v>200</v>
-      </c>
+      <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="6">
-        <v>100</v>
-      </c>
+      <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -4618,22 +4702,24 @@
     </row>
     <row r="56" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="6">
-        <v>100</v>
-      </c>
+      <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="H56" s="6">
+        <v>200</v>
+      </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
+      <c r="M56" s="6">
+        <v>100</v>
+      </c>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -4647,17 +4733,17 @@
       <c r="X56" s="6"/>
     </row>
     <row r="57" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A57" s="7" t="s">
-        <v>77</v>
+      <c r="A57" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="E57" s="6">
+        <v>100</v>
+      </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="6">
-        <v>50</v>
-      </c>
+      <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -4678,18 +4764,18 @@
     </row>
     <row r="58" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="G58" s="6">
+        <v>50</v>
+      </c>
       <c r="H58" s="6"/>
-      <c r="I58" s="6">
-        <v>800</v>
-      </c>
+      <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -4708,18 +4794,18 @@
     </row>
     <row r="59" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6">
-        <v>50</v>
-      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="I59" s="6">
+        <v>800</v>
+      </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -4738,17 +4824,17 @@
     </row>
     <row r="60" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6">
-        <v>100</v>
-      </c>
+      <c r="G60" s="6">
+        <v>50</v>
+      </c>
+      <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -4767,18 +4853,18 @@
       <c r="X60" s="6"/>
     </row>
     <row r="61" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="6" t="s">
-        <v>9</v>
+      <c r="A61" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="6">
-        <v>100</v>
-      </c>
+      <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="H61" s="6">
+        <v>100</v>
+      </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -4796,13 +4882,15 @@
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
     </row>
-    <row r="62" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="6">
+        <v>100</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -4813,9 +4901,7 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="6">
-        <v>20</v>
-      </c>
+      <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
@@ -4828,7 +4914,7 @@
     </row>
     <row r="63" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -4844,7 +4930,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -4856,9 +4942,9 @@
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
     </row>
-    <row r="64" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -4888,7 +4974,7 @@
     </row>
     <row r="65" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4918,7 +5004,7 @@
     </row>
     <row r="66" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -4948,7 +5034,7 @@
     </row>
     <row r="67" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -4978,7 +5064,7 @@
     </row>
     <row r="68" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -4994,7 +5080,7 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
@@ -5008,7 +5094,7 @@
     </row>
     <row r="69" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -5024,7 +5110,7 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
@@ -5037,17 +5123,15 @@
       <c r="X69" s="6"/>
     </row>
     <row r="70" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="7" t="s">
-        <v>68</v>
+      <c r="A70" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6">
-        <v>200</v>
-      </c>
+      <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -5055,11 +5139,11 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
+      <c r="O70" s="6">
+        <v>10</v>
+      </c>
       <c r="P70" s="6"/>
-      <c r="Q70" s="6">
-        <v>300</v>
-      </c>
+      <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
@@ -5070,18 +5154,18 @@
     </row>
     <row r="71" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="G71" s="6">
+        <v>200</v>
+      </c>
       <c r="H71" s="6"/>
-      <c r="I71" s="6">
-        <v>300</v>
-      </c>
+      <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
@@ -5089,7 +5173,9 @@
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
+      <c r="Q71" s="6">
+        <v>300</v>
+      </c>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
@@ -5100,7 +5186,7 @@
     </row>
     <row r="72" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -5109,15 +5195,15 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+      <c r="I72" s="6">
+        <v>300</v>
+      </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
-      <c r="O72" s="6">
-        <v>100</v>
-      </c>
+      <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
@@ -5130,7 +5216,7 @@
     </row>
     <row r="73" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -5146,7 +5232,7 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
@@ -5160,16 +5246,14 @@
     </row>
     <row r="74" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="6">
-        <v>200</v>
-      </c>
+      <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -5177,7 +5261,9 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
+      <c r="O74" s="6">
+        <v>50</v>
+      </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
@@ -5190,7 +5276,7 @@
     </row>
     <row r="75" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -5219,17 +5305,17 @@
       <c r="X75" s="6"/>
     </row>
     <row r="76" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="6" t="s">
-        <v>7</v>
+      <c r="A76" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="6">
-        <v>55</v>
-      </c>
+      <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="G76" s="6">
+        <v>200</v>
+      </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -5250,16 +5336,16 @@
     </row>
     <row r="77" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
+      <c r="D77" s="6">
+        <v>55</v>
+      </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="6">
-        <v>200</v>
-      </c>
+      <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -5280,20 +5366,20 @@
     </row>
     <row r="78" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="G78" s="6">
+        <v>200</v>
+      </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="6">
-        <v>100</v>
-      </c>
+      <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -5309,21 +5395,21 @@
       <c r="X78" s="6"/>
     </row>
     <row r="79" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="7" t="s">
-        <v>76</v>
+      <c r="A79" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="6">
-        <v>50</v>
-      </c>
+      <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
+      <c r="K79" s="6">
+        <v>100</v>
+      </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -5340,7 +5426,7 @@
     </row>
     <row r="80" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -5370,7 +5456,7 @@
     </row>
     <row r="81" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -5400,7 +5486,7 @@
     </row>
     <row r="82" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -5429,17 +5515,17 @@
       <c r="X82" s="6"/>
     </row>
     <row r="83" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="6" t="s">
-        <v>41</v>
+      <c r="A83" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="6">
-        <v>10</v>
-      </c>
+      <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
+      <c r="G83" s="6">
+        <v>50</v>
+      </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -5459,17 +5545,17 @@
       <c r="X83" s="6"/>
     </row>
     <row r="84" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A84" s="7" t="s">
-        <v>79</v>
+      <c r="A84" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
+      <c r="E84" s="6">
+        <v>10</v>
+      </c>
       <c r="F84" s="6"/>
-      <c r="G84" s="6">
-        <v>50</v>
-      </c>
+      <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
@@ -5490,7 +5576,7 @@
     </row>
     <row r="85" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -5519,19 +5605,19 @@
       <c r="X85" s="6"/>
     </row>
     <row r="86" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="6" t="s">
-        <v>102</v>
+      <c r="A86" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
+      <c r="G86" s="6">
+        <v>50</v>
+      </c>
       <c r="H86" s="6"/>
-      <c r="I86" s="6">
-        <v>50</v>
-      </c>
+      <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
@@ -5541,9 +5627,7 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
-      <c r="S86" s="6">
-        <v>100</v>
-      </c>
+      <c r="S86" s="6"/>
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
@@ -5552,7 +5636,7 @@
     </row>
     <row r="87" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -5561,11 +5645,11 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
+      <c r="I87" s="6">
+        <v>50</v>
+      </c>
       <c r="J87" s="6"/>
-      <c r="K87" s="6">
-        <v>100</v>
-      </c>
+      <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
@@ -5573,7 +5657,9 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
+      <c r="S87" s="6">
+        <v>100</v>
+      </c>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
@@ -5582,7 +5668,7 @@
     </row>
     <row r="88" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -5593,11 +5679,11 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
+      <c r="K88" s="6">
+        <v>100</v>
+      </c>
       <c r="L88" s="6"/>
-      <c r="M88" s="6">
-        <v>66</v>
-      </c>
+      <c r="M88" s="6"/>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
@@ -5612,24 +5698,22 @@
     </row>
     <row r="89" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="6">
-        <v>1000</v>
-      </c>
+      <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="6">
-        <v>300</v>
-      </c>
+      <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
+      <c r="M89" s="6">
+        <v>66</v>
+      </c>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
@@ -5764,7 +5848,7 @@
     </row>
     <row r="94" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -5787,14 +5871,16 @@
         <v>50</v>
       </c>
       <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
+      <c r="U94" s="6">
+        <v>50</v>
+      </c>
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
       <c r="X94" s="6"/>
     </row>
     <row r="95" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -5817,14 +5903,16 @@
         <v>300</v>
       </c>
       <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
+      <c r="U95" s="6">
+        <v>300</v>
+      </c>
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
       <c r="X95" s="6"/>
     </row>
     <row r="96" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -5847,7 +5935,9 @@
         <v>100</v>
       </c>
       <c r="T96" s="6"/>
-      <c r="U96" s="6"/>
+      <c r="U96" s="6">
+        <v>100</v>
+      </c>
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
       <c r="X96" s="6"/>
@@ -5877,14 +5967,16 @@
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
+      <c r="U97" s="6">
+        <v>100</v>
+      </c>
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
       <c r="X97" s="6"/>
     </row>
     <row r="98" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -5907,14 +5999,16 @@
         <v>50</v>
       </c>
       <c r="T98" s="6"/>
-      <c r="U98" s="6"/>
+      <c r="U98" s="6">
+        <v>50</v>
+      </c>
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
       <c r="X98" s="6"/>
     </row>
     <row r="99" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -5933,18 +6027,18 @@
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
-      <c r="S99" s="6">
-        <v>50</v>
-      </c>
+      <c r="S99" s="6"/>
       <c r="T99" s="6"/>
-      <c r="U99" s="6"/>
+      <c r="U99" s="6">
+        <v>100</v>
+      </c>
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
       <c r="X99" s="6"/>
     </row>
     <row r="100" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -5974,14 +6068,12 @@
     </row>
     <row r="101" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="6">
-        <v>50</v>
-      </c>
+      <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -5995,428 +6087,487 @@
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
+      <c r="S101" s="6">
+        <v>50</v>
+      </c>
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="6"/>
       <c r="W101" s="6"/>
       <c r="X101" s="6"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A102" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6">
+        <v>100</v>
+      </c>
+      <c r="V102" s="6"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="6"/>
+    </row>
+    <row r="103" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A103" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6">
+        <v>50</v>
+      </c>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A104" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B102" s="16">
-        <f>SUM(B2:B101)</f>
+      <c r="B104" s="16">
+        <f t="shared" ref="B104:T104" si="0">SUM(B2:B103)</f>
         <v>1980</v>
       </c>
-      <c r="C102" s="16">
-        <f>SUM(C2:C101)</f>
+      <c r="C104" s="16">
+        <f t="shared" si="0"/>
         <v>1166</v>
       </c>
-      <c r="D102" s="16">
-        <f>SUM(D2:D101)</f>
+      <c r="D104" s="16">
+        <f t="shared" si="0"/>
         <v>12195</v>
       </c>
-      <c r="E102" s="16">
-        <f>SUM(E2:E101)</f>
+      <c r="E104" s="16">
+        <f t="shared" si="0"/>
         <v>5530</v>
       </c>
-      <c r="F102" s="16">
-        <f>SUM(F2:F101)</f>
+      <c r="F104" s="16">
+        <f t="shared" si="0"/>
         <v>2517</v>
       </c>
-      <c r="G102" s="16">
-        <f>SUM(G2:G101)</f>
+      <c r="G104" s="16">
+        <f t="shared" si="0"/>
         <v>6563.88</v>
       </c>
-      <c r="H102" s="16">
-        <f>SUM(H2:H101)</f>
+      <c r="H104" s="16">
+        <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="I102" s="16">
-        <f>SUM(I2:I101)</f>
+      <c r="I104" s="16">
+        <f t="shared" si="0"/>
         <v>5550</v>
       </c>
-      <c r="J102" s="16">
-        <f>SUM(J2:J101)</f>
+      <c r="J104" s="16">
+        <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="K102" s="16">
-        <f>SUM(K2:K101)</f>
+      <c r="K104" s="16">
+        <f t="shared" si="0"/>
         <v>3900</v>
       </c>
-      <c r="L102" s="16">
-        <f>SUM(L2:L101)</f>
+      <c r="L104" s="16">
+        <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="M102" s="16">
-        <f>SUM(M2:M101)</f>
+      <c r="M104" s="16">
+        <f t="shared" si="0"/>
         <v>3196</v>
       </c>
-      <c r="N102" s="16">
-        <f>SUM(N2:N101)</f>
+      <c r="N104" s="16">
+        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="O102" s="16">
-        <f>SUM(O2:O101)</f>
+      <c r="O104" s="16">
+        <f t="shared" si="0"/>
         <v>3530</v>
       </c>
-      <c r="P102" s="16">
-        <f>SUM(P2:P101)</f>
+      <c r="P104" s="16">
+        <f t="shared" si="0"/>
         <v>2454</v>
       </c>
-      <c r="Q102" s="16">
-        <f>SUM(Q2:Q101)</f>
+      <c r="Q104" s="16">
+        <f t="shared" si="0"/>
         <v>6150</v>
       </c>
-      <c r="R102" s="3">
-        <f>SUM(R2:R101)</f>
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <f>SUM(S2:S101)</f>
-        <v>5500</v>
-      </c>
-      <c r="T102" s="16">
-        <f>SUM(T2:T101)</f>
-        <v>0</v>
-      </c>
-      <c r="U102" s="16">
-        <f t="shared" ref="U102:X102" si="0">SUM(U2:U101)</f>
-        <v>0</v>
-      </c>
-      <c r="V102" s="16">
+      <c r="R104" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W102" s="16">
+      <c r="S104" s="3">
         <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+      <c r="T104" s="16">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="U104" s="16">
+        <f>SUM(U2:U103)</f>
+        <v>6250</v>
+      </c>
+      <c r="V104" s="16">
+        <f>SUM(V2:V103)</f>
         <v>0</v>
       </c>
-      <c r="X102" s="16">
-        <f t="shared" si="0"/>
+      <c r="W104" s="16">
+        <f>SUM(W2:W103)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A104" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R104" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="S104" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="T104" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="U104" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="V104" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="W104" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="X104" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A105" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G105" s="1">
-        <v>2100</v>
+      <c r="X104" s="16">
+        <f>SUM(X2:X103)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O106" s="1">
-        <v>200</v>
+        <v>15</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U106" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="V106" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="W106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="X106" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B107" s="1">
-        <v>570</v>
-      </c>
-      <c r="C107" s="1">
-        <v>1080</v>
-      </c>
-      <c r="D107" s="1">
-        <v>0</v>
-      </c>
-      <c r="E107" s="1">
-        <v>3025</v>
-      </c>
-      <c r="F107" s="1">
-        <v>2154</v>
+        <v>56</v>
       </c>
       <c r="G107" s="1">
-        <v>3200</v>
-      </c>
-      <c r="H107" s="1">
-        <v>3500</v>
-      </c>
-      <c r="I107" s="1">
-        <v>4000</v>
-      </c>
-      <c r="J107" s="1">
-        <v>3555</v>
-      </c>
-      <c r="K107" s="1">
-        <v>4046</v>
-      </c>
-      <c r="O107" s="1">
-        <v>4100</v>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O108" s="1">
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="1">
+        <v>570</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>3025</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2154</v>
+      </c>
+      <c r="G109" s="1">
+        <v>3200</v>
+      </c>
+      <c r="H109" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I109" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J109" s="1">
+        <v>3555</v>
+      </c>
+      <c r="K109" s="1">
+        <v>4046</v>
+      </c>
+      <c r="O109" s="1">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A111" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B109" s="4">
-        <f>SUM(B105:B107)</f>
+      <c r="B111" s="4">
+        <f>SUM(B107:B109)</f>
         <v>570</v>
       </c>
-      <c r="C109" s="4">
-        <f t="shared" ref="C109:G109" si="1">SUM(C105:C107)</f>
+      <c r="C111" s="4">
+        <f t="shared" ref="C111:G111" si="1">SUM(C107:C109)</f>
         <v>1080</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D111" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E111" s="4">
         <f t="shared" si="1"/>
         <v>3025</v>
       </c>
-      <c r="F109" s="4">
+      <c r="F111" s="4">
         <f t="shared" si="1"/>
         <v>2154</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G111" s="4">
         <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H111" s="4">
         <v>3500</v>
       </c>
-      <c r="I109" s="4">
+      <c r="I111" s="4">
         <v>4000</v>
       </c>
-      <c r="J109" s="4">
+      <c r="J111" s="4">
         <v>3555</v>
       </c>
-      <c r="K109" s="4">
+      <c r="K111" s="4">
         <v>4046</v>
       </c>
-      <c r="L109" s="4">
+      <c r="L111" s="4">
         <v>3490</v>
       </c>
-      <c r="M109" s="4">
+      <c r="M111" s="4">
         <v>3500</v>
       </c>
-      <c r="N109" s="4">
+      <c r="N111" s="4">
         <v>3500</v>
       </c>
-      <c r="O109" s="4">
+      <c r="O111" s="4">
         <f>SUM(表3[列15])</f>
         <v>4300</v>
       </c>
-      <c r="P109" s="4">
+      <c r="P111" s="4">
         <v>6000</v>
       </c>
-      <c r="Q109" s="4">
+      <c r="Q111" s="4">
         <v>4030</v>
       </c>
-      <c r="R109" s="4">
+      <c r="R111" s="4">
         <v>4000</v>
       </c>
-      <c r="S109" s="4">
+      <c r="S111" s="4">
         <v>4125</v>
       </c>
-      <c r="T109" s="4">
+      <c r="T111" s="4">
+        <v>4125</v>
+      </c>
+      <c r="U111" s="4">
+        <v>5100</v>
+      </c>
+      <c r="V111" s="4">
         <v>0</v>
       </c>
-      <c r="U109" s="4">
+      <c r="W111" s="4">
         <v>0</v>
       </c>
-      <c r="V109" s="4">
+      <c r="X111" s="4">
         <v>0</v>
       </c>
-      <c r="W109" s="4">
-        <v>0</v>
-      </c>
-      <c r="X109" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A110" s="5" t="s">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A112" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B110" s="5">
-        <f>B102-B109</f>
+      <c r="B112" s="5">
+        <f>B104-B111</f>
         <v>1410</v>
       </c>
-      <c r="C110" s="5">
-        <f t="shared" ref="C110:M110" si="2">B110+C102-C109</f>
+      <c r="C112" s="5">
+        <f t="shared" ref="C112:M112" si="2">B112+C104-C111</f>
         <v>1496</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D112" s="5">
         <f t="shared" si="2"/>
         <v>13691</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E112" s="5">
         <f t="shared" si="2"/>
         <v>16196</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F112" s="5">
         <f t="shared" si="2"/>
         <v>16559</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G112" s="5">
         <f t="shared" si="2"/>
         <v>17822.88</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H112" s="5">
         <f t="shared" si="2"/>
         <v>18022.88</v>
       </c>
-      <c r="I110" s="5">
+      <c r="I112" s="5">
         <f t="shared" si="2"/>
         <v>19572.88</v>
       </c>
-      <c r="J110" s="5">
+      <c r="J112" s="5">
         <f t="shared" si="2"/>
         <v>17367.88</v>
       </c>
-      <c r="K110" s="5">
+      <c r="K112" s="5">
         <f t="shared" si="2"/>
         <v>17221.88</v>
       </c>
-      <c r="L110" s="5">
+      <c r="L112" s="5">
         <f t="shared" si="2"/>
         <v>17481.88</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M112" s="5">
         <f t="shared" si="2"/>
         <v>17177.88</v>
       </c>
-      <c r="N110" s="5">
-        <f t="shared" ref="N110" si="3">M110+N102-N109</f>
+      <c r="N112" s="5">
+        <f t="shared" ref="N112" si="3">M112+N104-N111</f>
         <v>15427.880000000001</v>
       </c>
-      <c r="O110" s="5">
-        <f t="shared" ref="O110:Q110" si="4">N110+O102-O109</f>
+      <c r="O112" s="5">
+        <f t="shared" ref="O112:Q112" si="4">N112+O104-O111</f>
         <v>14657.880000000001</v>
       </c>
-      <c r="P110" s="5">
+      <c r="P112" s="5">
         <f t="shared" si="4"/>
         <v>11111.880000000001</v>
       </c>
-      <c r="Q110" s="5">
+      <c r="Q112" s="5">
         <f t="shared" si="4"/>
         <v>13231.880000000001</v>
       </c>
-      <c r="R110" s="5">
-        <f>Q110+R102-R109</f>
+      <c r="R112" s="5">
+        <f>Q112+R104-R111</f>
         <v>9231.880000000001</v>
       </c>
-      <c r="S110" s="5">
-        <f t="shared" ref="S110" si="5">R110+S102-S109</f>
+      <c r="S112" s="5">
+        <f t="shared" ref="S112" si="5">R112+S104-S111</f>
         <v>10606.880000000001</v>
       </c>
-      <c r="T110" s="5">
-        <f t="shared" ref="T110" si="6">S110+T102-T109</f>
-        <v>10606.880000000001</v>
-      </c>
-      <c r="U110" s="5">
-        <f t="shared" ref="U110" si="7">T110+U102-U109</f>
-        <v>10606.880000000001</v>
-      </c>
-      <c r="V110" s="5">
-        <f t="shared" ref="V110" si="8">U110+V102-V109</f>
-        <v>10606.880000000001</v>
-      </c>
-      <c r="W110" s="5">
-        <f t="shared" ref="W110" si="9">V110+W102-W109</f>
-        <v>10606.880000000001</v>
-      </c>
-      <c r="X110" s="5">
-        <f t="shared" ref="X110" si="10">W110+X102-X109</f>
-        <v>10606.880000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I111" s="2"/>
+      <c r="T112" s="5">
+        <f t="shared" ref="T112" si="6">S112+T104-T111</f>
+        <v>11481.880000000001</v>
+      </c>
+      <c r="U112" s="5">
+        <f t="shared" ref="U112" si="7">T112+U104-U111</f>
+        <v>12631.880000000001</v>
+      </c>
+      <c r="V112" s="5">
+        <f t="shared" ref="V112" si="8">U112+V104-V111</f>
+        <v>12631.880000000001</v>
+      </c>
+      <c r="W112" s="5">
+        <f t="shared" ref="W112" si="9">V112+W104-W111</f>
+        <v>12631.880000000001</v>
+      </c>
+      <c r="X112" s="5">
+        <f t="shared" ref="X112" si="10">W112+X104-X111</f>
+        <v>12631.880000000001</v>
+      </c>
     </row>
     <row r="113" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I113" s="2"/>
-      <c r="O113" s="1">
-        <f>烟供随喜!$L$34+会供随喜!$B$12+S110</f>
-        <v>20476.330000000002</v>
-      </c>
     </row>
     <row r="115" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I115" s="2"/>
+      <c r="O115" s="1">
+        <f>烟供随喜!$M$37+会供随喜!$B$12+U112</f>
+        <v>24051.33</v>
+      </c>
     </row>
     <row r="117" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I117" s="2"/>
@@ -6429,6 +6580,9 @@
     </row>
     <row r="123" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I123" s="2"/>
+    </row>
+    <row r="125" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I125" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6448,11 +6602,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
-  <dimension ref="A1:XFD34"/>
+  <dimension ref="A1:XFD37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L34" sqref="L34"/>
+      <selection pane="topRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -6496,13 +6650,13 @@
         <v>154</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M1" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>128</v>
@@ -22908,6 +23062,9 @@
       <c r="L2" s="6">
         <v>200</v>
       </c>
+      <c r="M2" s="6">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
@@ -22919,7 +23076,7 @@
     </row>
     <row r="4" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="6">
         <v>50</v>
@@ -22967,6 +23124,9 @@
       <c r="L6" s="6">
         <v>200</v>
       </c>
+      <c r="M6" s="6">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
@@ -23002,6 +23162,9 @@
       <c r="L7" s="6">
         <v>30</v>
       </c>
+      <c r="M7" s="6">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
@@ -23036,6 +23199,9 @@
       <c r="L9" s="6">
         <v>100</v>
       </c>
+      <c r="M9" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
@@ -23065,6 +23231,9 @@
       <c r="L10" s="6">
         <v>100</v>
       </c>
+      <c r="M10" s="6">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
@@ -23109,6 +23278,9 @@
       <c r="L14" s="6">
         <v>100</v>
       </c>
+      <c r="M14" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
@@ -23123,6 +23295,9 @@
       <c r="L15" s="6">
         <v>200</v>
       </c>
+      <c r="M15" s="6">
+        <v>400</v>
+      </c>
     </row>
     <row r="16" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
@@ -23132,7 +23307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>109</v>
       </c>
@@ -23140,7 +23315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>103</v>
       </c>
@@ -23151,7 +23326,7 @@
       <c r="J18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>116</v>
       </c>
@@ -23159,7 +23334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>118</v>
       </c>
@@ -23167,7 +23342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>156</v>
       </c>
@@ -23175,7 +23350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>155</v>
       </c>
@@ -23186,7 +23361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>117</v>
       </c>
@@ -23196,16 +23371,19 @@
       <c r="K23" s="6">
         <v>300</v>
       </c>
+      <c r="M23" s="6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L24" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>149</v>
       </c>
@@ -23213,176 +23391,206 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L27" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
+    <row r="28" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="M28" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="M29" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B30" s="6">
         <v>50</v>
       </c>
+      <c r="M30" s="6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="10" t="s">
+    <row r="35" spans="1:15" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A35" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="10">
-        <f t="shared" ref="B32:H32" si="0">SUM(B2:B27)</f>
+      <c r="B35" s="10">
+        <f t="shared" ref="B35:H35" si="0">SUM(B2:B30)</f>
         <v>190</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C35" s="10">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D35" s="10">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E35" s="10">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F35" s="10">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G35" s="10">
         <f t="shared" si="0"/>
         <v>1150</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H35" s="10">
         <f t="shared" si="0"/>
         <v>1030</v>
       </c>
-      <c r="I32" s="10">
-        <f>SUM(I2:I27)</f>
+      <c r="I35" s="10">
+        <f>SUM(I2:I30)</f>
         <v>580</v>
       </c>
-      <c r="J32" s="10">
-        <f>SUM(J2:J27)</f>
+      <c r="J35" s="10">
+        <f>SUM(J2:J30)</f>
         <v>830</v>
       </c>
-      <c r="K32" s="10">
-        <f>SUM(K2:K27)</f>
+      <c r="K35" s="10">
+        <f>SUM(K2:K30)</f>
         <v>1830</v>
       </c>
-      <c r="L32" s="10">
-        <f t="shared" ref="L32:N32" si="1">SUM(L2:L27)</f>
+      <c r="L35" s="10">
+        <f t="shared" ref="L35:N35" si="1">SUM(L2:L30)</f>
         <v>1210</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M35" s="10">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="N35" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N32" s="10">
-        <f t="shared" si="1"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A36" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="11">
+        <v>74</v>
+      </c>
+      <c r="C36" s="11">
         <v>0</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <v>108.99</v>
+      </c>
+      <c r="F36" s="11">
+        <v>125.18</v>
+      </c>
+      <c r="G36" s="11">
+        <v>414.28</v>
+      </c>
+      <c r="H36" s="11">
+        <v>108.99</v>
+      </c>
+      <c r="I36" s="11">
+        <v>25</v>
+      </c>
+      <c r="J36" s="11">
+        <v>118.8</v>
+      </c>
+      <c r="K36" s="11">
+        <v>28</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>50</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11"/>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="11">
-        <v>74</v>
-      </c>
-      <c r="C33" s="11">
-        <v>0</v>
-      </c>
-      <c r="D33" s="11">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11">
-        <v>108.99</v>
-      </c>
-      <c r="F33" s="11">
-        <v>125.18</v>
-      </c>
-      <c r="G33" s="11">
-        <v>414.28</v>
-      </c>
-      <c r="H33" s="11">
-        <v>108.99</v>
-      </c>
-      <c r="I33" s="11">
-        <v>25</v>
-      </c>
-      <c r="J33" s="11">
-        <v>118.8</v>
-      </c>
-      <c r="K33" s="11">
-        <v>28</v>
-      </c>
-      <c r="L33" s="11">
-        <v>0</v>
-      </c>
-      <c r="M33" s="11">
-        <v>0</v>
-      </c>
-      <c r="N33" s="11">
-        <v>0</v>
-      </c>
-      <c r="O33" s="11"/>
-    </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="12" t="s">
+    <row r="37" spans="1:15" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A37" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="12">
-        <f>B32-B33</f>
+      <c r="B37" s="12">
+        <f>B35-B36</f>
         <v>116</v>
       </c>
-      <c r="C34" s="12">
-        <f t="shared" ref="C34:G34" si="2">B34+C32-C33</f>
+      <c r="C37" s="12">
+        <f t="shared" ref="C37:G37" si="2">B37+C35-C36</f>
         <v>1016</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D37" s="12">
         <f t="shared" si="2"/>
         <v>1516</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E37" s="12">
         <f t="shared" si="2"/>
         <v>2607.0100000000002</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F37" s="12">
         <f t="shared" si="2"/>
         <v>3531.8300000000004</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G37" s="12">
         <f t="shared" si="2"/>
         <v>4267.55</v>
       </c>
-      <c r="H34" s="12">
-        <f>G34+H32-H33</f>
+      <c r="H37" s="12">
+        <f>G37+H35-H36</f>
         <v>5188.5600000000004</v>
       </c>
-      <c r="I34" s="12">
-        <f>H34+I32-I33</f>
+      <c r="I37" s="12">
+        <f>H37+I35-I36</f>
         <v>5743.56</v>
       </c>
-      <c r="J34" s="12">
-        <f>I34+J32-J33</f>
+      <c r="J37" s="12">
+        <f>I37+J35-J36</f>
         <v>6454.76</v>
       </c>
-      <c r="K34" s="12">
-        <f>J34+K32-K33</f>
+      <c r="K37" s="12">
+        <f>J37+K35-K36</f>
         <v>8256.76</v>
       </c>
-      <c r="L34" s="12">
-        <f>K34+L32-L33</f>
+      <c r="L37" s="12">
+        <f>K37+L35-L36</f>
         <v>9466.76</v>
       </c>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
+      <c r="M37" s="12">
+        <f>L37+M35-M36</f>
+        <v>11016.76</v>
+      </c>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -23398,7 +23606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA511E68-F71D-47C7-9726-D5C78DCB2659}">
   <dimension ref="A1:XEZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
@@ -23416,7 +23624,7 @@
         <v>115</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>128</v>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chiming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F50EF4-4F2A-4084-BD57-366B4754A0F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EFF128-2986-4184-893B-3E863A0A32B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="195">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,9 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.11.033</t>
-  </si>
-  <si>
     <t>2020.05.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -702,9 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>backup5</t>
-  </si>
-  <si>
     <t>backup6</t>
   </si>
   <si>
@@ -738,10 +726,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵德明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李振杰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -755,6 +739,37 @@
   </si>
   <si>
     <t>刘峰全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.07.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘菊英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.04</t>
+  </si>
+  <si>
+    <t>2019.11.05</t>
+  </si>
+  <si>
+    <t>2019.11.06</t>
+  </si>
+  <si>
+    <t>2019.11.07</t>
+  </si>
+  <si>
+    <t>2019.11.08</t>
+  </si>
+  <si>
+    <t>大旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石玉岩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,7 +1084,7 @@
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="85">
     <dxf>
       <font>
         <b val="0"/>
@@ -1082,25 +1097,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="微软雅黑"/>
         <charset val="134"/>
         <scheme val="none"/>
@@ -1161,13 +1158,6 @@
       </font>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1179,18 +1169,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="微软雅黑"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1209,12 +1192,6 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1464,6 +1441,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <top style="thin">
           <color theme="1"/>
         </top>
@@ -1488,9 +1472,148 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color theme="1"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -2222,112 +2345,118 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:X103" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
-  <autoFilter ref="A1:X103" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K103">
-    <sortCondition ref="A1:A103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:X104" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+  <autoFilter ref="A1:X104" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K104">
+    <sortCondition ref="A1:A104"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="67"/>
-    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="66"/>
-    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="65"/>
-    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="64"/>
-    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.12.08" dataDxfId="63"/>
-    <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="62"/>
-    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2020.2.29" dataDxfId="61"/>
-    <tableColumn id="17" xr3:uid="{8A278776-53B1-4C9B-B0FD-D1404C201AA6}" name="2020.04.05" dataDxfId="60"/>
-    <tableColumn id="20" xr3:uid="{ED6C027C-9006-4261-AFFD-F06794A1740D}" name="2020.05.01（上师广州放生）" dataDxfId="59"/>
-    <tableColumn id="18" xr3:uid="{423FF7CE-5B30-4588-B80E-563F413C6E1E}" name="2020.05.23" dataDxfId="58"/>
-    <tableColumn id="19" xr3:uid="{0F0896F2-5427-49E2-B6B4-0CDBAED03178}" name="2020.06.06" dataDxfId="57"/>
-    <tableColumn id="21" xr3:uid="{5E217A0B-08DF-4084-931D-0B63C054969E}" name="2020.06.21" dataDxfId="56"/>
-    <tableColumn id="22" xr3:uid="{EB405173-0F7E-49B4-A868-D6A6AE1704A3}" name="backup5" dataDxfId="55"/>
-    <tableColumn id="23" xr3:uid="{43AF4CEB-DEA3-4A15-8286-3961662C210F}" name="backup6" dataDxfId="54"/>
-    <tableColumn id="24" xr3:uid="{2A0F6EB2-AF60-49D2-BEB5-6B9F2534D18A}" name="backup7" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="75"/>
+    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="74"/>
+    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="73"/>
+    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="72"/>
+    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="71"/>
+    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="70"/>
+    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.12.08" dataDxfId="69"/>
+    <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="68"/>
+    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2020.2.29" dataDxfId="67"/>
+    <tableColumn id="17" xr3:uid="{8A278776-53B1-4C9B-B0FD-D1404C201AA6}" name="2020.04.05" dataDxfId="66"/>
+    <tableColumn id="20" xr3:uid="{ED6C027C-9006-4261-AFFD-F06794A1740D}" name="2020.05.01（上师广州放生）" dataDxfId="65"/>
+    <tableColumn id="18" xr3:uid="{423FF7CE-5B30-4588-B80E-563F413C6E1E}" name="2020.05.23" dataDxfId="64"/>
+    <tableColumn id="19" xr3:uid="{0F0896F2-5427-49E2-B6B4-0CDBAED03178}" name="2020.06.06" dataDxfId="63"/>
+    <tableColumn id="21" xr3:uid="{5E217A0B-08DF-4084-931D-0B63C054969E}" name="2020.06.21" dataDxfId="62"/>
+    <tableColumn id="22" xr3:uid="{EB405173-0F7E-49B4-A868-D6A6AE1704A3}" name="2020.07.19" dataDxfId="61"/>
+    <tableColumn id="23" xr3:uid="{43AF4CEB-DEA3-4A15-8286-3961662C210F}" name="backup6" dataDxfId="60"/>
+    <tableColumn id="24" xr3:uid="{2A0F6EB2-AF60-49D2-BEB5-6B9F2534D18A}" name="backup7" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A106:X109" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
-  <autoFilter ref="A106:X109" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A107:X110" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="A107:X110" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="42"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="39"/>
-    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="38"/>
-    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="37"/>
-    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="36"/>
-    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="35"/>
-    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="34"/>
-    <tableColumn id="18" xr3:uid="{7FDCCA4B-7D79-48EF-9B59-82E552EE633B}" name="列172" dataDxfId="33"/>
-    <tableColumn id="19" xr3:uid="{7ED92CF3-8A37-4CDD-BFF2-53F59BE535DE}" name="列173" dataDxfId="32"/>
-    <tableColumn id="20" xr3:uid="{AD16709C-E6EA-416A-927B-641AFF440CE0}" name="列174" dataDxfId="31"/>
-    <tableColumn id="21" xr3:uid="{9CAE81C2-021C-4481-A730-F07863C18814}" name="列175" dataDxfId="30"/>
-    <tableColumn id="22" xr3:uid="{E0EF79EF-1156-4A8D-8C2B-47AAD03D6260}" name="列176" dataDxfId="29"/>
-    <tableColumn id="23" xr3:uid="{325656D5-28D0-4734-B242-21697FBCA2BF}" name="列177" dataDxfId="28"/>
-    <tableColumn id="24" xr3:uid="{AE00EEF4-07A4-4FBF-B7F0-DC7B1518D893}" name="列178" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="41"/>
+    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{7FDCCA4B-7D79-48EF-9B59-82E552EE633B}" name="列172" dataDxfId="39"/>
+    <tableColumn id="19" xr3:uid="{7ED92CF3-8A37-4CDD-BFF2-53F59BE535DE}" name="列173" dataDxfId="38"/>
+    <tableColumn id="20" xr3:uid="{AD16709C-E6EA-416A-927B-641AFF440CE0}" name="列174" dataDxfId="37"/>
+    <tableColumn id="21" xr3:uid="{9CAE81C2-021C-4481-A730-F07863C18814}" name="列175" dataDxfId="36"/>
+    <tableColumn id="22" xr3:uid="{E0EF79EF-1156-4A8D-8C2B-47AAD03D6260}" name="列176" dataDxfId="35"/>
+    <tableColumn id="23" xr3:uid="{325656D5-28D0-4734-B242-21697FBCA2BF}" name="列177" dataDxfId="34"/>
+    <tableColumn id="24" xr3:uid="{AE00EEF4-07A4-4FBF-B7F0-DC7B1518D893}" name="列178" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:N30" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
-  <autoFilter ref="A1:N30" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
-    <sortCondition ref="A1:A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:T33" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21">
+  <autoFilter ref="A1:T33" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
+    <sortCondition ref="A1:A33"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2020.05.23" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{D450CAFD-4280-4A57-A72C-AC9C82E67796}" name="2020.06.06" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2019.11.033" dataDxfId="9"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2020.05.23" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{D450CAFD-4280-4A57-A72C-AC9C82E67796}" name="2020.06.06" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2020.07.19" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{C889229E-9847-4F55-9879-D26AC9B0F475}" name="2019.11.03" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{7689C2A1-EFFD-4322-8AD7-70E1C454E68A}" name="2019.11.04" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{265BD7D6-05CA-4F1A-9BFC-1FE1F7E043B7}" name="2019.11.05" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{A7895CF2-85F3-4C44-8D4E-04972226291E}" name="2019.11.06" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{A6B31E82-C02B-4C04-BEFE-5F9FB8712087}" name="2019.11.07" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{C83BED72-B38A-4A99-BC22-93A433DF42D7}" name="2019.11.08" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
   <autoFilter ref="A1:E5" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B5">
     <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{2511DB9F-444E-4C03-8A9E-5A948ADC9CB0}" name="2019.11.02" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{FFAB1BAB-E2B7-413C-B555-13FE1D11ACDB}" name="2019.11.03" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{2511DB9F-444E-4C03-8A9E-5A948ADC9CB0}" name="2019.11.02" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{FFAB1BAB-E2B7-413C-B555-13FE1D11ACDB}" name="2019.11.03" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2630,12 +2759,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X125"/>
+  <dimension ref="A1:X126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="O115" sqref="O115"/>
+      <selection pane="topRight" activeCell="P126" sqref="P126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
@@ -2701,25 +2830,25 @@
         <v>148</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -2780,7 +2909,9 @@
       <c r="U2" s="6">
         <v>2000</v>
       </c>
-      <c r="V2" s="6"/>
+      <c r="V2" s="6">
+        <v>1800</v>
+      </c>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
     </row>
@@ -2846,7 +2977,9 @@
       <c r="U3" s="6">
         <v>200</v>
       </c>
-      <c r="V3" s="6"/>
+      <c r="V3" s="6">
+        <v>500</v>
+      </c>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
@@ -2910,7 +3043,9 @@
       <c r="U4" s="6">
         <v>100</v>
       </c>
-      <c r="V4" s="6"/>
+      <c r="V4" s="6">
+        <v>100</v>
+      </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
     </row>
@@ -2966,7 +3101,9 @@
       <c r="U5" s="6">
         <v>100</v>
       </c>
-      <c r="V5" s="6"/>
+      <c r="V5" s="6">
+        <v>80</v>
+      </c>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
@@ -3016,7 +3153,9 @@
       <c r="U6" s="6">
         <v>200</v>
       </c>
-      <c r="V6" s="6"/>
+      <c r="V6" s="6">
+        <v>100</v>
+      </c>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
     </row>
@@ -3076,7 +3215,7 @@
     </row>
     <row r="8" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3122,7 +3261,9 @@
         <v>100</v>
       </c>
       <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="V8" s="6">
+        <v>100</v>
+      </c>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
     </row>
@@ -3178,7 +3319,9 @@
       <c r="U9" s="6">
         <v>1000</v>
       </c>
-      <c r="V9" s="6"/>
+      <c r="V9" s="6">
+        <v>800</v>
+      </c>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
     </row>
@@ -3224,7 +3367,9 @@
       <c r="U10" s="6">
         <v>300</v>
       </c>
-      <c r="V10" s="6"/>
+      <c r="V10" s="6">
+        <v>300</v>
+      </c>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
     </row>
@@ -3362,7 +3507,9 @@
       <c r="U13" s="6">
         <v>200</v>
       </c>
-      <c r="V13" s="6"/>
+      <c r="V13" s="6">
+        <v>200</v>
+      </c>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
     </row>
@@ -3574,7 +3721,9 @@
         <v>300</v>
       </c>
       <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
+      <c r="V19" s="6">
+        <v>300</v>
+      </c>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
     </row>
@@ -3618,7 +3767,9 @@
         <v>50</v>
       </c>
       <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
+      <c r="V20" s="6">
+        <v>50</v>
+      </c>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
     </row>
@@ -3690,7 +3841,9 @@
       <c r="U22" s="6">
         <v>50</v>
       </c>
-      <c r="V22" s="6"/>
+      <c r="V22" s="6">
+        <v>200</v>
+      </c>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
     </row>
@@ -3724,7 +3877,9 @@
       <c r="U23" s="6">
         <v>100</v>
       </c>
-      <c r="V23" s="6"/>
+      <c r="V23" s="6">
+        <v>100</v>
+      </c>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
     </row>
@@ -5812,7 +5967,9 @@
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
+      <c r="V92" s="6">
+        <v>200</v>
+      </c>
       <c r="W92" s="6"/>
       <c r="X92" s="6"/>
     </row>
@@ -5848,7 +6005,7 @@
     </row>
     <row r="94" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -5874,13 +6031,15 @@
       <c r="U94" s="6">
         <v>50</v>
       </c>
-      <c r="V94" s="6"/>
+      <c r="V94" s="6">
+        <v>50</v>
+      </c>
       <c r="W94" s="6"/>
       <c r="X94" s="6"/>
     </row>
     <row r="95" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -5906,13 +6065,15 @@
       <c r="U95" s="6">
         <v>300</v>
       </c>
-      <c r="V95" s="6"/>
+      <c r="V95" s="6">
+        <v>300</v>
+      </c>
       <c r="W95" s="6"/>
       <c r="X95" s="6"/>
     </row>
     <row r="96" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -5938,7 +6099,9 @@
       <c r="U96" s="6">
         <v>100</v>
       </c>
-      <c r="V96" s="6"/>
+      <c r="V96" s="6">
+        <v>100</v>
+      </c>
       <c r="W96" s="6"/>
       <c r="X96" s="6"/>
     </row>
@@ -5970,13 +6133,15 @@
       <c r="U97" s="6">
         <v>100</v>
       </c>
-      <c r="V97" s="6"/>
+      <c r="V97" s="6">
+        <v>100</v>
+      </c>
       <c r="W97" s="6"/>
       <c r="X97" s="6"/>
     </row>
     <row r="98" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -6002,13 +6167,15 @@
       <c r="U98" s="6">
         <v>50</v>
       </c>
-      <c r="V98" s="6"/>
+      <c r="V98" s="6">
+        <v>50</v>
+      </c>
       <c r="W98" s="6"/>
       <c r="X98" s="6"/>
     </row>
     <row r="99" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -6038,7 +6205,7 @@
     </row>
     <row r="100" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -6068,7 +6235,7 @@
     </row>
     <row r="101" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -6098,7 +6265,7 @@
     </row>
     <row r="102" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -6128,14 +6295,12 @@
     </row>
     <row r="103" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="6">
-        <v>50</v>
-      </c>
+      <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -6152,437 +6317,469 @@
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
-      <c r="V103" s="6"/>
+      <c r="V103" s="6">
+        <v>800</v>
+      </c>
       <c r="W103" s="6"/>
       <c r="X103" s="6"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:24" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A104" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6">
+        <v>50</v>
+      </c>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="6"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="6"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A105" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B104" s="16">
-        <f t="shared" ref="B104:T104" si="0">SUM(B2:B103)</f>
+      <c r="B105" s="16">
+        <f>SUM(B2:B104)</f>
         <v>1980</v>
       </c>
-      <c r="C104" s="16">
-        <f t="shared" si="0"/>
+      <c r="C105" s="16">
+        <f>SUM(C2:C104)</f>
         <v>1166</v>
       </c>
-      <c r="D104" s="16">
-        <f t="shared" si="0"/>
+      <c r="D105" s="16">
+        <f>SUM(D2:D104)</f>
         <v>12195</v>
       </c>
-      <c r="E104" s="16">
-        <f t="shared" si="0"/>
+      <c r="E105" s="16">
+        <f>SUM(E2:E104)</f>
         <v>5530</v>
       </c>
-      <c r="F104" s="16">
-        <f t="shared" si="0"/>
+      <c r="F105" s="16">
+        <f>SUM(F2:F104)</f>
         <v>2517</v>
       </c>
-      <c r="G104" s="16">
-        <f t="shared" si="0"/>
+      <c r="G105" s="16">
+        <f>SUM(G2:G104)</f>
         <v>6563.88</v>
       </c>
-      <c r="H104" s="16">
-        <f t="shared" si="0"/>
+      <c r="H105" s="16">
+        <f>SUM(H2:H104)</f>
         <v>3700</v>
       </c>
-      <c r="I104" s="16">
-        <f t="shared" si="0"/>
+      <c r="I105" s="16">
+        <f>SUM(I2:I104)</f>
         <v>5550</v>
       </c>
-      <c r="J104" s="16">
-        <f t="shared" si="0"/>
+      <c r="J105" s="16">
+        <f>SUM(J2:J104)</f>
         <v>1350</v>
       </c>
-      <c r="K104" s="16">
-        <f t="shared" si="0"/>
+      <c r="K105" s="16">
+        <f>SUM(K2:K104)</f>
         <v>3900</v>
       </c>
-      <c r="L104" s="16">
-        <f t="shared" si="0"/>
+      <c r="L105" s="16">
+        <f>SUM(L2:L104)</f>
         <v>3750</v>
       </c>
-      <c r="M104" s="16">
-        <f t="shared" si="0"/>
+      <c r="M105" s="16">
+        <f>SUM(M2:M104)</f>
         <v>3196</v>
       </c>
-      <c r="N104" s="16">
-        <f t="shared" si="0"/>
+      <c r="N105" s="16">
+        <f>SUM(N2:N104)</f>
         <v>1750</v>
       </c>
-      <c r="O104" s="16">
-        <f t="shared" si="0"/>
+      <c r="O105" s="16">
+        <f>SUM(O2:O104)</f>
         <v>3530</v>
       </c>
-      <c r="P104" s="16">
-        <f t="shared" si="0"/>
+      <c r="P105" s="16">
+        <f>SUM(P2:P104)</f>
         <v>2454</v>
       </c>
-      <c r="Q104" s="16">
-        <f t="shared" si="0"/>
+      <c r="Q105" s="16">
+        <f>SUM(Q2:Q104)</f>
         <v>6150</v>
       </c>
-      <c r="R104" s="3">
-        <f t="shared" si="0"/>
+      <c r="R105" s="3">
+        <f>SUM(R2:R104)</f>
         <v>0</v>
       </c>
-      <c r="S104" s="3">
-        <f t="shared" si="0"/>
+      <c r="S105" s="3">
+        <f>SUM(S2:S104)</f>
         <v>5500</v>
       </c>
-      <c r="T104" s="16">
-        <f t="shared" si="0"/>
+      <c r="T105" s="16">
+        <f>SUM(T2:T104)</f>
         <v>5000</v>
       </c>
-      <c r="U104" s="16">
-        <f>SUM(U2:U103)</f>
+      <c r="U105" s="16">
+        <f>SUM(U2:U104)</f>
         <v>6250</v>
       </c>
-      <c r="V104" s="16">
-        <f>SUM(V2:V103)</f>
+      <c r="V105" s="16">
+        <f>SUM(V2:V104)</f>
+        <v>6230</v>
+      </c>
+      <c r="W105" s="16">
+        <f>SUM(W2:W104)</f>
         <v>0</v>
       </c>
-      <c r="W104" s="16">
-        <f>SUM(W2:W103)</f>
+      <c r="X105" s="16">
+        <f>SUM(X2:X104)</f>
         <v>0</v>
-      </c>
-      <c r="X104" s="16">
-        <f>SUM(X2:X103)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A106" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="S106" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="T106" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="U106" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="V106" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="W106" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="X106" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G107" s="1">
-        <v>2100</v>
+        <v>15</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W107" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="X107" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O108" s="1">
-        <v>200</v>
+        <v>56</v>
+      </c>
+      <c r="G108" s="1">
+        <v>2100</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O109" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B110" s="1">
         <v>570</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C110" s="1">
         <v>1080</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D110" s="1">
         <v>0</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E110" s="1">
         <v>3025</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F110" s="1">
         <v>2154</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G110" s="1">
         <v>3200</v>
       </c>
-      <c r="H109" s="1">
+      <c r="H110" s="1">
         <v>3500</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I110" s="1">
         <v>4000</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J110" s="1">
         <v>3555</v>
       </c>
-      <c r="K109" s="1">
+      <c r="K110" s="1">
         <v>4046</v>
       </c>
-      <c r="O109" s="1">
+      <c r="O110" s="1">
         <v>4100</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A111" s="4" t="s">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A112" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B111" s="4">
-        <f>SUM(B107:B109)</f>
+      <c r="B112" s="4">
+        <f>SUM(B108:B110)</f>
         <v>570</v>
       </c>
-      <c r="C111" s="4">
-        <f t="shared" ref="C111:G111" si="1">SUM(C107:C109)</f>
+      <c r="C112" s="4">
+        <f t="shared" ref="C112:G112" si="0">SUM(C108:C110)</f>
         <v>1080</v>
       </c>
-      <c r="D111" s="4">
-        <f t="shared" si="1"/>
+      <c r="D112" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E111" s="4">
-        <f t="shared" si="1"/>
+      <c r="E112" s="4">
+        <f t="shared" si="0"/>
         <v>3025</v>
       </c>
-      <c r="F111" s="4">
-        <f t="shared" si="1"/>
+      <c r="F112" s="4">
+        <f t="shared" si="0"/>
         <v>2154</v>
       </c>
-      <c r="G111" s="4">
-        <f t="shared" si="1"/>
+      <c r="G112" s="4">
+        <f t="shared" si="0"/>
         <v>5300</v>
       </c>
-      <c r="H111" s="4">
+      <c r="H112" s="4">
         <v>3500</v>
       </c>
-      <c r="I111" s="4">
+      <c r="I112" s="4">
         <v>4000</v>
       </c>
-      <c r="J111" s="4">
+      <c r="J112" s="4">
         <v>3555</v>
       </c>
-      <c r="K111" s="4">
+      <c r="K112" s="4">
         <v>4046</v>
       </c>
-      <c r="L111" s="4">
+      <c r="L112" s="4">
         <v>3490</v>
       </c>
-      <c r="M111" s="4">
+      <c r="M112" s="4">
         <v>3500</v>
       </c>
-      <c r="N111" s="4">
+      <c r="N112" s="4">
         <v>3500</v>
       </c>
-      <c r="O111" s="4">
+      <c r="O112" s="4">
         <f>SUM(表3[列15])</f>
         <v>4300</v>
       </c>
-      <c r="P111" s="4">
+      <c r="P112" s="4">
         <v>6000</v>
       </c>
-      <c r="Q111" s="4">
+      <c r="Q112" s="4">
         <v>4030</v>
       </c>
-      <c r="R111" s="4">
+      <c r="R112" s="4">
         <v>4000</v>
       </c>
-      <c r="S111" s="4">
+      <c r="S112" s="4">
         <v>4125</v>
       </c>
-      <c r="T111" s="4">
+      <c r="T112" s="4">
         <v>4125</v>
       </c>
-      <c r="U111" s="4">
+      <c r="U112" s="4">
         <v>5100</v>
       </c>
-      <c r="V111" s="4">
+      <c r="V112" s="4">
+        <v>5700</v>
+      </c>
+      <c r="W112" s="4">
         <v>0</v>
       </c>
-      <c r="W111" s="4">
+      <c r="X112" s="4">
         <v>0</v>
       </c>
-      <c r="X111" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A112" s="5" t="s">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A113" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B112" s="5">
-        <f>B104-B111</f>
+      <c r="B113" s="5">
+        <f>B105-B112</f>
         <v>1410</v>
       </c>
-      <c r="C112" s="5">
-        <f t="shared" ref="C112:M112" si="2">B112+C104-C111</f>
+      <c r="C113" s="5">
+        <f t="shared" ref="C113:M113" si="1">B113+C105-C112</f>
         <v>1496</v>
       </c>
-      <c r="D112" s="5">
-        <f t="shared" si="2"/>
+      <c r="D113" s="5">
+        <f t="shared" si="1"/>
         <v>13691</v>
       </c>
-      <c r="E112" s="5">
-        <f t="shared" si="2"/>
+      <c r="E113" s="5">
+        <f t="shared" si="1"/>
         <v>16196</v>
       </c>
-      <c r="F112" s="5">
-        <f t="shared" si="2"/>
+      <c r="F113" s="5">
+        <f t="shared" si="1"/>
         <v>16559</v>
       </c>
-      <c r="G112" s="5">
-        <f t="shared" si="2"/>
+      <c r="G113" s="5">
+        <f t="shared" si="1"/>
         <v>17822.88</v>
       </c>
-      <c r="H112" s="5">
-        <f t="shared" si="2"/>
+      <c r="H113" s="5">
+        <f t="shared" si="1"/>
         <v>18022.88</v>
       </c>
-      <c r="I112" s="5">
-        <f t="shared" si="2"/>
+      <c r="I113" s="5">
+        <f t="shared" si="1"/>
         <v>19572.88</v>
       </c>
-      <c r="J112" s="5">
-        <f t="shared" si="2"/>
+      <c r="J113" s="5">
+        <f t="shared" si="1"/>
         <v>17367.88</v>
       </c>
-      <c r="K112" s="5">
-        <f t="shared" si="2"/>
+      <c r="K113" s="5">
+        <f t="shared" si="1"/>
         <v>17221.88</v>
       </c>
-      <c r="L112" s="5">
-        <f t="shared" si="2"/>
+      <c r="L113" s="5">
+        <f t="shared" si="1"/>
         <v>17481.88</v>
       </c>
-      <c r="M112" s="5">
-        <f t="shared" si="2"/>
+      <c r="M113" s="5">
+        <f t="shared" si="1"/>
         <v>17177.88</v>
       </c>
-      <c r="N112" s="5">
-        <f t="shared" ref="N112" si="3">M112+N104-N111</f>
+      <c r="N113" s="5">
+        <f t="shared" ref="N113" si="2">M113+N105-N112</f>
         <v>15427.880000000001</v>
       </c>
-      <c r="O112" s="5">
-        <f t="shared" ref="O112:Q112" si="4">N112+O104-O111</f>
+      <c r="O113" s="5">
+        <f t="shared" ref="O113:Q113" si="3">N113+O105-O112</f>
         <v>14657.880000000001</v>
       </c>
-      <c r="P112" s="5">
-        <f t="shared" si="4"/>
+      <c r="P113" s="5">
+        <f t="shared" si="3"/>
         <v>11111.880000000001</v>
       </c>
-      <c r="Q112" s="5">
-        <f t="shared" si="4"/>
+      <c r="Q113" s="5">
+        <f t="shared" si="3"/>
         <v>13231.880000000001</v>
       </c>
-      <c r="R112" s="5">
-        <f>Q112+R104-R111</f>
+      <c r="R113" s="5">
+        <f>Q113+R105-R112</f>
         <v>9231.880000000001</v>
       </c>
-      <c r="S112" s="5">
-        <f t="shared" ref="S112" si="5">R112+S104-S111</f>
+      <c r="S113" s="5">
+        <f t="shared" ref="S113" si="4">R113+S105-S112</f>
         <v>10606.880000000001</v>
       </c>
-      <c r="T112" s="5">
-        <f t="shared" ref="T112" si="6">S112+T104-T111</f>
+      <c r="T113" s="5">
+        <f t="shared" ref="T113" si="5">S113+T105-T112</f>
         <v>11481.880000000001</v>
       </c>
-      <c r="U112" s="5">
-        <f t="shared" ref="U112" si="7">T112+U104-U111</f>
+      <c r="U113" s="5">
+        <f t="shared" ref="U113" si="6">T113+U105-U112</f>
         <v>12631.880000000001</v>
       </c>
-      <c r="V112" s="5">
-        <f t="shared" ref="V112" si="8">U112+V104-V111</f>
-        <v>12631.880000000001</v>
-      </c>
-      <c r="W112" s="5">
-        <f t="shared" ref="W112" si="9">V112+W104-W111</f>
-        <v>12631.880000000001</v>
-      </c>
-      <c r="X112" s="5">
-        <f t="shared" ref="X112" si="10">W112+X104-X111</f>
-        <v>12631.880000000001</v>
+      <c r="V113" s="5">
+        <f t="shared" ref="V113" si="7">U113+V105-V112</f>
+        <v>13161.880000000001</v>
+      </c>
+      <c r="W113" s="5">
+        <f t="shared" ref="W113" si="8">V113+W105-W112</f>
+        <v>13161.880000000001</v>
+      </c>
+      <c r="X113" s="5">
+        <f t="shared" ref="X113" si="9">W113+X105-X112</f>
+        <v>13161.880000000001</v>
       </c>
     </row>
-    <row r="113" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I113" s="2"/>
+    <row r="114" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I115" s="2"/>
-      <c r="O115" s="1">
-        <f>烟供随喜!$M$37+会供随喜!$B$12+U112</f>
-        <v>24051.33</v>
+    <row r="116" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I116" s="2"/>
+      <c r="O116" s="1">
+        <f>烟供随喜!$O$40+会供随喜!$B$12+V113</f>
+        <v>26009.88</v>
       </c>
     </row>
-    <row r="117" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I117" s="2"/>
+    <row r="118" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I119" s="2"/>
+    <row r="120" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I121" s="2"/>
+    <row r="122" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I123" s="2"/>
+    <row r="124" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="9:15" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I125" s="2"/>
+    <row r="126" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I126" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6602,11 +6799,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
-  <dimension ref="A1:XFD37"/>
+  <dimension ref="A1:XFD40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M37" sqref="M37"/>
+      <selection pane="topRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -6650,22 +6847,32 @@
         <v>154</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
+      <c r="P1" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
@@ -23065,6 +23272,9 @@
       <c r="M2" s="6">
         <v>200</v>
       </c>
+      <c r="N2" s="6">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
@@ -23076,7 +23286,7 @@
     </row>
     <row r="4" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="6">
         <v>50</v>
@@ -23127,6 +23337,9 @@
       <c r="M6" s="6">
         <v>200</v>
       </c>
+      <c r="N6" s="6">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
@@ -23165,6 +23378,9 @@
       <c r="M7" s="6">
         <v>30</v>
       </c>
+      <c r="N7" s="6">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
@@ -23202,6 +23418,9 @@
       <c r="M9" s="6">
         <v>100</v>
       </c>
+      <c r="N9" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
@@ -23234,6 +23453,9 @@
       <c r="M10" s="6">
         <v>50</v>
       </c>
+      <c r="N10" s="6">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
@@ -23281,6 +23503,9 @@
       <c r="M14" s="6">
         <v>100</v>
       </c>
+      <c r="N14" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
@@ -23298,299 +23523,358 @@
       <c r="M15" s="6">
         <v>400</v>
       </c>
+      <c r="N15" s="6">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:16384" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N16" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="N17" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F18" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+    <row r="19" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E19" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
+    <row r="20" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D20" s="6">
         <v>100</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
     </row>
-    <row r="19" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
+    <row r="21" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H21" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
+    <row r="22" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H22" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
+    <row r="23" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K23" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
+    <row r="24" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K24" s="6">
         <v>100</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L24" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
+    <row r="25" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H25" s="6">
         <v>100</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K25" s="6">
         <v>300</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M25" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="6">
+    <row r="26" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
+    <row r="27" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K27" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="M26" s="6">
+    <row r="28" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M28" s="6">
         <v>50</v>
       </c>
+      <c r="N28" s="6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
+    <row r="29" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L29" s="6">
         <v>50</v>
       </c>
+      <c r="N29" s="6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="M28" s="6">
+    <row r="30" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="6">
         <v>200</v>
       </c>
+      <c r="N30" s="6">
+        <v>200</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="M29" s="6">
+    <row r="31" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A31" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N31" s="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A32" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="M32" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
+    <row r="33" spans="1:20" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A33" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B33" s="6">
         <v>50</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M33" s="6">
         <v>20</v>
       </c>
+      <c r="N33" s="6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="35" spans="1:15" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="10" t="s">
+    <row r="38" spans="1:20" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A38" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="10">
-        <f t="shared" ref="B35:H35" si="0">SUM(B2:B30)</f>
+      <c r="B38" s="10">
+        <f>SUM(B2:B33)</f>
         <v>190</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C38" s="10">
+        <f>SUM(C2:C33)</f>
+        <v>900</v>
+      </c>
+      <c r="D38" s="10">
+        <f>SUM(D2:D33)</f>
+        <v>500</v>
+      </c>
+      <c r="E38" s="10">
+        <f>SUM(E2:E33)</f>
+        <v>1200</v>
+      </c>
+      <c r="F38" s="10">
+        <f>SUM(F2:F33)</f>
+        <v>1050</v>
+      </c>
+      <c r="G38" s="10">
+        <f>SUM(G2:G33)</f>
+        <v>1150</v>
+      </c>
+      <c r="H38" s="10">
+        <f>SUM(H2:H33)</f>
+        <v>1030</v>
+      </c>
+      <c r="I38" s="10">
+        <f>SUM(I2:I33)</f>
+        <v>580</v>
+      </c>
+      <c r="J38" s="10">
+        <f>SUM(J2:J33)</f>
+        <v>830</v>
+      </c>
+      <c r="K38" s="10">
+        <f>SUM(K2:K33)</f>
+        <v>1830</v>
+      </c>
+      <c r="L38" s="10">
+        <f>SUM(L2:L33)</f>
+        <v>1210</v>
+      </c>
+      <c r="M38" s="10">
+        <f>SUM(M2:M33)</f>
+        <v>1600</v>
+      </c>
+      <c r="N38" s="10">
+        <f>SUM(N2:N33)</f>
+        <v>1651</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="11">
+        <v>74</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <v>108.99</v>
+      </c>
+      <c r="F39" s="11">
+        <v>125.18</v>
+      </c>
+      <c r="G39" s="11">
+        <v>414.28</v>
+      </c>
+      <c r="H39" s="11">
+        <v>108.99</v>
+      </c>
+      <c r="I39" s="11">
+        <v>25</v>
+      </c>
+      <c r="J39" s="11">
+        <v>118.8</v>
+      </c>
+      <c r="K39" s="11">
+        <v>28</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
+        <v>50</v>
+      </c>
+      <c r="N39" s="11">
+        <v>52</v>
+      </c>
+      <c r="O39" s="11">
+        <v>170.45</v>
+      </c>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+    </row>
+    <row r="40" spans="1:20" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="12">
+        <f>B38-B39</f>
+        <v>116</v>
+      </c>
+      <c r="C40" s="12">
+        <f t="shared" ref="C40:G40" si="0">B40+C38-C39</f>
+        <v>1016</v>
+      </c>
+      <c r="D40" s="12">
         <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="D35" s="10">
+        <v>1516</v>
+      </c>
+      <c r="E40" s="12">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="E35" s="10">
+        <v>2607.0100000000002</v>
+      </c>
+      <c r="F40" s="12">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="F35" s="10">
+        <v>3531.8300000000004</v>
+      </c>
+      <c r="G40" s="12">
         <f t="shared" si="0"/>
-        <v>1050</v>
-      </c>
-      <c r="G35" s="10">
-        <f t="shared" si="0"/>
-        <v>1150</v>
-      </c>
-      <c r="H35" s="10">
-        <f t="shared" si="0"/>
-        <v>1030</v>
-      </c>
-      <c r="I35" s="10">
-        <f>SUM(I2:I30)</f>
-        <v>580</v>
-      </c>
-      <c r="J35" s="10">
-        <f>SUM(J2:J30)</f>
-        <v>830</v>
-      </c>
-      <c r="K35" s="10">
-        <f>SUM(K2:K30)</f>
-        <v>1830</v>
-      </c>
-      <c r="L35" s="10">
-        <f t="shared" ref="L35:N35" si="1">SUM(L2:L30)</f>
-        <v>1210</v>
-      </c>
-      <c r="M35" s="10">
+        <v>4267.55</v>
+      </c>
+      <c r="H40" s="12">
+        <f t="shared" ref="H40:O40" si="1">G40+H38-H39</f>
+        <v>5188.5600000000004</v>
+      </c>
+      <c r="I40" s="12">
         <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="N35" s="10">
+        <v>5743.56</v>
+      </c>
+      <c r="J40" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="10"/>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A36" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="11">
-        <v>74</v>
-      </c>
-      <c r="C36" s="11">
-        <v>0</v>
-      </c>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="E36" s="11">
-        <v>108.99</v>
-      </c>
-      <c r="F36" s="11">
-        <v>125.18</v>
-      </c>
-      <c r="G36" s="11">
-        <v>414.28</v>
-      </c>
-      <c r="H36" s="11">
-        <v>108.99</v>
-      </c>
-      <c r="I36" s="11">
-        <v>25</v>
-      </c>
-      <c r="J36" s="11">
-        <v>118.8</v>
-      </c>
-      <c r="K36" s="11">
-        <v>28</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>50</v>
-      </c>
-      <c r="N36" s="11">
-        <v>0</v>
-      </c>
-      <c r="O36" s="11"/>
-    </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="12">
-        <f>B35-B36</f>
-        <v>116</v>
-      </c>
-      <c r="C37" s="12">
-        <f t="shared" ref="C37:G37" si="2">B37+C35-C36</f>
-        <v>1016</v>
-      </c>
-      <c r="D37" s="12">
-        <f t="shared" si="2"/>
-        <v>1516</v>
-      </c>
-      <c r="E37" s="12">
-        <f t="shared" si="2"/>
-        <v>2607.0100000000002</v>
-      </c>
-      <c r="F37" s="12">
-        <f t="shared" si="2"/>
-        <v>3531.8300000000004</v>
-      </c>
-      <c r="G37" s="12">
-        <f t="shared" si="2"/>
-        <v>4267.55</v>
-      </c>
-      <c r="H37" s="12">
-        <f>G37+H35-H36</f>
-        <v>5188.5600000000004</v>
-      </c>
-      <c r="I37" s="12">
-        <f>H37+I35-I36</f>
-        <v>5743.56</v>
-      </c>
-      <c r="J37" s="12">
-        <f>I37+J35-J36</f>
         <v>6454.76</v>
       </c>
-      <c r="K37" s="12">
-        <f>J37+K35-K36</f>
+      <c r="K40" s="12">
+        <f t="shared" si="1"/>
         <v>8256.76</v>
       </c>
-      <c r="L37" s="12">
-        <f>K37+L35-L36</f>
+      <c r="L40" s="12">
+        <f t="shared" si="1"/>
         <v>9466.76</v>
       </c>
-      <c r="M37" s="12">
-        <f>L37+M35-M36</f>
+      <c r="M40" s="12">
+        <f t="shared" si="1"/>
         <v>11016.76</v>
       </c>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
+      <c r="N40" s="12">
+        <f t="shared" si="1"/>
+        <v>12615.76</v>
+      </c>
+      <c r="O40" s="12">
+        <f t="shared" si="1"/>
+        <v>12445.31</v>
+      </c>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -23624,7 +23908,7 @@
         <v>115</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>128</v>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chiming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B5A8FB-29AA-4871-B243-1406EFF7D0C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A4AF7C-F18C-49CA-9FB5-00EBA8E4FF69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="213">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -761,12 +761,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>backup8</t>
-  </si>
-  <si>
-    <t>backup9</t>
-  </si>
-  <si>
     <t>backup10</t>
   </si>
   <si>
@@ -815,6 +809,31 @@
   <si>
     <t>吴前华</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周丽如阖家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.08</t>
+  </si>
+  <si>
+    <t>2019.11.09</t>
+  </si>
+  <si>
+    <t>2019.11.10</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1147,7 @@
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="99">
     <dxf>
       <font>
         <b val="0"/>
@@ -1274,6 +1293,60 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2521,112 +2594,115 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:AD107" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
-  <autoFilter ref="A1:AD107" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K107">
-    <sortCondition ref="A1:A107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:AD109" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+  <autoFilter ref="A1:AD109" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K109">
+    <sortCondition ref="A1:A109"/>
   </sortState>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="86"/>
-    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="85"/>
-    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="84"/>
-    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="83"/>
-    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="82"/>
-    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="81"/>
-    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.12.08" dataDxfId="80"/>
-    <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="79"/>
-    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2020.2.29" dataDxfId="78"/>
-    <tableColumn id="17" xr3:uid="{8A278776-53B1-4C9B-B0FD-D1404C201AA6}" name="2020.04.05" dataDxfId="77"/>
-    <tableColumn id="20" xr3:uid="{ED6C027C-9006-4261-AFFD-F06794A1740D}" name="2020.05.01（上师广州放生）" dataDxfId="76"/>
-    <tableColumn id="18" xr3:uid="{423FF7CE-5B30-4588-B80E-563F413C6E1E}" name="2020.05.23" dataDxfId="75"/>
-    <tableColumn id="19" xr3:uid="{0F0896F2-5427-49E2-B6B4-0CDBAED03178}" name="2020.06.06" dataDxfId="74"/>
-    <tableColumn id="21" xr3:uid="{5E217A0B-08DF-4084-931D-0B63C054969E}" name="2020.06.21" dataDxfId="73"/>
-    <tableColumn id="22" xr3:uid="{EB405173-0F7E-49B4-A868-D6A6AE1704A3}" name="2020.07.19" dataDxfId="72"/>
-    <tableColumn id="23" xr3:uid="{43AF4CEB-DEA3-4A15-8286-3961662C210F}" name="2020.08.16" dataDxfId="71"/>
-    <tableColumn id="24" xr3:uid="{2A0F6EB2-AF60-49D2-BEB5-6B9F2534D18A}" name="2020.09.13" dataDxfId="70"/>
-    <tableColumn id="25" xr3:uid="{DB541BC6-89E2-4661-B559-1BBB3D793ABB}" name="backup8" dataDxfId="69"/>
-    <tableColumn id="26" xr3:uid="{C210F1F2-7DCF-4086-B2BB-1B0F79E54596}" name="backup9" dataDxfId="68"/>
-    <tableColumn id="27" xr3:uid="{A6F2325A-DA6C-4782-95FE-68CF6E0AF9BE}" name="backup10" dataDxfId="67"/>
-    <tableColumn id="28" xr3:uid="{822A7C39-1CAA-40EF-8487-47A6A2959D58}" name="backup11" dataDxfId="66"/>
-    <tableColumn id="29" xr3:uid="{7266F9ED-D550-4448-AB45-04645F0C4FDC}" name="backup12" dataDxfId="65"/>
-    <tableColumn id="30" xr3:uid="{419B39E0-502F-4708-AA2C-DA5F620CC648}" name="backup13" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="89"/>
+    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="87"/>
+    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="86"/>
+    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="85"/>
+    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="84"/>
+    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.12.08" dataDxfId="83"/>
+    <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="82"/>
+    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2020.2.29" dataDxfId="81"/>
+    <tableColumn id="17" xr3:uid="{8A278776-53B1-4C9B-B0FD-D1404C201AA6}" name="2020.04.05" dataDxfId="80"/>
+    <tableColumn id="20" xr3:uid="{ED6C027C-9006-4261-AFFD-F06794A1740D}" name="2020.05.01（上师广州放生）" dataDxfId="79"/>
+    <tableColumn id="18" xr3:uid="{423FF7CE-5B30-4588-B80E-563F413C6E1E}" name="2020.05.23" dataDxfId="78"/>
+    <tableColumn id="19" xr3:uid="{0F0896F2-5427-49E2-B6B4-0CDBAED03178}" name="2020.06.06" dataDxfId="77"/>
+    <tableColumn id="21" xr3:uid="{5E217A0B-08DF-4084-931D-0B63C054969E}" name="2020.06.21" dataDxfId="76"/>
+    <tableColumn id="22" xr3:uid="{EB405173-0F7E-49B4-A868-D6A6AE1704A3}" name="2020.07.19" dataDxfId="75"/>
+    <tableColumn id="23" xr3:uid="{43AF4CEB-DEA3-4A15-8286-3961662C210F}" name="2020.08.16" dataDxfId="74"/>
+    <tableColumn id="24" xr3:uid="{2A0F6EB2-AF60-49D2-BEB5-6B9F2534D18A}" name="2020.09.13" dataDxfId="73"/>
+    <tableColumn id="25" xr3:uid="{DB541BC6-89E2-4661-B559-1BBB3D793ABB}" name="2020.10.18" dataDxfId="72"/>
+    <tableColumn id="26" xr3:uid="{C210F1F2-7DCF-4086-B2BB-1B0F79E54596}" name="2020.11.7" dataDxfId="71"/>
+    <tableColumn id="27" xr3:uid="{A6F2325A-DA6C-4782-95FE-68CF6E0AF9BE}" name="backup10" dataDxfId="70"/>
+    <tableColumn id="28" xr3:uid="{822A7C39-1CAA-40EF-8487-47A6A2959D58}" name="backup11" dataDxfId="69"/>
+    <tableColumn id="29" xr3:uid="{7266F9ED-D550-4448-AB45-04645F0C4FDC}" name="backup12" dataDxfId="68"/>
+    <tableColumn id="30" xr3:uid="{419B39E0-502F-4708-AA2C-DA5F620CC648}" name="backup13" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A110:AD113" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A110:AD113" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A112:AD115" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+  <autoFilter ref="A112:AD115" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="47"/>
-    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="46"/>
-    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="45"/>
-    <tableColumn id="18" xr3:uid="{7FDCCA4B-7D79-48EF-9B59-82E552EE633B}" name="列172" dataDxfId="44"/>
-    <tableColumn id="19" xr3:uid="{7ED92CF3-8A37-4CDD-BFF2-53F59BE535DE}" name="列173" dataDxfId="43"/>
-    <tableColumn id="20" xr3:uid="{AD16709C-E6EA-416A-927B-641AFF440CE0}" name="列174" dataDxfId="42"/>
-    <tableColumn id="21" xr3:uid="{9CAE81C2-021C-4481-A730-F07863C18814}" name="列175" dataDxfId="41"/>
-    <tableColumn id="22" xr3:uid="{E0EF79EF-1156-4A8D-8C2B-47AAD03D6260}" name="列176" dataDxfId="40"/>
-    <tableColumn id="23" xr3:uid="{325656D5-28D0-4734-B242-21697FBCA2BF}" name="列177" dataDxfId="39"/>
-    <tableColumn id="24" xr3:uid="{AE00EEF4-07A4-4FBF-B7F0-DC7B1518D893}" name="列178" dataDxfId="38"/>
-    <tableColumn id="25" xr3:uid="{ED3ED64C-C009-494B-8F39-75665D832925}" name="列179" dataDxfId="37"/>
-    <tableColumn id="26" xr3:uid="{9A83E9C1-C397-418C-87B7-C26A41E9788D}" name="列180" dataDxfId="36"/>
-    <tableColumn id="27" xr3:uid="{EBB41EEA-3E62-4991-B388-78AC074C4D49}" name="列181" dataDxfId="35"/>
-    <tableColumn id="28" xr3:uid="{53433204-92AE-4333-9EDF-9C03A7F44ED5}" name="列182" dataDxfId="34"/>
-    <tableColumn id="29" xr3:uid="{B64D98DC-E49E-49FF-84BF-DDB200DDE0B5}" name="列183" dataDxfId="33"/>
-    <tableColumn id="30" xr3:uid="{D9614288-FA32-4869-B534-AC58456C06E3}" name="列184" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="55"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="54"/>
+    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="52"/>
+    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="51"/>
+    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="50"/>
+    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="49"/>
+    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="48"/>
+    <tableColumn id="18" xr3:uid="{7FDCCA4B-7D79-48EF-9B59-82E552EE633B}" name="列172" dataDxfId="47"/>
+    <tableColumn id="19" xr3:uid="{7ED92CF3-8A37-4CDD-BFF2-53F59BE535DE}" name="列173" dataDxfId="46"/>
+    <tableColumn id="20" xr3:uid="{AD16709C-E6EA-416A-927B-641AFF440CE0}" name="列174" dataDxfId="45"/>
+    <tableColumn id="21" xr3:uid="{9CAE81C2-021C-4481-A730-F07863C18814}" name="列175" dataDxfId="44"/>
+    <tableColumn id="22" xr3:uid="{E0EF79EF-1156-4A8D-8C2B-47AAD03D6260}" name="列176" dataDxfId="43"/>
+    <tableColumn id="23" xr3:uid="{325656D5-28D0-4734-B242-21697FBCA2BF}" name="列177" dataDxfId="42"/>
+    <tableColumn id="24" xr3:uid="{AE00EEF4-07A4-4FBF-B7F0-DC7B1518D893}" name="列178" dataDxfId="41"/>
+    <tableColumn id="25" xr3:uid="{ED3ED64C-C009-494B-8F39-75665D832925}" name="列179" dataDxfId="40"/>
+    <tableColumn id="26" xr3:uid="{9A83E9C1-C397-418C-87B7-C26A41E9788D}" name="列180" dataDxfId="39"/>
+    <tableColumn id="27" xr3:uid="{EBB41EEA-3E62-4991-B388-78AC074C4D49}" name="列181" dataDxfId="38"/>
+    <tableColumn id="28" xr3:uid="{53433204-92AE-4333-9EDF-9C03A7F44ED5}" name="列182" dataDxfId="37"/>
+    <tableColumn id="29" xr3:uid="{B64D98DC-E49E-49FF-84BF-DDB200DDE0B5}" name="列183" dataDxfId="36"/>
+    <tableColumn id="30" xr3:uid="{D9614288-FA32-4869-B534-AC58456C06E3}" name="列184" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:S35" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
-  <autoFilter ref="A1:S35" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:V35" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+  <autoFilter ref="A1:V35" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
     <sortCondition ref="A1:A35"/>
   </sortState>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2020.05.23" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{D450CAFD-4280-4A57-A72C-AC9C82E67796}" name="2020.06.06" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2020.07.19" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{C889229E-9847-4F55-9879-D26AC9B0F475}" name="2020.08.16" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{7689C2A1-EFFD-4322-8AD7-70E1C454E68A}" name="2020.09.13" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{265BD7D6-05CA-4F1A-9BFC-1FE1F7E043B7}" name="2019.11.05" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{A7895CF2-85F3-4C44-8D4E-04972226291E}" name="2019.11.06" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{A6B31E82-C02B-4C04-BEFE-5F9FB8712087}" name="2019.11.07" dataDxfId="9"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2020.05.23" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{D450CAFD-4280-4A57-A72C-AC9C82E67796}" name="2020.06.06" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2020.07.19" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{C889229E-9847-4F55-9879-D26AC9B0F475}" name="2020.08.16" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{7689C2A1-EFFD-4322-8AD7-70E1C454E68A}" name="2020.09.13" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{265BD7D6-05CA-4F1A-9BFC-1FE1F7E043B7}" name="2019.11.05" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{A7895CF2-85F3-4C44-8D4E-04972226291E}" name="2019.11.06" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{A6B31E82-C02B-4C04-BEFE-5F9FB8712087}" name="2019.11.07" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{B57DEBF5-B83E-4EA5-A6D9-04E3EE457F9E}" name="2019.11.08" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{E1B5FFF3-B1AE-469E-9486-2C7711E85EC8}" name="2019.11.09" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{DF5D0889-C628-428A-AE29-11139F36C6A6}" name="2019.11.10" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2946,12 +3022,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD129"/>
+  <dimension ref="A1:AD131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="O119" sqref="O119"/>
+      <selection pane="topRight" activeCell="O121" sqref="O121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
@@ -3032,28 +3108,28 @@
         <v>184</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3123,8 +3199,12 @@
       <c r="X2" s="6">
         <v>800</v>
       </c>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+      <c r="Y2" s="6">
+        <v>200</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>200</v>
+      </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -3201,8 +3281,12 @@
       <c r="X3" s="6">
         <v>500</v>
       </c>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="Y3" s="6">
+        <v>500</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>500</v>
+      </c>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -3275,8 +3359,12 @@
         <v>100</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="Y4" s="6">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>100</v>
+      </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
@@ -3343,8 +3431,12 @@
       <c r="X5" s="6">
         <v>80</v>
       </c>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+      <c r="Y5" s="6">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>100</v>
+      </c>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
@@ -3406,7 +3498,9 @@
         <v>100</v>
       </c>
       <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="Z6" s="6">
+        <v>200</v>
+      </c>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
@@ -3532,7 +3626,9 @@
         <v>100</v>
       </c>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="Z8" s="6">
+        <v>100</v>
+      </c>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
@@ -3765,7 +3861,9 @@
       <c r="X12" s="6">
         <v>200</v>
       </c>
-      <c r="Y12" s="6"/>
+      <c r="Y12" s="6">
+        <v>200</v>
+      </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
@@ -3834,51 +3932,35 @@
     </row>
     <row r="14" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6">
-        <v>200</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>200</v>
-      </c>
-      <c r="E14" s="6">
-        <v>100</v>
-      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6">
-        <v>200</v>
-      </c>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>150</v>
-      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="6">
-        <v>200</v>
-      </c>
-      <c r="T14" s="6">
-        <v>200</v>
-      </c>
-      <c r="U14" s="6">
-        <v>200</v>
-      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
+      <c r="Z14" s="6">
+        <v>200</v>
+      </c>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
@@ -3886,34 +3968,46 @@
     </row>
     <row r="15" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B15" s="6">
+        <v>200</v>
+      </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6">
+        <v>200</v>
+      </c>
+      <c r="E15" s="6">
+        <v>100</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6">
+        <v>200</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6">
+      <c r="O15" s="6"/>
+      <c r="P15" s="6">
         <v>200</v>
       </c>
-      <c r="P15" s="6"/>
       <c r="Q15" s="6">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6">
-        <v>100</v>
-      </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="T15" s="6">
+        <v>200</v>
+      </c>
+      <c r="U15" s="6">
+        <v>200</v>
+      </c>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -3926,7 +4020,7 @@
     </row>
     <row r="16" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3941,26 +4035,22 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="O16" s="6">
+        <v>200</v>
+      </c>
       <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="6">
+        <v>200</v>
+      </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T16" s="6"/>
-      <c r="U16" s="6">
-        <v>50</v>
-      </c>
-      <c r="V16" s="6">
-        <v>50</v>
-      </c>
-      <c r="W16" s="6">
-        <v>50</v>
-      </c>
-      <c r="X16" s="6">
-        <v>50</v>
-      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -3970,7 +4060,7 @@
     </row>
     <row r="17" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3990,20 +4080,20 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="6">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="V17" s="6">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="W17" s="6">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="X17" s="6">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
@@ -4014,7 +4104,7 @@
     </row>
     <row r="18" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4034,20 +4124,20 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T18" s="6"/>
       <c r="U18" s="6">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V18" s="6">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W18" s="6">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X18" s="6">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
@@ -4058,7 +4148,7 @@
     </row>
     <row r="19" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4078,20 +4168,20 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T19" s="6"/>
       <c r="U19" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="V19" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W19" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="X19" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
@@ -4102,41 +4192,41 @@
     </row>
     <row r="20" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <v>300</v>
-      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6">
-        <v>300</v>
-      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="6">
-        <v>200</v>
-      </c>
+      <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="6">
-        <v>200</v>
-      </c>
+      <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6">
-        <v>200</v>
-      </c>
+      <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
+      <c r="S20" s="6">
+        <v>50</v>
+      </c>
       <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
+      <c r="U20" s="6">
+        <v>50</v>
+      </c>
+      <c r="V20" s="6">
+        <v>50</v>
+      </c>
+      <c r="W20" s="6">
+        <v>50</v>
+      </c>
+      <c r="X20" s="6">
+        <v>50</v>
+      </c>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
@@ -4145,27 +4235,35 @@
       <c r="AD20" s="6"/>
     </row>
     <row r="21" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
-        <v>88</v>
+      <c r="A21" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6">
+        <v>300</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6">
-        <v>500</v>
-      </c>
+      <c r="H21" s="6">
+        <v>300</v>
+      </c>
+      <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6">
+        <v>200</v>
+      </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="O21" s="6">
+        <v>200</v>
+      </c>
       <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="Q21" s="6">
+        <v>200</v>
+      </c>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
@@ -4181,21 +4279,19 @@
       <c r="AD21" s="6"/>
     </row>
     <row r="22" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
-        <v>33</v>
+      <c r="A22" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <v>1000</v>
-      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6">
-        <v>300</v>
-      </c>
-      <c r="I22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6">
+        <v>500</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -4206,13 +4302,9 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="6">
-        <v>300</v>
-      </c>
+      <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="6">
-        <v>300</v>
-      </c>
+      <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
@@ -4224,27 +4316,19 @@
     </row>
     <row r="23" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="6">
-        <v>100</v>
-      </c>
-      <c r="C23" s="6">
-        <v>50</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2010</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="6">
-        <v>50</v>
-      </c>
-      <c r="F23" s="6">
-        <v>60</v>
-      </c>
-      <c r="G23" s="6">
-        <v>50</v>
-      </c>
-      <c r="H23" s="6"/>
+        <v>1000</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>300</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -4253,21 +4337,17 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="6">
-        <v>100</v>
-      </c>
+      <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="U23" s="6"/>
       <c r="V23" s="6">
-        <v>50</v>
-      </c>
-      <c r="W23" s="6">
-        <v>80</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
@@ -4278,22 +4358,28 @@
     </row>
     <row r="24" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="B24" s="6">
+        <v>100</v>
+      </c>
+      <c r="C24" s="6">
+        <v>50</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2010</v>
+      </c>
       <c r="E24" s="6">
-        <v>400</v>
-      </c>
-      <c r="F24" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="F24" s="6">
+        <v>60</v>
+      </c>
       <c r="G24" s="6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="6">
-        <v>200</v>
-      </c>
+      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -4301,16 +4387,20 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+      <c r="Q24" s="6">
+        <v>100</v>
+      </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
+      <c r="V24" s="6">
+        <v>50</v>
+      </c>
       <c r="W24" s="6">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
@@ -4322,40 +4412,40 @@
     </row>
     <row r="25" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6">
+        <v>400</v>
+      </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6">
+        <v>200</v>
+      </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="6">
+        <v>200</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="6">
-        <v>30</v>
-      </c>
+      <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="6">
-        <v>100</v>
-      </c>
+      <c r="S25" s="6"/>
       <c r="T25" s="6">
-        <v>50</v>
-      </c>
-      <c r="U25" s="6">
-        <v>50</v>
-      </c>
-      <c r="V25" s="6">
-        <v>200</v>
-      </c>
-      <c r="W25" s="6"/>
+        <v>400</v>
+      </c>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6">
+        <v>600</v>
+      </c>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
@@ -4366,14 +4456,12 @@
     </row>
     <row r="26" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <v>100</v>
-      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -4383,23 +4471,25 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="O26" s="6">
+        <v>30</v>
+      </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6">
+        <v>100</v>
+      </c>
+      <c r="T26" s="6">
         <v>50</v>
       </c>
-      <c r="T26" s="6"/>
       <c r="U26" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="V26" s="6">
-        <v>100</v>
-      </c>
-      <c r="W26" s="6">
-        <v>100</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
@@ -4410,18 +4500,16 @@
     </row>
     <row r="27" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <v>200</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -4433,11 +4521,19 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
+      <c r="S27" s="6">
+        <v>50</v>
+      </c>
       <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
+      <c r="U27" s="6">
+        <v>100</v>
+      </c>
+      <c r="V27" s="6">
+        <v>100</v>
+      </c>
+      <c r="W27" s="6">
+        <v>100</v>
+      </c>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
@@ -4448,7 +4544,7 @@
     </row>
     <row r="28" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4458,9 +4554,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="6">
-        <v>100</v>
-      </c>
+      <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -4475,8 +4569,12 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
+      <c r="Y28" s="6">
+        <v>100</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>100</v>
+      </c>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
@@ -4484,20 +4582,22 @@
     </row>
     <row r="29" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="6">
+        <v>200</v>
+      </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="6">
+        <v>200</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6">
-        <v>100</v>
-      </c>
+      <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -4520,19 +4620,19 @@
     </row>
     <row r="30" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6">
-        <v>4160</v>
-      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="6">
+        <v>100</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -4556,20 +4656,20 @@
     </row>
     <row r="31" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6">
-        <v>50</v>
-      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="K31" s="6">
+        <v>100</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -4591,19 +4691,19 @@
       <c r="AD31" s="6"/>
     </row>
     <row r="32" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
-        <v>92</v>
+      <c r="A32" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6">
+        <v>4160</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6">
-        <v>200</v>
-      </c>
+      <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -4627,8 +4727,8 @@
       <c r="AD32" s="6"/>
     </row>
     <row r="33" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
-        <v>82</v>
+      <c r="A33" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4636,7 +4736,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -4664,18 +4764,18 @@
     </row>
     <row r="34" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="6">
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6">
         <v>200</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -4700,7 +4800,7 @@
     </row>
     <row r="35" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4708,7 +4808,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -4735,25 +4835,23 @@
       <c r="AD35" s="6"/>
     </row>
     <row r="36" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A36" s="6" t="s">
-        <v>37</v>
+      <c r="A36" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="6">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6">
         <v>200</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="6">
-        <v>50</v>
-      </c>
+      <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
@@ -4761,13 +4859,9 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-      <c r="U36" s="6">
-        <v>100</v>
-      </c>
+      <c r="U36" s="6"/>
       <c r="V36" s="6"/>
-      <c r="W36" s="6">
-        <v>100</v>
-      </c>
+      <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
@@ -4777,18 +4871,16 @@
       <c r="AD36" s="6"/>
     </row>
     <row r="37" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="6" t="s">
-        <v>29</v>
+      <c r="A37" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="6">
-        <v>200</v>
-      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -4816,14 +4908,14 @@
     </row>
     <row r="38" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="6">
-        <v>100</v>
-      </c>
-      <c r="E38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <v>200</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -4831,7 +4923,9 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="M38" s="6">
+        <v>50</v>
+      </c>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -4839,9 +4933,13 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
+      <c r="U38" s="6">
+        <v>100</v>
+      </c>
       <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
+      <c r="W38" s="6">
+        <v>100</v>
+      </c>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
@@ -4852,20 +4950,22 @@
     </row>
     <row r="39" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="6">
+        <v>200</v>
+      </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="G39" s="6">
+        <v>200</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6">
-        <v>200</v>
-      </c>
+      <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -4887,17 +4987,17 @@
       <c r="AD39" s="6"/>
     </row>
     <row r="40" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="7" t="s">
-        <v>84</v>
+      <c r="A40" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6">
+        <v>100</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6">
-        <v>50</v>
-      </c>
+      <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -4924,20 +5024,20 @@
     </row>
     <row r="41" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="6">
-        <v>100</v>
-      </c>
+      <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="K41" s="6">
+        <v>200</v>
+      </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -4960,7 +5060,7 @@
     </row>
     <row r="42" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -4968,7 +5068,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -4996,21 +5096,21 @@
     </row>
     <row r="43" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="G43" s="6">
+        <v>100</v>
+      </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="6">
-        <v>100</v>
-      </c>
+      <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -5031,15 +5131,17 @@
       <c r="AD43" s="6"/>
     </row>
     <row r="44" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="6" t="s">
-        <v>149</v>
+      <c r="A44" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="G44" s="6">
+        <v>200</v>
+      </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -5049,9 +5151,7 @@
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
-      <c r="Q44" s="6">
-        <v>1000</v>
-      </c>
+      <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
@@ -5067,22 +5167,22 @@
       <c r="AD44" s="6"/>
     </row>
     <row r="45" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="7" t="s">
-        <v>70</v>
+      <c r="A45" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6">
-        <v>30</v>
-      </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="L45" s="6">
+        <v>100</v>
+      </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
@@ -5104,15 +5204,13 @@
     </row>
     <row r="46" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="6">
-        <v>200</v>
-      </c>
+      <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -5123,7 +5221,9 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
+      <c r="Q46" s="6">
+        <v>1000</v>
+      </c>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
@@ -5139,17 +5239,17 @@
       <c r="AD46" s="6"/>
     </row>
     <row r="47" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
-        <v>14</v>
+      <c r="A47" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="6">
-        <v>20</v>
-      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="G47" s="6">
+        <v>30</v>
+      </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -5175,17 +5275,17 @@
       <c r="AD47" s="6"/>
     </row>
     <row r="48" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="7" t="s">
-        <v>72</v>
+      <c r="A48" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6">
-        <v>88.88</v>
-      </c>
+      <c r="F48" s="6">
+        <v>200</v>
+      </c>
+      <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -5211,21 +5311,21 @@
       <c r="AD48" s="6"/>
     </row>
     <row r="49" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="7" t="s">
-        <v>107</v>
+      <c r="A49" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="6">
+        <v>20</v>
+      </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="6">
-        <v>200</v>
-      </c>
+      <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -5248,7 +5348,7 @@
     </row>
     <row r="50" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -5256,7 +5356,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6">
-        <v>200</v>
+        <v>88.88</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -5284,20 +5384,20 @@
     </row>
     <row r="51" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6">
-        <v>50</v>
-      </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="K51" s="6">
+        <v>200</v>
+      </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -5319,17 +5419,17 @@
       <c r="AD51" s="6"/>
     </row>
     <row r="52" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="6" t="s">
-        <v>48</v>
+      <c r="A52" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="6">
-        <v>107</v>
-      </c>
-      <c r="G52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6">
+        <v>200</v>
+      </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -5356,7 +5456,7 @@
     </row>
     <row r="53" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -5364,7 +5464,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -5392,15 +5492,15 @@
     </row>
     <row r="54" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="6">
-        <v>100</v>
-      </c>
-      <c r="F54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6">
+        <v>107</v>
+      </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -5428,7 +5528,7 @@
     </row>
     <row r="55" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -5436,7 +5536,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -5464,14 +5564,14 @@
     </row>
     <row r="56" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="6">
-        <v>200</v>
-      </c>
-      <c r="E56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6">
+        <v>100</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -5483,13 +5583,9 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
-      <c r="Q56" s="6" t="s">
-        <v>145</v>
-      </c>
+      <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="6" t="s">
-        <v>145</v>
-      </c>
+      <c r="S56" s="6"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
@@ -5504,7 +5600,7 @@
     </row>
     <row r="57" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -5540,12 +5636,12 @@
     </row>
     <row r="58" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -5559,9 +5655,13 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
+      <c r="Q58" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
+      <c r="S58" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
@@ -5575,25 +5675,23 @@
       <c r="AD58" s="6"/>
     </row>
     <row r="59" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="6" t="s">
-        <v>60</v>
+      <c r="A59" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6">
+      <c r="G59" s="6">
         <v>200</v>
       </c>
+      <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="6">
-        <v>100</v>
-      </c>
+      <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
@@ -5614,14 +5712,14 @@
     </row>
     <row r="60" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6">
-        <v>100</v>
-      </c>
+      <c r="D60" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -5649,23 +5747,25 @@
       <c r="AD60" s="6"/>
     </row>
     <row r="61" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="7" t="s">
-        <v>77</v>
+      <c r="A61" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6">
-        <v>50</v>
-      </c>
-      <c r="H61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6">
+        <v>200</v>
+      </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
+      <c r="M61" s="6">
+        <v>100</v>
+      </c>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -5685,19 +5785,19 @@
       <c r="AD61" s="6"/>
     </row>
     <row r="62" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="7" t="s">
-        <v>89</v>
+      <c r="A62" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+      <c r="E62" s="6">
+        <v>100</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="6">
-        <v>800</v>
-      </c>
+      <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
@@ -5722,7 +5822,7 @@
     </row>
     <row r="63" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -5758,7 +5858,7 @@
     </row>
     <row r="64" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -5766,10 +5866,10 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="6">
-        <v>100</v>
-      </c>
-      <c r="I64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6">
+        <v>800</v>
+      </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -5793,17 +5893,17 @@
       <c r="AD64" s="6"/>
     </row>
     <row r="65" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="6" t="s">
-        <v>9</v>
+      <c r="A65" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="6">
-        <v>100</v>
-      </c>
+      <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="G65" s="6">
+        <v>50</v>
+      </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -5828,9 +5928,9 @@
       <c r="AC65" s="6"/>
       <c r="AD65" s="6"/>
     </row>
-    <row r="66" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="6" t="s">
-        <v>142</v>
+    <row r="66" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A66" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -5838,16 +5938,16 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="H66" s="6">
+        <v>100</v>
+      </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
-      <c r="O66" s="6">
-        <v>20</v>
-      </c>
+      <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
@@ -5864,13 +5964,15 @@
       <c r="AC66" s="6"/>
       <c r="AD66" s="6"/>
     </row>
-    <row r="67" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="6">
+        <v>100</v>
+      </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -5881,9 +5983,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="6">
-        <v>10</v>
-      </c>
+      <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
@@ -5900,9 +6000,9 @@
       <c r="AC67" s="6"/>
       <c r="AD67" s="6"/>
     </row>
-    <row r="68" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -5918,7 +6018,7 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
@@ -5936,9 +6036,9 @@
       <c r="AC68" s="6"/>
       <c r="AD68" s="6"/>
     </row>
-    <row r="69" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -5974,7 +6074,7 @@
     </row>
     <row r="70" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -6010,7 +6110,7 @@
     </row>
     <row r="71" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -6046,7 +6146,7 @@
     </row>
     <row r="72" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -6062,7 +6162,7 @@
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
@@ -6082,7 +6182,7 @@
     </row>
     <row r="73" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -6117,17 +6217,15 @@
       <c r="AD73" s="6"/>
     </row>
     <row r="74" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="7" t="s">
-        <v>68</v>
+      <c r="A74" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="6">
-        <v>200</v>
-      </c>
+      <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -6135,11 +6233,11 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
+      <c r="O74" s="6">
+        <v>20</v>
+      </c>
       <c r="P74" s="6"/>
-      <c r="Q74" s="6">
-        <v>300</v>
-      </c>
+      <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
@@ -6155,8 +6253,8 @@
       <c r="AD74" s="6"/>
     </row>
     <row r="75" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="7" t="s">
-        <v>90</v>
+      <c r="A75" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -6165,15 +6263,15 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="6">
-        <v>300</v>
-      </c>
+      <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
+      <c r="O75" s="6">
+        <v>10</v>
+      </c>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
@@ -6192,14 +6290,16 @@
     </row>
     <row r="76" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="G76" s="6">
+        <v>200</v>
+      </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -6207,11 +6307,11 @@
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
-      <c r="O76" s="6">
-        <v>100</v>
-      </c>
+      <c r="O76" s="6"/>
       <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
+      <c r="Q76" s="6">
+        <v>300</v>
+      </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
@@ -6228,7 +6328,7 @@
     </row>
     <row r="77" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="7" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -6237,15 +6337,15 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
+      <c r="I77" s="6">
+        <v>300</v>
+      </c>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
-      <c r="O77" s="6">
-        <v>50</v>
-      </c>
+      <c r="O77" s="6"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
@@ -6264,16 +6364,14 @@
     </row>
     <row r="78" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="7" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6">
-        <v>200</v>
-      </c>
+      <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
@@ -6281,7 +6379,9 @@
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
+      <c r="O78" s="6">
+        <v>100</v>
+      </c>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
@@ -6300,16 +6400,14 @@
     </row>
     <row r="79" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="6">
-        <v>200</v>
-      </c>
+      <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -6317,7 +6415,9 @@
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
+      <c r="O79" s="6">
+        <v>50</v>
+      </c>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
@@ -6335,17 +6435,17 @@
       <c r="AD79" s="6"/>
     </row>
     <row r="80" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="6" t="s">
-        <v>7</v>
+      <c r="A80" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="6">
-        <v>55</v>
-      </c>
+      <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="G80" s="6">
+        <v>200</v>
+      </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -6371,8 +6471,8 @@
       <c r="AD80" s="6"/>
     </row>
     <row r="81" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="6" t="s">
-        <v>54</v>
+      <c r="A81" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -6408,20 +6508,20 @@
     </row>
     <row r="82" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="D82" s="6">
+        <v>55</v>
+      </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
-      <c r="K82" s="6">
-        <v>100</v>
-      </c>
+      <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
@@ -6443,8 +6543,8 @@
       <c r="AD82" s="6"/>
     </row>
     <row r="83" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="7" t="s">
-        <v>76</v>
+      <c r="A83" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -6452,7 +6552,7 @@
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -6479,21 +6579,21 @@
       <c r="AD83" s="6"/>
     </row>
     <row r="84" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A84" s="7" t="s">
-        <v>73</v>
+      <c r="A84" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="6">
-        <v>50</v>
-      </c>
+      <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
+      <c r="K84" s="6">
+        <v>100</v>
+      </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -6516,7 +6616,7 @@
     </row>
     <row r="85" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -6552,7 +6652,7 @@
     </row>
     <row r="86" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -6587,17 +6687,17 @@
       <c r="AD86" s="6"/>
     </row>
     <row r="87" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A87" s="6" t="s">
-        <v>41</v>
+      <c r="A87" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="6">
-        <v>10</v>
-      </c>
+      <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
+      <c r="G87" s="6">
+        <v>50</v>
+      </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -6624,7 +6724,7 @@
     </row>
     <row r="88" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -6659,17 +6759,17 @@
       <c r="AD88" s="6"/>
     </row>
     <row r="89" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A89" s="7" t="s">
-        <v>78</v>
+      <c r="A89" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="E89" s="6">
+        <v>10</v>
+      </c>
       <c r="F89" s="6"/>
-      <c r="G89" s="6">
-        <v>50</v>
-      </c>
+      <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -6695,19 +6795,19 @@
       <c r="AD89" s="6"/>
     </row>
     <row r="90" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A90" s="6" t="s">
-        <v>102</v>
+      <c r="A90" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
+      <c r="G90" s="6">
+        <v>50</v>
+      </c>
       <c r="H90" s="6"/>
-      <c r="I90" s="6">
-        <v>50</v>
-      </c>
+      <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
@@ -6717,9 +6817,7 @@
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
-      <c r="S90" s="6">
-        <v>100</v>
-      </c>
+      <c r="S90" s="6"/>
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
@@ -6733,21 +6831,21 @@
       <c r="AD90" s="6"/>
     </row>
     <row r="91" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A91" s="6" t="s">
-        <v>109</v>
+      <c r="A91" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
+      <c r="G91" s="6">
+        <v>50</v>
+      </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
-      <c r="K91" s="6">
-        <v>100</v>
-      </c>
+      <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
@@ -6770,7 +6868,7 @@
     </row>
     <row r="92" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -6779,19 +6877,21 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
+      <c r="I92" s="6">
+        <v>50</v>
+      </c>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="6">
-        <v>66</v>
-      </c>
+      <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
+      <c r="S92" s="6">
+        <v>100</v>
+      </c>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
@@ -6805,8 +6905,8 @@
       <c r="AD92" s="6"/>
     </row>
     <row r="93" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="7" t="s">
-        <v>87</v>
+      <c r="A93" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -6815,11 +6915,11 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
-      <c r="I93" s="6">
-        <v>200</v>
-      </c>
+      <c r="I93" s="6"/>
       <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
+      <c r="K93" s="6">
+        <v>100</v>
+      </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
@@ -6841,8 +6941,8 @@
       <c r="AD93" s="6"/>
     </row>
     <row r="94" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A94" s="7" t="s">
-        <v>121</v>
+      <c r="A94" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -6856,7 +6956,7 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
@@ -6877,8 +6977,8 @@
       <c r="AD94" s="6"/>
     </row>
     <row r="95" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="6" t="s">
-        <v>123</v>
+      <c r="A95" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -6887,13 +6987,13 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
+      <c r="I95" s="6">
+        <v>200</v>
+      </c>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="6">
-        <v>100</v>
-      </c>
+      <c r="M95" s="6"/>
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -6902,9 +7002,7 @@
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
-      <c r="V95" s="6">
-        <v>200</v>
-      </c>
+      <c r="V95" s="6"/>
       <c r="W95" s="6"/>
       <c r="X95" s="6"/>
       <c r="Y95" s="6"/>
@@ -6915,8 +7013,8 @@
       <c r="AD95" s="6"/>
     </row>
     <row r="96" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="6" t="s">
-        <v>152</v>
+      <c r="A96" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -6929,13 +7027,13 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
+      <c r="M96" s="6">
+        <v>30</v>
+      </c>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
-      <c r="Q96" s="6">
-        <v>100</v>
-      </c>
+      <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
@@ -6952,7 +7050,7 @@
     </row>
     <row r="97" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -6965,21 +7063,19 @@
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
+      <c r="M97" s="6">
+        <v>100</v>
+      </c>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
-      <c r="Q97" s="6">
-        <v>100</v>
-      </c>
+      <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
-      <c r="U97" s="6">
-        <v>100</v>
-      </c>
+      <c r="U97" s="6"/>
       <c r="V97" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W97" s="6"/>
       <c r="X97" s="6"/>
@@ -6992,7 +7088,7 @@
     </row>
     <row r="98" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -7009,13 +7105,13 @@
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
+      <c r="Q98" s="6">
+        <v>100</v>
+      </c>
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
-      <c r="U98" s="6">
-        <v>100</v>
-      </c>
+      <c r="U98" s="6"/>
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
       <c r="X98" s="6"/>
@@ -7028,7 +7124,7 @@
     </row>
     <row r="99" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -7045,14 +7141,18 @@
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
+      <c r="Q99" s="6">
+        <v>100</v>
+      </c>
       <c r="R99" s="6"/>
-      <c r="S99" s="6">
-        <v>50</v>
-      </c>
+      <c r="S99" s="6"/>
       <c r="T99" s="6"/>
-      <c r="U99" s="6"/>
-      <c r="V99" s="6"/>
+      <c r="U99" s="6">
+        <v>100</v>
+      </c>
+      <c r="V99" s="6">
+        <v>100</v>
+      </c>
       <c r="W99" s="6"/>
       <c r="X99" s="6"/>
       <c r="Y99" s="6"/>
@@ -7064,7 +7164,7 @@
     </row>
     <row r="100" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -7083,11 +7183,11 @@
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
-      <c r="S100" s="6">
-        <v>50</v>
-      </c>
+      <c r="S100" s="6"/>
       <c r="T100" s="6"/>
-      <c r="U100" s="6"/>
+      <c r="U100" s="6">
+        <v>100</v>
+      </c>
       <c r="V100" s="6"/>
       <c r="W100" s="6"/>
       <c r="X100" s="6"/>
@@ -7100,7 +7200,7 @@
     </row>
     <row r="101" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -7119,18 +7219,14 @@
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
+      <c r="S101" s="6">
+        <v>50</v>
+      </c>
       <c r="T101" s="6"/>
-      <c r="U101" s="6">
-        <v>100</v>
-      </c>
+      <c r="U101" s="6"/>
       <c r="V101" s="6"/>
-      <c r="W101" s="6">
-        <v>100</v>
-      </c>
-      <c r="X101" s="6">
-        <v>100</v>
-      </c>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
       <c r="Y101" s="6"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
@@ -7140,14 +7236,12 @@
     </row>
     <row r="102" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="6">
-        <v>20</v>
-      </c>
+      <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -7161,7 +7255,9 @@
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
+      <c r="S102" s="6">
+        <v>50</v>
+      </c>
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
       <c r="V102" s="6"/>
@@ -7176,7 +7272,7 @@
     </row>
     <row r="103" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -7197,11 +7293,15 @@
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
-      <c r="U103" s="6"/>
+      <c r="U103" s="6">
+        <v>100</v>
+      </c>
       <c r="V103" s="6"/>
-      <c r="W103" s="6"/>
+      <c r="W103" s="6">
+        <v>100</v>
+      </c>
       <c r="X103" s="6">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Y103" s="6"/>
       <c r="Z103" s="6"/>
@@ -7212,12 +7312,14 @@
     </row>
     <row r="104" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
+      <c r="E104" s="6">
+        <v>20</v>
+      </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
@@ -7236,9 +7338,7 @@
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
       <c r="W104" s="6"/>
-      <c r="X104" s="6">
-        <v>200</v>
-      </c>
+      <c r="X104" s="6"/>
       <c r="Y104" s="6"/>
       <c r="Z104" s="6"/>
       <c r="AA104" s="6"/>
@@ -7248,7 +7348,7 @@
     </row>
     <row r="105" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -7273,7 +7373,7 @@
       <c r="V105" s="6"/>
       <c r="W105" s="6"/>
       <c r="X105" s="6">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Y105" s="6"/>
       <c r="Z105" s="6"/>
@@ -7284,7 +7384,7 @@
     </row>
     <row r="106" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -7306,11 +7406,11 @@
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
-      <c r="V106" s="6">
-        <v>800</v>
-      </c>
+      <c r="V106" s="6"/>
       <c r="W106" s="6"/>
-      <c r="X106" s="6"/>
+      <c r="X106" s="6">
+        <v>200</v>
+      </c>
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>
       <c r="AA106" s="6"/>
@@ -7320,14 +7420,12 @@
     </row>
     <row r="107" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="6" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="6">
-        <v>50</v>
-      </c>
+      <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -7346,7 +7444,9 @@
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
       <c r="W107" s="6"/>
-      <c r="X107" s="6"/>
+      <c r="X107" s="6">
+        <v>100</v>
+      </c>
       <c r="Y107" s="6"/>
       <c r="Z107" s="6"/>
       <c r="AA107" s="6"/>
@@ -7354,475 +7454,561 @@
       <c r="AC107" s="6"/>
       <c r="AD107" s="6"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A108" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
+      <c r="V108" s="6">
+        <v>800</v>
+      </c>
+      <c r="W108" s="6"/>
+      <c r="X108" s="6"/>
+      <c r="Y108" s="6"/>
+      <c r="Z108" s="6"/>
+      <c r="AA108" s="6"/>
+      <c r="AB108" s="6"/>
+      <c r="AC108" s="6"/>
+      <c r="AD108" s="6"/>
+    </row>
+    <row r="109" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A109" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6">
+        <v>50</v>
+      </c>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="6"/>
+      <c r="Y109" s="6"/>
+      <c r="Z109" s="6"/>
+      <c r="AA109" s="6"/>
+      <c r="AB109" s="6"/>
+      <c r="AC109" s="6"/>
+      <c r="AD109" s="6"/>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A110" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="16">
-        <f t="shared" ref="B108:X108" si="0">SUM(B2:B107)</f>
+      <c r="B110" s="16">
+        <f t="shared" ref="B110:Z110" si="0">SUM(B2:B109)</f>
         <v>1980</v>
       </c>
-      <c r="C108" s="16">
+      <c r="C110" s="16">
         <f t="shared" si="0"/>
         <v>1166</v>
       </c>
-      <c r="D108" s="16">
+      <c r="D110" s="16">
         <f t="shared" si="0"/>
         <v>12195</v>
       </c>
-      <c r="E108" s="16">
+      <c r="E110" s="16">
         <f t="shared" si="0"/>
         <v>5530</v>
       </c>
-      <c r="F108" s="16">
+      <c r="F110" s="16">
         <f t="shared" si="0"/>
         <v>2517</v>
       </c>
-      <c r="G108" s="16">
+      <c r="G110" s="16">
         <f t="shared" si="0"/>
         <v>6563.88</v>
       </c>
-      <c r="H108" s="16">
+      <c r="H110" s="16">
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="I108" s="16">
+      <c r="I110" s="16">
         <f t="shared" si="0"/>
         <v>5550</v>
       </c>
-      <c r="J108" s="16">
+      <c r="J110" s="16">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="K108" s="16">
+      <c r="K110" s="16">
         <f t="shared" si="0"/>
         <v>3900</v>
       </c>
-      <c r="L108" s="16">
+      <c r="L110" s="16">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="M108" s="16">
+      <c r="M110" s="16">
         <f t="shared" si="0"/>
         <v>3196</v>
       </c>
-      <c r="N108" s="16">
+      <c r="N110" s="16">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="O108" s="16">
+      <c r="O110" s="16">
         <f t="shared" si="0"/>
         <v>3530</v>
       </c>
-      <c r="P108" s="16">
+      <c r="P110" s="16">
         <f t="shared" si="0"/>
         <v>2454</v>
       </c>
-      <c r="Q108" s="16">
+      <c r="Q110" s="16">
         <f t="shared" si="0"/>
         <v>6150</v>
       </c>
-      <c r="R108" s="3">
+      <c r="R110" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S108" s="3">
+      <c r="S110" s="3">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="T108" s="16">
+      <c r="T110" s="16">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="U108" s="16">
+      <c r="U110" s="16">
         <f t="shared" si="0"/>
         <v>6250</v>
       </c>
-      <c r="V108" s="16">
+      <c r="V110" s="16">
         <f t="shared" si="0"/>
         <v>6230</v>
       </c>
-      <c r="W108" s="16">
+      <c r="W110" s="16">
         <f t="shared" si="0"/>
         <v>6060</v>
       </c>
-      <c r="X108" s="16">
+      <c r="X110" s="16">
         <f t="shared" si="0"/>
         <v>4480</v>
       </c>
-      <c r="Y108" s="16">
-        <f t="shared" ref="Y108:AD108" si="1">SUM(Y2:Y107)</f>
+      <c r="Y110" s="16">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="Z110" s="16">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="AA110" s="16">
+        <f>SUM(AA2:AA109)</f>
         <v>0</v>
       </c>
-      <c r="Z108" s="16">
-        <f t="shared" si="1"/>
+      <c r="AB110" s="16">
+        <f>SUM(AB2:AB109)</f>
         <v>0</v>
       </c>
-      <c r="AA108" s="16">
-        <f t="shared" si="1"/>
+      <c r="AC110" s="16">
+        <f>SUM(AC2:AC109)</f>
         <v>0</v>
       </c>
-      <c r="AB108" s="16">
-        <f t="shared" si="1"/>
+      <c r="AD110" s="16">
+        <f>SUM(AD2:AD109)</f>
         <v>0</v>
-      </c>
-      <c r="AC108" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD108" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A110" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R110" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="S110" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="T110" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="U110" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="V110" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="W110" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="X110" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y110" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z110" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA110" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB110" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC110" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD110" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A111" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G111" s="1">
-        <v>2100</v>
       </c>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T112" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W112" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="X112" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y112" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z112" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA112" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB112" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC112" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD112" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G113" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O112" s="1">
+      <c r="O114" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A113" s="1" t="s">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B115" s="1">
         <v>570</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C115" s="1">
         <v>1080</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D115" s="1">
         <v>0</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E115" s="1">
         <v>3025</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F115" s="1">
         <v>2154</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G115" s="1">
         <v>3200</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H115" s="1">
         <v>3500</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I115" s="1">
         <v>4000</v>
       </c>
-      <c r="J113" s="1">
+      <c r="J115" s="1">
         <v>3555</v>
       </c>
-      <c r="K113" s="1">
+      <c r="K115" s="1">
         <v>4046</v>
       </c>
-      <c r="O113" s="1">
+      <c r="O115" s="1">
         <v>4100</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A115" s="4" t="s">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A117" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="4">
-        <f>SUM(B111:B113)</f>
+      <c r="B117" s="4">
+        <f>SUM(B113:B115)</f>
         <v>570</v>
       </c>
-      <c r="C115" s="4">
-        <f t="shared" ref="C115:G115" si="2">SUM(C111:C113)</f>
+      <c r="C117" s="4">
+        <f t="shared" ref="C117:G117" si="1">SUM(C113:C115)</f>
         <v>1080</v>
       </c>
-      <c r="D115" s="4">
-        <f t="shared" si="2"/>
+      <c r="D117" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E115" s="4">
-        <f t="shared" si="2"/>
+      <c r="E117" s="4">
+        <f t="shared" si="1"/>
         <v>3025</v>
       </c>
-      <c r="F115" s="4">
-        <f t="shared" si="2"/>
+      <c r="F117" s="4">
+        <f t="shared" si="1"/>
         <v>2154</v>
       </c>
-      <c r="G115" s="4">
-        <f t="shared" si="2"/>
+      <c r="G117" s="4">
+        <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="H115" s="4">
+      <c r="H117" s="4">
         <v>3500</v>
       </c>
-      <c r="I115" s="4">
+      <c r="I117" s="4">
         <v>4000</v>
       </c>
-      <c r="J115" s="4">
+      <c r="J117" s="4">
         <v>3555</v>
       </c>
-      <c r="K115" s="4">
+      <c r="K117" s="4">
         <v>4046</v>
       </c>
-      <c r="L115" s="4">
+      <c r="L117" s="4">
         <v>3490</v>
       </c>
-      <c r="M115" s="4">
+      <c r="M117" s="4">
         <v>3500</v>
       </c>
-      <c r="N115" s="4">
+      <c r="N117" s="4">
         <v>3500</v>
       </c>
-      <c r="O115" s="4">
+      <c r="O117" s="4">
         <f>SUM(表3[列15])</f>
         <v>4300</v>
       </c>
-      <c r="P115" s="4">
+      <c r="P117" s="4">
         <v>6000</v>
       </c>
-      <c r="Q115" s="4">
+      <c r="Q117" s="4">
         <v>4030</v>
       </c>
-      <c r="R115" s="4">
+      <c r="R117" s="4">
         <v>4000</v>
       </c>
-      <c r="S115" s="4">
+      <c r="S117" s="4">
         <v>4125</v>
       </c>
-      <c r="T115" s="4">
+      <c r="T117" s="4">
         <v>4125</v>
       </c>
-      <c r="U115" s="4">
+      <c r="U117" s="4">
         <v>5100</v>
       </c>
-      <c r="V115" s="4">
+      <c r="V117" s="4">
         <v>5700</v>
       </c>
-      <c r="W115" s="4">
+      <c r="W117" s="4">
         <v>5020</v>
       </c>
-      <c r="X115" s="4">
+      <c r="X117" s="4">
         <v>5020</v>
       </c>
+      <c r="Y117" s="4">
+        <v>5200</v>
+      </c>
+      <c r="Z117" s="4">
+        <v>3260</v>
+      </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A116" s="5" t="s">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A118" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B116" s="5">
-        <f>B108-B115</f>
+      <c r="B118" s="5">
+        <f>B110-B117</f>
         <v>1410</v>
       </c>
-      <c r="C116" s="5">
-        <f t="shared" ref="C116:M116" si="3">B116+C108-C115</f>
+      <c r="C118" s="5">
+        <f t="shared" ref="C118:M118" si="2">B118+C110-C117</f>
         <v>1496</v>
       </c>
-      <c r="D116" s="5">
-        <f t="shared" si="3"/>
+      <c r="D118" s="5">
+        <f t="shared" si="2"/>
         <v>13691</v>
       </c>
-      <c r="E116" s="5">
-        <f t="shared" si="3"/>
+      <c r="E118" s="5">
+        <f t="shared" si="2"/>
         <v>16196</v>
       </c>
-      <c r="F116" s="5">
-        <f t="shared" si="3"/>
+      <c r="F118" s="5">
+        <f t="shared" si="2"/>
         <v>16559</v>
       </c>
-      <c r="G116" s="5">
-        <f t="shared" si="3"/>
+      <c r="G118" s="5">
+        <f t="shared" si="2"/>
         <v>17822.88</v>
       </c>
-      <c r="H116" s="5">
-        <f t="shared" si="3"/>
+      <c r="H118" s="5">
+        <f t="shared" si="2"/>
         <v>18022.88</v>
       </c>
-      <c r="I116" s="5">
-        <f t="shared" si="3"/>
+      <c r="I118" s="5">
+        <f t="shared" si="2"/>
         <v>19572.88</v>
       </c>
-      <c r="J116" s="5">
-        <f t="shared" si="3"/>
+      <c r="J118" s="5">
+        <f t="shared" si="2"/>
         <v>17367.88</v>
       </c>
-      <c r="K116" s="5">
-        <f t="shared" si="3"/>
+      <c r="K118" s="5">
+        <f t="shared" si="2"/>
         <v>17221.88</v>
       </c>
-      <c r="L116" s="5">
-        <f t="shared" si="3"/>
+      <c r="L118" s="5">
+        <f t="shared" si="2"/>
         <v>17481.88</v>
       </c>
-      <c r="M116" s="5">
-        <f t="shared" si="3"/>
+      <c r="M118" s="5">
+        <f t="shared" si="2"/>
         <v>17177.88</v>
       </c>
-      <c r="N116" s="5">
-        <f t="shared" ref="N116" si="4">M116+N108-N115</f>
+      <c r="N118" s="5">
+        <f t="shared" ref="N118" si="3">M118+N110-N117</f>
         <v>15427.880000000001</v>
       </c>
-      <c r="O116" s="5">
-        <f t="shared" ref="O116:Q116" si="5">N116+O108-O115</f>
+      <c r="O118" s="5">
+        <f t="shared" ref="O118:Q118" si="4">N118+O110-O117</f>
         <v>14657.880000000001</v>
       </c>
-      <c r="P116" s="5">
-        <f t="shared" si="5"/>
+      <c r="P118" s="5">
+        <f t="shared" si="4"/>
         <v>11111.880000000001</v>
       </c>
-      <c r="Q116" s="5">
-        <f t="shared" si="5"/>
+      <c r="Q118" s="5">
+        <f t="shared" si="4"/>
         <v>13231.880000000001</v>
       </c>
-      <c r="R116" s="5">
-        <f>Q116+R108-R115</f>
+      <c r="R118" s="5">
+        <f>Q118+R110-R117</f>
         <v>9231.880000000001</v>
       </c>
-      <c r="S116" s="5">
-        <f t="shared" ref="S116" si="6">R116+S108-S115</f>
+      <c r="S118" s="5">
+        <f t="shared" ref="S118" si="5">R118+S110-S117</f>
         <v>10606.880000000001</v>
       </c>
-      <c r="T116" s="5">
-        <f t="shared" ref="T116" si="7">S116+T108-T115</f>
+      <c r="T118" s="5">
+        <f t="shared" ref="T118" si="6">S118+T110-T117</f>
         <v>11481.880000000001</v>
       </c>
-      <c r="U116" s="5">
-        <f t="shared" ref="U116" si="8">T116+U108-U115</f>
+      <c r="U118" s="5">
+        <f t="shared" ref="U118" si="7">T118+U110-U117</f>
         <v>12631.880000000001</v>
       </c>
-      <c r="V116" s="5">
-        <f t="shared" ref="V116" si="9">U116+V108-V115</f>
+      <c r="V118" s="5">
+        <f t="shared" ref="V118" si="8">U118+V110-V117</f>
         <v>13161.880000000001</v>
       </c>
-      <c r="W116" s="5">
-        <f t="shared" ref="W116" si="10">V116+W108-W115</f>
+      <c r="W118" s="5">
+        <f t="shared" ref="W118:Z118" si="9">V118+W110-W117</f>
         <v>14201.880000000001</v>
       </c>
-      <c r="X116" s="5">
-        <f t="shared" ref="X116" si="11">W116+X108-X115</f>
+      <c r="X118" s="5">
+        <f t="shared" si="9"/>
         <v>13661.880000000001</v>
       </c>
+      <c r="Y118" s="5">
+        <f t="shared" si="9"/>
+        <v>9661.880000000001</v>
+      </c>
+      <c r="Z118" s="5">
+        <f t="shared" si="9"/>
+        <v>7901.880000000001</v>
+      </c>
     </row>
-    <row r="117" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I117" s="2"/>
+    <row r="119" spans="1:26" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I119" s="2"/>
     </row>
-    <row r="119" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I119" s="2"/>
-      <c r="O119" s="1">
-        <f>烟供随喜!$P$41+会供随喜!$B$12+X116</f>
-        <v>29037.11</v>
+    <row r="121" spans="1:26" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I121" s="2"/>
+      <c r="O121" s="1">
+        <f>烟供随喜!$R$41+会供随喜!$B$12+Z118</f>
+        <v>23207.31</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I121" s="2"/>
-    </row>
-    <row r="123" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:26" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I123" s="2"/>
     </row>
-    <row r="125" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:26" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I125" s="2"/>
     </row>
-    <row r="127" spans="1:24" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:26" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I127" s="2"/>
     </row>
     <row r="129" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I129" s="2"/>
+    </row>
+    <row r="131" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I131" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7842,11 +8028,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P40" sqref="P40"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -7855,7 +8041,7 @@
     <col min="12" max="15" width="14.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" s="15" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>42</v>
       </c>
@@ -7899,10 +8085,10 @@
         <v>184</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>186</v>
@@ -7913,8 +8099,17 @@
       <c r="S1" s="15" t="s">
         <v>188</v>
       </c>
+      <c r="T1" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>100</v>
       </c>
@@ -7958,7 +8153,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -7972,7 +8167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>96</v>
       </c>
@@ -7980,7 +8175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>99</v>
       </c>
@@ -8021,7 +8216,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>98</v>
       </c>
@@ -8041,7 +8236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>97</v>
       </c>
@@ -8084,8 +8279,14 @@
       <c r="O7" s="6">
         <v>30</v>
       </c>
+      <c r="Q7" s="6">
+        <v>30</v>
+      </c>
+      <c r="R7" s="6">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>89</v>
       </c>
@@ -8093,7 +8294,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>101</v>
       </c>
@@ -8131,7 +8332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>124</v>
       </c>
@@ -8171,8 +8372,14 @@
       <c r="P10" s="6">
         <v>50</v>
       </c>
+      <c r="Q10" s="6">
+        <v>50</v>
+      </c>
+      <c r="R10" s="6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>106</v>
       </c>
@@ -8180,7 +8387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>102</v>
       </c>
@@ -8188,7 +8395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
@@ -8199,7 +8406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
@@ -8228,7 +8435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -8254,7 +8461,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>189</v>
       </c>
@@ -8415,7 +8622,7 @@
     </row>
     <row r="31" spans="1:16" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P31" s="6">
         <v>100</v>
@@ -8423,7 +8630,7 @@
     </row>
     <row r="32" spans="1:16" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P32" s="6">
         <v>100</v>
@@ -8514,8 +8721,16 @@
         <v>1320</v>
       </c>
       <c r="P39" s="16">
-        <f t="shared" ref="P39" si="1">SUM(P2:P35)</f>
+        <f t="shared" ref="P39:R39" si="1">SUM(P2:P35)</f>
         <v>1270</v>
+      </c>
+      <c r="Q39" s="16">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="R39" s="16">
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -8569,8 +8784,12 @@
         <f>23.66+39.11</f>
         <v>62.769999999999996</v>
       </c>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
+      <c r="Q40" s="11">
+        <v>229.8</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
       <c r="S40" s="11"/>
     </row>
     <row r="41" spans="1:19" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -8637,8 +8856,14 @@
         <f t="shared" si="3"/>
         <v>14972.539999999999</v>
       </c>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
+      <c r="Q41" s="12">
+        <f>P41+Q39-Q40</f>
+        <v>14822.74</v>
+      </c>
+      <c r="R41" s="12">
+        <f>Q41+R39-R40</f>
+        <v>14902.74</v>
+      </c>
       <c r="S41" s="12"/>
     </row>
   </sheetData>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chiming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A4AF7C-F18C-49CA-9FB5-00EBA8E4FF69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A8D6C6-3EFC-4590-A067-A6EAFAAA323F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="213">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -744,27 +744,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.11.05</t>
-  </si>
-  <si>
-    <t>2019.11.06</t>
-  </si>
-  <si>
-    <t>2019.11.07</t>
-  </si>
-  <si>
     <t>大旗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>石玉岩</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backup10</t>
-  </si>
-  <si>
-    <t>backup11</t>
   </si>
   <si>
     <t>backup12</t>
@@ -834,6 +819,26 @@
   </si>
   <si>
     <t>2019.11.10</t>
+  </si>
+  <si>
+    <t>2020.12.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖智勇全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2594,10 +2599,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:AD109" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
-  <autoFilter ref="A1:AD109" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K109">
-    <sortCondition ref="A1:A109"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:AD110" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+  <autoFilter ref="A1:AD110" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K110">
+    <sortCondition ref="A1:A110"/>
   </sortState>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="96"/>
@@ -2626,8 +2631,8 @@
     <tableColumn id="24" xr3:uid="{2A0F6EB2-AF60-49D2-BEB5-6B9F2534D18A}" name="2020.09.13" dataDxfId="73"/>
     <tableColumn id="25" xr3:uid="{DB541BC6-89E2-4661-B559-1BBB3D793ABB}" name="2020.10.18" dataDxfId="72"/>
     <tableColumn id="26" xr3:uid="{C210F1F2-7DCF-4086-B2BB-1B0F79E54596}" name="2020.11.7" dataDxfId="71"/>
-    <tableColumn id="27" xr3:uid="{A6F2325A-DA6C-4782-95FE-68CF6E0AF9BE}" name="backup10" dataDxfId="70"/>
-    <tableColumn id="28" xr3:uid="{822A7C39-1CAA-40EF-8487-47A6A2959D58}" name="backup11" dataDxfId="69"/>
+    <tableColumn id="27" xr3:uid="{A6F2325A-DA6C-4782-95FE-68CF6E0AF9BE}" name="2020.12.05" dataDxfId="70"/>
+    <tableColumn id="28" xr3:uid="{822A7C39-1CAA-40EF-8487-47A6A2959D58}" name="2021.01.01" dataDxfId="69"/>
     <tableColumn id="29" xr3:uid="{7266F9ED-D550-4448-AB45-04645F0C4FDC}" name="backup12" dataDxfId="68"/>
     <tableColumn id="30" xr3:uid="{419B39E0-502F-4708-AA2C-DA5F620CC648}" name="backup13" dataDxfId="67"/>
   </tableColumns>
@@ -2636,8 +2641,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A112:AD115" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
-  <autoFilter ref="A112:AD115" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A113:AD116" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+  <autoFilter ref="A113:AD116" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="64"/>
     <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="63"/>
@@ -2697,9 +2702,9 @@
     <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2020.07.19" dataDxfId="17"/>
     <tableColumn id="15" xr3:uid="{C889229E-9847-4F55-9879-D26AC9B0F475}" name="2020.08.16" dataDxfId="16"/>
     <tableColumn id="16" xr3:uid="{7689C2A1-EFFD-4322-8AD7-70E1C454E68A}" name="2020.09.13" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{265BD7D6-05CA-4F1A-9BFC-1FE1F7E043B7}" name="2019.11.05" dataDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{A7895CF2-85F3-4C44-8D4E-04972226291E}" name="2019.11.06" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{A6B31E82-C02B-4C04-BEFE-5F9FB8712087}" name="2019.11.07" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{265BD7D6-05CA-4F1A-9BFC-1FE1F7E043B7}" name="2020.11.05" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{A7895CF2-85F3-4C44-8D4E-04972226291E}" name="2020.11.06" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{A6B31E82-C02B-4C04-BEFE-5F9FB8712087}" name="2020.12.05" dataDxfId="12"/>
     <tableColumn id="20" xr3:uid="{B57DEBF5-B83E-4EA5-A6D9-04E3EE457F9E}" name="2019.11.08" dataDxfId="11"/>
     <tableColumn id="21" xr3:uid="{E1B5FFF3-B1AE-469E-9486-2C7711E85EC8}" name="2019.11.09" dataDxfId="10"/>
     <tableColumn id="22" xr3:uid="{DF5D0889-C628-428A-AE29-11139F36C6A6}" name="2019.11.10" dataDxfId="9"/>
@@ -3022,12 +3027,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD131"/>
+  <dimension ref="A1:AD133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="O121" sqref="O121"/>
+      <selection pane="topRight" activeCell="AB123" sqref="AB123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
@@ -3108,28 +3113,28 @@
         <v>184</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3205,8 +3210,12 @@
       <c r="Z2" s="6">
         <v>200</v>
       </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
+      <c r="AA2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>1000</v>
+      </c>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
     </row>
@@ -3287,8 +3296,12 @@
       <c r="Z3" s="6">
         <v>500</v>
       </c>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
+      <c r="AA3" s="6">
+        <v>500</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>500</v>
+      </c>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
     </row>
@@ -3365,7 +3378,9 @@
       <c r="Z4" s="6">
         <v>100</v>
       </c>
-      <c r="AA4" s="6"/>
+      <c r="AA4" s="6">
+        <v>100</v>
+      </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -3437,8 +3452,12 @@
       <c r="Z5" s="6">
         <v>100</v>
       </c>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
+      <c r="AA5" s="6">
+        <v>100</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>100</v>
+      </c>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
     </row>
@@ -3501,8 +3520,12 @@
       <c r="Z6" s="6">
         <v>200</v>
       </c>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
+      <c r="AA6" s="6">
+        <v>200</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>200</v>
+      </c>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
     </row>
@@ -3932,7 +3955,7 @@
     </row>
     <row r="14" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4544,7 +4567,7 @@
     </row>
     <row r="28" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4575,25 +4598,25 @@
       <c r="Z28" s="6">
         <v>100</v>
       </c>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
+      <c r="AA28" s="6">
+        <v>100</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>100</v>
+      </c>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
     </row>
     <row r="29" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <v>200</v>
-      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6">
-        <v>200</v>
-      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -4607,20 +4630,28 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
+      <c r="U29" s="6">
+        <v>100</v>
+      </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
+      <c r="W29" s="6">
+        <v>100</v>
+      </c>
+      <c r="X29" s="6">
+        <v>100</v>
+      </c>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
+      <c r="AB29" s="6">
+        <v>100</v>
+      </c>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
     </row>
     <row r="30" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4630,9 +4661,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="6">
-        <v>100</v>
-      </c>
+      <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -4650,26 +4679,30 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
+      <c r="AB30" s="6">
+        <v>50</v>
+      </c>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
     </row>
     <row r="31" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6">
+        <v>200</v>
+      </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6">
+        <v>200</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6">
-        <v>100</v>
-      </c>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -4692,19 +4725,19 @@
     </row>
     <row r="32" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="6">
-        <v>4160</v>
-      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="6">
+        <v>100</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -4728,20 +4761,20 @@
     </row>
     <row r="33" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6">
-        <v>50</v>
-      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="K33" s="6">
+        <v>100</v>
+      </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -4763,19 +4796,19 @@
       <c r="AD33" s="6"/>
     </row>
     <row r="34" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
-        <v>92</v>
+      <c r="A34" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6">
+        <v>4160</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="6">
-        <v>200</v>
-      </c>
+      <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -4799,8 +4832,8 @@
       <c r="AD34" s="6"/>
     </row>
     <row r="35" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="7" t="s">
-        <v>82</v>
+      <c r="A35" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4808,7 +4841,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -4836,18 +4869,18 @@
     </row>
     <row r="36" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="6">
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6">
         <v>200</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -4872,7 +4905,7 @@
     </row>
     <row r="37" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4880,7 +4913,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -4907,25 +4940,23 @@
       <c r="AD37" s="6"/>
     </row>
     <row r="38" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="6" t="s">
-        <v>37</v>
+      <c r="A38" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6">
         <v>200</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="6">
-        <v>50</v>
-      </c>
+      <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -4933,13 +4964,9 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
-      <c r="U38" s="6">
-        <v>100</v>
-      </c>
+      <c r="U38" s="6"/>
       <c r="V38" s="6"/>
-      <c r="W38" s="6">
-        <v>100</v>
-      </c>
+      <c r="W38" s="6"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
@@ -4949,18 +4976,16 @@
       <c r="AD38" s="6"/>
     </row>
     <row r="39" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A39" s="6" t="s">
-        <v>29</v>
+      <c r="A39" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="6">
-        <v>200</v>
-      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -4988,14 +5013,14 @@
     </row>
     <row r="40" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="6">
-        <v>100</v>
-      </c>
-      <c r="E40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
+        <v>200</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -5003,7 +5028,9 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
+      <c r="M40" s="6">
+        <v>50</v>
+      </c>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -5011,9 +5038,13 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
+      <c r="U40" s="6">
+        <v>100</v>
+      </c>
       <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
+      <c r="W40" s="6">
+        <v>100</v>
+      </c>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
@@ -5024,20 +5055,22 @@
     </row>
     <row r="41" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="6">
+        <v>200</v>
+      </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="G41" s="6">
+        <v>200</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="6">
-        <v>200</v>
-      </c>
+      <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -5059,17 +5092,17 @@
       <c r="AD41" s="6"/>
     </row>
     <row r="42" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A42" s="7" t="s">
-        <v>84</v>
+      <c r="A42" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6">
+        <v>100</v>
+      </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6">
-        <v>50</v>
-      </c>
+      <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -5096,20 +5129,20 @@
     </row>
     <row r="43" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6">
-        <v>100</v>
-      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="K43" s="6">
+        <v>200</v>
+      </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -5132,7 +5165,7 @@
     </row>
     <row r="44" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -5140,7 +5173,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -5168,21 +5201,21 @@
     </row>
     <row r="45" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="G45" s="6">
+        <v>100</v>
+      </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="6">
-        <v>100</v>
-      </c>
+      <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
@@ -5203,15 +5236,17 @@
       <c r="AD45" s="6"/>
     </row>
     <row r="46" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="6" t="s">
-        <v>149</v>
+      <c r="A46" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="G46" s="6">
+        <v>200</v>
+      </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -5221,9 +5256,7 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="6">
-        <v>1000</v>
-      </c>
+      <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
@@ -5239,22 +5272,22 @@
       <c r="AD46" s="6"/>
     </row>
     <row r="47" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="7" t="s">
-        <v>70</v>
+      <c r="A47" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="6">
-        <v>30</v>
-      </c>
+      <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="L47" s="6">
+        <v>100</v>
+      </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
@@ -5276,15 +5309,13 @@
     </row>
     <row r="48" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="6">
-        <v>200</v>
-      </c>
+      <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -5295,7 +5326,9 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
+      <c r="Q48" s="6">
+        <v>1000</v>
+      </c>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -5311,17 +5344,17 @@
       <c r="AD48" s="6"/>
     </row>
     <row r="49" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="6" t="s">
-        <v>14</v>
+      <c r="A49" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="6">
-        <v>20</v>
-      </c>
+      <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="G49" s="6">
+        <v>30</v>
+      </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -5347,17 +5380,17 @@
       <c r="AD49" s="6"/>
     </row>
     <row r="50" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="7" t="s">
-        <v>72</v>
+      <c r="A50" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6">
-        <v>88.88</v>
-      </c>
+      <c r="F50" s="6">
+        <v>200</v>
+      </c>
+      <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -5383,21 +5416,21 @@
       <c r="AD50" s="6"/>
     </row>
     <row r="51" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="7" t="s">
-        <v>107</v>
+      <c r="A51" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="6">
+        <v>20</v>
+      </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="6">
-        <v>200</v>
-      </c>
+      <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -5420,7 +5453,7 @@
     </row>
     <row r="52" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -5428,7 +5461,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6">
-        <v>200</v>
+        <v>88.88</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -5456,20 +5489,20 @@
     </row>
     <row r="53" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6">
-        <v>50</v>
-      </c>
+      <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="K53" s="6">
+        <v>200</v>
+      </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -5491,17 +5524,17 @@
       <c r="AD53" s="6"/>
     </row>
     <row r="54" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="6" t="s">
-        <v>48</v>
+      <c r="A54" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="6">
-        <v>107</v>
-      </c>
-      <c r="G54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6">
+        <v>200</v>
+      </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -5528,7 +5561,7 @@
     </row>
     <row r="55" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -5536,7 +5569,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -5564,15 +5597,15 @@
     </row>
     <row r="56" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="6">
-        <v>100</v>
-      </c>
-      <c r="F56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6">
+        <v>107</v>
+      </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -5600,7 +5633,7 @@
     </row>
     <row r="57" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -5608,7 +5641,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -5636,14 +5669,14 @@
     </row>
     <row r="58" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="6">
-        <v>200</v>
-      </c>
-      <c r="E58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6">
+        <v>100</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -5655,13 +5688,9 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
-      <c r="Q58" s="6" t="s">
-        <v>145</v>
-      </c>
+      <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
-      <c r="S58" s="6" t="s">
-        <v>145</v>
-      </c>
+      <c r="S58" s="6"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
@@ -5676,7 +5705,7 @@
     </row>
     <row r="59" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -5712,12 +5741,12 @@
     </row>
     <row r="60" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -5731,9 +5760,13 @@
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
+      <c r="Q60" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
+      <c r="S60" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
@@ -5747,25 +5780,23 @@
       <c r="AD60" s="6"/>
     </row>
     <row r="61" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="6" t="s">
-        <v>60</v>
+      <c r="A61" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6">
+      <c r="G61" s="6">
         <v>200</v>
       </c>
+      <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="6">
-        <v>100</v>
-      </c>
+      <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -5786,14 +5817,14 @@
     </row>
     <row r="62" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6">
-        <v>100</v>
-      </c>
+      <c r="D62" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -5821,23 +5852,25 @@
       <c r="AD62" s="6"/>
     </row>
     <row r="63" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A63" s="7" t="s">
-        <v>77</v>
+      <c r="A63" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="6">
-        <v>50</v>
-      </c>
-      <c r="H63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6">
+        <v>200</v>
+      </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
+      <c r="M63" s="6">
+        <v>100</v>
+      </c>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
@@ -5857,19 +5890,19 @@
       <c r="AD63" s="6"/>
     </row>
     <row r="64" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="7" t="s">
-        <v>89</v>
+      <c r="A64" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="E64" s="6">
+        <v>100</v>
+      </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="6">
-        <v>800</v>
-      </c>
+      <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -5894,7 +5927,7 @@
     </row>
     <row r="65" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -5930,7 +5963,7 @@
     </row>
     <row r="66" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -5938,10 +5971,10 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6">
-        <v>100</v>
-      </c>
-      <c r="I66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6">
+        <v>800</v>
+      </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
@@ -5965,17 +5998,17 @@
       <c r="AD66" s="6"/>
     </row>
     <row r="67" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="6" t="s">
-        <v>9</v>
+      <c r="A67" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="6">
-        <v>100</v>
-      </c>
+      <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="G67" s="6">
+        <v>50</v>
+      </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -6000,9 +6033,9 @@
       <c r="AC67" s="6"/>
       <c r="AD67" s="6"/>
     </row>
-    <row r="68" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="6" t="s">
-        <v>142</v>
+    <row r="68" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A68" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -6010,16 +6043,16 @@
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="H68" s="6">
+        <v>100</v>
+      </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
-      <c r="O68" s="6">
-        <v>20</v>
-      </c>
+      <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
@@ -6036,13 +6069,15 @@
       <c r="AC68" s="6"/>
       <c r="AD68" s="6"/>
     </row>
-    <row r="69" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="6">
+        <v>100</v>
+      </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -6053,9 +6088,7 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="6">
-        <v>10</v>
-      </c>
+      <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
@@ -6072,9 +6105,9 @@
       <c r="AC69" s="6"/>
       <c r="AD69" s="6"/>
     </row>
-    <row r="70" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -6090,7 +6123,7 @@
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
@@ -6108,9 +6141,9 @@
       <c r="AC70" s="6"/>
       <c r="AD70" s="6"/>
     </row>
-    <row r="71" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -6146,7 +6179,7 @@
     </row>
     <row r="72" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -6182,7 +6215,7 @@
     </row>
     <row r="73" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -6218,7 +6251,7 @@
     </row>
     <row r="74" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -6234,7 +6267,7 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
@@ -6254,7 +6287,7 @@
     </row>
     <row r="75" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -6289,17 +6322,15 @@
       <c r="AD75" s="6"/>
     </row>
     <row r="76" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="7" t="s">
-        <v>68</v>
+      <c r="A76" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="6">
-        <v>200</v>
-      </c>
+      <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -6307,11 +6338,11 @@
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
+      <c r="O76" s="6">
+        <v>20</v>
+      </c>
       <c r="P76" s="6"/>
-      <c r="Q76" s="6">
-        <v>300</v>
-      </c>
+      <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
@@ -6327,8 +6358,8 @@
       <c r="AD76" s="6"/>
     </row>
     <row r="77" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="7" t="s">
-        <v>90</v>
+      <c r="A77" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -6337,15 +6368,15 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="6">
-        <v>300</v>
-      </c>
+      <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
+      <c r="O77" s="6">
+        <v>10</v>
+      </c>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
@@ -6364,14 +6395,16 @@
     </row>
     <row r="78" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="7" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="G78" s="6">
+        <v>200</v>
+      </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
@@ -6379,11 +6412,11 @@
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
-      <c r="O78" s="6">
-        <v>100</v>
-      </c>
+      <c r="O78" s="6"/>
       <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
+      <c r="Q78" s="6">
+        <v>300</v>
+      </c>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
@@ -6400,7 +6433,7 @@
     </row>
     <row r="79" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -6409,15 +6442,15 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+      <c r="I79" s="6">
+        <v>300</v>
+      </c>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="6">
-        <v>50</v>
-      </c>
+      <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
@@ -6436,16 +6469,14 @@
     </row>
     <row r="80" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="6">
-        <v>200</v>
-      </c>
+      <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -6453,7 +6484,9 @@
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
+      <c r="O80" s="6">
+        <v>100</v>
+      </c>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
@@ -6472,16 +6505,14 @@
     </row>
     <row r="81" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="6">
-        <v>200</v>
-      </c>
+      <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -6489,7 +6520,9 @@
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
+      <c r="O81" s="6">
+        <v>50</v>
+      </c>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
@@ -6507,17 +6540,17 @@
       <c r="AD81" s="6"/>
     </row>
     <row r="82" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="6" t="s">
-        <v>7</v>
+      <c r="A82" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="6">
-        <v>55</v>
-      </c>
+      <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="G82" s="6">
+        <v>200</v>
+      </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -6543,8 +6576,8 @@
       <c r="AD82" s="6"/>
     </row>
     <row r="83" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="6" t="s">
-        <v>54</v>
+      <c r="A83" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -6580,20 +6613,20 @@
     </row>
     <row r="84" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="6">
+        <v>55</v>
+      </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
-      <c r="K84" s="6">
-        <v>100</v>
-      </c>
+      <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -6615,8 +6648,8 @@
       <c r="AD84" s="6"/>
     </row>
     <row r="85" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A85" s="7" t="s">
-        <v>76</v>
+      <c r="A85" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -6624,7 +6657,7 @@
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
@@ -6651,21 +6684,21 @@
       <c r="AD85" s="6"/>
     </row>
     <row r="86" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="7" t="s">
-        <v>73</v>
+      <c r="A86" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="6">
-        <v>50</v>
-      </c>
+      <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
+      <c r="K86" s="6">
+        <v>100</v>
+      </c>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
@@ -6688,7 +6721,7 @@
     </row>
     <row r="87" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -6724,7 +6757,7 @@
     </row>
     <row r="88" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -6759,17 +6792,17 @@
       <c r="AD88" s="6"/>
     </row>
     <row r="89" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A89" s="6" t="s">
-        <v>41</v>
+      <c r="A89" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="6">
-        <v>10</v>
-      </c>
+      <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+      <c r="G89" s="6">
+        <v>50</v>
+      </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -6796,7 +6829,7 @@
     </row>
     <row r="90" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -6831,17 +6864,17 @@
       <c r="AD90" s="6"/>
     </row>
     <row r="91" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A91" s="7" t="s">
-        <v>78</v>
+      <c r="A91" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
+      <c r="E91" s="6">
+        <v>10</v>
+      </c>
       <c r="F91" s="6"/>
-      <c r="G91" s="6">
-        <v>50</v>
-      </c>
+      <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -6867,19 +6900,19 @@
       <c r="AD91" s="6"/>
     </row>
     <row r="92" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A92" s="6" t="s">
-        <v>102</v>
+      <c r="A92" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+      <c r="G92" s="6">
+        <v>50</v>
+      </c>
       <c r="H92" s="6"/>
-      <c r="I92" s="6">
-        <v>50</v>
-      </c>
+      <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
@@ -6889,9 +6922,7 @@
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
-      <c r="S92" s="6">
-        <v>100</v>
-      </c>
+      <c r="S92" s="6"/>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
@@ -6905,21 +6936,21 @@
       <c r="AD92" s="6"/>
     </row>
     <row r="93" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="6" t="s">
-        <v>109</v>
+      <c r="A93" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
+      <c r="G93" s="6">
+        <v>50</v>
+      </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
-      <c r="K93" s="6">
-        <v>100</v>
-      </c>
+      <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
@@ -6942,7 +6973,7 @@
     </row>
     <row r="94" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -6951,19 +6982,21 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
+      <c r="I94" s="6">
+        <v>50</v>
+      </c>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
-      <c r="M94" s="6">
-        <v>66</v>
-      </c>
+      <c r="M94" s="6"/>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
+      <c r="S94" s="6">
+        <v>100</v>
+      </c>
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
@@ -6977,8 +7010,8 @@
       <c r="AD94" s="6"/>
     </row>
     <row r="95" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="7" t="s">
-        <v>87</v>
+      <c r="A95" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -6987,11 +7020,11 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="6">
-        <v>200</v>
-      </c>
+      <c r="I95" s="6"/>
       <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
+      <c r="K95" s="6">
+        <v>100</v>
+      </c>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
@@ -7013,8 +7046,8 @@
       <c r="AD95" s="6"/>
     </row>
     <row r="96" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="7" t="s">
-        <v>121</v>
+      <c r="A96" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -7028,7 +7061,7 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
@@ -7049,8 +7082,8 @@
       <c r="AD96" s="6"/>
     </row>
     <row r="97" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A97" s="6" t="s">
-        <v>123</v>
+      <c r="A97" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -7059,13 +7092,13 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
+      <c r="I97" s="6">
+        <v>200</v>
+      </c>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
-      <c r="M97" s="6">
-        <v>100</v>
-      </c>
+      <c r="M97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
@@ -7074,9 +7107,7 @@
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
-      <c r="V97" s="6">
-        <v>200</v>
-      </c>
+      <c r="V97" s="6"/>
       <c r="W97" s="6"/>
       <c r="X97" s="6"/>
       <c r="Y97" s="6"/>
@@ -7087,8 +7118,8 @@
       <c r="AD97" s="6"/>
     </row>
     <row r="98" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A98" s="6" t="s">
-        <v>152</v>
+      <c r="A98" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -7101,13 +7132,13 @@
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
+      <c r="M98" s="6">
+        <v>30</v>
+      </c>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
-      <c r="Q98" s="6">
-        <v>100</v>
-      </c>
+      <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
@@ -7124,7 +7155,7 @@
     </row>
     <row r="99" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -7137,21 +7168,19 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
+      <c r="M99" s="6">
+        <v>100</v>
+      </c>
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
-      <c r="Q99" s="6">
-        <v>100</v>
-      </c>
+      <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
-      <c r="U99" s="6">
-        <v>100</v>
-      </c>
+      <c r="U99" s="6"/>
       <c r="V99" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W99" s="6"/>
       <c r="X99" s="6"/>
@@ -7164,7 +7193,7 @@
     </row>
     <row r="100" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -7181,13 +7210,13 @@
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
+      <c r="Q100" s="6">
+        <v>100</v>
+      </c>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
-      <c r="U100" s="6">
-        <v>100</v>
-      </c>
+      <c r="U100" s="6"/>
       <c r="V100" s="6"/>
       <c r="W100" s="6"/>
       <c r="X100" s="6"/>
@@ -7200,7 +7229,7 @@
     </row>
     <row r="101" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -7217,14 +7246,18 @@
       <c r="N101" s="6"/>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
+      <c r="Q101" s="6">
+        <v>100</v>
+      </c>
       <c r="R101" s="6"/>
-      <c r="S101" s="6">
-        <v>50</v>
-      </c>
+      <c r="S101" s="6"/>
       <c r="T101" s="6"/>
-      <c r="U101" s="6"/>
-      <c r="V101" s="6"/>
+      <c r="U101" s="6">
+        <v>100</v>
+      </c>
+      <c r="V101" s="6">
+        <v>100</v>
+      </c>
       <c r="W101" s="6"/>
       <c r="X101" s="6"/>
       <c r="Y101" s="6"/>
@@ -7236,7 +7269,7 @@
     </row>
     <row r="102" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -7255,11 +7288,11 @@
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
-      <c r="S102" s="6">
-        <v>50</v>
-      </c>
+      <c r="S102" s="6"/>
       <c r="T102" s="6"/>
-      <c r="U102" s="6"/>
+      <c r="U102" s="6">
+        <v>100</v>
+      </c>
       <c r="V102" s="6"/>
       <c r="W102" s="6"/>
       <c r="X102" s="6"/>
@@ -7272,7 +7305,7 @@
     </row>
     <row r="103" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -7291,18 +7324,14 @@
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
-      <c r="S103" s="6"/>
+      <c r="S103" s="6">
+        <v>50</v>
+      </c>
       <c r="T103" s="6"/>
-      <c r="U103" s="6">
-        <v>100</v>
-      </c>
+      <c r="U103" s="6"/>
       <c r="V103" s="6"/>
-      <c r="W103" s="6">
-        <v>100</v>
-      </c>
-      <c r="X103" s="6">
-        <v>100</v>
-      </c>
+      <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
       <c r="Z103" s="6"/>
       <c r="AA103" s="6"/>
@@ -7312,14 +7341,12 @@
     </row>
     <row r="104" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="6">
-        <v>20</v>
-      </c>
+      <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
@@ -7333,7 +7360,9 @@
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
+      <c r="S104" s="6">
+        <v>50</v>
+      </c>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
@@ -7348,12 +7377,14 @@
     </row>
     <row r="105" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
+      <c r="E105" s="6">
+        <v>20</v>
+      </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -7372,9 +7403,7 @@
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
       <c r="W105" s="6"/>
-      <c r="X105" s="6">
-        <v>400</v>
-      </c>
+      <c r="X105" s="6"/>
       <c r="Y105" s="6"/>
       <c r="Z105" s="6"/>
       <c r="AA105" s="6"/>
@@ -7384,7 +7413,7 @@
     </row>
     <row r="106" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -7409,7 +7438,7 @@
       <c r="V106" s="6"/>
       <c r="W106" s="6"/>
       <c r="X106" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>
@@ -7420,7 +7449,7 @@
     </row>
     <row r="107" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -7445,7 +7474,7 @@
       <c r="V107" s="6"/>
       <c r="W107" s="6"/>
       <c r="X107" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y107" s="6"/>
       <c r="Z107" s="6"/>
@@ -7456,7 +7485,7 @@
     </row>
     <row r="108" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="6" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -7478,11 +7507,11 @@
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
-      <c r="V108" s="6">
-        <v>800</v>
-      </c>
+      <c r="V108" s="6"/>
       <c r="W108" s="6"/>
-      <c r="X108" s="6"/>
+      <c r="X108" s="6">
+        <v>100</v>
+      </c>
       <c r="Y108" s="6"/>
       <c r="Z108" s="6"/>
       <c r="AA108" s="6"/>
@@ -7492,14 +7521,12 @@
     </row>
     <row r="109" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="6">
-        <v>50</v>
-      </c>
+      <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -7516,7 +7543,9 @@
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
-      <c r="V109" s="6"/>
+      <c r="V109" s="6">
+        <v>800</v>
+      </c>
       <c r="W109" s="6"/>
       <c r="X109" s="6"/>
       <c r="Y109" s="6"/>
@@ -7526,482 +7555,529 @@
       <c r="AC109" s="6"/>
       <c r="AD109" s="6"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A110" s="3" t="s">
+    <row r="110" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A110" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6">
+        <v>50</v>
+      </c>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="6"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="6"/>
+      <c r="Y110" s="6"/>
+      <c r="Z110" s="6"/>
+      <c r="AA110" s="6"/>
+      <c r="AB110" s="6"/>
+      <c r="AC110" s="6"/>
+      <c r="AD110" s="6"/>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A111" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B110" s="16">
-        <f t="shared" ref="B110:Z110" si="0">SUM(B2:B109)</f>
+      <c r="B111" s="16">
+        <f t="shared" ref="B111:AD111" si="0">SUM(B2:B110)</f>
         <v>1980</v>
       </c>
-      <c r="C110" s="16">
+      <c r="C111" s="16">
         <f t="shared" si="0"/>
         <v>1166</v>
       </c>
-      <c r="D110" s="16">
+      <c r="D111" s="16">
         <f t="shared" si="0"/>
         <v>12195</v>
       </c>
-      <c r="E110" s="16">
+      <c r="E111" s="16">
         <f t="shared" si="0"/>
         <v>5530</v>
       </c>
-      <c r="F110" s="16">
+      <c r="F111" s="16">
         <f t="shared" si="0"/>
         <v>2517</v>
       </c>
-      <c r="G110" s="16">
+      <c r="G111" s="16">
         <f t="shared" si="0"/>
         <v>6563.88</v>
       </c>
-      <c r="H110" s="16">
+      <c r="H111" s="16">
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="I110" s="16">
+      <c r="I111" s="16">
         <f t="shared" si="0"/>
         <v>5550</v>
       </c>
-      <c r="J110" s="16">
+      <c r="J111" s="16">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="K110" s="16">
+      <c r="K111" s="16">
         <f t="shared" si="0"/>
         <v>3900</v>
       </c>
-      <c r="L110" s="16">
+      <c r="L111" s="16">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="M110" s="16">
+      <c r="M111" s="16">
         <f t="shared" si="0"/>
         <v>3196</v>
       </c>
-      <c r="N110" s="16">
+      <c r="N111" s="16">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="O110" s="16">
+      <c r="O111" s="16">
         <f t="shared" si="0"/>
         <v>3530</v>
       </c>
-      <c r="P110" s="16">
+      <c r="P111" s="16">
         <f t="shared" si="0"/>
         <v>2454</v>
       </c>
-      <c r="Q110" s="16">
+      <c r="Q111" s="16">
         <f t="shared" si="0"/>
         <v>6150</v>
       </c>
-      <c r="R110" s="3">
+      <c r="R111" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S110" s="3">
+      <c r="S111" s="3">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="T110" s="16">
+      <c r="T111" s="16">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="U110" s="16">
+      <c r="U111" s="16">
         <f t="shared" si="0"/>
         <v>6250</v>
       </c>
-      <c r="V110" s="16">
+      <c r="V111" s="16">
         <f t="shared" si="0"/>
         <v>6230</v>
       </c>
-      <c r="W110" s="16">
+      <c r="W111" s="16">
         <f t="shared" si="0"/>
         <v>6060</v>
       </c>
-      <c r="X110" s="16">
+      <c r="X111" s="16">
         <f t="shared" si="0"/>
         <v>4480</v>
       </c>
-      <c r="Y110" s="16">
+      <c r="Y111" s="16">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="Z110" s="16">
+      <c r="Z111" s="16">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA110" s="16">
-        <f>SUM(AA2:AA109)</f>
+      <c r="AA111" s="16">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="AB111" s="16">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="AC111" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB110" s="16">
-        <f>SUM(AB2:AB109)</f>
+      <c r="AD111" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC110" s="16">
-        <f>SUM(AC2:AC109)</f>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T113" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W113" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="X113" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y113" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z113" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA113" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB113" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC113" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD113" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O115" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="1">
+        <v>570</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D116" s="1">
         <v>0</v>
       </c>
-      <c r="AD110" s="16">
-        <f>SUM(AD2:AD109)</f>
-        <v>0</v>
+      <c r="E116" s="1">
+        <v>3025</v>
+      </c>
+      <c r="F116" s="1">
+        <v>2154</v>
+      </c>
+      <c r="G116" s="1">
+        <v>3200</v>
+      </c>
+      <c r="H116" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I116" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J116" s="1">
+        <v>3555</v>
+      </c>
+      <c r="K116" s="1">
+        <v>4046</v>
+      </c>
+      <c r="O116" s="1">
+        <v>4100</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A112" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q112" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R112" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="S112" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="T112" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="U112" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="V112" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="W112" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="X112" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y112" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z112" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA112" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB112" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC112" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD112" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A113" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G113" s="1">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A114" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O114" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A115" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B115" s="1">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A119" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" s="4">
+        <f>SUM(B114:B116)</f>
         <v>570</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C119" s="4">
+        <f t="shared" ref="C119:G119" si="1">SUM(C114:C116)</f>
         <v>1080</v>
       </c>
-      <c r="D115" s="1">
-        <v>0</v>
-      </c>
-      <c r="E115" s="1">
-        <v>3025</v>
-      </c>
-      <c r="F115" s="1">
-        <v>2154</v>
-      </c>
-      <c r="G115" s="1">
-        <v>3200</v>
-      </c>
-      <c r="H115" s="1">
-        <v>3500</v>
-      </c>
-      <c r="I115" s="1">
-        <v>4000</v>
-      </c>
-      <c r="J115" s="1">
-        <v>3555</v>
-      </c>
-      <c r="K115" s="1">
-        <v>4046</v>
-      </c>
-      <c r="O115" s="1">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A117" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B117" s="4">
-        <f>SUM(B113:B115)</f>
-        <v>570</v>
-      </c>
-      <c r="C117" s="4">
-        <f t="shared" ref="C117:G117" si="1">SUM(C113:C115)</f>
-        <v>1080</v>
-      </c>
-      <c r="D117" s="4">
+      <c r="D119" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E119" s="4">
         <f t="shared" si="1"/>
         <v>3025</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F119" s="4">
         <f t="shared" si="1"/>
         <v>2154</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G119" s="4">
         <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H119" s="4">
         <v>3500</v>
       </c>
-      <c r="I117" s="4">
+      <c r="I119" s="4">
         <v>4000</v>
       </c>
-      <c r="J117" s="4">
+      <c r="J119" s="4">
         <v>3555</v>
       </c>
-      <c r="K117" s="4">
+      <c r="K119" s="4">
         <v>4046</v>
       </c>
-      <c r="L117" s="4">
+      <c r="L119" s="4">
         <v>3490</v>
       </c>
-      <c r="M117" s="4">
+      <c r="M119" s="4">
         <v>3500</v>
       </c>
-      <c r="N117" s="4">
+      <c r="N119" s="4">
         <v>3500</v>
       </c>
-      <c r="O117" s="4">
+      <c r="O119" s="4">
         <f>SUM(表3[列15])</f>
         <v>4300</v>
       </c>
-      <c r="P117" s="4">
+      <c r="P119" s="4">
         <v>6000</v>
       </c>
-      <c r="Q117" s="4">
+      <c r="Q119" s="4">
         <v>4030</v>
       </c>
-      <c r="R117" s="4">
+      <c r="R119" s="4">
         <v>4000</v>
       </c>
-      <c r="S117" s="4">
+      <c r="S119" s="4">
         <v>4125</v>
       </c>
-      <c r="T117" s="4">
+      <c r="T119" s="4">
         <v>4125</v>
       </c>
-      <c r="U117" s="4">
+      <c r="U119" s="4">
         <v>5100</v>
       </c>
-      <c r="V117" s="4">
+      <c r="V119" s="4">
         <v>5700</v>
       </c>
-      <c r="W117" s="4">
+      <c r="W119" s="4">
         <v>5020</v>
       </c>
-      <c r="X117" s="4">
+      <c r="X119" s="4">
         <v>5020</v>
       </c>
-      <c r="Y117" s="4">
+      <c r="Y119" s="4">
         <v>5200</v>
       </c>
-      <c r="Z117" s="4">
+      <c r="Z119" s="4">
         <v>3260</v>
       </c>
+      <c r="AA119" s="4">
+        <v>3260</v>
+      </c>
+      <c r="AB119" s="4">
+        <v>6075</v>
+      </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A118" s="5" t="s">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A120" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B118" s="5">
-        <f>B110-B117</f>
+      <c r="B120" s="5">
+        <f>B111-B119</f>
         <v>1410</v>
       </c>
-      <c r="C118" s="5">
-        <f t="shared" ref="C118:M118" si="2">B118+C110-C117</f>
+      <c r="C120" s="5">
+        <f t="shared" ref="C120:M120" si="2">B120+C111-C119</f>
         <v>1496</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D120" s="5">
         <f t="shared" si="2"/>
         <v>13691</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E120" s="5">
         <f t="shared" si="2"/>
         <v>16196</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F120" s="5">
         <f t="shared" si="2"/>
         <v>16559</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G120" s="5">
         <f t="shared" si="2"/>
         <v>17822.88</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H120" s="5">
         <f t="shared" si="2"/>
         <v>18022.88</v>
       </c>
-      <c r="I118" s="5">
+      <c r="I120" s="5">
         <f t="shared" si="2"/>
         <v>19572.88</v>
       </c>
-      <c r="J118" s="5">
+      <c r="J120" s="5">
         <f t="shared" si="2"/>
         <v>17367.88</v>
       </c>
-      <c r="K118" s="5">
+      <c r="K120" s="5">
         <f t="shared" si="2"/>
         <v>17221.88</v>
       </c>
-      <c r="L118" s="5">
+      <c r="L120" s="5">
         <f t="shared" si="2"/>
         <v>17481.88</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M120" s="5">
         <f t="shared" si="2"/>
         <v>17177.88</v>
       </c>
-      <c r="N118" s="5">
-        <f t="shared" ref="N118" si="3">M118+N110-N117</f>
+      <c r="N120" s="5">
+        <f t="shared" ref="N120" si="3">M120+N111-N119</f>
         <v>15427.880000000001</v>
       </c>
-      <c r="O118" s="5">
-        <f t="shared" ref="O118:Q118" si="4">N118+O110-O117</f>
+      <c r="O120" s="5">
+        <f t="shared" ref="O120:Q120" si="4">N120+O111-O119</f>
         <v>14657.880000000001</v>
       </c>
-      <c r="P118" s="5">
+      <c r="P120" s="5">
         <f t="shared" si="4"/>
         <v>11111.880000000001</v>
       </c>
-      <c r="Q118" s="5">
+      <c r="Q120" s="5">
         <f t="shared" si="4"/>
         <v>13231.880000000001</v>
       </c>
-      <c r="R118" s="5">
-        <f>Q118+R110-R117</f>
+      <c r="R120" s="5">
+        <f>Q120+R111-R119</f>
         <v>9231.880000000001</v>
       </c>
-      <c r="S118" s="5">
-        <f t="shared" ref="S118" si="5">R118+S110-S117</f>
+      <c r="S120" s="5">
+        <f t="shared" ref="S120" si="5">R120+S111-S119</f>
         <v>10606.880000000001</v>
       </c>
-      <c r="T118" s="5">
-        <f t="shared" ref="T118" si="6">S118+T110-T117</f>
+      <c r="T120" s="5">
+        <f t="shared" ref="T120" si="6">S120+T111-T119</f>
         <v>11481.880000000001</v>
       </c>
-      <c r="U118" s="5">
-        <f t="shared" ref="U118" si="7">T118+U110-U117</f>
+      <c r="U120" s="5">
+        <f t="shared" ref="U120" si="7">T120+U111-U119</f>
         <v>12631.880000000001</v>
       </c>
-      <c r="V118" s="5">
-        <f t="shared" ref="V118" si="8">U118+V110-V117</f>
+      <c r="V120" s="5">
+        <f t="shared" ref="V120" si="8">U120+V111-V119</f>
         <v>13161.880000000001</v>
       </c>
-      <c r="W118" s="5">
-        <f t="shared" ref="W118:Z118" si="9">V118+W110-W117</f>
+      <c r="W120" s="5">
+        <f t="shared" ref="W120:Z120" si="9">V120+W111-W119</f>
         <v>14201.880000000001</v>
       </c>
-      <c r="X118" s="5">
+      <c r="X120" s="5">
         <f t="shared" si="9"/>
         <v>13661.880000000001</v>
       </c>
-      <c r="Y118" s="5">
+      <c r="Y120" s="5">
         <f t="shared" si="9"/>
         <v>9661.880000000001</v>
       </c>
-      <c r="Z118" s="5">
+      <c r="Z120" s="5">
         <f t="shared" si="9"/>
         <v>7901.880000000001</v>
       </c>
+      <c r="AA120" s="5">
+        <f>Z120+AA111-AA119</f>
+        <v>6641.880000000001</v>
+      </c>
+      <c r="AB120" s="5">
+        <f>AA120+AB111-AB119</f>
+        <v>2616.880000000001</v>
+      </c>
     </row>
-    <row r="119" spans="1:26" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I119" s="2"/>
+    <row r="121" spans="1:30" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I121" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I121" s="2"/>
-      <c r="O121" s="1">
-        <f>烟供随喜!$R$41+会供随喜!$B$12+Z118</f>
-        <v>23207.31</v>
+    <row r="123" spans="1:30" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I123" s="2"/>
+      <c r="O123" s="1">
+        <f>烟供随喜!$S$41+会供随喜!$B$12+AB120</f>
+        <v>18230.510000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:26" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I123" s="2"/>
-    </row>
-    <row r="125" spans="1:26" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:30" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I125" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:30" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I127" s="2"/>
     </row>
     <row r="129" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
@@ -8009,6 +8085,9 @@
     </row>
     <row r="131" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I131" s="2"/>
+    </row>
+    <row r="133" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I133" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8030,9 +8109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R44" sqref="R44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -8085,28 +8164,28 @@
         <v>184</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -8152,6 +8231,9 @@
       <c r="P2" s="6">
         <v>300</v>
       </c>
+      <c r="S2" s="6">
+        <v>300</v>
+      </c>
     </row>
     <row r="3" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
@@ -8285,6 +8367,9 @@
       <c r="R7" s="6">
         <v>30</v>
       </c>
+      <c r="S7" s="6">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
@@ -8378,6 +8463,9 @@
       <c r="R10" s="6">
         <v>50</v>
       </c>
+      <c r="S10" s="6">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
@@ -8463,7 +8551,7 @@
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N16" s="6">
         <v>100</v>
@@ -8471,7 +8559,7 @@
     </row>
     <row r="17" spans="1:16" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N17" s="6">
         <v>100</v>
@@ -8622,7 +8710,7 @@
     </row>
     <row r="31" spans="1:16" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P31" s="6">
         <v>100</v>
@@ -8630,13 +8718,13 @@
     </row>
     <row r="32" spans="1:16" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P32" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>185</v>
       </c>
@@ -8644,7 +8732,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>108</v>
       </c>
@@ -8652,7 +8740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>180</v>
       </c>
@@ -8660,7 +8748,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:22" s="8" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
         <v>95</v>
       </c>
@@ -8721,7 +8809,7 @@
         <v>1320</v>
       </c>
       <c r="P39" s="16">
-        <f t="shared" ref="P39:R39" si="1">SUM(P2:P35)</f>
+        <f t="shared" ref="P39:V39" si="1">SUM(P2:P35)</f>
         <v>1270</v>
       </c>
       <c r="Q39" s="16">
@@ -8732,8 +8820,24 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
+      <c r="S39" s="16">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="T39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:19" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:22" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
@@ -8790,9 +8894,11 @@
       <c r="R40" s="11">
         <v>0</v>
       </c>
-      <c r="S40" s="11"/>
+      <c r="S40" s="11">
+        <v>71.8</v>
+      </c>
     </row>
-    <row r="41" spans="1:19" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:22" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
         <v>21</v>
       </c>
@@ -8864,7 +8970,10 @@
         <f>Q41+R39-R40</f>
         <v>14902.74</v>
       </c>
-      <c r="S41" s="12"/>
+      <c r="S41" s="12">
+        <f>R41+S39-S40</f>
+        <v>15210.94</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chiming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A8D6C6-3EFC-4590-A067-A6EAFAAA323F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0BEECC-EE9A-45F2-A15D-4FA61524071F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="235">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -728,10 +728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘大治一家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘峰全家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,9 +746,6 @@
   <si>
     <t>石玉岩</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backup12</t>
   </si>
   <si>
     <t>backup13</t>
@@ -838,6 +831,89 @@
   </si>
   <si>
     <t>2020.11.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.03.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京放生组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山放生组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔淑芳 刘越岭 刘大治一家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王大开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持涛明珊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何锡辉阖家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎妙芳阖家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一切众生</t>
+  </si>
+  <si>
+    <t>梁启光阖家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup132</t>
+  </si>
+  <si>
+    <t>backup133</t>
+  </si>
+  <si>
+    <t>backup134</t>
+  </si>
+  <si>
+    <t>backup135</t>
+  </si>
+  <si>
+    <t>backup136</t>
+  </si>
+  <si>
+    <t>backup137</t>
+  </si>
+  <si>
+    <t>列1842</t>
+  </si>
+  <si>
+    <t>列1843</t>
+  </si>
+  <si>
+    <t>列1844</t>
+  </si>
+  <si>
+    <t>列1845</t>
+  </si>
+  <si>
+    <t>列1846</t>
+  </si>
+  <si>
+    <t>列1847</t>
+  </si>
+  <si>
+    <t>2021.01.02随喜福州放生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1152,7 +1228,176 @@
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="112">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2599,132 +2844,145 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:AD110" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
-  <autoFilter ref="A1:AD110" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K110">
-    <sortCondition ref="A1:A110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:AK119" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+  <autoFilter ref="A1:AK119" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K119">
+    <sortCondition ref="A1:A119"/>
   </sortState>
-  <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="88"/>
-    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="87"/>
-    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="86"/>
-    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="85"/>
-    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="84"/>
-    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.12.08" dataDxfId="83"/>
-    <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="82"/>
-    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2020.2.29" dataDxfId="81"/>
-    <tableColumn id="17" xr3:uid="{8A278776-53B1-4C9B-B0FD-D1404C201AA6}" name="2020.04.05" dataDxfId="80"/>
-    <tableColumn id="20" xr3:uid="{ED6C027C-9006-4261-AFFD-F06794A1740D}" name="2020.05.01（上师广州放生）" dataDxfId="79"/>
-    <tableColumn id="18" xr3:uid="{423FF7CE-5B30-4588-B80E-563F413C6E1E}" name="2020.05.23" dataDxfId="78"/>
-    <tableColumn id="19" xr3:uid="{0F0896F2-5427-49E2-B6B4-0CDBAED03178}" name="2020.06.06" dataDxfId="77"/>
-    <tableColumn id="21" xr3:uid="{5E217A0B-08DF-4084-931D-0B63C054969E}" name="2020.06.21" dataDxfId="76"/>
-    <tableColumn id="22" xr3:uid="{EB405173-0F7E-49B4-A868-D6A6AE1704A3}" name="2020.07.19" dataDxfId="75"/>
-    <tableColumn id="23" xr3:uid="{43AF4CEB-DEA3-4A15-8286-3961662C210F}" name="2020.08.16" dataDxfId="74"/>
-    <tableColumn id="24" xr3:uid="{2A0F6EB2-AF60-49D2-BEB5-6B9F2534D18A}" name="2020.09.13" dataDxfId="73"/>
-    <tableColumn id="25" xr3:uid="{DB541BC6-89E2-4661-B559-1BBB3D793ABB}" name="2020.10.18" dataDxfId="72"/>
-    <tableColumn id="26" xr3:uid="{C210F1F2-7DCF-4086-B2BB-1B0F79E54596}" name="2020.11.7" dataDxfId="71"/>
-    <tableColumn id="27" xr3:uid="{A6F2325A-DA6C-4782-95FE-68CF6E0AF9BE}" name="2020.12.05" dataDxfId="70"/>
-    <tableColumn id="28" xr3:uid="{822A7C39-1CAA-40EF-8487-47A6A2959D58}" name="2021.01.01" dataDxfId="69"/>
-    <tableColumn id="29" xr3:uid="{7266F9ED-D550-4448-AB45-04645F0C4FDC}" name="backup12" dataDxfId="68"/>
-    <tableColumn id="30" xr3:uid="{419B39E0-502F-4708-AA2C-DA5F620CC648}" name="backup13" dataDxfId="67"/>
+  <tableColumns count="37">
+    <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{0CE1E195-1D6C-2B47-8C44-A4F1F55D4A9C}" name="2018.10.21" dataDxfId="108"/>
+    <tableColumn id="5" xr3:uid="{94FC8CAA-3DC3-1A42-9036-B16A0654D189}" name="2018.11.17" dataDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{9F3248FF-62C2-E647-82E1-28E5F5EB21CB}" name="2019.02.24" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{DC2A1BC2-DDF8-EA46-A3B5-340DC5686E35}" name="2019.03.24" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{25A68E5F-4F5B-8049-90CE-12CE6EF17D60}" name="2019.04.27" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{D260A210-B1E8-5F4A-A560-C97470FF4247}" name="2019.05.25" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{8FAC1FAF-A7BC-AC45-9E58-F5969634FEF2}" name="2019.06.22" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{2B6F85FB-F4F6-664C-B7B5-F1557D2AF293}" name="2019.07.27" dataDxfId="101"/>
+    <tableColumn id="10" xr3:uid="{BFE51EC8-F6C8-F54F-8BFC-F6A66485118E}" name="2019.08.25" dataDxfId="100"/>
+    <tableColumn id="11" xr3:uid="{4A8D180E-600B-434B-9DCB-CAAF1F196A06}" name="2019.09.01" dataDxfId="99"/>
+    <tableColumn id="14" xr3:uid="{454350E5-5474-4051-8417-25D22E981FFF}" name="2019.10.01" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{2AD82077-2416-4697-9A8F-723B6ADC8BA1}" name="2019.11.01" dataDxfId="97"/>
+    <tableColumn id="15" xr3:uid="{56AEEBD5-FD7D-4548-B279-EB59AE15F9F5}" name="2019.12.08" dataDxfId="96"/>
+    <tableColumn id="16" xr3:uid="{57EE8B67-3B7C-4CBB-BCDD-967B532AC68B}" name="2020.01.04" dataDxfId="95"/>
+    <tableColumn id="13" xr3:uid="{846C0B52-2525-C147-B9EF-C25C566D7944}" name="2020.2.29" dataDxfId="94"/>
+    <tableColumn id="17" xr3:uid="{8A278776-53B1-4C9B-B0FD-D1404C201AA6}" name="2020.04.05" dataDxfId="93"/>
+    <tableColumn id="20" xr3:uid="{ED6C027C-9006-4261-AFFD-F06794A1740D}" name="2020.05.01（上师广州放生）" dataDxfId="92"/>
+    <tableColumn id="18" xr3:uid="{423FF7CE-5B30-4588-B80E-563F413C6E1E}" name="2020.05.23" dataDxfId="91"/>
+    <tableColumn id="19" xr3:uid="{0F0896F2-5427-49E2-B6B4-0CDBAED03178}" name="2020.06.06" dataDxfId="90"/>
+    <tableColumn id="21" xr3:uid="{5E217A0B-08DF-4084-931D-0B63C054969E}" name="2020.06.21" dataDxfId="89"/>
+    <tableColumn id="22" xr3:uid="{EB405173-0F7E-49B4-A868-D6A6AE1704A3}" name="2020.07.19" dataDxfId="88"/>
+    <tableColumn id="23" xr3:uid="{43AF4CEB-DEA3-4A15-8286-3961662C210F}" name="2020.08.16" dataDxfId="87"/>
+    <tableColumn id="24" xr3:uid="{2A0F6EB2-AF60-49D2-BEB5-6B9F2534D18A}" name="2020.09.13" dataDxfId="86"/>
+    <tableColumn id="25" xr3:uid="{DB541BC6-89E2-4661-B559-1BBB3D793ABB}" name="2020.10.18" dataDxfId="85"/>
+    <tableColumn id="26" xr3:uid="{C210F1F2-7DCF-4086-B2BB-1B0F79E54596}" name="2020.11.7" dataDxfId="84"/>
+    <tableColumn id="27" xr3:uid="{A6F2325A-DA6C-4782-95FE-68CF6E0AF9BE}" name="2020.12.05" dataDxfId="83"/>
+    <tableColumn id="28" xr3:uid="{822A7C39-1CAA-40EF-8487-47A6A2959D58}" name="2021.01.01" dataDxfId="82"/>
+    <tableColumn id="37" xr3:uid="{A7E7A033-A629-45A1-B222-B44B14648DA4}" name="2021.01.02随喜福州放生" dataDxfId="0"/>
+    <tableColumn id="29" xr3:uid="{7266F9ED-D550-4448-AB45-04645F0C4FDC}" name="2021.03.03" dataDxfId="81"/>
+    <tableColumn id="30" xr3:uid="{419B39E0-502F-4708-AA2C-DA5F620CC648}" name="backup13" dataDxfId="80"/>
+    <tableColumn id="31" xr3:uid="{25D3EFED-B791-48EC-B064-1EAEA8627031}" name="backup132" dataDxfId="12"/>
+    <tableColumn id="32" xr3:uid="{A676059F-2480-467C-8242-99A18F00452E}" name="backup133" dataDxfId="11"/>
+    <tableColumn id="33" xr3:uid="{F4CC1616-0F8C-4AF6-B500-2176065255C2}" name="backup134" dataDxfId="10"/>
+    <tableColumn id="34" xr3:uid="{D11B9293-8D0E-4D0A-836F-E86DA6DB819C}" name="backup135" dataDxfId="9"/>
+    <tableColumn id="35" xr3:uid="{7DBF3D19-4407-4A18-A2A1-483410DC7DFE}" name="backup136" dataDxfId="8"/>
+    <tableColumn id="36" xr3:uid="{4F6C7A61-02D8-433A-B7BF-1C9F2C9E27D4}" name="backup137" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A113:AD116" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
-  <autoFilter ref="A113:AD116" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
-  <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="52"/>
-    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="51"/>
-    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="50"/>
-    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="49"/>
-    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="48"/>
-    <tableColumn id="18" xr3:uid="{7FDCCA4B-7D79-48EF-9B59-82E552EE633B}" name="列172" dataDxfId="47"/>
-    <tableColumn id="19" xr3:uid="{7ED92CF3-8A37-4CDD-BFF2-53F59BE535DE}" name="列173" dataDxfId="46"/>
-    <tableColumn id="20" xr3:uid="{AD16709C-E6EA-416A-927B-641AFF440CE0}" name="列174" dataDxfId="45"/>
-    <tableColumn id="21" xr3:uid="{9CAE81C2-021C-4481-A730-F07863C18814}" name="列175" dataDxfId="44"/>
-    <tableColumn id="22" xr3:uid="{E0EF79EF-1156-4A8D-8C2B-47AAD03D6260}" name="列176" dataDxfId="43"/>
-    <tableColumn id="23" xr3:uid="{325656D5-28D0-4734-B242-21697FBCA2BF}" name="列177" dataDxfId="42"/>
-    <tableColumn id="24" xr3:uid="{AE00EEF4-07A4-4FBF-B7F0-DC7B1518D893}" name="列178" dataDxfId="41"/>
-    <tableColumn id="25" xr3:uid="{ED3ED64C-C009-494B-8F39-75665D832925}" name="列179" dataDxfId="40"/>
-    <tableColumn id="26" xr3:uid="{9A83E9C1-C397-418C-87B7-C26A41E9788D}" name="列180" dataDxfId="39"/>
-    <tableColumn id="27" xr3:uid="{EBB41EEA-3E62-4991-B388-78AC074C4D49}" name="列181" dataDxfId="38"/>
-    <tableColumn id="28" xr3:uid="{53433204-92AE-4333-9EDF-9C03A7F44ED5}" name="列182" dataDxfId="37"/>
-    <tableColumn id="29" xr3:uid="{B64D98DC-E49E-49FF-84BF-DDB200DDE0B5}" name="列183" dataDxfId="36"/>
-    <tableColumn id="30" xr3:uid="{D9614288-FA32-4869-B534-AC58456C06E3}" name="列184" dataDxfId="35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A122:AJ125" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <autoFilter ref="A122:AJ125" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+  <tableColumns count="36">
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="69"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="66"/>
+    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="65"/>
+    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="64"/>
+    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="63"/>
+    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="62"/>
+    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="61"/>
+    <tableColumn id="18" xr3:uid="{7FDCCA4B-7D79-48EF-9B59-82E552EE633B}" name="列172" dataDxfId="60"/>
+    <tableColumn id="19" xr3:uid="{7ED92CF3-8A37-4CDD-BFF2-53F59BE535DE}" name="列173" dataDxfId="59"/>
+    <tableColumn id="20" xr3:uid="{AD16709C-E6EA-416A-927B-641AFF440CE0}" name="列174" dataDxfId="58"/>
+    <tableColumn id="21" xr3:uid="{9CAE81C2-021C-4481-A730-F07863C18814}" name="列175" dataDxfId="57"/>
+    <tableColumn id="22" xr3:uid="{E0EF79EF-1156-4A8D-8C2B-47AAD03D6260}" name="列176" dataDxfId="56"/>
+    <tableColumn id="23" xr3:uid="{325656D5-28D0-4734-B242-21697FBCA2BF}" name="列177" dataDxfId="55"/>
+    <tableColumn id="24" xr3:uid="{AE00EEF4-07A4-4FBF-B7F0-DC7B1518D893}" name="列178" dataDxfId="54"/>
+    <tableColumn id="25" xr3:uid="{ED3ED64C-C009-494B-8F39-75665D832925}" name="列179" dataDxfId="53"/>
+    <tableColumn id="26" xr3:uid="{9A83E9C1-C397-418C-87B7-C26A41E9788D}" name="列180" dataDxfId="52"/>
+    <tableColumn id="27" xr3:uid="{EBB41EEA-3E62-4991-B388-78AC074C4D49}" name="列181" dataDxfId="51"/>
+    <tableColumn id="28" xr3:uid="{53433204-92AE-4333-9EDF-9C03A7F44ED5}" name="列182" dataDxfId="50"/>
+    <tableColumn id="29" xr3:uid="{B64D98DC-E49E-49FF-84BF-DDB200DDE0B5}" name="列183" dataDxfId="49"/>
+    <tableColumn id="30" xr3:uid="{D9614288-FA32-4869-B534-AC58456C06E3}" name="列184" dataDxfId="48"/>
+    <tableColumn id="31" xr3:uid="{6EED8B6A-C778-4DE0-875F-433C9FBE4AE4}" name="列1842" dataDxfId="6"/>
+    <tableColumn id="32" xr3:uid="{6F989DCA-E543-4A1C-989D-B83F690EFB0D}" name="列1843" dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{F4092E2C-C496-4CE7-85EA-B0CFCCDD3E0F}" name="列1844" dataDxfId="4"/>
+    <tableColumn id="34" xr3:uid="{C595FC60-82EB-4AF9-B4D1-3BD7C592FA32}" name="列1845" dataDxfId="3"/>
+    <tableColumn id="35" xr3:uid="{5D8A096F-2AE0-4F07-922D-D360964DCA9F}" name="列1846" dataDxfId="2"/>
+    <tableColumn id="36" xr3:uid="{39E7F9C4-FE1B-4D2B-8F97-E07344C12CF4}" name="列1847" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:V35" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:V35" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
   <autoFilter ref="A1:V35" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
     <sortCondition ref="A1:A35"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2020.05.23" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{D450CAFD-4280-4A57-A72C-AC9C82E67796}" name="2020.06.06" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2020.07.19" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{C889229E-9847-4F55-9879-D26AC9B0F475}" name="2020.08.16" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{7689C2A1-EFFD-4322-8AD7-70E1C454E68A}" name="2020.09.13" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{265BD7D6-05CA-4F1A-9BFC-1FE1F7E043B7}" name="2020.11.05" dataDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{A7895CF2-85F3-4C44-8D4E-04972226291E}" name="2020.11.06" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{A6B31E82-C02B-4C04-BEFE-5F9FB8712087}" name="2020.12.05" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{B57DEBF5-B83E-4EA5-A6D9-04E3EE457F9E}" name="2019.11.08" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{E1B5FFF3-B1AE-469E-9486-2C7711E85EC8}" name="2019.11.09" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{DF5D0889-C628-428A-AE29-11139F36C6A6}" name="2019.11.10" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2020.05.23" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{D450CAFD-4280-4A57-A72C-AC9C82E67796}" name="2020.06.06" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2020.07.19" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{C889229E-9847-4F55-9879-D26AC9B0F475}" name="2020.08.16" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{7689C2A1-EFFD-4322-8AD7-70E1C454E68A}" name="2020.09.13" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{265BD7D6-05CA-4F1A-9BFC-1FE1F7E043B7}" name="2020.11.05" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{A7895CF2-85F3-4C44-8D4E-04972226291E}" name="2020.11.06" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{A6B31E82-C02B-4C04-BEFE-5F9FB8712087}" name="2020.12.05" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{B57DEBF5-B83E-4EA5-A6D9-04E3EE457F9E}" name="2019.11.08" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{E1B5FFF3-B1AE-469E-9486-2C7711E85EC8}" name="2019.11.09" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{DF5D0889-C628-428A-AE29-11139F36C6A6}" name="2019.11.10" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A1:E5" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B5">
     <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{2511DB9F-444E-4C03-8A9E-5A948ADC9CB0}" name="2019.11.02" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{FFAB1BAB-E2B7-413C-B555-13FE1D11ACDB}" name="2019.11.03" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{2511DB9F-444E-4C03-8A9E-5A948ADC9CB0}" name="2019.11.02" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{FFAB1BAB-E2B7-413C-B555-13FE1D11ACDB}" name="2019.11.03" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3027,12 +3285,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD133"/>
+  <dimension ref="A1:AK142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="AB123" sqref="AB123"/>
+      <selection pane="topRight" activeCell="O132" sqref="O132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
@@ -3045,7 +3303,7 @@
     <col min="18" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" hidden="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -3110,523 +3368,494 @@
         <v>181</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="6">
-        <v>100</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1500</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="O2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="P2" s="6">
-        <v>1500</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>1500</v>
-      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="6">
-        <v>1800</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1800</v>
-      </c>
-      <c r="U2" s="6">
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="8">
         <v>2000</v>
       </c>
-      <c r="V2" s="6">
-        <v>1800</v>
-      </c>
-      <c r="W2" s="6">
-        <v>2000</v>
-      </c>
-      <c r="X2" s="6">
-        <v>800</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>200</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>200</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
     </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="6">
-        <v>400</v>
-      </c>
-      <c r="C3" s="6">
-        <v>200</v>
-      </c>
-      <c r="D3" s="6">
-        <v>350</v>
-      </c>
-      <c r="E3" s="6">
-        <v>200</v>
-      </c>
-      <c r="F3" s="6">
-        <v>100</v>
-      </c>
-      <c r="G3" s="6">
-        <v>125</v>
-      </c>
-      <c r="H3" s="6">
-        <v>100</v>
-      </c>
-      <c r="I3" s="6">
-        <v>200</v>
-      </c>
-      <c r="J3" s="6">
-        <v>100</v>
-      </c>
-      <c r="K3" s="6">
-        <v>100</v>
-      </c>
-      <c r="L3" s="6">
-        <v>200</v>
-      </c>
-      <c r="M3" s="6">
-        <v>200</v>
-      </c>
-      <c r="N3" s="6">
-        <v>200</v>
-      </c>
-      <c r="O3" s="6">
-        <v>200</v>
-      </c>
-      <c r="P3" s="6">
-        <v>254</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>500</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="6">
-        <v>200</v>
-      </c>
-      <c r="T3" s="6">
-        <v>200</v>
-      </c>
-      <c r="U3" s="6">
-        <v>200</v>
-      </c>
-      <c r="V3" s="6">
-        <v>500</v>
-      </c>
-      <c r="W3" s="6">
-        <v>500</v>
-      </c>
-      <c r="X3" s="6">
-        <v>500</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>500</v>
-      </c>
-      <c r="Z3" s="6">
-        <v>500</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>500</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>500</v>
-      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
+      <c r="AD3" s="8">
+        <v>20000</v>
+      </c>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
     </row>
-    <row r="4" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>130</v>
-      </c>
-      <c r="C4" s="6">
-        <v>100</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>100</v>
-      </c>
-      <c r="F4" s="6">
-        <v>100</v>
-      </c>
-      <c r="G4" s="6">
-        <v>50</v>
-      </c>
-      <c r="H4" s="6">
-        <v>100</v>
-      </c>
-      <c r="I4" s="6">
-        <v>100</v>
-      </c>
-      <c r="J4" s="6">
-        <v>100</v>
-      </c>
-      <c r="K4" s="6">
-        <v>100</v>
-      </c>
-      <c r="L4" s="6">
-        <v>100</v>
-      </c>
-      <c r="M4" s="6">
-        <v>100</v>
-      </c>
-      <c r="N4" s="6">
-        <v>100</v>
-      </c>
-      <c r="O4" s="6">
-        <v>100</v>
-      </c>
-      <c r="P4" s="6">
-        <v>300</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>100</v>
-      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6">
-        <v>100</v>
-      </c>
-      <c r="T4" s="6">
-        <v>100</v>
-      </c>
-      <c r="U4" s="6">
-        <v>100</v>
-      </c>
-      <c r="V4" s="6">
-        <v>100</v>
-      </c>
-      <c r="W4" s="6">
-        <v>100</v>
-      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="6">
-        <v>100</v>
-      </c>
-      <c r="Z4" s="6">
-        <v>100</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>100</v>
-      </c>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
+      <c r="AD4" s="8">
+        <v>10000</v>
+      </c>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
     </row>
-    <row r="5" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="6">
-        <v>150</v>
-      </c>
-      <c r="C5" s="6">
-        <v>50</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>100</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1000</v>
+      </c>
       <c r="F5" s="6">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="6">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="6">
-        <v>150</v>
-      </c>
-      <c r="I5" s="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1500</v>
+      </c>
       <c r="J5" s="6">
-        <v>50</v>
-      </c>
-      <c r="K5" s="6"/>
+        <v>1000</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1000</v>
+      </c>
       <c r="L5" s="6">
-        <v>150</v>
-      </c>
-      <c r="M5" s="6"/>
+        <v>1000</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1000</v>
+      </c>
       <c r="N5" s="6">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="O5" s="6">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="P5" s="6">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="Q5" s="6">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6">
-        <v>50</v>
+        <v>1800</v>
       </c>
       <c r="T5" s="6">
+        <v>1800</v>
+      </c>
+      <c r="U5" s="6">
+        <v>2000</v>
+      </c>
+      <c r="V5" s="6">
+        <v>1800</v>
+      </c>
+      <c r="W5" s="6">
+        <v>2000</v>
+      </c>
+      <c r="X5" s="6">
+        <v>800</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>200</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>200</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="8">
+        <v>500</v>
+      </c>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+    </row>
+    <row r="6" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="6">
+        <v>400</v>
+      </c>
+      <c r="C6" s="6">
+        <v>200</v>
+      </c>
+      <c r="D6" s="6">
+        <v>350</v>
+      </c>
+      <c r="E6" s="6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="6">
         <v>100</v>
       </c>
-      <c r="U5" s="6">
+      <c r="G6" s="6">
+        <v>125</v>
+      </c>
+      <c r="H6" s="6">
         <v>100</v>
       </c>
-      <c r="V5" s="6">
-        <v>80</v>
-      </c>
-      <c r="W5" s="6">
-        <v>80</v>
-      </c>
-      <c r="X5" s="6">
-        <v>80</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>100</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>100</v>
-      </c>
-      <c r="AA5" s="6">
-        <v>100</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>100</v>
-      </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-    </row>
-    <row r="6" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
-        <v>100</v>
-      </c>
-      <c r="H6" s="6"/>
       <c r="I6" s="6">
         <v>200</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6">
+        <v>100</v>
+      </c>
       <c r="K6" s="6">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="L6" s="6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M6" s="6">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N6" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O6" s="6">
         <v>200</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="P6" s="6">
+        <v>254</v>
+      </c>
       <c r="Q6" s="6">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T6" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U6" s="6">
         <v>200</v>
       </c>
       <c r="V6" s="6">
+        <v>500</v>
+      </c>
+      <c r="W6" s="6">
+        <v>500</v>
+      </c>
+      <c r="X6" s="6">
+        <v>500</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>500</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>500</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>500</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>500</v>
+      </c>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="8">
+        <v>500</v>
+      </c>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+    </row>
+    <row r="7" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>130</v>
+      </c>
+      <c r="C7" s="6">
         <v>100</v>
       </c>
-      <c r="W6" s="6">
-        <v>100</v>
-      </c>
-      <c r="X6" s="6">
-        <v>100</v>
-      </c>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6">
-        <v>200</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>200</v>
-      </c>
-      <c r="AB6" s="6">
-        <v>200</v>
-      </c>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-    </row>
-    <row r="7" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F7" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G7" s="6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H7" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I7" s="6">
-        <v>200</v>
-      </c>
-      <c r="J7" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="J7" s="6">
+        <v>100</v>
+      </c>
       <c r="K7" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L7" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M7" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N7" s="6">
-        <v>200</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
+        <v>100</v>
+      </c>
+      <c r="P7" s="6">
+        <v>300</v>
+      </c>
       <c r="Q7" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T7" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U7" s="6">
-        <v>200</v>
-      </c>
-      <c r="V7" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="V7" s="6">
+        <v>100</v>
+      </c>
       <c r="W7" s="6">
-        <v>200</v>
-      </c>
-      <c r="X7" s="6">
-        <v>200</v>
-      </c>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6">
+        <v>100</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>100</v>
+      </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
+      <c r="AD7" s="8">
+        <v>300</v>
+      </c>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
     </row>
-    <row r="8" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E8" s="6">
-        <v>100</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B8" s="6">
+        <v>150</v>
+      </c>
+      <c r="C8" s="6">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G8" s="6">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H8" s="6">
+        <v>150</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6">
         <v>50</v>
       </c>
-      <c r="I8" s="6">
-        <v>100</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6">
-        <v>100</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6">
-        <v>50</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
+        <v>150</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6">
+        <v>150</v>
+      </c>
+      <c r="O8" s="6">
+        <v>150</v>
+      </c>
       <c r="P8" s="6">
         <v>100</v>
       </c>
@@ -3635,146 +3864,180 @@
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T8" s="6">
         <v>100</v>
       </c>
-      <c r="U8" s="6"/>
+      <c r="U8" s="6">
+        <v>100</v>
+      </c>
       <c r="V8" s="6">
+        <v>80</v>
+      </c>
+      <c r="W8" s="6">
+        <v>80</v>
+      </c>
+      <c r="X8" s="6">
+        <v>80</v>
+      </c>
+      <c r="Y8" s="6">
         <v>100</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6">
-        <v>100</v>
-      </c>
-      <c r="Y8" s="6"/>
       <c r="Z8" s="6">
         <v>100</v>
       </c>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
+      <c r="AA8" s="6">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>100</v>
+      </c>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
+      <c r="AD8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
     </row>
-    <row r="9" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6">
+        <v>85</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <v>100</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <v>200</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6">
+        <v>800</v>
+      </c>
+      <c r="L9" s="6">
         <v>500</v>
       </c>
-      <c r="C9" s="6">
-        <v>666</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="6">
-        <v>500</v>
-      </c>
-      <c r="F9" s="6">
-        <v>500</v>
-      </c>
-      <c r="G9" s="6">
-        <v>500</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="6">
-        <v>500</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6">
-        <v>800</v>
-      </c>
       <c r="M9" s="6">
-        <v>800</v>
-      </c>
-      <c r="N9" s="6"/>
+        <v>400</v>
+      </c>
+      <c r="N9" s="6">
+        <v>100</v>
+      </c>
       <c r="O9" s="6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="6">
+        <v>300</v>
+      </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="T9" s="6">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="U9" s="6">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="V9" s="6">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="W9" s="6">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="X9" s="6">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
+      <c r="Z9" s="6">
+        <v>200</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>200</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>200</v>
+      </c>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
+      <c r="AD9" s="8">
+        <v>500</v>
+      </c>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
     </row>
-    <row r="10" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6">
-        <v>300</v>
-      </c>
-      <c r="F10" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="F10" s="6">
+        <v>200</v>
+      </c>
       <c r="G10" s="6">
-        <v>300</v>
-      </c>
-      <c r="H10" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="H10" s="6">
+        <v>200</v>
+      </c>
       <c r="I10" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="6">
+        <v>200</v>
+      </c>
       <c r="L10" s="6">
-        <v>300</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6">
         <v>200</v>
       </c>
+      <c r="M10" s="6">
+        <v>200</v>
+      </c>
+      <c r="N10" s="6">
+        <v>200</v>
+      </c>
+      <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6">
         <v>200</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T10" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U10" s="6">
-        <v>300</v>
-      </c>
-      <c r="V10" s="6">
-        <v>300</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="V10" s="6"/>
       <c r="W10" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X10" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -3782,169 +4045,210 @@
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
     </row>
-    <row r="11" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6">
-        <v>500</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E11" s="6">
-        <v>300</v>
-      </c>
-      <c r="F11" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="F11" s="6">
+        <v>100</v>
+      </c>
       <c r="G11" s="6">
-        <v>200</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="H11" s="6">
+        <v>50</v>
+      </c>
+      <c r="I11" s="6">
+        <v>100</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6">
+        <v>50</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6">
         <v>100</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6">
-        <v>200</v>
-      </c>
-      <c r="P11" s="6"/>
       <c r="Q11" s="6">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="S11" s="6">
+        <v>100</v>
+      </c>
       <c r="T11" s="6">
-        <v>300</v>
-      </c>
-      <c r="U11" s="6">
-        <v>500</v>
-      </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6">
-        <v>200</v>
-      </c>
-      <c r="X11" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6">
+        <v>100</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6">
+        <v>100</v>
+      </c>
       <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
+      <c r="Z11" s="6">
+        <v>100</v>
+      </c>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
     </row>
-    <row r="12" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="6">
+        <v>500</v>
+      </c>
+      <c r="C12" s="6">
+        <v>666</v>
+      </c>
       <c r="D12" s="6">
         <v>1000</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="6">
+        <v>500</v>
+      </c>
+      <c r="F12" s="6">
+        <v>500</v>
+      </c>
+      <c r="G12" s="6">
+        <v>500</v>
+      </c>
       <c r="H12" s="6">
-        <v>200</v>
-      </c>
-      <c r="I12" s="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I12" s="6">
+        <v>500</v>
+      </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="6">
-        <v>200</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
+        <v>800</v>
+      </c>
+      <c r="M12" s="6">
+        <v>800</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="P12" s="6"/>
-      <c r="Q12" s="6">
-        <v>200</v>
-      </c>
+      <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6">
-        <v>700</v>
-      </c>
-      <c r="T12" s="6"/>
+        <v>800</v>
+      </c>
+      <c r="T12" s="6">
+        <v>600</v>
+      </c>
       <c r="U12" s="6">
-        <v>200</v>
-      </c>
-      <c r="V12" s="6"/>
+        <v>1000</v>
+      </c>
+      <c r="V12" s="6">
+        <v>800</v>
+      </c>
       <c r="W12" s="6">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="X12" s="6">
-        <v>200</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>200</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
     </row>
-    <row r="13" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6">
-        <v>100</v>
-      </c>
-      <c r="D13" s="6">
-        <v>200</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>300</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="6">
-        <v>200</v>
-      </c>
+      <c r="K13" s="6"/>
       <c r="L13" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="S13" s="6">
+        <v>300</v>
+      </c>
       <c r="T13" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U13" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V13" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W13" s="6">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X13" s="6">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
@@ -3952,60 +4256,92 @@
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
     </row>
-    <row r="14" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B14" s="6">
+        <v>500</v>
+      </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="6">
+        <v>500</v>
+      </c>
+      <c r="E14" s="6">
+        <v>300</v>
+      </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6">
+        <v>200</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6">
+        <v>300</v>
+      </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6">
+        <v>100</v>
+      </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="O14" s="6">
+        <v>200</v>
+      </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="6">
+        <v>300</v>
+      </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="T14" s="6">
+        <v>300</v>
+      </c>
+      <c r="U14" s="6">
+        <v>500</v>
+      </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="W14" s="6">
+        <v>200</v>
+      </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
-      <c r="Z14" s="6">
-        <v>200</v>
-      </c>
+      <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
     </row>
-    <row r="15" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="6">
-        <v>200</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6">
-        <v>200</v>
-      </c>
-      <c r="E15" s="6">
-        <v>100</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6">
+        <v>200</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6">
@@ -4014,76 +4350,114 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6">
+      <c r="O15" s="6">
         <v>200</v>
       </c>
+      <c r="P15" s="6"/>
       <c r="Q15" s="6">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6">
-        <v>200</v>
-      </c>
-      <c r="T15" s="6">
-        <v>200</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="T15" s="6"/>
       <c r="U15" s="6">
         <v>200</v>
       </c>
       <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
+      <c r="W15" s="6">
+        <v>200</v>
+      </c>
+      <c r="X15" s="6">
+        <v>200</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>200</v>
+      </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
     </row>
-    <row r="16" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="6">
+        <v>100</v>
+      </c>
+      <c r="D16" s="6">
+        <v>200</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6">
+        <v>100</v>
+      </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6">
+        <v>200</v>
+      </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="K16" s="6">
+        <v>200</v>
+      </c>
+      <c r="L16" s="6">
+        <v>200</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6">
+        <v>500</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6">
         <v>200</v>
       </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6">
+      <c r="U16" s="6">
+        <v>200</v>
+      </c>
+      <c r="V16" s="6">
+        <v>200</v>
+      </c>
+      <c r="W16" s="6">
         <v>100</v>
       </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
+      <c r="X16" s="6">
+        <v>100</v>
+      </c>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
     </row>
-    <row r="17" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4102,76 +4476,92 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="6">
-        <v>50</v>
-      </c>
+      <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="6">
-        <v>50</v>
-      </c>
-      <c r="V17" s="6">
-        <v>50</v>
-      </c>
-      <c r="W17" s="6">
-        <v>50</v>
-      </c>
-      <c r="X17" s="6">
-        <v>50</v>
-      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
+      <c r="Z17" s="6">
+        <v>200</v>
+      </c>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
     </row>
-    <row r="18" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="6">
+        <v>200</v>
+      </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="6">
+        <v>200</v>
+      </c>
+      <c r="E18" s="6">
+        <v>100</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="K18" s="6">
+        <v>200</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="P18" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>150</v>
+      </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6">
-        <v>300</v>
-      </c>
-      <c r="T18" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="T18" s="6">
+        <v>200</v>
+      </c>
       <c r="U18" s="6">
-        <v>300</v>
-      </c>
-      <c r="V18" s="6">
-        <v>300</v>
-      </c>
-      <c r="W18" s="6">
-        <v>300</v>
-      </c>
-      <c r="X18" s="6">
-        <v>300</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
+      <c r="AD18" s="8">
+        <v>200</v>
+      </c>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
     </row>
-    <row r="19" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4186,36 +4576,39 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="O19" s="6">
+        <v>200</v>
+      </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="Q19" s="6">
+        <v>200</v>
+      </c>
       <c r="R19" s="6"/>
       <c r="S19" s="6">
         <v>100</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="6">
-        <v>100</v>
-      </c>
-      <c r="V19" s="6">
-        <v>100</v>
-      </c>
-      <c r="W19" s="6">
-        <v>100</v>
-      </c>
-      <c r="X19" s="6">
-        <v>100</v>
-      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
     </row>
-    <row r="20" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4256,54 +4649,68 @@
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
     </row>
-    <row r="21" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <v>300</v>
-      </c>
+      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6">
-        <v>300</v>
-      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6">
-        <v>200</v>
-      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="6">
-        <v>200</v>
-      </c>
+      <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="6">
-        <v>200</v>
-      </c>
+      <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
+      <c r="S21" s="6">
+        <v>300</v>
+      </c>
       <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
+      <c r="U21" s="6">
+        <v>300</v>
+      </c>
+      <c r="V21" s="6">
+        <v>300</v>
+      </c>
+      <c r="W21" s="6">
+        <v>300</v>
+      </c>
+      <c r="X21" s="6">
+        <v>300</v>
+      </c>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
     </row>
-    <row r="22" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="7" t="s">
-        <v>88</v>
+    <row r="22" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -4312,9 +4719,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="6">
-        <v>500</v>
-      </c>
+      <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -4324,34 +4729,47 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
+      <c r="S22" s="6">
+        <v>100</v>
+      </c>
       <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
+      <c r="U22" s="6">
+        <v>100</v>
+      </c>
+      <c r="V22" s="6">
+        <v>100</v>
+      </c>
+      <c r="W22" s="6">
+        <v>100</v>
+      </c>
+      <c r="X22" s="6">
+        <v>100</v>
+      </c>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
     </row>
-    <row r="23" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6">
-        <v>1000</v>
-      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6">
-        <v>300</v>
-      </c>
+      <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -4362,69 +4780,72 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6">
-        <v>300</v>
-      </c>
-      <c r="U23" s="6"/>
+      <c r="S23" s="6">
+        <v>50</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6">
+        <v>50</v>
+      </c>
       <c r="V23" s="6">
-        <v>300</v>
-      </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="W23" s="6">
+        <v>50</v>
+      </c>
+      <c r="X23" s="6">
+        <v>50</v>
+      </c>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
     </row>
-    <row r="24" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="6">
-        <v>100</v>
-      </c>
-      <c r="C24" s="6">
-        <v>50</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2010</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="6">
-        <v>50</v>
-      </c>
-      <c r="F24" s="6">
-        <v>60</v>
-      </c>
-      <c r="G24" s="6">
-        <v>50</v>
-      </c>
-      <c r="H24" s="6"/>
+        <v>300</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6">
+        <v>300</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6">
+        <v>200</v>
+      </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="O24" s="6">
+        <v>200</v>
+      </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="6">
-        <v>50</v>
-      </c>
+      <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="6">
-        <v>50</v>
-      </c>
-      <c r="W24" s="6">
-        <v>80</v>
-      </c>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
@@ -4432,24 +4853,27 @@
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
     </row>
-    <row r="25" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
-        <v>35</v>
+    <row r="25" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>400</v>
-      </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <v>200</v>
-      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -4461,14 +4885,10 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="6">
-        <v>400</v>
-      </c>
+      <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="6">
-        <v>600</v>
-      </c>
+      <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
@@ -4476,41 +4896,46 @@
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
     </row>
-    <row r="26" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6">
+        <v>1000</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6">
+        <v>300</v>
+      </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="6">
-        <v>30</v>
-      </c>
+      <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="6">
-        <v>100</v>
-      </c>
+      <c r="S26" s="6"/>
       <c r="T26" s="6">
-        <v>50</v>
-      </c>
-      <c r="U26" s="6">
-        <v>50</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="U26" s="6"/>
       <c r="V26" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
@@ -4520,19 +4945,36 @@
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
     </row>
-    <row r="27" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="B27" s="6">
+        <v>100</v>
+      </c>
+      <c r="C27" s="6">
+        <v>50</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2010</v>
+      </c>
       <c r="E27" s="6">
-        <v>100</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="F27" s="6">
+        <v>60</v>
+      </c>
+      <c r="G27" s="6">
+        <v>50</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -4542,20 +4984,20 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
+      <c r="Q27" s="6">
+        <v>100</v>
+      </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="6">
+      <c r="S27" s="6"/>
+      <c r="T27" s="6">
         <v>50</v>
       </c>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6">
-        <v>100</v>
-      </c>
+      <c r="U27" s="6"/>
       <c r="V27" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W27" s="6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
@@ -4563,20 +5005,35 @@
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
+      <c r="AD27" s="8">
+        <v>150</v>
+      </c>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
     </row>
-    <row r="28" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="6">
+        <v>400</v>
+      </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="6">
+        <v>200</v>
+      </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="6">
+        <v>200</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -4587,29 +5044,32 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
+      <c r="T28" s="6">
+        <v>400</v>
+      </c>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
+      <c r="W28" s="6">
+        <v>600</v>
+      </c>
       <c r="X28" s="6"/>
-      <c r="Y28" s="6">
-        <v>100</v>
-      </c>
-      <c r="Z28" s="6">
-        <v>100</v>
-      </c>
-      <c r="AA28" s="6">
-        <v>100</v>
-      </c>
-      <c r="AB28" s="6">
-        <v>100</v>
-      </c>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
     </row>
-    <row r="29" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4624,39 +5084,50 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
+      <c r="O29" s="6">
+        <v>30</v>
+      </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
+      <c r="S29" s="6">
+        <v>100</v>
+      </c>
+      <c r="T29" s="6">
+        <v>50</v>
+      </c>
       <c r="U29" s="6">
-        <v>100</v>
-      </c>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6">
-        <v>100</v>
-      </c>
-      <c r="X29" s="6">
-        <v>100</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="V29" s="6">
+        <v>200</v>
+      </c>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
-      <c r="AB29" s="6">
-        <v>100</v>
-      </c>
+      <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
     </row>
-    <row r="30" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6">
+        <v>100</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -4670,35 +5141,44 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
+      <c r="S30" s="6">
+        <v>50</v>
+      </c>
       <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
+      <c r="U30" s="6">
+        <v>100</v>
+      </c>
+      <c r="V30" s="6">
+        <v>100</v>
+      </c>
+      <c r="W30" s="6">
+        <v>100</v>
+      </c>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
-      <c r="AB30" s="6">
-        <v>50</v>
-      </c>
+      <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
     </row>
-    <row r="31" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6">
-        <v>200</v>
-      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6">
-        <v>200</v>
-      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -4716,16 +5196,33 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
+      <c r="Y31" s="6">
+        <v>100</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>100</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>100</v>
+      </c>
       <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
+      <c r="AD31" s="8">
+        <v>100</v>
+      </c>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
     </row>
-    <row r="32" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4735,9 +5232,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6">
-        <v>100</v>
-      </c>
+      <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -4748,20 +5243,37 @@
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
+      <c r="U32" s="6">
+        <v>100</v>
+      </c>
       <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
+      <c r="W32" s="6">
+        <v>100</v>
+      </c>
+      <c r="X32" s="6">
+        <v>100</v>
+      </c>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
+      <c r="AB32" s="6">
+        <v>100</v>
+      </c>
       <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
+      <c r="AD32" s="8">
+        <v>100</v>
+      </c>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
     </row>
-    <row r="33" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4772,9 +5284,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="6">
-        <v>100</v>
-      </c>
+      <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -4791,22 +5301,33 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
+      <c r="AB33" s="6">
+        <v>50</v>
+      </c>
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
     </row>
-    <row r="34" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="6">
-        <v>4160</v>
-      </c>
-      <c r="E34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
+        <v>200</v>
+      </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="6">
+        <v>200</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -4830,22 +5351,29 @@
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
     </row>
-    <row r="35" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6">
-        <v>50</v>
-      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="6">
+        <v>100</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -4866,10 +5394,17 @@
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
     </row>
-    <row r="36" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A36" s="7" t="s">
-        <v>92</v>
+    <row r="36" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A36" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4878,11 +5413,11 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="6">
-        <v>200</v>
-      </c>
+      <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="K36" s="6">
+        <v>100</v>
+      </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -4902,19 +5437,26 @@
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
     </row>
-    <row r="37" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="7" t="s">
-        <v>82</v>
+    <row r="37" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="6">
+        <v>4160</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6">
-        <v>200</v>
-      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -4938,10 +5480,17 @@
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
     </row>
-    <row r="38" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
-        <v>67</v>
+    <row r="38" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A38" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -4949,7 +5498,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -4974,21 +5523,28 @@
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
     </row>
-    <row r="39" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="6">
-        <v>20</v>
-      </c>
+      <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="I39" s="6">
+        <v>200</v>
+      </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -5010,27 +5566,32 @@
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
     </row>
-    <row r="40" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="6" t="s">
-        <v>37</v>
+    <row r="40" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A40" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="6">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6">
         <v>200</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="6">
-        <v>50</v>
-      </c>
+      <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -5038,13 +5599,9 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="6">
-        <v>100</v>
-      </c>
+      <c r="U40" s="6"/>
       <c r="V40" s="6"/>
-      <c r="W40" s="6">
-        <v>100</v>
-      </c>
+      <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
@@ -5052,17 +5609,22 @@
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
     </row>
-    <row r="41" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
-        <v>29</v>
+    <row r="41" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="6">
-        <v>200</v>
-      </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6">
         <v>200</v>
@@ -5090,19 +5652,26 @@
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
     </row>
-    <row r="42" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A42" s="6" t="s">
-        <v>11</v>
+    <row r="42" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A42" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="6">
-        <v>100</v>
-      </c>
+      <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="G42" s="6">
+        <v>20</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -5126,25 +5695,34 @@
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
     </row>
-    <row r="43" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="6">
+        <v>200</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6">
-        <v>200</v>
-      </c>
+      <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
+      <c r="M43" s="6">
+        <v>50</v>
+      </c>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -5152,9 +5730,13 @@
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
+      <c r="U43" s="6">
+        <v>100</v>
+      </c>
       <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
+      <c r="W43" s="6">
+        <v>100</v>
+      </c>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
@@ -5162,18 +5744,27 @@
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
     </row>
-    <row r="44" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="7" t="s">
-        <v>84</v>
+    <row r="44" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A44" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="E44" s="6">
+        <v>200</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -5198,19 +5789,26 @@
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6"/>
     </row>
-    <row r="45" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6">
+        <v>100</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6">
-        <v>100</v>
-      </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -5234,23 +5832,30 @@
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
     </row>
-    <row r="46" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="7" t="s">
-        <v>63</v>
+    <row r="46" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6">
-        <v>200</v>
-      </c>
+      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="K46" s="6">
+        <v>200</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -5270,24 +5875,31 @@
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
     </row>
-    <row r="47" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
-        <v>111</v>
+    <row r="47" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A47" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="G47" s="6">
+        <v>50</v>
+      </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="6">
-        <v>100</v>
-      </c>
+      <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
@@ -5306,17 +5918,26 @@
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
     </row>
-    <row r="48" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="G48" s="6">
+        <v>100</v>
+      </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -5326,9 +5947,7 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
-      <c r="Q48" s="6">
-        <v>1000</v>
-      </c>
+      <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -5342,10 +5961,17 @@
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
     </row>
-    <row r="49" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -5353,7 +5979,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -5378,24 +6004,31 @@
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
     </row>
-    <row r="50" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="6">
-        <v>200</v>
-      </c>
+      <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+      <c r="L50" s="6">
+        <v>100</v>
+      </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
@@ -5414,16 +6047,21 @@
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="6"/>
     </row>
-    <row r="51" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="6">
-        <v>20</v>
-      </c>
+      <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -5436,7 +6074,9 @@
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
+      <c r="Q51" s="6">
+        <v>1000</v>
+      </c>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
@@ -5450,10 +6090,17 @@
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6"/>
     </row>
-    <row r="52" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -5461,7 +6108,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6">
-        <v>88.88</v>
+        <v>30</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -5486,23 +6133,30 @@
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
     </row>
-    <row r="53" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="7" t="s">
-        <v>107</v>
+    <row r="53" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A53" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="F53" s="6">
+        <v>200</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="6">
-        <v>200</v>
-      </c>
+      <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -5522,19 +6176,26 @@
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
     </row>
-    <row r="54" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="7" t="s">
-        <v>69</v>
+    <row r="54" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A54" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="6">
+        <v>20</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6">
-        <v>200</v>
-      </c>
+      <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -5558,10 +6219,17 @@
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
       <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="6"/>
     </row>
-    <row r="55" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -5569,7 +6237,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6">
-        <v>50</v>
+        <v>88.88</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -5594,23 +6262,30 @@
       <c r="AB55" s="6"/>
       <c r="AC55" s="6"/>
       <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
     </row>
-    <row r="56" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="6" t="s">
-        <v>48</v>
+    <row r="56" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="6">
-        <v>107</v>
-      </c>
+      <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="K56" s="6">
+        <v>200</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -5630,10 +6305,17 @@
       <c r="AB56" s="6"/>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="6"/>
     </row>
-    <row r="57" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -5641,7 +6323,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -5666,19 +6348,26 @@
       <c r="AB57" s="6"/>
       <c r="AC57" s="6"/>
       <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="6"/>
     </row>
-    <row r="58" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="6" t="s">
-        <v>38</v>
+    <row r="58" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A58" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="6">
-        <v>100</v>
-      </c>
+      <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="G58" s="6">
+        <v>50</v>
+      </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -5702,19 +6391,26 @@
       <c r="AB58" s="6"/>
       <c r="AC58" s="6"/>
       <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="6"/>
     </row>
-    <row r="59" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="7" t="s">
-        <v>66</v>
+    <row r="59" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A59" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6">
-        <v>200</v>
-      </c>
+      <c r="F59" s="6">
+        <v>107</v>
+      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -5738,19 +6434,26 @@
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
     </row>
-    <row r="60" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="6" t="s">
-        <v>10</v>
+    <row r="60" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A60" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="6">
-        <v>200</v>
-      </c>
+      <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="G60" s="6">
+        <v>300</v>
+      </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -5760,13 +6463,9 @@
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
-      <c r="Q60" s="6" t="s">
-        <v>145</v>
-      </c>
+      <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
-      <c r="S60" s="6" t="s">
-        <v>145</v>
-      </c>
+      <c r="S60" s="6"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
@@ -5778,19 +6477,26 @@
       <c r="AB60" s="6"/>
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="6"/>
+      <c r="AI60" s="6"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6"/>
     </row>
-    <row r="61" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="7" t="s">
-        <v>83</v>
+    <row r="61" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A61" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="E61" s="6">
+        <v>100</v>
+      </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="6">
-        <v>200</v>
-      </c>
+      <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -5814,19 +6520,26 @@
       <c r="AB61" s="6"/>
       <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="6"/>
+      <c r="AJ61" s="6"/>
+      <c r="AK61" s="6"/>
     </row>
-    <row r="62" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="6" t="s">
-        <v>12</v>
+    <row r="62" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A62" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="6">
-        <v>1000</v>
-      </c>
+      <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="G62" s="6">
+        <v>200</v>
+      </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -5850,33 +6563,42 @@
       <c r="AB62" s="6"/>
       <c r="AC62" s="6"/>
       <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+      <c r="AF62" s="6"/>
+      <c r="AG62" s="6"/>
+      <c r="AH62" s="6"/>
+      <c r="AI62" s="6"/>
+      <c r="AJ62" s="6"/>
+      <c r="AK62" s="6"/>
     </row>
-    <row r="63" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="D63" s="6">
+        <v>200</v>
+      </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="6">
-        <v>200</v>
-      </c>
+      <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="6">
-        <v>100</v>
-      </c>
+      <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
+      <c r="Q63" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
+      <c r="S63" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
@@ -5888,19 +6610,26 @@
       <c r="AB63" s="6"/>
       <c r="AC63" s="6"/>
       <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6"/>
+      <c r="AK63" s="6"/>
     </row>
-    <row r="64" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="6" t="s">
-        <v>32</v>
+    <row r="64" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A64" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="6">
-        <v>100</v>
-      </c>
+      <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="G64" s="6">
+        <v>200</v>
+      </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -5924,19 +6653,26 @@
       <c r="AB64" s="6"/>
       <c r="AC64" s="6"/>
       <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
     </row>
-    <row r="65" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="7" t="s">
-        <v>77</v>
+    <row r="65" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A65" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="6">
+        <v>1000</v>
+      </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="6">
-        <v>50</v>
-      </c>
+      <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -5960,10 +6696,17 @@
       <c r="AB65" s="6"/>
       <c r="AC65" s="6"/>
       <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6"/>
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
     </row>
-    <row r="66" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="7" t="s">
-        <v>89</v>
+    <row r="66" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A66" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -5971,14 +6714,16 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6">
-        <v>800</v>
-      </c>
+      <c r="H66" s="6">
+        <v>200</v>
+      </c>
+      <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
+      <c r="M66" s="6">
+        <v>100</v>
+      </c>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
@@ -5996,19 +6741,26 @@
       <c r="AB66" s="6"/>
       <c r="AC66" s="6"/>
       <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6"/>
+      <c r="AJ66" s="6"/>
+      <c r="AK66" s="6"/>
     </row>
-    <row r="67" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="7" t="s">
-        <v>74</v>
+    <row r="67" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A67" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="E67" s="6">
+        <v>100</v>
+      </c>
       <c r="F67" s="6"/>
-      <c r="G67" s="6">
-        <v>50</v>
-      </c>
+      <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -6032,20 +6784,27 @@
       <c r="AB67" s="6"/>
       <c r="AC67" s="6"/>
       <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="6"/>
+      <c r="AI67" s="6"/>
+      <c r="AJ67" s="6"/>
+      <c r="AK67" s="6"/>
     </row>
-    <row r="68" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6">
-        <v>100</v>
-      </c>
+      <c r="G68" s="6">
+        <v>50</v>
+      </c>
+      <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -6068,21 +6827,28 @@
       <c r="AB68" s="6"/>
       <c r="AC68" s="6"/>
       <c r="AD68" s="6"/>
+      <c r="AE68" s="6"/>
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="6"/>
+      <c r="AH68" s="6"/>
+      <c r="AI68" s="6"/>
+      <c r="AJ68" s="6"/>
+      <c r="AK68" s="6"/>
     </row>
-    <row r="69" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A69" s="6" t="s">
-        <v>9</v>
+    <row r="69" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A69" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="6">
-        <v>100</v>
-      </c>
+      <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="I69" s="6">
+        <v>800</v>
+      </c>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
@@ -6104,17 +6870,26 @@
       <c r="AB69" s="6"/>
       <c r="AC69" s="6"/>
       <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AI69" s="6"/>
+      <c r="AJ69" s="6"/>
+      <c r="AK69" s="6"/>
     </row>
-    <row r="70" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="6" t="s">
-        <v>142</v>
+    <row r="70" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A70" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="G70" s="6">
+        <v>50</v>
+      </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -6122,9 +6897,7 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="6">
-        <v>20</v>
-      </c>
+      <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
@@ -6140,10 +6913,17 @@
       <c r="AB70" s="6"/>
       <c r="AC70" s="6"/>
       <c r="AD70" s="6"/>
+      <c r="AE70" s="6"/>
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="6"/>
+      <c r="AI70" s="6"/>
+      <c r="AJ70" s="6"/>
+      <c r="AK70" s="6"/>
     </row>
-    <row r="71" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="6" t="s">
-        <v>143</v>
+    <row r="71" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A71" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -6158,9 +6938,7 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
-      <c r="O71" s="6">
-        <v>10</v>
-      </c>
+      <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
@@ -6175,11 +6953,20 @@
       <c r="AA71" s="6"/>
       <c r="AB71" s="6"/>
       <c r="AC71" s="6"/>
-      <c r="AD71" s="6"/>
+      <c r="AD71" s="8">
+        <v>1254</v>
+      </c>
+      <c r="AE71" s="6"/>
+      <c r="AF71" s="6"/>
+      <c r="AG71" s="6"/>
+      <c r="AH71" s="6"/>
+      <c r="AI71" s="6"/>
+      <c r="AJ71" s="6"/>
+      <c r="AK71" s="6"/>
     </row>
-    <row r="72" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="6" t="s">
-        <v>141</v>
+    <row r="72" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A72" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -6194,9 +6981,7 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
-      <c r="O72" s="6">
-        <v>10</v>
-      </c>
+      <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
@@ -6211,11 +6996,20 @@
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
       <c r="AC72" s="6"/>
-      <c r="AD72" s="6"/>
+      <c r="AD72" s="8">
+        <v>200</v>
+      </c>
+      <c r="AE72" s="6"/>
+      <c r="AF72" s="6"/>
+      <c r="AG72" s="6"/>
+      <c r="AH72" s="6"/>
+      <c r="AI72" s="6"/>
+      <c r="AJ72" s="6"/>
+      <c r="AK72" s="6"/>
     </row>
-    <row r="73" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A73" s="6" t="s">
-        <v>140</v>
+    <row r="73" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A73" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -6230,9 +7024,7 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
-      <c r="O73" s="6">
-        <v>10</v>
-      </c>
+      <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
@@ -6247,11 +7039,20 @@
       <c r="AA73" s="6"/>
       <c r="AB73" s="6"/>
       <c r="AC73" s="6"/>
-      <c r="AD73" s="6"/>
+      <c r="AD73" s="8">
+        <v>100</v>
+      </c>
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="6"/>
+      <c r="AI73" s="6"/>
+      <c r="AJ73" s="6"/>
+      <c r="AK73" s="6"/>
     </row>
-    <row r="74" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="6" t="s">
-        <v>139</v>
+    <row r="74" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A74" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -6266,9 +7067,7 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
-      <c r="O74" s="6">
-        <v>10</v>
-      </c>
+      <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
@@ -6283,11 +7082,20 @@
       <c r="AA74" s="6"/>
       <c r="AB74" s="6"/>
       <c r="AC74" s="6"/>
-      <c r="AD74" s="6"/>
+      <c r="AD74" s="8">
+        <v>100</v>
+      </c>
+      <c r="AE74" s="6"/>
+      <c r="AF74" s="6"/>
+      <c r="AG74" s="6"/>
+      <c r="AH74" s="6"/>
+      <c r="AI74" s="6"/>
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="6"/>
     </row>
-    <row r="75" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="6" t="s">
-        <v>138</v>
+    <row r="75" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A75" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -6302,9 +7110,7 @@
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-      <c r="O75" s="6">
-        <v>10</v>
-      </c>
+      <c r="O75" s="6"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
@@ -6319,11 +7125,20 @@
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
       <c r="AC75" s="6"/>
-      <c r="AD75" s="6"/>
+      <c r="AD75" s="8">
+        <v>3000</v>
+      </c>
+      <c r="AE75" s="6"/>
+      <c r="AF75" s="6"/>
+      <c r="AG75" s="6"/>
+      <c r="AH75" s="6"/>
+      <c r="AI75" s="6"/>
+      <c r="AJ75" s="6"/>
+      <c r="AK75" s="6"/>
     </row>
-    <row r="76" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="6" t="s">
-        <v>137</v>
+    <row r="76" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A76" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -6338,9 +7153,7 @@
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
-      <c r="O76" s="6">
-        <v>20</v>
-      </c>
+      <c r="O76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
@@ -6355,11 +7168,20 @@
       <c r="AA76" s="6"/>
       <c r="AB76" s="6"/>
       <c r="AC76" s="6"/>
-      <c r="AD76" s="6"/>
+      <c r="AD76" s="8">
+        <v>200</v>
+      </c>
+      <c r="AE76" s="6"/>
+      <c r="AF76" s="6"/>
+      <c r="AG76" s="6"/>
+      <c r="AH76" s="6"/>
+      <c r="AI76" s="6"/>
+      <c r="AJ76" s="6"/>
+      <c r="AK76" s="6"/>
     </row>
-    <row r="77" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="6" t="s">
-        <v>136</v>
+    <row r="77" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A77" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -6367,16 +7189,16 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="H77" s="6">
+        <v>100</v>
+      </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
-      <c r="O77" s="6">
-        <v>10</v>
-      </c>
+      <c r="O77" s="6"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
@@ -6392,19 +7214,26 @@
       <c r="AB77" s="6"/>
       <c r="AC77" s="6"/>
       <c r="AD77" s="6"/>
+      <c r="AE77" s="6"/>
+      <c r="AF77" s="6"/>
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="6"/>
+      <c r="AI77" s="6"/>
+      <c r="AJ77" s="6"/>
+      <c r="AK77" s="6"/>
     </row>
-    <row r="78" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="7" t="s">
-        <v>68</v>
+    <row r="78" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A78" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="6">
+        <v>100</v>
+      </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6">
-        <v>200</v>
-      </c>
+      <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
@@ -6414,9 +7243,7 @@
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
-      <c r="Q78" s="6">
-        <v>300</v>
-      </c>
+      <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
@@ -6430,10 +7257,17 @@
       <c r="AB78" s="6"/>
       <c r="AC78" s="6"/>
       <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="6"/>
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="6"/>
     </row>
-    <row r="79" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="7" t="s">
-        <v>90</v>
+    <row r="79" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -6442,15 +7276,15 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
-      <c r="I79" s="6">
-        <v>300</v>
-      </c>
+      <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
+      <c r="O79" s="6">
+        <v>20</v>
+      </c>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
@@ -6466,10 +7300,17 @@
       <c r="AB79" s="6"/>
       <c r="AC79" s="6"/>
       <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="6"/>
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
     </row>
-    <row r="80" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="7" t="s">
-        <v>134</v>
+    <row r="80" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -6485,7 +7326,7 @@
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
@@ -6502,10 +7343,17 @@
       <c r="AB80" s="6"/>
       <c r="AC80" s="6"/>
       <c r="AD80" s="6"/>
+      <c r="AE80" s="6"/>
+      <c r="AF80" s="6"/>
+      <c r="AG80" s="6"/>
+      <c r="AH80" s="6"/>
+      <c r="AI80" s="6"/>
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="6"/>
     </row>
-    <row r="81" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="7" t="s">
-        <v>135</v>
+    <row r="81" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A81" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -6521,7 +7369,7 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
@@ -6538,19 +7386,24 @@
       <c r="AB81" s="6"/>
       <c r="AC81" s="6"/>
       <c r="AD81" s="6"/>
+      <c r="AE81" s="6"/>
+      <c r="AF81" s="6"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="6"/>
+      <c r="AI81" s="6"/>
+      <c r="AJ81" s="6"/>
+      <c r="AK81" s="6"/>
     </row>
-    <row r="82" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="7" t="s">
-        <v>65</v>
+    <row r="82" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A82" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="6">
-        <v>200</v>
-      </c>
+      <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -6558,7 +7411,9 @@
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
+      <c r="O82" s="6">
+        <v>10</v>
+      </c>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
@@ -6574,19 +7429,24 @@
       <c r="AB82" s="6"/>
       <c r="AC82" s="6"/>
       <c r="AD82" s="6"/>
+      <c r="AE82" s="6"/>
+      <c r="AF82" s="6"/>
+      <c r="AG82" s="6"/>
+      <c r="AH82" s="6"/>
+      <c r="AI82" s="6"/>
+      <c r="AJ82" s="6"/>
+      <c r="AK82" s="6"/>
     </row>
-    <row r="83" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="7" t="s">
-        <v>64</v>
+    <row r="83" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A83" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="6">
-        <v>200</v>
-      </c>
+      <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -6594,7 +7454,9 @@
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
+      <c r="O83" s="6">
+        <v>10</v>
+      </c>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
@@ -6610,16 +7472,21 @@
       <c r="AB83" s="6"/>
       <c r="AC83" s="6"/>
       <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
+      <c r="AF83" s="6"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="6"/>
+      <c r="AI83" s="6"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6"/>
     </row>
-    <row r="84" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="6">
-        <v>55</v>
-      </c>
+      <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -6630,7 +7497,9 @@
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
+      <c r="O84" s="6">
+        <v>10</v>
+      </c>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
@@ -6646,19 +7515,24 @@
       <c r="AB84" s="6"/>
       <c r="AC84" s="6"/>
       <c r="AD84" s="6"/>
+      <c r="AE84" s="6"/>
+      <c r="AF84" s="6"/>
+      <c r="AG84" s="6"/>
+      <c r="AH84" s="6"/>
+      <c r="AI84" s="6"/>
+      <c r="AJ84" s="6"/>
+      <c r="AK84" s="6"/>
     </row>
-    <row r="85" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="6">
-        <v>200</v>
-      </c>
+      <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -6666,7 +7540,9 @@
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
+      <c r="O85" s="6">
+        <v>20</v>
+      </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
@@ -6682,10 +7558,17 @@
       <c r="AB85" s="6"/>
       <c r="AC85" s="6"/>
       <c r="AD85" s="6"/>
+      <c r="AE85" s="6"/>
+      <c r="AF85" s="6"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="6"/>
+      <c r="AI85" s="6"/>
+      <c r="AJ85" s="6"/>
+      <c r="AK85" s="6"/>
     </row>
-    <row r="86" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -6696,13 +7579,13 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="6">
-        <v>100</v>
-      </c>
+      <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
+      <c r="O86" s="6">
+        <v>10</v>
+      </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
@@ -6718,10 +7601,17 @@
       <c r="AB86" s="6"/>
       <c r="AC86" s="6"/>
       <c r="AD86" s="6"/>
+      <c r="AE86" s="6"/>
+      <c r="AF86" s="6"/>
+      <c r="AG86" s="6"/>
+      <c r="AH86" s="6"/>
+      <c r="AI86" s="6"/>
+      <c r="AJ86" s="6"/>
+      <c r="AK86" s="6"/>
     </row>
-    <row r="87" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -6729,7 +7619,7 @@
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
@@ -6740,7 +7630,9 @@
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
+      <c r="Q87" s="6">
+        <v>300</v>
+      </c>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
@@ -6754,21 +7646,28 @@
       <c r="AB87" s="6"/>
       <c r="AC87" s="6"/>
       <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
+      <c r="AF87" s="6"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="6"/>
+      <c r="AI87" s="6"/>
+      <c r="AJ87" s="6"/>
+      <c r="AK87" s="6"/>
     </row>
-    <row r="88" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="6">
-        <v>50</v>
-      </c>
+      <c r="G88" s="6"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
+      <c r="I88" s="6">
+        <v>300</v>
+      </c>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
@@ -6790,19 +7689,24 @@
       <c r="AB88" s="6"/>
       <c r="AC88" s="6"/>
       <c r="AD88" s="6"/>
+      <c r="AE88" s="6"/>
+      <c r="AF88" s="6"/>
+      <c r="AG88" s="6"/>
+      <c r="AH88" s="6"/>
+      <c r="AI88" s="6"/>
+      <c r="AJ88" s="6"/>
+      <c r="AK88" s="6"/>
     </row>
-    <row r="89" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="7" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="6">
-        <v>50</v>
-      </c>
+      <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -6810,7 +7714,9 @@
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
+      <c r="O89" s="6">
+        <v>100</v>
+      </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
@@ -6826,19 +7732,24 @@
       <c r="AB89" s="6"/>
       <c r="AC89" s="6"/>
       <c r="AD89" s="6"/>
+      <c r="AE89" s="6"/>
+      <c r="AF89" s="6"/>
+      <c r="AG89" s="6"/>
+      <c r="AH89" s="6"/>
+      <c r="AI89" s="6"/>
+      <c r="AJ89" s="6"/>
+      <c r="AK89" s="6"/>
     </row>
-    <row r="90" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="7" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="6">
-        <v>50</v>
-      </c>
+      <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
@@ -6846,7 +7757,9 @@
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
+      <c r="O90" s="6">
+        <v>50</v>
+      </c>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
@@ -6862,19 +7775,26 @@
       <c r="AB90" s="6"/>
       <c r="AC90" s="6"/>
       <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
+      <c r="AF90" s="6"/>
+      <c r="AG90" s="6"/>
+      <c r="AH90" s="6"/>
+      <c r="AI90" s="6"/>
+      <c r="AJ90" s="6"/>
+      <c r="AK90" s="6"/>
     </row>
-    <row r="91" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A91" s="6" t="s">
-        <v>41</v>
+    <row r="91" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A91" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="6">
-        <v>10</v>
-      </c>
+      <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
+      <c r="G91" s="6">
+        <v>200</v>
+      </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -6898,10 +7818,17 @@
       <c r="AB91" s="6"/>
       <c r="AC91" s="6"/>
       <c r="AD91" s="6"/>
+      <c r="AE91" s="6"/>
+      <c r="AF91" s="6"/>
+      <c r="AG91" s="6"/>
+      <c r="AH91" s="6"/>
+      <c r="AI91" s="6"/>
+      <c r="AJ91" s="6"/>
+      <c r="AK91" s="6"/>
     </row>
-    <row r="92" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -6909,7 +7836,7 @@
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
@@ -6934,19 +7861,26 @@
       <c r="AB92" s="6"/>
       <c r="AC92" s="6"/>
       <c r="AD92" s="6"/>
+      <c r="AE92" s="6"/>
+      <c r="AF92" s="6"/>
+      <c r="AG92" s="6"/>
+      <c r="AH92" s="6"/>
+      <c r="AI92" s="6"/>
+      <c r="AJ92" s="6"/>
+      <c r="AK92" s="6"/>
     </row>
-    <row r="93" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="7" t="s">
-        <v>78</v>
+    <row r="93" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A93" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
+      <c r="D93" s="6">
+        <v>55</v>
+      </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6">
-        <v>50</v>
-      </c>
+      <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
@@ -6970,21 +7904,28 @@
       <c r="AB93" s="6"/>
       <c r="AC93" s="6"/>
       <c r="AD93" s="6"/>
+      <c r="AE93" s="6"/>
+      <c r="AF93" s="6"/>
+      <c r="AG93" s="6"/>
+      <c r="AH93" s="6"/>
+      <c r="AI93" s="6"/>
+      <c r="AJ93" s="6"/>
+      <c r="AK93" s="6"/>
     </row>
-    <row r="94" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
+      <c r="G94" s="6">
+        <v>200</v>
+      </c>
       <c r="H94" s="6"/>
-      <c r="I94" s="6">
-        <v>50</v>
-      </c>
+      <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
@@ -6994,9 +7935,7 @@
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
-      <c r="S94" s="6">
-        <v>100</v>
-      </c>
+      <c r="S94" s="6"/>
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
@@ -7008,10 +7947,17 @@
       <c r="AB94" s="6"/>
       <c r="AC94" s="6"/>
       <c r="AD94" s="6"/>
+      <c r="AE94" s="6"/>
+      <c r="AF94" s="6"/>
+      <c r="AG94" s="6"/>
+      <c r="AH94" s="6"/>
+      <c r="AI94" s="6"/>
+      <c r="AJ94" s="6"/>
+      <c r="AK94" s="6"/>
     </row>
-    <row r="95" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -7044,25 +7990,32 @@
       <c r="AB95" s="6"/>
       <c r="AC95" s="6"/>
       <c r="AD95" s="6"/>
+      <c r="AE95" s="6"/>
+      <c r="AF95" s="6"/>
+      <c r="AG95" s="6"/>
+      <c r="AH95" s="6"/>
+      <c r="AI95" s="6"/>
+      <c r="AJ95" s="6"/>
+      <c r="AK95" s="6"/>
     </row>
-    <row r="96" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="6" t="s">
-        <v>120</v>
+    <row r="96" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A96" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
+      <c r="G96" s="6">
+        <v>50</v>
+      </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="6">
-        <v>66</v>
-      </c>
+      <c r="M96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
@@ -7080,21 +8033,28 @@
       <c r="AB96" s="6"/>
       <c r="AC96" s="6"/>
       <c r="AD96" s="6"/>
+      <c r="AE96" s="6"/>
+      <c r="AF96" s="6"/>
+      <c r="AG96" s="6"/>
+      <c r="AH96" s="6"/>
+      <c r="AI96" s="6"/>
+      <c r="AJ96" s="6"/>
+      <c r="AK96" s="6"/>
     </row>
-    <row r="97" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
+      <c r="G97" s="6">
+        <v>50</v>
+      </c>
       <c r="H97" s="6"/>
-      <c r="I97" s="6">
-        <v>200</v>
-      </c>
+      <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
@@ -7116,25 +8076,32 @@
       <c r="AB97" s="6"/>
       <c r="AC97" s="6"/>
       <c r="AD97" s="6"/>
+      <c r="AE97" s="6"/>
+      <c r="AF97" s="6"/>
+      <c r="AG97" s="6"/>
+      <c r="AH97" s="6"/>
+      <c r="AI97" s="6"/>
+      <c r="AJ97" s="6"/>
+      <c r="AK97" s="6"/>
     </row>
-    <row r="98" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+      <c r="G98" s="6">
+        <v>50</v>
+      </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
-      <c r="M98" s="6">
-        <v>30</v>
-      </c>
+      <c r="M98" s="6"/>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -7152,25 +8119,32 @@
       <c r="AB98" s="6"/>
       <c r="AC98" s="6"/>
       <c r="AD98" s="6"/>
+      <c r="AE98" s="6"/>
+      <c r="AF98" s="6"/>
+      <c r="AG98" s="6"/>
+      <c r="AH98" s="6"/>
+      <c r="AI98" s="6"/>
+      <c r="AJ98" s="6"/>
+      <c r="AK98" s="6"/>
     </row>
-    <row r="99" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A99" s="6" t="s">
-        <v>123</v>
+    <row r="99" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A99" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
+      <c r="G99" s="6">
+        <v>50</v>
+      </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
-      <c r="M99" s="6">
-        <v>100</v>
-      </c>
+      <c r="M99" s="6"/>
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -7179,9 +8153,7 @@
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
-      <c r="V99" s="6">
-        <v>200</v>
-      </c>
+      <c r="V99" s="6"/>
       <c r="W99" s="6"/>
       <c r="X99" s="6"/>
       <c r="Y99" s="6"/>
@@ -7190,15 +8162,24 @@
       <c r="AB99" s="6"/>
       <c r="AC99" s="6"/>
       <c r="AD99" s="6"/>
+      <c r="AE99" s="6"/>
+      <c r="AF99" s="6"/>
+      <c r="AG99" s="6"/>
+      <c r="AH99" s="6"/>
+      <c r="AI99" s="6"/>
+      <c r="AJ99" s="6"/>
+      <c r="AK99" s="6"/>
     </row>
-    <row r="100" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
+      <c r="E100" s="6">
+        <v>10</v>
+      </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -7210,9 +8191,7 @@
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
-      <c r="Q100" s="6">
-        <v>100</v>
-      </c>
+      <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
@@ -7226,17 +8205,26 @@
       <c r="AB100" s="6"/>
       <c r="AC100" s="6"/>
       <c r="AD100" s="6"/>
+      <c r="AE100" s="6"/>
+      <c r="AF100" s="6"/>
+      <c r="AG100" s="6"/>
+      <c r="AH100" s="6"/>
+      <c r="AI100" s="6"/>
+      <c r="AJ100" s="6"/>
+      <c r="AK100" s="6"/>
     </row>
-    <row r="101" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A101" s="6" t="s">
-        <v>153</v>
+    <row r="101" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A101" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
+      <c r="G101" s="6">
+        <v>50</v>
+      </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
@@ -7246,18 +8234,12 @@
       <c r="N101" s="6"/>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
-      <c r="Q101" s="6">
-        <v>100</v>
-      </c>
+      <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
-      <c r="U101" s="6">
-        <v>100</v>
-      </c>
-      <c r="V101" s="6">
-        <v>100</v>
-      </c>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
       <c r="W101" s="6"/>
       <c r="X101" s="6"/>
       <c r="Y101" s="6"/>
@@ -7266,17 +8248,26 @@
       <c r="AB101" s="6"/>
       <c r="AC101" s="6"/>
       <c r="AD101" s="6"/>
+      <c r="AE101" s="6"/>
+      <c r="AF101" s="6"/>
+      <c r="AG101" s="6"/>
+      <c r="AH101" s="6"/>
+      <c r="AI101" s="6"/>
+      <c r="AJ101" s="6"/>
+      <c r="AK101" s="6"/>
     </row>
-    <row r="102" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A102" s="6" t="s">
-        <v>183</v>
+    <row r="102" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A102" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
+      <c r="G102" s="6">
+        <v>50</v>
+      </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
@@ -7290,9 +8281,7 @@
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
-      <c r="U102" s="6">
-        <v>100</v>
-      </c>
+      <c r="U102" s="6"/>
       <c r="V102" s="6"/>
       <c r="W102" s="6"/>
       <c r="X102" s="6"/>
@@ -7302,10 +8291,17 @@
       <c r="AB102" s="6"/>
       <c r="AC102" s="6"/>
       <c r="AD102" s="6"/>
+      <c r="AE102" s="6"/>
+      <c r="AF102" s="6"/>
+      <c r="AG102" s="6"/>
+      <c r="AH102" s="6"/>
+      <c r="AI102" s="6"/>
+      <c r="AJ102" s="6"/>
+      <c r="AK102" s="6"/>
     </row>
-    <row r="103" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -7314,7 +8310,9 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
+      <c r="I103" s="6">
+        <v>50</v>
+      </c>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
@@ -7325,7 +8323,7 @@
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
       <c r="S103" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
@@ -7338,10 +8336,17 @@
       <c r="AB103" s="6"/>
       <c r="AC103" s="6"/>
       <c r="AD103" s="6"/>
+      <c r="AE103" s="6"/>
+      <c r="AF103" s="6"/>
+      <c r="AG103" s="6"/>
+      <c r="AH103" s="6"/>
+      <c r="AI103" s="6"/>
+      <c r="AJ103" s="6"/>
+      <c r="AK103" s="6"/>
     </row>
-    <row r="104" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -7352,7 +8357,9 @@
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
+      <c r="K104" s="6">
+        <v>100</v>
+      </c>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
@@ -7360,9 +8367,7 @@
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
-      <c r="S104" s="6">
-        <v>50</v>
-      </c>
+      <c r="S104" s="6"/>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
@@ -7374,17 +8379,22 @@
       <c r="AB104" s="6"/>
       <c r="AC104" s="6"/>
       <c r="AD104" s="6"/>
+      <c r="AE104" s="6"/>
+      <c r="AF104" s="6"/>
+      <c r="AG104" s="6"/>
+      <c r="AH104" s="6"/>
+      <c r="AI104" s="6"/>
+      <c r="AJ104" s="6"/>
+      <c r="AK104" s="6"/>
     </row>
-    <row r="105" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
-      <c r="E105" s="6">
-        <v>20</v>
-      </c>
+      <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -7392,7 +8402,9 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
+      <c r="M105" s="6">
+        <v>66</v>
+      </c>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
@@ -7410,10 +8422,17 @@
       <c r="AB105" s="6"/>
       <c r="AC105" s="6"/>
       <c r="AD105" s="6"/>
+      <c r="AE105" s="6"/>
+      <c r="AF105" s="6"/>
+      <c r="AG105" s="6"/>
+      <c r="AH105" s="6"/>
+      <c r="AI105" s="6"/>
+      <c r="AJ105" s="6"/>
+      <c r="AK105" s="6"/>
     </row>
-    <row r="106" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A106" s="6" t="s">
-        <v>198</v>
+    <row r="106" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A106" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -7422,7 +8441,9 @@
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
+      <c r="I106" s="6">
+        <v>200</v>
+      </c>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
@@ -7437,19 +8458,24 @@
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
       <c r="W106" s="6"/>
-      <c r="X106" s="6">
-        <v>400</v>
-      </c>
+      <c r="X106" s="6"/>
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>
       <c r="AA106" s="6"/>
       <c r="AB106" s="6"/>
       <c r="AC106" s="6"/>
       <c r="AD106" s="6"/>
+      <c r="AE106" s="6"/>
+      <c r="AF106" s="6"/>
+      <c r="AG106" s="6"/>
+      <c r="AH106" s="6"/>
+      <c r="AI106" s="6"/>
+      <c r="AJ106" s="6"/>
+      <c r="AK106" s="6"/>
     </row>
-    <row r="107" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A107" s="6" t="s">
-        <v>200</v>
+    <row r="107" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A107" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -7462,7 +8488,9 @@
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
+      <c r="M107" s="6">
+        <v>30</v>
+      </c>
       <c r="N107" s="6"/>
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
@@ -7473,19 +8501,24 @@
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
       <c r="W107" s="6"/>
-      <c r="X107" s="6">
-        <v>200</v>
-      </c>
+      <c r="X107" s="6"/>
       <c r="Y107" s="6"/>
       <c r="Z107" s="6"/>
       <c r="AA107" s="6"/>
       <c r="AB107" s="6"/>
       <c r="AC107" s="6"/>
       <c r="AD107" s="6"/>
+      <c r="AE107" s="6"/>
+      <c r="AF107" s="6"/>
+      <c r="AG107" s="6"/>
+      <c r="AH107" s="6"/>
+      <c r="AI107" s="6"/>
+      <c r="AJ107" s="6"/>
+      <c r="AK107" s="6"/>
     </row>
-    <row r="108" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="6" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -7498,7 +8531,9 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
+      <c r="M108" s="6">
+        <v>100</v>
+      </c>
       <c r="N108" s="6"/>
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
@@ -7507,21 +8542,28 @@
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
-      <c r="V108" s="6"/>
+      <c r="V108" s="6">
+        <v>200</v>
+      </c>
       <c r="W108" s="6"/>
-      <c r="X108" s="6">
-        <v>100</v>
-      </c>
+      <c r="X108" s="6"/>
       <c r="Y108" s="6"/>
       <c r="Z108" s="6"/>
       <c r="AA108" s="6"/>
       <c r="AB108" s="6"/>
       <c r="AC108" s="6"/>
       <c r="AD108" s="6"/>
+      <c r="AE108" s="6"/>
+      <c r="AF108" s="6"/>
+      <c r="AG108" s="6"/>
+      <c r="AH108" s="6"/>
+      <c r="AI108" s="6"/>
+      <c r="AJ108" s="6"/>
+      <c r="AK108" s="6"/>
     </row>
-    <row r="109" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -7538,14 +8580,14 @@
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
+      <c r="Q109" s="6">
+        <v>100</v>
+      </c>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
-      <c r="V109" s="6">
-        <v>800</v>
-      </c>
+      <c r="V109" s="6"/>
       <c r="W109" s="6"/>
       <c r="X109" s="6"/>
       <c r="Y109" s="6"/>
@@ -7554,17 +8596,22 @@
       <c r="AB109" s="6"/>
       <c r="AC109" s="6"/>
       <c r="AD109" s="6"/>
+      <c r="AE109" s="6"/>
+      <c r="AF109" s="6"/>
+      <c r="AG109" s="6"/>
+      <c r="AH109" s="6"/>
+      <c r="AI109" s="6"/>
+      <c r="AJ109" s="6"/>
+      <c r="AK109" s="6"/>
     </row>
-    <row r="110" spans="1:30" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="6" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="6">
-        <v>50</v>
-      </c>
+      <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -7576,12 +8623,18 @@
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
+      <c r="Q110" s="6">
+        <v>100</v>
+      </c>
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
-      <c r="U110" s="6"/>
-      <c r="V110" s="6"/>
+      <c r="U110" s="6">
+        <v>100</v>
+      </c>
+      <c r="V110" s="6">
+        <v>100</v>
+      </c>
       <c r="W110" s="6"/>
       <c r="X110" s="6"/>
       <c r="Y110" s="6"/>
@@ -7590,504 +8643,956 @@
       <c r="AB110" s="6"/>
       <c r="AC110" s="6"/>
       <c r="AD110" s="6"/>
+      <c r="AE110" s="6"/>
+      <c r="AF110" s="6"/>
+      <c r="AG110" s="6"/>
+      <c r="AH110" s="6"/>
+      <c r="AI110" s="6"/>
+      <c r="AJ110" s="6"/>
+      <c r="AK110" s="6"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A111" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="6">
+        <v>100</v>
+      </c>
+      <c r="V111" s="6"/>
+      <c r="W111" s="6"/>
+      <c r="X111" s="6"/>
+      <c r="Y111" s="6"/>
+      <c r="Z111" s="6"/>
+      <c r="AA111" s="6"/>
+      <c r="AB111" s="6"/>
+      <c r="AC111" s="6"/>
+      <c r="AD111" s="6"/>
+      <c r="AE111" s="6"/>
+      <c r="AF111" s="6"/>
+      <c r="AG111" s="6"/>
+      <c r="AH111" s="6"/>
+      <c r="AI111" s="6"/>
+      <c r="AJ111" s="6"/>
+      <c r="AK111" s="6"/>
+    </row>
+    <row r="112" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A112" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6">
+        <v>50</v>
+      </c>
+      <c r="T112" s="6"/>
+      <c r="U112" s="6"/>
+      <c r="V112" s="6"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="6"/>
+      <c r="Y112" s="6"/>
+      <c r="Z112" s="6"/>
+      <c r="AA112" s="6"/>
+      <c r="AB112" s="6"/>
+      <c r="AC112" s="6"/>
+      <c r="AD112" s="6"/>
+      <c r="AE112" s="6"/>
+      <c r="AF112" s="6"/>
+      <c r="AG112" s="6"/>
+      <c r="AH112" s="6"/>
+      <c r="AI112" s="6"/>
+      <c r="AJ112" s="6"/>
+      <c r="AK112" s="6"/>
+    </row>
+    <row r="113" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A113" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6">
+        <v>50</v>
+      </c>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="6"/>
+      <c r="AA113" s="6"/>
+      <c r="AB113" s="6"/>
+      <c r="AC113" s="6"/>
+      <c r="AD113" s="6"/>
+      <c r="AE113" s="6"/>
+      <c r="AF113" s="6"/>
+      <c r="AG113" s="6"/>
+      <c r="AH113" s="6"/>
+      <c r="AI113" s="6"/>
+      <c r="AJ113" s="6"/>
+      <c r="AK113" s="6"/>
+    </row>
+    <row r="114" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A114" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6">
+        <v>20</v>
+      </c>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+      <c r="W114" s="6"/>
+      <c r="X114" s="6"/>
+      <c r="Y114" s="6"/>
+      <c r="Z114" s="6"/>
+      <c r="AA114" s="6"/>
+      <c r="AB114" s="6"/>
+      <c r="AC114" s="6"/>
+      <c r="AD114" s="6"/>
+      <c r="AE114" s="6"/>
+      <c r="AF114" s="6"/>
+      <c r="AG114" s="6"/>
+      <c r="AH114" s="6"/>
+      <c r="AI114" s="6"/>
+      <c r="AJ114" s="6"/>
+      <c r="AK114" s="6"/>
+    </row>
+    <row r="115" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A115" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+      <c r="W115" s="6"/>
+      <c r="X115" s="6">
+        <v>400</v>
+      </c>
+      <c r="Y115" s="6"/>
+      <c r="Z115" s="6"/>
+      <c r="AA115" s="6"/>
+      <c r="AB115" s="6"/>
+      <c r="AC115" s="6"/>
+      <c r="AD115" s="6"/>
+      <c r="AE115" s="6"/>
+      <c r="AF115" s="6"/>
+      <c r="AG115" s="6"/>
+      <c r="AH115" s="6"/>
+      <c r="AI115" s="6"/>
+      <c r="AJ115" s="6"/>
+      <c r="AK115" s="6"/>
+    </row>
+    <row r="116" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A116" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="6"/>
+      <c r="W116" s="6"/>
+      <c r="X116" s="6">
+        <v>200</v>
+      </c>
+      <c r="Y116" s="6"/>
+      <c r="Z116" s="6"/>
+      <c r="AA116" s="6"/>
+      <c r="AB116" s="6"/>
+      <c r="AC116" s="6"/>
+      <c r="AD116" s="6"/>
+      <c r="AE116" s="6"/>
+      <c r="AF116" s="6"/>
+      <c r="AG116" s="6"/>
+      <c r="AH116" s="6"/>
+      <c r="AI116" s="6"/>
+      <c r="AJ116" s="6"/>
+      <c r="AK116" s="6"/>
+    </row>
+    <row r="117" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A117" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
+      <c r="U117" s="6"/>
+      <c r="V117" s="6"/>
+      <c r="W117" s="6"/>
+      <c r="X117" s="6">
+        <v>100</v>
+      </c>
+      <c r="Y117" s="6"/>
+      <c r="Z117" s="6"/>
+      <c r="AA117" s="6"/>
+      <c r="AB117" s="6"/>
+      <c r="AC117" s="6"/>
+      <c r="AD117" s="6"/>
+      <c r="AE117" s="6"/>
+      <c r="AF117" s="6"/>
+      <c r="AG117" s="6"/>
+      <c r="AH117" s="6"/>
+      <c r="AI117" s="6"/>
+      <c r="AJ117" s="6"/>
+      <c r="AK117" s="6"/>
+    </row>
+    <row r="118" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A118" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+      <c r="T118" s="6"/>
+      <c r="U118" s="6"/>
+      <c r="V118" s="6">
+        <v>800</v>
+      </c>
+      <c r="W118" s="6"/>
+      <c r="X118" s="6"/>
+      <c r="Y118" s="6"/>
+      <c r="Z118" s="6"/>
+      <c r="AA118" s="6"/>
+      <c r="AB118" s="6"/>
+      <c r="AC118" s="6"/>
+      <c r="AD118" s="6"/>
+      <c r="AE118" s="6"/>
+      <c r="AF118" s="6"/>
+      <c r="AG118" s="6"/>
+      <c r="AH118" s="6"/>
+      <c r="AI118" s="6"/>
+      <c r="AJ118" s="6"/>
+      <c r="AK118" s="6"/>
+    </row>
+    <row r="119" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A119" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6">
+        <v>50</v>
+      </c>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+      <c r="T119" s="6"/>
+      <c r="U119" s="6"/>
+      <c r="V119" s="6"/>
+      <c r="W119" s="6"/>
+      <c r="X119" s="6"/>
+      <c r="Y119" s="6"/>
+      <c r="Z119" s="6"/>
+      <c r="AA119" s="6"/>
+      <c r="AB119" s="6"/>
+      <c r="AC119" s="6"/>
+      <c r="AD119" s="6"/>
+      <c r="AE119" s="6"/>
+      <c r="AF119" s="6"/>
+      <c r="AG119" s="6"/>
+      <c r="AH119" s="6"/>
+      <c r="AI119" s="6"/>
+      <c r="AJ119" s="6"/>
+      <c r="AK119" s="6"/>
+    </row>
+    <row r="120" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A120" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B111" s="16">
-        <f t="shared" ref="B111:AD111" si="0">SUM(B2:B110)</f>
+      <c r="B120" s="16">
+        <f>SUM(B2:B119)</f>
         <v>1980</v>
       </c>
-      <c r="C111" s="16">
+      <c r="C120" s="16">
+        <f>SUM(C2:C119)</f>
+        <v>1166</v>
+      </c>
+      <c r="D120" s="16">
+        <f>SUM(D2:D119)</f>
+        <v>12195</v>
+      </c>
+      <c r="E120" s="16">
+        <f>SUM(E2:E119)</f>
+        <v>5530</v>
+      </c>
+      <c r="F120" s="16">
+        <f>SUM(F2:F119)</f>
+        <v>2517</v>
+      </c>
+      <c r="G120" s="16">
+        <f>SUM(G2:G119)</f>
+        <v>6563.88</v>
+      </c>
+      <c r="H120" s="16">
+        <f>SUM(H2:H119)</f>
+        <v>3700</v>
+      </c>
+      <c r="I120" s="16">
+        <f>SUM(I2:I119)</f>
+        <v>5550</v>
+      </c>
+      <c r="J120" s="16">
+        <f>SUM(J2:J119)</f>
+        <v>1350</v>
+      </c>
+      <c r="K120" s="16">
+        <f>SUM(K2:K119)</f>
+        <v>3900</v>
+      </c>
+      <c r="L120" s="16">
+        <f>SUM(L2:L119)</f>
+        <v>3750</v>
+      </c>
+      <c r="M120" s="16">
+        <f>SUM(M2:M119)</f>
+        <v>3196</v>
+      </c>
+      <c r="N120" s="16">
+        <f>SUM(N2:N119)</f>
+        <v>1750</v>
+      </c>
+      <c r="O120" s="16">
+        <f>SUM(O2:O119)</f>
+        <v>3530</v>
+      </c>
+      <c r="P120" s="16">
+        <f>SUM(P2:P119)</f>
+        <v>2454</v>
+      </c>
+      <c r="Q120" s="16">
+        <f>SUM(Q2:Q119)</f>
+        <v>6150</v>
+      </c>
+      <c r="R120" s="16">
+        <f>SUM(R2:R119)</f>
+        <v>0</v>
+      </c>
+      <c r="S120" s="16">
+        <f>SUM(S2:S119)</f>
+        <v>5500</v>
+      </c>
+      <c r="T120" s="16">
+        <f>SUM(T2:T119)</f>
+        <v>5000</v>
+      </c>
+      <c r="U120" s="16">
+        <f>SUM(U2:U119)</f>
+        <v>6250</v>
+      </c>
+      <c r="V120" s="16">
+        <f>SUM(V2:V119)</f>
+        <v>6230</v>
+      </c>
+      <c r="W120" s="16">
+        <f>SUM(W2:W119)</f>
+        <v>6060</v>
+      </c>
+      <c r="X120" s="16">
+        <f>SUM(X2:X119)</f>
+        <v>4480</v>
+      </c>
+      <c r="Y120" s="16">
+        <f>SUM(Y2:Y119)</f>
+        <v>1200</v>
+      </c>
+      <c r="Z120" s="16">
+        <f>SUM(Z2:Z119)</f>
+        <v>1500</v>
+      </c>
+      <c r="AA120" s="16">
+        <f>SUM(AA2:AA119)</f>
+        <v>2000</v>
+      </c>
+      <c r="AB120" s="16">
+        <f>SUM(AB2:AB119)</f>
+        <v>2050</v>
+      </c>
+      <c r="AC120" s="16">
+        <f t="shared" ref="AC120:AD120" si="0">SUM(AC2:AC119)</f>
+        <v>0</v>
+      </c>
+      <c r="AD120" s="16">
         <f t="shared" si="0"/>
-        <v>1166</v>
-      </c>
-      <c r="D111" s="16">
-        <f t="shared" si="0"/>
-        <v>12195</v>
-      </c>
-      <c r="E111" s="16">
-        <f t="shared" si="0"/>
-        <v>5530</v>
-      </c>
-      <c r="F111" s="16">
-        <f t="shared" si="0"/>
-        <v>2517</v>
-      </c>
-      <c r="G111" s="16">
-        <f t="shared" si="0"/>
-        <v>6563.88</v>
-      </c>
-      <c r="H111" s="16">
-        <f t="shared" si="0"/>
-        <v>3700</v>
-      </c>
-      <c r="I111" s="16">
-        <f t="shared" si="0"/>
-        <v>5550</v>
-      </c>
-      <c r="J111" s="16">
-        <f t="shared" si="0"/>
-        <v>1350</v>
-      </c>
-      <c r="K111" s="16">
-        <f t="shared" si="0"/>
-        <v>3900</v>
-      </c>
-      <c r="L111" s="16">
-        <f t="shared" si="0"/>
-        <v>3750</v>
-      </c>
-      <c r="M111" s="16">
-        <f t="shared" si="0"/>
-        <v>3196</v>
-      </c>
-      <c r="N111" s="16">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-      <c r="O111" s="16">
-        <f t="shared" si="0"/>
-        <v>3530</v>
-      </c>
-      <c r="P111" s="16">
-        <f t="shared" si="0"/>
-        <v>2454</v>
-      </c>
-      <c r="Q111" s="16">
-        <f t="shared" si="0"/>
-        <v>6150</v>
-      </c>
-      <c r="R111" s="3">
-        <f t="shared" si="0"/>
+        <v>39304</v>
+      </c>
+      <c r="AE120" s="16">
+        <f>SUM(AF2:AF119)</f>
         <v>0</v>
       </c>
-      <c r="S111" s="3">
-        <f t="shared" si="0"/>
-        <v>5500</v>
-      </c>
-      <c r="T111" s="16">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="U111" s="16">
-        <f t="shared" si="0"/>
-        <v>6250</v>
-      </c>
-      <c r="V111" s="16">
-        <f t="shared" si="0"/>
-        <v>6230</v>
-      </c>
-      <c r="W111" s="16">
-        <f t="shared" si="0"/>
-        <v>6060</v>
-      </c>
-      <c r="X111" s="16">
-        <f t="shared" si="0"/>
-        <v>4480</v>
-      </c>
-      <c r="Y111" s="16">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="Z111" s="16">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="AA111" s="16">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="AB111" s="16">
-        <f t="shared" si="0"/>
-        <v>2050</v>
-      </c>
-      <c r="AC111" s="16">
-        <f t="shared" si="0"/>
+      <c r="AF120" s="16">
+        <f t="shared" ref="AF120:AJ120" si="1">SUM(AG2:AG119)</f>
         <v>0</v>
       </c>
-      <c r="AD111" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A113" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q113" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R113" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="S113" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="T113" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="U113" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="V113" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="W113" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="X113" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y113" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z113" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA113" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB113" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC113" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD113" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A114" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G114" s="1">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A115" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O115" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A116" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B116" s="1">
-        <v>570</v>
-      </c>
-      <c r="C116" s="1">
-        <v>1080</v>
-      </c>
-      <c r="D116" s="1">
-        <v>0</v>
-      </c>
-      <c r="E116" s="1">
-        <v>3025</v>
-      </c>
-      <c r="F116" s="1">
-        <v>2154</v>
-      </c>
-      <c r="G116" s="1">
-        <v>3200</v>
-      </c>
-      <c r="H116" s="1">
-        <v>3500</v>
-      </c>
-      <c r="I116" s="1">
-        <v>4000</v>
-      </c>
-      <c r="J116" s="1">
-        <v>3555</v>
-      </c>
-      <c r="K116" s="1">
-        <v>4046</v>
-      </c>
-      <c r="O116" s="1">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A119" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B119" s="4">
-        <f>SUM(B114:B116)</f>
-        <v>570</v>
-      </c>
-      <c r="C119" s="4">
-        <f t="shared" ref="C119:G119" si="1">SUM(C114:C116)</f>
-        <v>1080</v>
-      </c>
-      <c r="D119" s="4">
+      <c r="AG120" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E119" s="4">
+      <c r="AH120" s="16">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI120" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ120" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T122" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U122" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="V122" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W122" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="X122" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y122" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z122" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA122" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB122" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC122" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD122" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE122" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF122" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG122" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH122" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI122" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ122" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G123" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O124" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="1">
+        <v>570</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
         <v>3025</v>
       </c>
-      <c r="F119" s="4">
-        <f t="shared" si="1"/>
+      <c r="F125" s="1">
         <v>2154</v>
       </c>
-      <c r="G119" s="4">
-        <f t="shared" si="1"/>
+      <c r="G125" s="1">
+        <v>3200</v>
+      </c>
+      <c r="H125" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I125" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J125" s="1">
+        <v>3555</v>
+      </c>
+      <c r="K125" s="1">
+        <v>4046</v>
+      </c>
+      <c r="O125" s="1">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A128" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="4">
+        <f>SUM(B123:B125)</f>
+        <v>570</v>
+      </c>
+      <c r="C128" s="4">
+        <f t="shared" ref="C128:G128" si="2">SUM(C123:C125)</f>
+        <v>1080</v>
+      </c>
+      <c r="D128" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <f t="shared" si="2"/>
+        <v>3025</v>
+      </c>
+      <c r="F128" s="4">
+        <f t="shared" si="2"/>
+        <v>2154</v>
+      </c>
+      <c r="G128" s="4">
+        <f t="shared" si="2"/>
         <v>5300</v>
       </c>
-      <c r="H119" s="4">
+      <c r="H128" s="4">
         <v>3500</v>
       </c>
-      <c r="I119" s="4">
+      <c r="I128" s="4">
         <v>4000</v>
       </c>
-      <c r="J119" s="4">
+      <c r="J128" s="4">
         <v>3555</v>
       </c>
-      <c r="K119" s="4">
+      <c r="K128" s="4">
         <v>4046</v>
       </c>
-      <c r="L119" s="4">
+      <c r="L128" s="4">
         <v>3490</v>
       </c>
-      <c r="M119" s="4">
+      <c r="M128" s="4">
         <v>3500</v>
       </c>
-      <c r="N119" s="4">
+      <c r="N128" s="4">
         <v>3500</v>
       </c>
-      <c r="O119" s="4">
+      <c r="O128" s="4">
         <f>SUM(表3[列15])</f>
         <v>4300</v>
       </c>
-      <c r="P119" s="4">
+      <c r="P128" s="4">
         <v>6000</v>
       </c>
-      <c r="Q119" s="4">
+      <c r="Q128" s="4">
         <v>4030</v>
       </c>
-      <c r="R119" s="4">
+      <c r="R128" s="4">
         <v>4000</v>
       </c>
-      <c r="S119" s="4">
+      <c r="S128" s="4">
         <v>4125</v>
       </c>
-      <c r="T119" s="4">
+      <c r="T128" s="4">
         <v>4125</v>
       </c>
-      <c r="U119" s="4">
+      <c r="U128" s="4">
         <v>5100</v>
       </c>
-      <c r="V119" s="4">
+      <c r="V128" s="4">
         <v>5700</v>
       </c>
-      <c r="W119" s="4">
+      <c r="W128" s="4">
         <v>5020</v>
       </c>
-      <c r="X119" s="4">
+      <c r="X128" s="4">
         <v>5020</v>
       </c>
-      <c r="Y119" s="4">
+      <c r="Y128" s="4">
         <v>5200</v>
       </c>
-      <c r="Z119" s="4">
+      <c r="Z128" s="4">
         <v>3260</v>
       </c>
-      <c r="AA119" s="4">
+      <c r="AA128" s="4">
         <v>3260</v>
       </c>
-      <c r="AB119" s="4">
-        <v>6075</v>
-      </c>
+      <c r="AB128" s="4">
+        <v>4075</v>
+      </c>
+      <c r="AC128" s="4">
+        <v>2000</v>
+      </c>
+      <c r="AD128" s="4">
+        <v>38720</v>
+      </c>
+      <c r="AE128" s="4"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A120" s="5" t="s">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A129" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B120" s="5">
-        <f>B111-B119</f>
+      <c r="B129" s="5">
+        <f>B120-B128</f>
         <v>1410</v>
       </c>
-      <c r="C120" s="5">
-        <f t="shared" ref="C120:M120" si="2">B120+C111-C119</f>
+      <c r="C129" s="5">
+        <f t="shared" ref="C129:M129" si="3">B129+C120-C128</f>
         <v>1496</v>
       </c>
-      <c r="D120" s="5">
-        <f t="shared" si="2"/>
+      <c r="D129" s="5">
+        <f t="shared" si="3"/>
         <v>13691</v>
       </c>
-      <c r="E120" s="5">
-        <f t="shared" si="2"/>
+      <c r="E129" s="5">
+        <f t="shared" si="3"/>
         <v>16196</v>
       </c>
-      <c r="F120" s="5">
-        <f t="shared" si="2"/>
+      <c r="F129" s="5">
+        <f t="shared" si="3"/>
         <v>16559</v>
       </c>
-      <c r="G120" s="5">
-        <f t="shared" si="2"/>
+      <c r="G129" s="5">
+        <f t="shared" si="3"/>
         <v>17822.88</v>
       </c>
-      <c r="H120" s="5">
-        <f t="shared" si="2"/>
+      <c r="H129" s="5">
+        <f t="shared" si="3"/>
         <v>18022.88</v>
       </c>
-      <c r="I120" s="5">
-        <f t="shared" si="2"/>
+      <c r="I129" s="5">
+        <f t="shared" si="3"/>
         <v>19572.88</v>
       </c>
-      <c r="J120" s="5">
-        <f t="shared" si="2"/>
+      <c r="J129" s="5">
+        <f t="shared" si="3"/>
         <v>17367.88</v>
       </c>
-      <c r="K120" s="5">
-        <f t="shared" si="2"/>
+      <c r="K129" s="5">
+        <f t="shared" si="3"/>
         <v>17221.88</v>
       </c>
-      <c r="L120" s="5">
-        <f t="shared" si="2"/>
+      <c r="L129" s="5">
+        <f t="shared" si="3"/>
         <v>17481.88</v>
       </c>
-      <c r="M120" s="5">
-        <f t="shared" si="2"/>
+      <c r="M129" s="5">
+        <f t="shared" si="3"/>
         <v>17177.88</v>
       </c>
-      <c r="N120" s="5">
-        <f t="shared" ref="N120" si="3">M120+N111-N119</f>
+      <c r="N129" s="5">
+        <f t="shared" ref="N129" si="4">M129+N120-N128</f>
         <v>15427.880000000001</v>
       </c>
-      <c r="O120" s="5">
-        <f t="shared" ref="O120:Q120" si="4">N120+O111-O119</f>
+      <c r="O129" s="5">
+        <f t="shared" ref="O129:Q129" si="5">N129+O120-O128</f>
         <v>14657.880000000001</v>
       </c>
-      <c r="P120" s="5">
-        <f t="shared" si="4"/>
+      <c r="P129" s="5">
+        <f t="shared" si="5"/>
         <v>11111.880000000001</v>
       </c>
-      <c r="Q120" s="5">
-        <f t="shared" si="4"/>
+      <c r="Q129" s="5">
+        <f t="shared" si="5"/>
         <v>13231.880000000001</v>
       </c>
-      <c r="R120" s="5">
-        <f>Q120+R111-R119</f>
+      <c r="R129" s="5">
+        <f>Q129+R120-R128</f>
         <v>9231.880000000001</v>
       </c>
-      <c r="S120" s="5">
-        <f t="shared" ref="S120" si="5">R120+S111-S119</f>
+      <c r="S129" s="5">
+        <f t="shared" ref="S129" si="6">R129+S120-S128</f>
         <v>10606.880000000001</v>
       </c>
-      <c r="T120" s="5">
-        <f t="shared" ref="T120" si="6">S120+T111-T119</f>
+      <c r="T129" s="5">
+        <f t="shared" ref="T129" si="7">S129+T120-T128</f>
         <v>11481.880000000001</v>
       </c>
-      <c r="U120" s="5">
-        <f t="shared" ref="U120" si="7">T120+U111-U119</f>
+      <c r="U129" s="5">
+        <f t="shared" ref="U129" si="8">T129+U120-U128</f>
         <v>12631.880000000001</v>
       </c>
-      <c r="V120" s="5">
-        <f t="shared" ref="V120" si="8">U120+V111-V119</f>
+      <c r="V129" s="5">
+        <f t="shared" ref="V129" si="9">U129+V120-V128</f>
         <v>13161.880000000001</v>
       </c>
-      <c r="W120" s="5">
-        <f t="shared" ref="W120:Z120" si="9">V120+W111-W119</f>
+      <c r="W129" s="5">
+        <f t="shared" ref="W129:Z129" si="10">V129+W120-W128</f>
         <v>14201.880000000001</v>
       </c>
-      <c r="X120" s="5">
-        <f t="shared" si="9"/>
+      <c r="X129" s="5">
+        <f t="shared" si="10"/>
         <v>13661.880000000001</v>
       </c>
-      <c r="Y120" s="5">
-        <f t="shared" si="9"/>
+      <c r="Y129" s="5">
+        <f t="shared" si="10"/>
         <v>9661.880000000001</v>
       </c>
-      <c r="Z120" s="5">
-        <f t="shared" si="9"/>
+      <c r="Z129" s="5">
+        <f t="shared" si="10"/>
         <v>7901.880000000001</v>
       </c>
-      <c r="AA120" s="5">
-        <f>Z120+AA111-AA119</f>
+      <c r="AA129" s="5">
+        <f>Z129+AA120-AA128</f>
         <v>6641.880000000001</v>
       </c>
-      <c r="AB120" s="5">
-        <f>AA120+AB111-AB119</f>
+      <c r="AB129" s="5">
+        <f>AA129+AB120-AB128</f>
+        <v>4616.880000000001</v>
+      </c>
+      <c r="AC129" s="5">
+        <f>AB129+AC120-AC128</f>
         <v>2616.880000000001</v>
       </c>
+      <c r="AD129" s="5">
+        <f>AC129+AD120-AD128</f>
+        <v>3200.8800000000047</v>
+      </c>
+      <c r="AE129" s="5"/>
     </row>
-    <row r="121" spans="1:30" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I121" s="2"/>
+    <row r="130" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I130" s="2"/>
     </row>
-    <row r="123" spans="1:30" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I123" s="2"/>
-      <c r="O123" s="1">
-        <f>烟供随喜!$S$41+会供随喜!$B$12+AB120</f>
-        <v>18230.510000000002</v>
+    <row r="132" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I132" s="2"/>
+      <c r="O132" s="1">
+        <f>烟供随喜!$S$41+会供随喜!$B$12+AD129</f>
+        <v>18814.510000000006</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I125" s="2"/>
+    <row r="134" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I134" s="2"/>
     </row>
-    <row r="127" spans="1:30" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I127" s="2"/>
+    <row r="136" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I136" s="2"/>
     </row>
-    <row r="129" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I129" s="2"/>
+    <row r="138" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I138" s="2"/>
     </row>
-    <row r="131" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I131" s="2"/>
+    <row r="140" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I140" s="2"/>
     </row>
-    <row r="133" spans="9:9" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I133" s="2"/>
+    <row r="142" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I142" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8109,9 +9614,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S41" sqref="S41"/>
+      <selection pane="topRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -8161,31 +9666,31 @@
         <v>178</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="V1" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -8551,7 +10056,7 @@
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N16" s="6">
         <v>100</v>
@@ -8559,7 +10064,7 @@
     </row>
     <row r="17" spans="1:16" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N17" s="6">
         <v>100</v>
@@ -8710,7 +10215,7 @@
     </row>
     <row r="31" spans="1:16" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P31" s="6">
         <v>100</v>
@@ -8718,7 +10223,7 @@
     </row>
     <row r="32" spans="1:16" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P32" s="6">
         <v>100</v>
@@ -8726,7 +10231,7 @@
     </row>
     <row r="33" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N33" s="6">
         <v>201</v>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chiming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0BEECC-EE9A-45F2-A15D-4FA61524071F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9038ADD7-955E-47A3-AB81-39C14755090E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="236">
   <si>
     <t>2018.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -748,9 +748,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>backup13</t>
-  </si>
-  <si>
     <t>列179</t>
   </si>
   <si>
@@ -803,12 +800,6 @@
   <si>
     <t>思宇</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.11.08</t>
-  </si>
-  <si>
-    <t>2019.11.09</t>
   </si>
   <si>
     <t>2019.11.10</t>
@@ -877,9 +868,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>backup132</t>
-  </si>
-  <si>
     <t>backup133</t>
   </si>
   <si>
@@ -914,6 +902,26 @@
   </si>
   <si>
     <t>2021.01.02随喜福州放生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.04.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商秀峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.05.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨青山，王金兰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,78 +1239,12 @@
   <dxfs count="112">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <name val="微软雅黑"/>
         <charset val="134"/>
         <scheme val="none"/>
@@ -1340,59 +1282,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
         <name val="微软雅黑"/>
         <charset val="134"/>
         <scheme val="none"/>
@@ -2381,6 +2270,54 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="14"/>
         <name val="微软雅黑"/>
         <charset val="134"/>
@@ -2396,6 +2333,77 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
@@ -2844,10 +2852,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:AK119" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
-  <autoFilter ref="A1:AK119" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K119">
-    <sortCondition ref="A1:A119"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BF6F35-DA22-554E-92E2-2485FAFC44AA}" name="表2" displayName="表2" ref="A1:AK121" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+  <autoFilter ref="A1:AK121" xr:uid="{64BEC1AD-AEE7-0748-A97F-52A9ECF2D21C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K121">
+    <sortCondition ref="A1:A121"/>
   </sortState>
   <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{6D751FF3-0005-B641-A6E8-865EA5A8B593}" name="放生日期" dataDxfId="109"/>
@@ -2878,111 +2886,111 @@
     <tableColumn id="26" xr3:uid="{C210F1F2-7DCF-4086-B2BB-1B0F79E54596}" name="2020.11.7" dataDxfId="84"/>
     <tableColumn id="27" xr3:uid="{A6F2325A-DA6C-4782-95FE-68CF6E0AF9BE}" name="2020.12.05" dataDxfId="83"/>
     <tableColumn id="28" xr3:uid="{822A7C39-1CAA-40EF-8487-47A6A2959D58}" name="2021.01.01" dataDxfId="82"/>
-    <tableColumn id="37" xr3:uid="{A7E7A033-A629-45A1-B222-B44B14648DA4}" name="2021.01.02随喜福州放生" dataDxfId="0"/>
-    <tableColumn id="29" xr3:uid="{7266F9ED-D550-4448-AB45-04645F0C4FDC}" name="2021.03.03" dataDxfId="81"/>
-    <tableColumn id="30" xr3:uid="{419B39E0-502F-4708-AA2C-DA5F620CC648}" name="backup13" dataDxfId="80"/>
-    <tableColumn id="31" xr3:uid="{25D3EFED-B791-48EC-B064-1EAEA8627031}" name="backup132" dataDxfId="12"/>
-    <tableColumn id="32" xr3:uid="{A676059F-2480-467C-8242-99A18F00452E}" name="backup133" dataDxfId="11"/>
-    <tableColumn id="33" xr3:uid="{F4CC1616-0F8C-4AF6-B500-2176065255C2}" name="backup134" dataDxfId="10"/>
-    <tableColumn id="34" xr3:uid="{D11B9293-8D0E-4D0A-836F-E86DA6DB819C}" name="backup135" dataDxfId="9"/>
-    <tableColumn id="35" xr3:uid="{7DBF3D19-4407-4A18-A2A1-483410DC7DFE}" name="backup136" dataDxfId="8"/>
-    <tableColumn id="36" xr3:uid="{4F6C7A61-02D8-433A-B7BF-1C9F2C9E27D4}" name="backup137" dataDxfId="7"/>
+    <tableColumn id="37" xr3:uid="{A7E7A033-A629-45A1-B222-B44B14648DA4}" name="2021.01.02随喜福州放生" dataDxfId="81"/>
+    <tableColumn id="29" xr3:uid="{7266F9ED-D550-4448-AB45-04645F0C4FDC}" name="2021.03.03" dataDxfId="0"/>
+    <tableColumn id="30" xr3:uid="{419B39E0-502F-4708-AA2C-DA5F620CC648}" name="2021.04.11" dataDxfId="80"/>
+    <tableColumn id="31" xr3:uid="{25D3EFED-B791-48EC-B064-1EAEA8627031}" name="2020.05.15" dataDxfId="2"/>
+    <tableColumn id="32" xr3:uid="{A676059F-2480-467C-8242-99A18F00452E}" name="backup133" dataDxfId="79"/>
+    <tableColumn id="33" xr3:uid="{F4CC1616-0F8C-4AF6-B500-2176065255C2}" name="backup134" dataDxfId="78"/>
+    <tableColumn id="34" xr3:uid="{D11B9293-8D0E-4D0A-836F-E86DA6DB819C}" name="backup135" dataDxfId="77"/>
+    <tableColumn id="35" xr3:uid="{7DBF3D19-4407-4A18-A2A1-483410DC7DFE}" name="backup136" dataDxfId="76"/>
+    <tableColumn id="36" xr3:uid="{4F6C7A61-02D8-433A-B7BF-1C9F2C9E27D4}" name="backup137" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A122:AJ125" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
-  <autoFilter ref="A122:AJ125" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A124:AJ127" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+  <autoFilter ref="A124:AJ127" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="71"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="69"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="68"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="67"/>
-    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="66"/>
-    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="65"/>
-    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="64"/>
-    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="63"/>
-    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="62"/>
-    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="61"/>
-    <tableColumn id="18" xr3:uid="{7FDCCA4B-7D79-48EF-9B59-82E552EE633B}" name="列172" dataDxfId="60"/>
-    <tableColumn id="19" xr3:uid="{7ED92CF3-8A37-4CDD-BFF2-53F59BE535DE}" name="列173" dataDxfId="59"/>
-    <tableColumn id="20" xr3:uid="{AD16709C-E6EA-416A-927B-641AFF440CE0}" name="列174" dataDxfId="58"/>
-    <tableColumn id="21" xr3:uid="{9CAE81C2-021C-4481-A730-F07863C18814}" name="列175" dataDxfId="57"/>
-    <tableColumn id="22" xr3:uid="{E0EF79EF-1156-4A8D-8C2B-47AAD03D6260}" name="列176" dataDxfId="56"/>
-    <tableColumn id="23" xr3:uid="{325656D5-28D0-4734-B242-21697FBCA2BF}" name="列177" dataDxfId="55"/>
-    <tableColumn id="24" xr3:uid="{AE00EEF4-07A4-4FBF-B7F0-DC7B1518D893}" name="列178" dataDxfId="54"/>
-    <tableColumn id="25" xr3:uid="{ED3ED64C-C009-494B-8F39-75665D832925}" name="列179" dataDxfId="53"/>
-    <tableColumn id="26" xr3:uid="{9A83E9C1-C397-418C-87B7-C26A41E9788D}" name="列180" dataDxfId="52"/>
-    <tableColumn id="27" xr3:uid="{EBB41EEA-3E62-4991-B388-78AC074C4D49}" name="列181" dataDxfId="51"/>
-    <tableColumn id="28" xr3:uid="{53433204-92AE-4333-9EDF-9C03A7F44ED5}" name="列182" dataDxfId="50"/>
-    <tableColumn id="29" xr3:uid="{B64D98DC-E49E-49FF-84BF-DDB200DDE0B5}" name="列183" dataDxfId="49"/>
-    <tableColumn id="30" xr3:uid="{D9614288-FA32-4869-B534-AC58456C06E3}" name="列184" dataDxfId="48"/>
-    <tableColumn id="31" xr3:uid="{6EED8B6A-C778-4DE0-875F-433C9FBE4AE4}" name="列1842" dataDxfId="6"/>
-    <tableColumn id="32" xr3:uid="{6F989DCA-E543-4A1C-989D-B83F690EFB0D}" name="列1843" dataDxfId="5"/>
-    <tableColumn id="33" xr3:uid="{F4092E2C-C496-4CE7-85EA-B0CFCCDD3E0F}" name="列1844" dataDxfId="4"/>
-    <tableColumn id="34" xr3:uid="{C595FC60-82EB-4AF9-B4D1-3BD7C592FA32}" name="列1845" dataDxfId="3"/>
-    <tableColumn id="35" xr3:uid="{5D8A096F-2AE0-4F07-922D-D360964DCA9F}" name="列1846" dataDxfId="2"/>
-    <tableColumn id="36" xr3:uid="{39E7F9C4-FE1B-4D2B-8F97-E07344C12CF4}" name="列1847" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="62"/>
+    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="61"/>
+    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="60"/>
+    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="59"/>
+    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="58"/>
+    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="57"/>
+    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="56"/>
+    <tableColumn id="18" xr3:uid="{7FDCCA4B-7D79-48EF-9B59-82E552EE633B}" name="列172" dataDxfId="55"/>
+    <tableColumn id="19" xr3:uid="{7ED92CF3-8A37-4CDD-BFF2-53F59BE535DE}" name="列173" dataDxfId="54"/>
+    <tableColumn id="20" xr3:uid="{AD16709C-E6EA-416A-927B-641AFF440CE0}" name="列174" dataDxfId="53"/>
+    <tableColumn id="21" xr3:uid="{9CAE81C2-021C-4481-A730-F07863C18814}" name="列175" dataDxfId="52"/>
+    <tableColumn id="22" xr3:uid="{E0EF79EF-1156-4A8D-8C2B-47AAD03D6260}" name="列176" dataDxfId="51"/>
+    <tableColumn id="23" xr3:uid="{325656D5-28D0-4734-B242-21697FBCA2BF}" name="列177" dataDxfId="50"/>
+    <tableColumn id="24" xr3:uid="{AE00EEF4-07A4-4FBF-B7F0-DC7B1518D893}" name="列178" dataDxfId="49"/>
+    <tableColumn id="25" xr3:uid="{ED3ED64C-C009-494B-8F39-75665D832925}" name="列179" dataDxfId="48"/>
+    <tableColumn id="26" xr3:uid="{9A83E9C1-C397-418C-87B7-C26A41E9788D}" name="列180" dataDxfId="47"/>
+    <tableColumn id="27" xr3:uid="{EBB41EEA-3E62-4991-B388-78AC074C4D49}" name="列181" dataDxfId="46"/>
+    <tableColumn id="28" xr3:uid="{53433204-92AE-4333-9EDF-9C03A7F44ED5}" name="列182" dataDxfId="45"/>
+    <tableColumn id="29" xr3:uid="{B64D98DC-E49E-49FF-84BF-DDB200DDE0B5}" name="列183" dataDxfId="44"/>
+    <tableColumn id="30" xr3:uid="{D9614288-FA32-4869-B534-AC58456C06E3}" name="列184" dataDxfId="3"/>
+    <tableColumn id="31" xr3:uid="{6EED8B6A-C778-4DE0-875F-433C9FBE4AE4}" name="列1842" dataDxfId="43"/>
+    <tableColumn id="32" xr3:uid="{6F989DCA-E543-4A1C-989D-B83F690EFB0D}" name="列1843" dataDxfId="1"/>
+    <tableColumn id="33" xr3:uid="{F4092E2C-C496-4CE7-85EA-B0CFCCDD3E0F}" name="列1844" dataDxfId="42"/>
+    <tableColumn id="34" xr3:uid="{C595FC60-82EB-4AF9-B4D1-3BD7C592FA32}" name="列1845" dataDxfId="41"/>
+    <tableColumn id="35" xr3:uid="{5D8A096F-2AE0-4F07-922D-D360964DCA9F}" name="列1846" dataDxfId="40"/>
+    <tableColumn id="36" xr3:uid="{39E7F9C4-FE1B-4D2B-8F97-E07344C12CF4}" name="列1847" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:V35" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:V35" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
   <autoFilter ref="A1:V35" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
     <sortCondition ref="A1:A35"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2020.05.23" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{D450CAFD-4280-4A57-A72C-AC9C82E67796}" name="2020.06.06" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2020.07.19" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{C889229E-9847-4F55-9879-D26AC9B0F475}" name="2020.08.16" dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{7689C2A1-EFFD-4322-8AD7-70E1C454E68A}" name="2020.09.13" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{265BD7D6-05CA-4F1A-9BFC-1FE1F7E043B7}" name="2020.11.05" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{A7895CF2-85F3-4C44-8D4E-04972226291E}" name="2020.11.06" dataDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{A6B31E82-C02B-4C04-BEFE-5F9FB8712087}" name="2020.12.05" dataDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{B57DEBF5-B83E-4EA5-A6D9-04E3EE457F9E}" name="2019.11.08" dataDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{E1B5FFF3-B1AE-469E-9486-2C7711E85EC8}" name="2019.11.09" dataDxfId="23"/>
-    <tableColumn id="22" xr3:uid="{DF5D0889-C628-428A-AE29-11139F36C6A6}" name="2019.11.10" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2020.05.23" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{D450CAFD-4280-4A57-A72C-AC9C82E67796}" name="2020.06.06" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2020.07.19" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{C889229E-9847-4F55-9879-D26AC9B0F475}" name="2020.08.16" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{7689C2A1-EFFD-4322-8AD7-70E1C454E68A}" name="2020.09.13" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{265BD7D6-05CA-4F1A-9BFC-1FE1F7E043B7}" name="2020.11.05" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{A7895CF2-85F3-4C44-8D4E-04972226291E}" name="2020.11.06" dataDxfId="17"/>
+    <tableColumn id="19" xr3:uid="{A6B31E82-C02B-4C04-BEFE-5F9FB8712087}" name="2020.12.05" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{B57DEBF5-B83E-4EA5-A6D9-04E3EE457F9E}" name="2020.04.11" dataDxfId="15"/>
+    <tableColumn id="21" xr3:uid="{E1B5FFF3-B1AE-469E-9486-2C7711E85EC8}" name="2020.05.15" dataDxfId="14"/>
+    <tableColumn id="22" xr3:uid="{DF5D0889-C628-428A-AE29-11139F36C6A6}" name="2019.11.10" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A1:E5" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B5">
     <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{2511DB9F-444E-4C03-8A9E-5A948ADC9CB0}" name="2019.11.02" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{FFAB1BAB-E2B7-413C-B555-13FE1D11ACDB}" name="2019.11.03" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2511DB9F-444E-4C03-8A9E-5A948ADC9CB0}" name="2019.11.02" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{FFAB1BAB-E2B7-413C-B555-13FE1D11ACDB}" name="2019.11.03" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3285,12 +3293,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK142"/>
+  <dimension ref="A1:AK144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="O132" sqref="O132"/>
+      <selection pane="topRight" activeCell="AF134" sqref="AF134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
@@ -3371,54 +3379,54 @@
         <v>183</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3461,7 +3469,7 @@
     </row>
     <row r="3" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3504,7 +3512,7 @@
     </row>
     <row r="4" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3628,8 +3636,12 @@
       <c r="AD5" s="8">
         <v>500</v>
       </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
+      <c r="AE5" s="6">
+        <v>500</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>400</v>
+      </c>
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
@@ -3723,8 +3735,12 @@
       <c r="AD6" s="8">
         <v>500</v>
       </c>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
+      <c r="AE6" s="6">
+        <v>500</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>500</v>
+      </c>
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
@@ -3812,8 +3828,12 @@
       <c r="AD7" s="8">
         <v>300</v>
       </c>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
+      <c r="AE7" s="6">
+        <v>100</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>100</v>
+      </c>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
@@ -3897,7 +3917,9 @@
       <c r="AD8" s="8">
         <v>100</v>
       </c>
-      <c r="AE8" s="6"/>
+      <c r="AE8" s="6">
+        <v>100</v>
+      </c>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
@@ -3974,7 +3996,9 @@
       <c r="AD9" s="8">
         <v>500</v>
       </c>
-      <c r="AE9" s="6"/>
+      <c r="AE9" s="6">
+        <v>200</v>
+      </c>
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
@@ -4116,7 +4140,9 @@
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
+      <c r="AE11" s="6">
+        <v>100</v>
+      </c>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -4457,7 +4483,7 @@
     </row>
     <row r="17" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5171,7 +5197,7 @@
     </row>
     <row r="31" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -5212,7 +5238,9 @@
       <c r="AD31" s="8">
         <v>100</v>
       </c>
-      <c r="AE31" s="6"/>
+      <c r="AE31" s="6">
+        <v>100</v>
+      </c>
       <c r="AF31" s="6"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
@@ -5222,7 +5250,7 @@
     </row>
     <row r="32" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -5264,7 +5292,9 @@
         <v>100</v>
       </c>
       <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
+      <c r="AF32" s="6">
+        <v>200</v>
+      </c>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
@@ -5273,7 +5303,7 @@
     </row>
     <row r="33" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -6923,7 +6953,7 @@
     </row>
     <row r="71" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -6966,7 +6996,7 @@
     </row>
     <row r="72" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -7009,7 +7039,7 @@
     </row>
     <row r="73" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -7052,7 +7082,7 @@
     </row>
     <row r="74" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -7095,7 +7125,7 @@
     </row>
     <row r="75" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -7138,7 +7168,7 @@
     </row>
     <row r="76" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -7265,9 +7295,9 @@
       <c r="AJ78" s="6"/>
       <c r="AK78" s="6"/>
     </row>
-    <row r="79" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -7282,9 +7312,7 @@
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="6">
-        <v>20</v>
-      </c>
+      <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
@@ -7300,8 +7328,12 @@
       <c r="AB79" s="6"/>
       <c r="AC79" s="6"/>
       <c r="AD79" s="6"/>
-      <c r="AE79" s="6"/>
-      <c r="AF79" s="6"/>
+      <c r="AE79" s="6">
+        <v>50</v>
+      </c>
+      <c r="AF79" s="6">
+        <v>50</v>
+      </c>
       <c r="AG79" s="6"/>
       <c r="AH79" s="6"/>
       <c r="AI79" s="6"/>
@@ -7310,7 +7342,7 @@
     </row>
     <row r="80" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -7326,7 +7358,7 @@
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
@@ -7351,9 +7383,9 @@
       <c r="AJ80" s="6"/>
       <c r="AK80" s="6"/>
     </row>
-    <row r="81" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -7368,9 +7400,7 @@
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
-      <c r="O81" s="6">
-        <v>10</v>
-      </c>
+      <c r="O81" s="6"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
@@ -7387,16 +7417,18 @@
       <c r="AC81" s="6"/>
       <c r="AD81" s="6"/>
       <c r="AE81" s="6"/>
-      <c r="AF81" s="6"/>
+      <c r="AF81" s="6">
+        <v>400</v>
+      </c>
       <c r="AG81" s="6"/>
       <c r="AH81" s="6"/>
       <c r="AI81" s="6"/>
       <c r="AJ81" s="6"/>
       <c r="AK81" s="6"/>
     </row>
-    <row r="82" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -7439,7 +7471,7 @@
     </row>
     <row r="83" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -7482,7 +7514,7 @@
     </row>
     <row r="84" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -7525,7 +7557,7 @@
     </row>
     <row r="85" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -7541,7 +7573,7 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
@@ -7568,7 +7600,7 @@
     </row>
     <row r="86" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -7610,17 +7642,15 @@
       <c r="AK86" s="6"/>
     </row>
     <row r="87" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A87" s="7" t="s">
-        <v>68</v>
+      <c r="A87" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="6">
-        <v>200</v>
-      </c>
+      <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -7628,11 +7658,11 @@
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
+      <c r="O87" s="6">
+        <v>20</v>
+      </c>
       <c r="P87" s="6"/>
-      <c r="Q87" s="6">
-        <v>300</v>
-      </c>
+      <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
@@ -7655,8 +7685,8 @@
       <c r="AK87" s="6"/>
     </row>
     <row r="88" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A88" s="7" t="s">
-        <v>90</v>
+      <c r="A88" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -7665,15 +7695,15 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="6">
-        <v>300</v>
-      </c>
+      <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
+      <c r="O88" s="6">
+        <v>10</v>
+      </c>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
@@ -7699,14 +7729,16 @@
     </row>
     <row r="89" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="7" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+      <c r="G89" s="6">
+        <v>200</v>
+      </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -7714,11 +7746,11 @@
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
-      <c r="O89" s="6">
-        <v>100</v>
-      </c>
+      <c r="O89" s="6"/>
       <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
+      <c r="Q89" s="6">
+        <v>300</v>
+      </c>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
@@ -7742,7 +7774,7 @@
     </row>
     <row r="90" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="7" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -7751,15 +7783,15 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
+      <c r="I90" s="6">
+        <v>300</v>
+      </c>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
-      <c r="O90" s="6">
-        <v>50</v>
-      </c>
+      <c r="O90" s="6"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
@@ -7785,16 +7817,14 @@
     </row>
     <row r="91" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="7" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="6">
-        <v>200</v>
-      </c>
+      <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -7802,7 +7832,9 @@
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
+      <c r="O91" s="6">
+        <v>100</v>
+      </c>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
@@ -7828,16 +7860,14 @@
     </row>
     <row r="92" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="7" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="6">
-        <v>200</v>
-      </c>
+      <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
@@ -7845,7 +7875,9 @@
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
+      <c r="O92" s="6">
+        <v>50</v>
+      </c>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
@@ -7870,17 +7902,17 @@
       <c r="AK92" s="6"/>
     </row>
     <row r="93" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="6" t="s">
-        <v>7</v>
+      <c r="A93" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="6">
-        <v>55</v>
-      </c>
+      <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
+      <c r="G93" s="6">
+        <v>200</v>
+      </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
@@ -7913,8 +7945,8 @@
       <c r="AK93" s="6"/>
     </row>
     <row r="94" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A94" s="6" t="s">
-        <v>54</v>
+      <c r="A94" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -7957,20 +7989,20 @@
     </row>
     <row r="95" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
+      <c r="D95" s="6">
+        <v>55</v>
+      </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
-      <c r="K95" s="6">
-        <v>100</v>
-      </c>
+      <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
@@ -7999,8 +8031,8 @@
       <c r="AK95" s="6"/>
     </row>
     <row r="96" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="7" t="s">
-        <v>76</v>
+      <c r="A96" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -8008,7 +8040,7 @@
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
@@ -8042,21 +8074,21 @@
       <c r="AK96" s="6"/>
     </row>
     <row r="97" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A97" s="7" t="s">
-        <v>73</v>
+      <c r="A97" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="6">
-        <v>50</v>
-      </c>
+      <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
+      <c r="K97" s="6">
+        <v>100</v>
+      </c>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
@@ -8086,7 +8118,7 @@
     </row>
     <row r="98" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -8129,7 +8161,7 @@
     </row>
     <row r="99" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -8171,17 +8203,17 @@
       <c r="AK99" s="6"/>
     </row>
     <row r="100" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A100" s="6" t="s">
-        <v>41</v>
+      <c r="A100" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="6">
-        <v>10</v>
-      </c>
+      <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
+      <c r="G100" s="6">
+        <v>50</v>
+      </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
@@ -8215,7 +8247,7 @@
     </row>
     <row r="101" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -8257,17 +8289,17 @@
       <c r="AK101" s="6"/>
     </row>
     <row r="102" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A102" s="7" t="s">
-        <v>78</v>
+      <c r="A102" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
+      <c r="E102" s="6">
+        <v>10</v>
+      </c>
       <c r="F102" s="6"/>
-      <c r="G102" s="6">
-        <v>50</v>
-      </c>
+      <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
@@ -8300,19 +8332,19 @@
       <c r="AK102" s="6"/>
     </row>
     <row r="103" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A103" s="6" t="s">
-        <v>102</v>
+      <c r="A103" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
+      <c r="G103" s="6">
+        <v>50</v>
+      </c>
       <c r="H103" s="6"/>
-      <c r="I103" s="6">
-        <v>50</v>
-      </c>
+      <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
@@ -8322,9 +8354,7 @@
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
-      <c r="S103" s="6">
-        <v>100</v>
-      </c>
+      <c r="S103" s="6"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
@@ -8345,21 +8375,21 @@
       <c r="AK103" s="6"/>
     </row>
     <row r="104" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A104" s="6" t="s">
-        <v>109</v>
+      <c r="A104" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+      <c r="G104" s="6">
+        <v>50</v>
+      </c>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
-      <c r="K104" s="6">
-        <v>100</v>
-      </c>
+      <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
@@ -8389,7 +8419,7 @@
     </row>
     <row r="105" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -8398,19 +8428,21 @@
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
+      <c r="I105" s="6">
+        <v>50</v>
+      </c>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
-      <c r="M105" s="6">
-        <v>66</v>
-      </c>
+      <c r="M105" s="6"/>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
+      <c r="S105" s="6">
+        <v>100</v>
+      </c>
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
@@ -8431,8 +8463,8 @@
       <c r="AK105" s="6"/>
     </row>
     <row r="106" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A106" s="7" t="s">
-        <v>87</v>
+      <c r="A106" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -8441,11 +8473,11 @@
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="6">
-        <v>200</v>
-      </c>
+      <c r="I106" s="6"/>
       <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
+      <c r="K106" s="6">
+        <v>100</v>
+      </c>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
@@ -8474,8 +8506,8 @@
       <c r="AK106" s="6"/>
     </row>
     <row r="107" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A107" s="7" t="s">
-        <v>121</v>
+      <c r="A107" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -8489,7 +8521,7 @@
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N107" s="6"/>
       <c r="O107" s="6"/>
@@ -8517,8 +8549,8 @@
       <c r="AK107" s="6"/>
     </row>
     <row r="108" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A108" s="6" t="s">
-        <v>123</v>
+      <c r="A108" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -8527,13 +8559,13 @@
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
+      <c r="I108" s="6">
+        <v>200</v>
+      </c>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="6">
-        <v>100</v>
-      </c>
+      <c r="M108" s="6"/>
       <c r="N108" s="6"/>
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
@@ -8542,9 +8574,7 @@
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
-      <c r="V108" s="6">
-        <v>200</v>
-      </c>
+      <c r="V108" s="6"/>
       <c r="W108" s="6"/>
       <c r="X108" s="6"/>
       <c r="Y108" s="6"/>
@@ -8562,8 +8592,8 @@
       <c r="AK108" s="6"/>
     </row>
     <row r="109" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A109" s="6" t="s">
-        <v>152</v>
+      <c r="A109" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -8576,13 +8606,13 @@
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
+      <c r="M109" s="6">
+        <v>30</v>
+      </c>
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
-      <c r="Q109" s="6">
-        <v>100</v>
-      </c>
+      <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
@@ -8606,7 +8636,7 @@
     </row>
     <row r="110" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="6" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -8619,21 +8649,19 @@
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
+      <c r="M110" s="6">
+        <v>100</v>
+      </c>
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
-      <c r="Q110" s="6">
-        <v>100</v>
-      </c>
+      <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
-      <c r="U110" s="6">
-        <v>100</v>
-      </c>
+      <c r="U110" s="6"/>
       <c r="V110" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W110" s="6"/>
       <c r="X110" s="6"/>
@@ -8653,7 +8681,7 @@
     </row>
     <row r="111" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="6" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -8670,13 +8698,13 @@
       <c r="N111" s="6"/>
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
+      <c r="Q111" s="6">
+        <v>100</v>
+      </c>
       <c r="R111" s="6"/>
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
-      <c r="U111" s="6">
-        <v>100</v>
-      </c>
+      <c r="U111" s="6"/>
       <c r="V111" s="6"/>
       <c r="W111" s="6"/>
       <c r="X111" s="6"/>
@@ -8696,7 +8724,7 @@
     </row>
     <row r="112" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -8713,14 +8741,18 @@
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
+      <c r="Q112" s="6">
+        <v>100</v>
+      </c>
       <c r="R112" s="6"/>
-      <c r="S112" s="6">
-        <v>50</v>
-      </c>
+      <c r="S112" s="6"/>
       <c r="T112" s="6"/>
-      <c r="U112" s="6"/>
-      <c r="V112" s="6"/>
+      <c r="U112" s="6">
+        <v>100</v>
+      </c>
+      <c r="V112" s="6">
+        <v>100</v>
+      </c>
       <c r="W112" s="6"/>
       <c r="X112" s="6"/>
       <c r="Y112" s="6"/>
@@ -8739,7 +8771,7 @@
     </row>
     <row r="113" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="6" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -8758,11 +8790,11 @@
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
-      <c r="S113" s="6">
-        <v>50</v>
-      </c>
+      <c r="S113" s="6"/>
       <c r="T113" s="6"/>
-      <c r="U113" s="6"/>
+      <c r="U113" s="6">
+        <v>100</v>
+      </c>
       <c r="V113" s="6"/>
       <c r="W113" s="6"/>
       <c r="X113" s="6"/>
@@ -8782,14 +8814,12 @@
     </row>
     <row r="114" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="6" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
-      <c r="E114" s="6">
-        <v>20</v>
-      </c>
+      <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
@@ -8803,7 +8833,9 @@
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
-      <c r="S114" s="6"/>
+      <c r="S114" s="6">
+        <v>50</v>
+      </c>
       <c r="T114" s="6"/>
       <c r="U114" s="6"/>
       <c r="V114" s="6"/>
@@ -8825,7 +8857,7 @@
     </row>
     <row r="115" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="6" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -8844,14 +8876,14 @@
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
-      <c r="S115" s="6"/>
+      <c r="S115" s="6">
+        <v>50</v>
+      </c>
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
       <c r="V115" s="6"/>
       <c r="W115" s="6"/>
-      <c r="X115" s="6">
-        <v>400</v>
-      </c>
+      <c r="X115" s="6"/>
       <c r="Y115" s="6"/>
       <c r="Z115" s="6"/>
       <c r="AA115" s="6"/>
@@ -8868,12 +8900,14 @@
     </row>
     <row r="116" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="6" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
+      <c r="E116" s="6">
+        <v>20</v>
+      </c>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
@@ -8892,9 +8926,7 @@
       <c r="U116" s="6"/>
       <c r="V116" s="6"/>
       <c r="W116" s="6"/>
-      <c r="X116" s="6">
-        <v>200</v>
-      </c>
+      <c r="X116" s="6"/>
       <c r="Y116" s="6"/>
       <c r="Z116" s="6"/>
       <c r="AA116" s="6"/>
@@ -8911,7 +8943,7 @@
     </row>
     <row r="117" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -8936,7 +8968,7 @@
       <c r="V117" s="6"/>
       <c r="W117" s="6"/>
       <c r="X117" s="6">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Y117" s="6"/>
       <c r="Z117" s="6"/>
@@ -8954,7 +8986,7 @@
     </row>
     <row r="118" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A118" s="6" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -8976,11 +9008,11 @@
       <c r="S118" s="6"/>
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
-      <c r="V118" s="6">
-        <v>800</v>
-      </c>
+      <c r="V118" s="6"/>
       <c r="W118" s="6"/>
-      <c r="X118" s="6"/>
+      <c r="X118" s="6">
+        <v>200</v>
+      </c>
       <c r="Y118" s="6"/>
       <c r="Z118" s="6"/>
       <c r="AA118" s="6"/>
@@ -8997,14 +9029,12 @@
     </row>
     <row r="119" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="6" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="6">
-        <v>50</v>
-      </c>
+      <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
@@ -9023,7 +9053,9 @@
       <c r="U119" s="6"/>
       <c r="V119" s="6"/>
       <c r="W119" s="6"/>
-      <c r="X119" s="6"/>
+      <c r="X119" s="6">
+        <v>100</v>
+      </c>
       <c r="Y119" s="6"/>
       <c r="Z119" s="6"/>
       <c r="AA119" s="6"/>
@@ -9038,561 +9070,659 @@
       <c r="AJ119" s="6"/>
       <c r="AK119" s="6"/>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A120" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+      <c r="T120" s="6"/>
+      <c r="U120" s="6"/>
+      <c r="V120" s="6">
+        <v>800</v>
+      </c>
+      <c r="W120" s="6"/>
+      <c r="X120" s="6"/>
+      <c r="Y120" s="6"/>
+      <c r="Z120" s="6"/>
+      <c r="AA120" s="6"/>
+      <c r="AB120" s="6"/>
+      <c r="AC120" s="6"/>
+      <c r="AD120" s="6"/>
+      <c r="AE120" s="6"/>
+      <c r="AF120" s="6"/>
+      <c r="AG120" s="6"/>
+      <c r="AH120" s="6"/>
+      <c r="AI120" s="6"/>
+      <c r="AJ120" s="6"/>
+      <c r="AK120" s="6"/>
+    </row>
+    <row r="121" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A121" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6">
+        <v>50</v>
+      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="6"/>
+      <c r="T121" s="6"/>
+      <c r="U121" s="6"/>
+      <c r="V121" s="6"/>
+      <c r="W121" s="6"/>
+      <c r="X121" s="6"/>
+      <c r="Y121" s="6"/>
+      <c r="Z121" s="6"/>
+      <c r="AA121" s="6"/>
+      <c r="AB121" s="6"/>
+      <c r="AC121" s="6"/>
+      <c r="AD121" s="6"/>
+      <c r="AE121" s="6"/>
+      <c r="AF121" s="6"/>
+      <c r="AG121" s="6"/>
+      <c r="AH121" s="6"/>
+      <c r="AI121" s="6"/>
+      <c r="AJ121" s="6"/>
+      <c r="AK121" s="6"/>
+    </row>
+    <row r="122" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A122" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B120" s="16">
-        <f>SUM(B2:B119)</f>
+      <c r="B122" s="16">
+        <f t="shared" ref="B122:AB122" si="0">SUM(B2:B121)</f>
         <v>1980</v>
       </c>
-      <c r="C120" s="16">
-        <f>SUM(C2:C119)</f>
+      <c r="C122" s="16">
+        <f t="shared" si="0"/>
         <v>1166</v>
       </c>
-      <c r="D120" s="16">
-        <f>SUM(D2:D119)</f>
+      <c r="D122" s="16">
+        <f t="shared" si="0"/>
         <v>12195</v>
       </c>
-      <c r="E120" s="16">
-        <f>SUM(E2:E119)</f>
+      <c r="E122" s="16">
+        <f t="shared" si="0"/>
         <v>5530</v>
       </c>
-      <c r="F120" s="16">
-        <f>SUM(F2:F119)</f>
+      <c r="F122" s="16">
+        <f t="shared" si="0"/>
         <v>2517</v>
       </c>
-      <c r="G120" s="16">
-        <f>SUM(G2:G119)</f>
+      <c r="G122" s="16">
+        <f t="shared" si="0"/>
         <v>6563.88</v>
       </c>
-      <c r="H120" s="16">
-        <f>SUM(H2:H119)</f>
+      <c r="H122" s="16">
+        <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="I120" s="16">
-        <f>SUM(I2:I119)</f>
+      <c r="I122" s="16">
+        <f t="shared" si="0"/>
         <v>5550</v>
       </c>
-      <c r="J120" s="16">
-        <f>SUM(J2:J119)</f>
+      <c r="J122" s="16">
+        <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="K120" s="16">
-        <f>SUM(K2:K119)</f>
+      <c r="K122" s="16">
+        <f t="shared" si="0"/>
         <v>3900</v>
       </c>
-      <c r="L120" s="16">
-        <f>SUM(L2:L119)</f>
+      <c r="L122" s="16">
+        <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="M120" s="16">
-        <f>SUM(M2:M119)</f>
+      <c r="M122" s="16">
+        <f t="shared" si="0"/>
         <v>3196</v>
       </c>
-      <c r="N120" s="16">
-        <f>SUM(N2:N119)</f>
+      <c r="N122" s="16">
+        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="O120" s="16">
-        <f>SUM(O2:O119)</f>
+      <c r="O122" s="16">
+        <f t="shared" si="0"/>
         <v>3530</v>
       </c>
-      <c r="P120" s="16">
-        <f>SUM(P2:P119)</f>
+      <c r="P122" s="16">
+        <f t="shared" si="0"/>
         <v>2454</v>
       </c>
-      <c r="Q120" s="16">
-        <f>SUM(Q2:Q119)</f>
+      <c r="Q122" s="16">
+        <f t="shared" si="0"/>
         <v>6150</v>
       </c>
-      <c r="R120" s="16">
-        <f>SUM(R2:R119)</f>
+      <c r="R122" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S120" s="16">
-        <f>SUM(S2:S119)</f>
+      <c r="S122" s="16">
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="T120" s="16">
-        <f>SUM(T2:T119)</f>
+      <c r="T122" s="16">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="U120" s="16">
-        <f>SUM(U2:U119)</f>
+      <c r="U122" s="16">
+        <f t="shared" si="0"/>
         <v>6250</v>
       </c>
-      <c r="V120" s="16">
-        <f>SUM(V2:V119)</f>
+      <c r="V122" s="16">
+        <f t="shared" si="0"/>
         <v>6230</v>
       </c>
-      <c r="W120" s="16">
-        <f>SUM(W2:W119)</f>
+      <c r="W122" s="16">
+        <f t="shared" si="0"/>
         <v>6060</v>
       </c>
-      <c r="X120" s="16">
-        <f>SUM(X2:X119)</f>
+      <c r="X122" s="16">
+        <f t="shared" si="0"/>
         <v>4480</v>
       </c>
-      <c r="Y120" s="16">
-        <f>SUM(Y2:Y119)</f>
+      <c r="Y122" s="16">
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="Z120" s="16">
-        <f>SUM(Z2:Z119)</f>
+      <c r="Z122" s="16">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="AA120" s="16">
-        <f>SUM(AA2:AA119)</f>
+      <c r="AA122" s="16">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="AB120" s="16">
-        <f>SUM(AB2:AB119)</f>
+      <c r="AB122" s="16">
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
-      <c r="AC120" s="16">
-        <f t="shared" ref="AC120:AD120" si="0">SUM(AC2:AC119)</f>
+      <c r="AC122" s="16">
+        <f>SUM(AC2:AC121)</f>
         <v>0</v>
       </c>
-      <c r="AD120" s="16">
-        <f t="shared" si="0"/>
+      <c r="AD122" s="16">
+        <f>SUM(AD2:AD121)</f>
         <v>39304</v>
       </c>
-      <c r="AE120" s="16">
-        <f>SUM(AF2:AF119)</f>
+      <c r="AE122" s="16">
+        <f>SUM(AE2:AE121)</f>
+        <v>1650</v>
+      </c>
+      <c r="AF122" s="16">
+        <f>SUM(AF2:AF121)</f>
+        <v>1650</v>
+      </c>
+      <c r="AG122" s="16">
+        <f t="shared" ref="AG122:AJ122" si="1">SUM(AG2:AG121)</f>
         <v>0</v>
       </c>
-      <c r="AF120" s="16">
-        <f t="shared" ref="AF120:AJ120" si="1">SUM(AG2:AG119)</f>
-        <v>0</v>
-      </c>
-      <c r="AG120" s="16">
+      <c r="AH122" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH120" s="16">
+      <c r="AI122" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI120" s="16">
+      <c r="AJ122" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="AJ120" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q122" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R122" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="S122" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="T122" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="U122" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="V122" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="W122" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="X122" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y122" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z122" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA122" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB122" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC122" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD122" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE122" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF122" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG122" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH122" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI122" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ122" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A123" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G123" s="1">
-        <v>2100</v>
       </c>
     </row>
     <row r="124" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O124" s="1">
-        <v>200</v>
+        <v>15</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S124" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T124" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U124" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="V124" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W124" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="X124" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y124" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z124" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA124" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB124" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC124" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD124" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE124" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF124" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG124" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH124" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI124" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ124" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G125" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O126" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B127" s="1">
         <v>570</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C127" s="1">
         <v>1080</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D127" s="1">
         <v>0</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E127" s="1">
         <v>3025</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F127" s="1">
         <v>2154</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G127" s="1">
         <v>3200</v>
       </c>
-      <c r="H125" s="1">
+      <c r="H127" s="1">
         <v>3500</v>
       </c>
-      <c r="I125" s="1">
+      <c r="I127" s="1">
         <v>4000</v>
       </c>
-      <c r="J125" s="1">
+      <c r="J127" s="1">
         <v>3555</v>
       </c>
-      <c r="K125" s="1">
+      <c r="K127" s="1">
         <v>4046</v>
       </c>
-      <c r="O125" s="1">
+      <c r="O127" s="1">
         <v>4100</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A128" s="4" t="s">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A130" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B128" s="4">
-        <f>SUM(B123:B125)</f>
+      <c r="B130" s="4">
+        <f>SUM(B125:B127)</f>
         <v>570</v>
       </c>
-      <c r="C128" s="4">
-        <f t="shared" ref="C128:G128" si="2">SUM(C123:C125)</f>
+      <c r="C130" s="4">
+        <f t="shared" ref="C130:G130" si="2">SUM(C125:C127)</f>
         <v>1080</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D130" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E130" s="4">
         <f t="shared" si="2"/>
         <v>3025</v>
       </c>
-      <c r="F128" s="4">
+      <c r="F130" s="4">
         <f t="shared" si="2"/>
         <v>2154</v>
       </c>
-      <c r="G128" s="4">
+      <c r="G130" s="4">
         <f t="shared" si="2"/>
         <v>5300</v>
       </c>
-      <c r="H128" s="4">
+      <c r="H130" s="4">
         <v>3500</v>
       </c>
-      <c r="I128" s="4">
+      <c r="I130" s="4">
         <v>4000</v>
       </c>
-      <c r="J128" s="4">
+      <c r="J130" s="4">
         <v>3555</v>
       </c>
-      <c r="K128" s="4">
+      <c r="K130" s="4">
         <v>4046</v>
       </c>
-      <c r="L128" s="4">
+      <c r="L130" s="4">
         <v>3490</v>
       </c>
-      <c r="M128" s="4">
+      <c r="M130" s="4">
         <v>3500</v>
       </c>
-      <c r="N128" s="4">
+      <c r="N130" s="4">
         <v>3500</v>
       </c>
-      <c r="O128" s="4">
+      <c r="O130" s="4">
         <f>SUM(表3[列15])</f>
         <v>4300</v>
       </c>
-      <c r="P128" s="4">
+      <c r="P130" s="4">
         <v>6000</v>
       </c>
-      <c r="Q128" s="4">
+      <c r="Q130" s="4">
         <v>4030</v>
       </c>
-      <c r="R128" s="4">
+      <c r="R130" s="4">
         <v>4000</v>
       </c>
-      <c r="S128" s="4">
+      <c r="S130" s="4">
         <v>4125</v>
       </c>
-      <c r="T128" s="4">
+      <c r="T130" s="4">
         <v>4125</v>
       </c>
-      <c r="U128" s="4">
+      <c r="U130" s="4">
         <v>5100</v>
       </c>
-      <c r="V128" s="4">
+      <c r="V130" s="4">
         <v>5700</v>
       </c>
-      <c r="W128" s="4">
+      <c r="W130" s="4">
         <v>5020</v>
       </c>
-      <c r="X128" s="4">
+      <c r="X130" s="4">
         <v>5020</v>
       </c>
-      <c r="Y128" s="4">
+      <c r="Y130" s="4">
         <v>5200</v>
       </c>
-      <c r="Z128" s="4">
+      <c r="Z130" s="4">
         <v>3260</v>
       </c>
-      <c r="AA128" s="4">
+      <c r="AA130" s="4">
         <v>3260</v>
       </c>
-      <c r="AB128" s="4">
+      <c r="AB130" s="4">
         <v>4075</v>
       </c>
-      <c r="AC128" s="4">
+      <c r="AC130" s="4">
         <v>2000</v>
       </c>
-      <c r="AD128" s="4">
+      <c r="AD130" s="4">
         <v>38720</v>
       </c>
-      <c r="AE128" s="4"/>
+      <c r="AE130" s="4">
+        <v>3488</v>
+      </c>
+      <c r="AF130" s="4">
+        <v>3625</v>
+      </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A129" s="5" t="s">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A131" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B129" s="5">
-        <f>B120-B128</f>
+      <c r="B131" s="5">
+        <f>B122-B130</f>
         <v>1410</v>
       </c>
-      <c r="C129" s="5">
-        <f t="shared" ref="C129:M129" si="3">B129+C120-C128</f>
+      <c r="C131" s="5">
+        <f t="shared" ref="C131:M131" si="3">B131+C122-C130</f>
         <v>1496</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D131" s="5">
         <f t="shared" si="3"/>
         <v>13691</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E131" s="5">
         <f t="shared" si="3"/>
         <v>16196</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F131" s="5">
         <f t="shared" si="3"/>
         <v>16559</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G131" s="5">
         <f t="shared" si="3"/>
         <v>17822.88</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H131" s="5">
         <f t="shared" si="3"/>
         <v>18022.88</v>
       </c>
-      <c r="I129" s="5">
+      <c r="I131" s="5">
         <f t="shared" si="3"/>
         <v>19572.88</v>
       </c>
-      <c r="J129" s="5">
+      <c r="J131" s="5">
         <f t="shared" si="3"/>
         <v>17367.88</v>
       </c>
-      <c r="K129" s="5">
+      <c r="K131" s="5">
         <f t="shared" si="3"/>
         <v>17221.88</v>
       </c>
-      <c r="L129" s="5">
+      <c r="L131" s="5">
         <f t="shared" si="3"/>
         <v>17481.88</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M131" s="5">
         <f t="shared" si="3"/>
         <v>17177.88</v>
       </c>
-      <c r="N129" s="5">
-        <f t="shared" ref="N129" si="4">M129+N120-N128</f>
+      <c r="N131" s="5">
+        <f t="shared" ref="N131" si="4">M131+N122-N130</f>
         <v>15427.880000000001</v>
       </c>
-      <c r="O129" s="5">
-        <f t="shared" ref="O129:Q129" si="5">N129+O120-O128</f>
+      <c r="O131" s="5">
+        <f t="shared" ref="O131:Q131" si="5">N131+O122-O130</f>
         <v>14657.880000000001</v>
       </c>
-      <c r="P129" s="5">
+      <c r="P131" s="5">
         <f t="shared" si="5"/>
         <v>11111.880000000001</v>
       </c>
-      <c r="Q129" s="5">
+      <c r="Q131" s="5">
         <f t="shared" si="5"/>
         <v>13231.880000000001</v>
       </c>
-      <c r="R129" s="5">
-        <f>Q129+R120-R128</f>
+      <c r="R131" s="5">
+        <f>Q131+R122-R130</f>
         <v>9231.880000000001</v>
       </c>
-      <c r="S129" s="5">
-        <f t="shared" ref="S129" si="6">R129+S120-S128</f>
+      <c r="S131" s="5">
+        <f t="shared" ref="S131" si="6">R131+S122-S130</f>
         <v>10606.880000000001</v>
       </c>
-      <c r="T129" s="5">
-        <f t="shared" ref="T129" si="7">S129+T120-T128</f>
+      <c r="T131" s="5">
+        <f t="shared" ref="T131" si="7">S131+T122-T130</f>
         <v>11481.880000000001</v>
       </c>
-      <c r="U129" s="5">
-        <f t="shared" ref="U129" si="8">T129+U120-U128</f>
+      <c r="U131" s="5">
+        <f t="shared" ref="U131" si="8">T131+U122-U130</f>
         <v>12631.880000000001</v>
       </c>
-      <c r="V129" s="5">
-        <f t="shared" ref="V129" si="9">U129+V120-V128</f>
+      <c r="V131" s="5">
+        <f t="shared" ref="V131" si="9">U131+V122-V130</f>
         <v>13161.880000000001</v>
       </c>
-      <c r="W129" s="5">
-        <f t="shared" ref="W129:Z129" si="10">V129+W120-W128</f>
+      <c r="W131" s="5">
+        <f t="shared" ref="W131:Z131" si="10">V131+W122-W130</f>
         <v>14201.880000000001</v>
       </c>
-      <c r="X129" s="5">
+      <c r="X131" s="5">
         <f t="shared" si="10"/>
         <v>13661.880000000001</v>
       </c>
-      <c r="Y129" s="5">
+      <c r="Y131" s="5">
         <f t="shared" si="10"/>
         <v>9661.880000000001</v>
       </c>
-      <c r="Z129" s="5">
+      <c r="Z131" s="5">
         <f t="shared" si="10"/>
         <v>7901.880000000001</v>
       </c>
-      <c r="AA129" s="5">
-        <f>Z129+AA120-AA128</f>
+      <c r="AA131" s="5">
+        <f>Z131+AA122-AA130</f>
         <v>6641.880000000001</v>
       </c>
-      <c r="AB129" s="5">
-        <f>AA129+AB120-AB128</f>
+      <c r="AB131" s="5">
+        <f>AA131+AB122-AB130</f>
         <v>4616.880000000001</v>
       </c>
-      <c r="AC129" s="5">
-        <f>AB129+AC120-AC128</f>
+      <c r="AC131" s="5">
+        <f>AB131+AC122-AC130</f>
         <v>2616.880000000001</v>
       </c>
-      <c r="AD129" s="5">
-        <f>AC129+AD120-AD128</f>
+      <c r="AD131" s="5">
+        <f>AC131+AD122-AD130</f>
         <v>3200.8800000000047</v>
       </c>
-      <c r="AE129" s="5"/>
+      <c r="AE131" s="5">
+        <f>AD131+AE122-AE130</f>
+        <v>1362.8800000000047</v>
+      </c>
+      <c r="AF131" s="5">
+        <f>AE131+AF122-AF130</f>
+        <v>-612.11999999999534</v>
+      </c>
     </row>
-    <row r="130" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I130" s="2"/>
+    <row r="132" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I132" s="2"/>
     </row>
-    <row r="132" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I132" s="2"/>
-      <c r="O132" s="1">
-        <f>烟供随喜!$S$41+会供随喜!$B$12+AD129</f>
-        <v>18814.510000000006</v>
+    <row r="134" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I134" s="2"/>
+      <c r="AF134" s="1">
+        <f>烟供随喜!$U$41+会供随喜!$B$12+AF131</f>
+        <v>15152.710000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
-      <c r="I134" s="2"/>
-    </row>
-    <row r="136" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I136" s="2"/>
     </row>
-    <row r="138" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I138" s="2"/>
     </row>
-    <row r="140" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I140" s="2"/>
     </row>
-    <row r="142" spans="1:31" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I142" s="2"/>
+    </row>
+    <row r="144" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
+      <c r="I144" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9614,9 +9744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I55" sqref="I55"/>
+      <selection pane="topRight" activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -9669,28 +9799,28 @@
         <v>183</v>
       </c>
       <c r="O1" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="Q1" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -9802,6 +9932,9 @@
       <c r="P5" s="6">
         <v>200</v>
       </c>
+      <c r="U5" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
@@ -9875,6 +10008,12 @@
       <c r="S7" s="6">
         <v>30</v>
       </c>
+      <c r="T7" s="6">
+        <v>30</v>
+      </c>
+      <c r="U7" s="6">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
@@ -9969,6 +10108,12 @@
         <v>50</v>
       </c>
       <c r="S10" s="6">
+        <v>50</v>
+      </c>
+      <c r="T10" s="6">
+        <v>50</v>
+      </c>
+      <c r="U10" s="6">
         <v>50</v>
       </c>
     </row>
@@ -10215,7 +10360,7 @@
     </row>
     <row r="31" spans="1:16" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P31" s="6">
         <v>100</v>
@@ -10223,7 +10368,7 @@
     </row>
     <row r="32" spans="1:16" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P32" s="6">
         <v>100</v>
@@ -10331,11 +10476,11 @@
       </c>
       <c r="T39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="V39" s="16">
         <f t="shared" si="1"/>
@@ -10402,6 +10547,12 @@
       <c r="S40" s="11">
         <v>71.8</v>
       </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>108.8</v>
+      </c>
     </row>
     <row r="41" spans="1:22" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
@@ -10478,6 +10629,14 @@
       <c r="S41" s="12">
         <f>R41+S39-S40</f>
         <v>15210.94</v>
+      </c>
+      <c r="T41" s="12">
+        <f>S41+T39-T40</f>
+        <v>15290.94</v>
+      </c>
+      <c r="U41" s="12">
+        <f>T41+U39-U40</f>
+        <v>15362.140000000001</v>
       </c>
     </row>
   </sheetData>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chiming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9038ADD7-955E-47A3-AB81-39C14755090E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DCDD5E-3E85-4CC0-936D-C5F83F7F3EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -841,10 +841,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>崔淑芳 刘越岭 刘大治一家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王大开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -866,9 +862,6 @@
   <si>
     <t>梁启光阖家</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backup133</t>
   </si>
   <si>
     <t>backup134</t>
@@ -922,6 +915,14 @@
   </si>
   <si>
     <t>杨青山，王金兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.06.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔淑芳 刘越岭 刘大治一家，黄丹及未出生孩子小豆，北京乐泉莱餐饮有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1237,56 +1238,6 @@
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="112">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2318,6 +2269,56 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="14"/>
         <name val="微软雅黑"/>
         <charset val="134"/>
@@ -2887,110 +2888,110 @@
     <tableColumn id="27" xr3:uid="{A6F2325A-DA6C-4782-95FE-68CF6E0AF9BE}" name="2020.12.05" dataDxfId="83"/>
     <tableColumn id="28" xr3:uid="{822A7C39-1CAA-40EF-8487-47A6A2959D58}" name="2021.01.01" dataDxfId="82"/>
     <tableColumn id="37" xr3:uid="{A7E7A033-A629-45A1-B222-B44B14648DA4}" name="2021.01.02随喜福州放生" dataDxfId="81"/>
-    <tableColumn id="29" xr3:uid="{7266F9ED-D550-4448-AB45-04645F0C4FDC}" name="2021.03.03" dataDxfId="0"/>
-    <tableColumn id="30" xr3:uid="{419B39E0-502F-4708-AA2C-DA5F620CC648}" name="2021.04.11" dataDxfId="80"/>
-    <tableColumn id="31" xr3:uid="{25D3EFED-B791-48EC-B064-1EAEA8627031}" name="2020.05.15" dataDxfId="2"/>
-    <tableColumn id="32" xr3:uid="{A676059F-2480-467C-8242-99A18F00452E}" name="backup133" dataDxfId="79"/>
-    <tableColumn id="33" xr3:uid="{F4CC1616-0F8C-4AF6-B500-2176065255C2}" name="backup134" dataDxfId="78"/>
-    <tableColumn id="34" xr3:uid="{D11B9293-8D0E-4D0A-836F-E86DA6DB819C}" name="backup135" dataDxfId="77"/>
-    <tableColumn id="35" xr3:uid="{7DBF3D19-4407-4A18-A2A1-483410DC7DFE}" name="backup136" dataDxfId="76"/>
-    <tableColumn id="36" xr3:uid="{4F6C7A61-02D8-433A-B7BF-1C9F2C9E27D4}" name="backup137" dataDxfId="75"/>
+    <tableColumn id="29" xr3:uid="{7266F9ED-D550-4448-AB45-04645F0C4FDC}" name="2021.03.03" dataDxfId="80"/>
+    <tableColumn id="30" xr3:uid="{419B39E0-502F-4708-AA2C-DA5F620CC648}" name="2021.04.11" dataDxfId="79"/>
+    <tableColumn id="31" xr3:uid="{25D3EFED-B791-48EC-B064-1EAEA8627031}" name="2020.05.15" dataDxfId="78"/>
+    <tableColumn id="32" xr3:uid="{A676059F-2480-467C-8242-99A18F00452E}" name="2021.06.19" dataDxfId="77"/>
+    <tableColumn id="33" xr3:uid="{F4CC1616-0F8C-4AF6-B500-2176065255C2}" name="backup134" dataDxfId="76"/>
+    <tableColumn id="34" xr3:uid="{D11B9293-8D0E-4D0A-836F-E86DA6DB819C}" name="backup135" dataDxfId="75"/>
+    <tableColumn id="35" xr3:uid="{7DBF3D19-4407-4A18-A2A1-483410DC7DFE}" name="backup136" dataDxfId="74"/>
+    <tableColumn id="36" xr3:uid="{4F6C7A61-02D8-433A-B7BF-1C9F2C9E27D4}" name="backup137" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A124:AJ127" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FAABF6-221E-3841-9938-C27CDB43A48A}" name="表3" displayName="表3" ref="A124:AJ127" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A124:AJ127" xr:uid="{284F05AF-02D3-B749-B318-BDADA8F78D09}"/>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="65"/>
-    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="60"/>
-    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="59"/>
-    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="58"/>
-    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="57"/>
-    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="56"/>
-    <tableColumn id="18" xr3:uid="{7FDCCA4B-7D79-48EF-9B59-82E552EE633B}" name="列172" dataDxfId="55"/>
-    <tableColumn id="19" xr3:uid="{7ED92CF3-8A37-4CDD-BFF2-53F59BE535DE}" name="列173" dataDxfId="54"/>
-    <tableColumn id="20" xr3:uid="{AD16709C-E6EA-416A-927B-641AFF440CE0}" name="列174" dataDxfId="53"/>
-    <tableColumn id="21" xr3:uid="{9CAE81C2-021C-4481-A730-F07863C18814}" name="列175" dataDxfId="52"/>
-    <tableColumn id="22" xr3:uid="{E0EF79EF-1156-4A8D-8C2B-47AAD03D6260}" name="列176" dataDxfId="51"/>
-    <tableColumn id="23" xr3:uid="{325656D5-28D0-4734-B242-21697FBCA2BF}" name="列177" dataDxfId="50"/>
-    <tableColumn id="24" xr3:uid="{AE00EEF4-07A4-4FBF-B7F0-DC7B1518D893}" name="列178" dataDxfId="49"/>
-    <tableColumn id="25" xr3:uid="{ED3ED64C-C009-494B-8F39-75665D832925}" name="列179" dataDxfId="48"/>
-    <tableColumn id="26" xr3:uid="{9A83E9C1-C397-418C-87B7-C26A41E9788D}" name="列180" dataDxfId="47"/>
-    <tableColumn id="27" xr3:uid="{EBB41EEA-3E62-4991-B388-78AC074C4D49}" name="列181" dataDxfId="46"/>
-    <tableColumn id="28" xr3:uid="{53433204-92AE-4333-9EDF-9C03A7F44ED5}" name="列182" dataDxfId="45"/>
-    <tableColumn id="29" xr3:uid="{B64D98DC-E49E-49FF-84BF-DDB200DDE0B5}" name="列183" dataDxfId="44"/>
-    <tableColumn id="30" xr3:uid="{D9614288-FA32-4869-B534-AC58456C06E3}" name="列184" dataDxfId="3"/>
-    <tableColumn id="31" xr3:uid="{6EED8B6A-C778-4DE0-875F-433C9FBE4AE4}" name="列1842" dataDxfId="43"/>
-    <tableColumn id="32" xr3:uid="{6F989DCA-E543-4A1C-989D-B83F690EFB0D}" name="列1843" dataDxfId="1"/>
-    <tableColumn id="33" xr3:uid="{F4092E2C-C496-4CE7-85EA-B0CFCCDD3E0F}" name="列1844" dataDxfId="42"/>
-    <tableColumn id="34" xr3:uid="{C595FC60-82EB-4AF9-B4D1-3BD7C592FA32}" name="列1845" dataDxfId="41"/>
-    <tableColumn id="35" xr3:uid="{5D8A096F-2AE0-4F07-922D-D360964DCA9F}" name="列1846" dataDxfId="40"/>
-    <tableColumn id="36" xr3:uid="{39E7F9C4-FE1B-4D2B-8F97-E07344C12CF4}" name="列1847" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{74968C42-76C0-D241-A081-8D2C650EF58B}" name="列1" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{C10D050B-0D34-124B-B609-D5640F253D25}" name="列2" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{37FE23E2-F9C0-714E-B0CA-203E95C52AF4}" name="列3" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{92161EDD-68D3-7A4E-B26B-9A4D9642BC78}" name="列4" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{01D39E83-94B3-0947-B2DF-A50C15DBA954}" name="列5" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{D86863A9-FB55-7348-B2CD-3395A03979C4}" name="列6" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{EC600DAA-D3A1-1640-B0D2-0C25F8FC8D67}" name="列7" dataDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{AF6047ED-B143-A840-8841-652927D35ADE}" name="列8" dataDxfId="63"/>
+    <tableColumn id="9" xr3:uid="{9CBE0C33-77CE-B94B-8BDE-034E0257E56B}" name="列9" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{6B4779D5-39DC-474C-A2CE-3E7685039AE1}" name="列10" dataDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{05F3CCAA-9D31-3C49-B227-E17AA972FC3C}" name="列11" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{5F4BA4FC-14B5-3D4B-B5B5-1AA700A55934}" name="列12" dataDxfId="59"/>
+    <tableColumn id="13" xr3:uid="{A46E29A8-CE5A-4283-A048-FDDFA3F4F57B}" name="列13" dataDxfId="58"/>
+    <tableColumn id="14" xr3:uid="{1FFC2D1C-FFDB-9143-A1AC-A592A293B31A}" name="列14" dataDxfId="57"/>
+    <tableColumn id="15" xr3:uid="{39E34312-ED85-3D4F-A1BD-C1E9AE764767}" name="列15" dataDxfId="56"/>
+    <tableColumn id="16" xr3:uid="{E8C20B48-A8A9-419B-B9EE-3C0EEEE4A852}" name="列16" dataDxfId="55"/>
+    <tableColumn id="17" xr3:uid="{C4CA3F6C-07E6-4460-9696-C0A8F32F946F}" name="列17" dataDxfId="54"/>
+    <tableColumn id="18" xr3:uid="{7FDCCA4B-7D79-48EF-9B59-82E552EE633B}" name="列172" dataDxfId="53"/>
+    <tableColumn id="19" xr3:uid="{7ED92CF3-8A37-4CDD-BFF2-53F59BE535DE}" name="列173" dataDxfId="52"/>
+    <tableColumn id="20" xr3:uid="{AD16709C-E6EA-416A-927B-641AFF440CE0}" name="列174" dataDxfId="51"/>
+    <tableColumn id="21" xr3:uid="{9CAE81C2-021C-4481-A730-F07863C18814}" name="列175" dataDxfId="50"/>
+    <tableColumn id="22" xr3:uid="{E0EF79EF-1156-4A8D-8C2B-47AAD03D6260}" name="列176" dataDxfId="49"/>
+    <tableColumn id="23" xr3:uid="{325656D5-28D0-4734-B242-21697FBCA2BF}" name="列177" dataDxfId="48"/>
+    <tableColumn id="24" xr3:uid="{AE00EEF4-07A4-4FBF-B7F0-DC7B1518D893}" name="列178" dataDxfId="47"/>
+    <tableColumn id="25" xr3:uid="{ED3ED64C-C009-494B-8F39-75665D832925}" name="列179" dataDxfId="46"/>
+    <tableColumn id="26" xr3:uid="{9A83E9C1-C397-418C-87B7-C26A41E9788D}" name="列180" dataDxfId="45"/>
+    <tableColumn id="27" xr3:uid="{EBB41EEA-3E62-4991-B388-78AC074C4D49}" name="列181" dataDxfId="44"/>
+    <tableColumn id="28" xr3:uid="{53433204-92AE-4333-9EDF-9C03A7F44ED5}" name="列182" dataDxfId="43"/>
+    <tableColumn id="29" xr3:uid="{B64D98DC-E49E-49FF-84BF-DDB200DDE0B5}" name="列183" dataDxfId="42"/>
+    <tableColumn id="30" xr3:uid="{D9614288-FA32-4869-B534-AC58456C06E3}" name="列184" dataDxfId="41"/>
+    <tableColumn id="31" xr3:uid="{6EED8B6A-C778-4DE0-875F-433C9FBE4AE4}" name="列1842" dataDxfId="40"/>
+    <tableColumn id="32" xr3:uid="{6F989DCA-E543-4A1C-989D-B83F690EFB0D}" name="列1843" dataDxfId="39"/>
+    <tableColumn id="33" xr3:uid="{F4092E2C-C496-4CE7-85EA-B0CFCCDD3E0F}" name="列1844" dataDxfId="38"/>
+    <tableColumn id="34" xr3:uid="{C595FC60-82EB-4AF9-B4D1-3BD7C592FA32}" name="列1845" dataDxfId="37"/>
+    <tableColumn id="35" xr3:uid="{5D8A096F-2AE0-4F07-922D-D360964DCA9F}" name="列1846" dataDxfId="36"/>
+    <tableColumn id="36" xr3:uid="{39E7F9C4-FE1B-4D2B-8F97-E07344C12CF4}" name="列1847" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:V35" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBEB0FD-F25D-F548-9A51-38FDC260DA04}" name="表1" displayName="表1" ref="A1:V35" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
   <autoFilter ref="A1:V35" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
     <sortCondition ref="A1:A35"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2020.05.23" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{D450CAFD-4280-4A57-A72C-AC9C82E67796}" name="2020.06.06" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2020.07.19" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{C889229E-9847-4F55-9879-D26AC9B0F475}" name="2020.08.16" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{7689C2A1-EFFD-4322-8AD7-70E1C454E68A}" name="2020.09.13" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{265BD7D6-05CA-4F1A-9BFC-1FE1F7E043B7}" name="2020.11.05" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{A7895CF2-85F3-4C44-8D4E-04972226291E}" name="2020.11.06" dataDxfId="17"/>
-    <tableColumn id="19" xr3:uid="{A6B31E82-C02B-4C04-BEFE-5F9FB8712087}" name="2020.12.05" dataDxfId="16"/>
-    <tableColumn id="20" xr3:uid="{B57DEBF5-B83E-4EA5-A6D9-04E3EE457F9E}" name="2020.04.11" dataDxfId="15"/>
-    <tableColumn id="21" xr3:uid="{E1B5FFF3-B1AE-469E-9486-2C7711E85EC8}" name="2020.05.15" dataDxfId="14"/>
-    <tableColumn id="22" xr3:uid="{DF5D0889-C628-428A-AE29-11139F36C6A6}" name="2019.11.10" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{CB4A3C5D-9D34-F240-B2F4-6EA58E6B825D}" name="烟供随喜" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{7850EC8E-12A8-CD4E-877C-80DD52476721}" name="2019.04.07" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{5DEF2561-2AF5-D447-8487-33EE7B8A1E4C}" name="2019.06.22" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{C5D2A829-3313-624B-BD63-A33C875D26DE}" name="2019.07.27" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{84A499F1-DE54-9342-9164-4DD8143F2723}" name="2019.09.01" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{7BC167AD-3A05-0349-9CA0-26294CDECAB7}" name="2019.10.01" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{85BAEC47-9C65-1C4C-B99D-C3E40E26032A}" name="2019.10.07" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{BB306991-9E60-4535-B3DD-83C868F898B9}" name="2019.11.01" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{B0856B4B-753B-6948-AEE0-B115BE5B056B}" name="2019.12.08" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{5566E0E8-0071-4108-B871-B95B8B702EC2}" name="2020.01.04" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{C5A0D9E9-E77A-4449-83E4-238A0D42BC23}" name="2020.04.05" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{3B6E8E77-272B-B14A-A5F3-CF19D36C0E4F}" name="2020.05.23" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{D450CAFD-4280-4A57-A72C-AC9C82E67796}" name="2020.06.06" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{865DAAAC-6EAB-43C2-A3A4-DFAEC27B6501}" name="2020.07.19" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{C889229E-9847-4F55-9879-D26AC9B0F475}" name="2020.08.16" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{7689C2A1-EFFD-4322-8AD7-70E1C454E68A}" name="2020.09.13" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{265BD7D6-05CA-4F1A-9BFC-1FE1F7E043B7}" name="2020.11.05" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{A7895CF2-85F3-4C44-8D4E-04972226291E}" name="2020.11.06" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{A6B31E82-C02B-4C04-BEFE-5F9FB8712087}" name="2020.12.05" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{B57DEBF5-B83E-4EA5-A6D9-04E3EE457F9E}" name="2020.04.11" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{E1B5FFF3-B1AE-469E-9486-2C7711E85EC8}" name="2020.05.15" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{DF5D0889-C628-428A-AE29-11139F36C6A6}" name="2019.11.10" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C367877-224A-47C6-8B7C-77FBD3139C22}" name="表1_5" displayName="表1_5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:E5" xr:uid="{EA1837BC-905D-814E-BDFC-F13A928098FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B5">
     <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{2511DB9F-444E-4C03-8A9E-5A948ADC9CB0}" name="2019.11.02" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{FFAB1BAB-E2B7-413C-B555-13FE1D11ACDB}" name="2019.11.03" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{CB43E766-59E4-433F-97FB-CC6B6F9B9A88}" name="烟供随喜" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0AB5CCD6-7246-4D9D-BAE5-70C86AAEDA59}" name="2019.11" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9C9E3BC8-B086-4EF8-A700-E466386FCF76}" name="2019.11.01" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2511DB9F-444E-4C03-8A9E-5A948ADC9CB0}" name="2019.11.02" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{FFAB1BAB-E2B7-413C-B555-13FE1D11ACDB}" name="2019.11.03" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3295,7 +3296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
       <selection pane="topRight" activeCell="AF134" sqref="AF134"/>
@@ -3397,31 +3398,31 @@
         <v>204</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>208</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -3642,7 +3643,9 @@
       <c r="AF5" s="6">
         <v>400</v>
       </c>
-      <c r="AG5" s="6"/>
+      <c r="AG5" s="6">
+        <v>200</v>
+      </c>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
@@ -3741,7 +3744,9 @@
       <c r="AF6" s="6">
         <v>500</v>
       </c>
-      <c r="AG6" s="6"/>
+      <c r="AG6" s="6">
+        <v>500</v>
+      </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
@@ -3834,7 +3839,9 @@
       <c r="AF7" s="6">
         <v>100</v>
       </c>
-      <c r="AG7" s="6"/>
+      <c r="AG7" s="6">
+        <v>100</v>
+      </c>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
@@ -3921,7 +3928,9 @@
         <v>100</v>
       </c>
       <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
+      <c r="AG8" s="6">
+        <v>100</v>
+      </c>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
@@ -4000,7 +4009,9 @@
         <v>200</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
+      <c r="AG9" s="6">
+        <v>300</v>
+      </c>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
@@ -4144,7 +4155,9 @@
         <v>100</v>
       </c>
       <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
+      <c r="AG11" s="6">
+        <v>200</v>
+      </c>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
@@ -5242,7 +5255,9 @@
         <v>100</v>
       </c>
       <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
+      <c r="AG31" s="6">
+        <v>100</v>
+      </c>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
@@ -5250,7 +5265,7 @@
     </row>
     <row r="32" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -5295,7 +5310,9 @@
       <c r="AF32" s="6">
         <v>200</v>
       </c>
-      <c r="AG32" s="6"/>
+      <c r="AG32" s="6">
+        <v>200</v>
+      </c>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
@@ -6953,7 +6970,7 @@
     </row>
     <row r="71" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -6996,7 +7013,7 @@
     </row>
     <row r="72" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -7039,7 +7056,7 @@
     </row>
     <row r="73" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -7082,7 +7099,7 @@
     </row>
     <row r="74" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -7125,7 +7142,7 @@
     </row>
     <row r="75" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -7168,7 +7185,7 @@
     </row>
     <row r="76" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -7297,7 +7314,7 @@
     </row>
     <row r="79" spans="1:37" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -7385,7 +7402,7 @@
     </row>
     <row r="81" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -9286,7 +9303,7 @@
       </c>
       <c r="AG122" s="16">
         <f t="shared" ref="AG122:AJ122" si="1">SUM(AG2:AG121)</f>
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="AH122" s="16">
         <f t="shared" si="1"/>
@@ -9393,22 +9410,22 @@
         <v>192</v>
       </c>
       <c r="AE124" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF124" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG124" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AF124" s="1" t="s">
+      <c r="AH124" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AG124" s="1" t="s">
+      <c r="AI124" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AH124" s="1" t="s">
+      <c r="AJ124" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="AI124" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AJ124" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:37" x14ac:dyDescent="0.4">
@@ -9465,7 +9482,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A130" s="4" t="s">
         <v>24</v>
       </c>
@@ -9569,8 +9586,11 @@
       <c r="AF130" s="4">
         <v>3625</v>
       </c>
+      <c r="AG130" s="4">
+        <v>3625</v>
+      </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A131" s="5" t="s">
         <v>21</v>
       </c>
@@ -9675,53 +9695,57 @@
         <v>7901.880000000001</v>
       </c>
       <c r="AA131" s="5">
-        <f>Z131+AA122-AA130</f>
+        <f t="shared" ref="AA131:AG131" si="11">Z131+AA122-AA130</f>
         <v>6641.880000000001</v>
       </c>
       <c r="AB131" s="5">
-        <f>AA131+AB122-AB130</f>
+        <f t="shared" si="11"/>
         <v>4616.880000000001</v>
       </c>
       <c r="AC131" s="5">
-        <f>AB131+AC122-AC130</f>
+        <f t="shared" si="11"/>
         <v>2616.880000000001</v>
       </c>
       <c r="AD131" s="5">
-        <f>AC131+AD122-AD130</f>
+        <f t="shared" si="11"/>
         <v>3200.8800000000047</v>
       </c>
       <c r="AE131" s="5">
-        <f>AD131+AE122-AE130</f>
+        <f t="shared" si="11"/>
         <v>1362.8800000000047</v>
       </c>
       <c r="AF131" s="5">
-        <f>AE131+AF122-AF130</f>
+        <f t="shared" si="11"/>
         <v>-612.11999999999534</v>
       </c>
+      <c r="AG131" s="5">
+        <f t="shared" si="11"/>
+        <v>-2537.1199999999953</v>
+      </c>
     </row>
-    <row r="132" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:33" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I132" s="2"/>
     </row>
-    <row r="134" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:33" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I134" s="2"/>
       <c r="AF134" s="1">
-        <f>烟供随喜!$U$41+会供随喜!$B$12+AF131</f>
-        <v>15152.710000000006</v>
+        <f>烟供随喜!$V$41+会供随喜!$B$12+AG131</f>
+        <v>13323.710000000006</v>
       </c>
     </row>
-    <row r="136" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:33" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I136" s="2"/>
     </row>
-    <row r="138" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:33" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I138" s="2"/>
     </row>
-    <row r="140" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:33" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I140" s="2"/>
     </row>
-    <row r="142" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:33" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I142" s="2"/>
     </row>
-    <row r="144" spans="1:32" ht="18.399999999999999" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:33" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="I144" s="2"/>
     </row>
   </sheetData>
@@ -9744,9 +9768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE9EF3-7CBC-A247-8A67-7C289453982F}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U41" sqref="U41"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -9814,10 +9838,10 @@
         <v>203</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>202</v>
@@ -10014,6 +10038,9 @@
       <c r="U7" s="6">
         <v>30</v>
       </c>
+      <c r="V7" s="6">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
@@ -10060,6 +10087,9 @@
       <c r="P9" s="6">
         <v>100</v>
       </c>
+      <c r="V9" s="6">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
@@ -10114,6 +10144,9 @@
         <v>50</v>
       </c>
       <c r="U10" s="6">
+        <v>50</v>
+      </c>
+      <c r="V10" s="6">
         <v>50</v>
       </c>
     </row>
@@ -10484,7 +10517,7 @@
       </c>
       <c r="V39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:22" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
@@ -10553,6 +10586,9 @@
       <c r="U40" s="11">
         <v>108.8</v>
       </c>
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:22" s="1" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
@@ -10637,6 +10673,10 @@
       <c r="U41" s="12">
         <f>T41+U39-U40</f>
         <v>15362.140000000001</v>
+      </c>
+      <c r="V41" s="12">
+        <f>U41+V39-V40</f>
+        <v>15458.140000000001</v>
       </c>
     </row>
   </sheetData>

--- a/放生随喜.xlsx
+++ b/放生随喜.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chiming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DCDD5E-3E85-4CC0-936D-C5F83F7F3EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146CB7C7-F711-41FF-90C5-E916E0715863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3296,10 +3296,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="AF134" sqref="AF134"/>
+      <selection pane="topRight" activeCell="AG131" sqref="AG131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
@@ -3505,7 +3505,9 @@
       </c>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
+      <c r="AG3" s="6">
+        <v>4000</v>
+      </c>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -9303,7 +9305,7 @@
       </c>
       <c r="AG122" s="16">
         <f t="shared" ref="AG122:AJ122" si="1">SUM(AG2:AG121)</f>
-        <v>1700</v>
+        <v>5700</v>
       </c>
       <c r="AH122" s="16">
         <f t="shared" si="1"/>
@@ -9720,7 +9722,7 @@
       </c>
       <c r="AG131" s="5">
         <f t="shared" si="11"/>
-        <v>-2537.1199999999953</v>
+        <v>1462.8800000000047</v>
       </c>
     </row>
     <row r="132" spans="1:33" ht="18.399999999999999" x14ac:dyDescent="0.4">
@@ -9730,7 +9732,7 @@
       <c r="I134" s="2"/>
       <c r="AF134" s="1">
         <f>烟供随喜!$V$41+会供随喜!$B$12+AG131</f>
-        <v>13323.710000000006</v>
+        <v>17323.710000000006</v>
       </c>
     </row>
     <row r="136" spans="1:33" ht="18.399999999999999" x14ac:dyDescent="0.4">
@@ -10655,27 +10657,27 @@
         <v>14972.539999999999</v>
       </c>
       <c r="Q41" s="12">
-        <f>P41+Q39-Q40</f>
+        <f t="shared" ref="Q41:V41" si="4">P41+Q39-Q40</f>
         <v>14822.74</v>
       </c>
       <c r="R41" s="12">
-        <f>Q41+R39-R40</f>
+        <f t="shared" si="4"/>
         <v>14902.74</v>
       </c>
       <c r="S41" s="12">
-        <f>R41+S39-S40</f>
+        <f t="shared" si="4"/>
         <v>15210.94</v>
       </c>
       <c r="T41" s="12">
-        <f>S41+T39-T40</f>
+        <f t="shared" si="4"/>
         <v>15290.94</v>
       </c>
       <c r="U41" s="12">
-        <f>T41+U39-U40</f>
+        <f t="shared" si="4"/>
         <v>15362.140000000001</v>
       </c>
       <c r="V41" s="12">
-        <f>U41+V39-V40</f>
+        <f t="shared" si="4"/>
         <v>15458.140000000001</v>
       </c>
     </row>
